--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322F5192-506A-405D-8F09-7AEFEEFC412A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75E6D86-7366-4344-9893-0B05B9634DBC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -32,100 +32,100 @@
     <t>Passw0rd#12</t>
   </si>
   <si>
-    <t>1/1/2018</t>
-  </si>
-  <si>
-    <t>'1/1/2018</t>
-  </si>
-  <si>
-    <t>CG0399</t>
-  </si>
-  <si>
-    <t>HARMONY HEIGHTS INC</t>
-  </si>
-  <si>
-    <t>CG0398</t>
-  </si>
-  <si>
-    <t>OEM SOURCE INC</t>
-  </si>
-  <si>
-    <t>CG0397</t>
-  </si>
-  <si>
-    <t>SIMPLY CLEAN</t>
-  </si>
-  <si>
-    <t>CG0396</t>
-  </si>
-  <si>
-    <t>MICHAEL D WILDER CPA</t>
-  </si>
-  <si>
-    <t>CG0395</t>
-  </si>
-  <si>
-    <t>TAXPERTS OF NY INC.</t>
-  </si>
-  <si>
-    <t>CG0394</t>
-  </si>
-  <si>
-    <t>DASTECH INTERNATIONAL, INC.</t>
-  </si>
-  <si>
-    <t>SAFETY FIRST ARMED COURIER</t>
-  </si>
-  <si>
-    <t>CG0392</t>
-  </si>
-  <si>
-    <t>ORTHOPEDIC ALTERNATIVES INC</t>
-  </si>
-  <si>
-    <t>CG0391</t>
-  </si>
-  <si>
-    <t>CHARLES PFEIFFER INC</t>
-  </si>
-  <si>
-    <t>CG0390</t>
-  </si>
-  <si>
-    <t>GRIP COLLECTIONS INC</t>
-  </si>
-  <si>
-    <t>CG0393</t>
-  </si>
-  <si>
-    <t>237338682</t>
-  </si>
-  <si>
-    <t>651276620</t>
-  </si>
-  <si>
-    <t>113496553</t>
-  </si>
-  <si>
-    <t>274613643</t>
-  </si>
-  <si>
-    <t>112576892</t>
-  </si>
-  <si>
-    <t>133032912</t>
-  </si>
-  <si>
-    <t>113058008</t>
-  </si>
-  <si>
-    <t>112869106</t>
-  </si>
-  <si>
-    <t>132887066</t>
-  </si>
-  <si>
-    <t>205834290</t>
+    <t>CG0499</t>
+  </si>
+  <si>
+    <t>IDEAL FOOT CARE PC</t>
+  </si>
+  <si>
+    <t>CG0498</t>
+  </si>
+  <si>
+    <t>CLINTON ARMS ASSOCIATES</t>
+  </si>
+  <si>
+    <t>CG0497</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL EXPERIENCE</t>
+  </si>
+  <si>
+    <t>CG0496</t>
+  </si>
+  <si>
+    <t>ENGINEERING GROUP ASSOC P.C</t>
+  </si>
+  <si>
+    <t>CG0495</t>
+  </si>
+  <si>
+    <t>H.W. ANDERSON CONSULTING, INC.</t>
+  </si>
+  <si>
+    <t>CG0494</t>
+  </si>
+  <si>
+    <t>GREENE AVENUE ASSOCIATES</t>
+  </si>
+  <si>
+    <t>CG0493</t>
+  </si>
+  <si>
+    <t>EAST 168TH STREET ASSOCIATES</t>
+  </si>
+  <si>
+    <t>CG0492</t>
+  </si>
+  <si>
+    <t>LAW OFFICE OF WILLIAM J MCDER</t>
+  </si>
+  <si>
+    <t>CG0491</t>
+  </si>
+  <si>
+    <t>JEWISH COMM PROJ OF LWR MANHAT</t>
+  </si>
+  <si>
+    <t>CG0490</t>
+  </si>
+  <si>
+    <t>S&amp;K WARBASSE PHARMACY</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>464638837</t>
+  </si>
+  <si>
+    <t>112676441</t>
+  </si>
+  <si>
+    <t>112480497</t>
+  </si>
+  <si>
+    <t>272346235</t>
+  </si>
+  <si>
+    <t>352523812</t>
+  </si>
+  <si>
+    <t>112604693</t>
+  </si>
+  <si>
+    <t>112676440</t>
+  </si>
+  <si>
+    <t>113399299</t>
+  </si>
+  <si>
+    <t>113706587</t>
+  </si>
+  <si>
+    <t>208799775</t>
+  </si>
+  <si>
+    <t>Change request Uplode document General notes</t>
   </si>
 </sst>
 </file>
@@ -528,157 +528,161 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9684E98A-EA7A-41F6-A6B8-842EDFAC86CC}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75E6D86-7366-4344-9893-0B05B9634DBC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC3D192-03DD-454D-AA93-186CA7ECE840}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -125,7 +125,10 @@
     <t>208799775</t>
   </si>
   <si>
-    <t>Change request Uplode document General notes</t>
+    <t>Change request Upload document General notes</t>
+  </si>
+  <si>
+    <t>Other Supporting documents</t>
   </si>
 </sst>
 </file>
@@ -528,10 +531,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9684E98A-EA7A-41F6-A6B8-842EDFAC86CC}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G1" sqref="G1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,10 +542,11 @@
     <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -558,8 +562,11 @@
       <c r="F1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -572,8 +579,14 @@
       <c r="D2" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -586,8 +599,14 @@
       <c r="D3" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -600,8 +619,14 @@
       <c r="D4" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -614,8 +639,14 @@
       <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -628,8 +659,14 @@
       <c r="D6" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -642,8 +679,14 @@
       <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -656,8 +699,14 @@
       <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -670,8 +719,14 @@
       <c r="D9" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -683,6 +738,12 @@
       </c>
       <c r="D10" s="5" t="s">
         <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,14 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC3D192-03DD-454D-AA93-186CA7ECE840}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505BDE4A-FAD6-477D-8AA2-FC6AA01AB3D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFIC" sheetId="1" r:id="rId1"/>
     <sheet name="CR" sheetId="2" r:id="rId2"/>
+    <sheet name="HSA" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">HSA!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -129,6 +134,207 @@
   </si>
   <si>
     <t>Other Supporting documents</t>
+  </si>
+  <si>
+    <t>Albany</t>
+  </si>
+  <si>
+    <t>TESTINGGTMC1JULY10244</t>
+  </si>
+  <si>
+    <t>TESTINGGTMC2JULY547</t>
+  </si>
+  <si>
+    <t>TESTINGGTMC2JULY965</t>
+  </si>
+  <si>
+    <t>TESTINGGTMC2JULY617</t>
+  </si>
+  <si>
+    <t>TESTINGGTMC2JULY295</t>
+  </si>
+  <si>
+    <t>TESTINGGTMC2JULY757</t>
+  </si>
+  <si>
+    <t>TESTINGGTMC2JULY635</t>
+  </si>
+  <si>
+    <t>666705335</t>
+  </si>
+  <si>
+    <t>323235236</t>
+  </si>
+  <si>
+    <t>222164623</t>
+  </si>
+  <si>
+    <t>272733349</t>
+  </si>
+  <si>
+    <t>151542333</t>
+  </si>
+  <si>
+    <t>201985161</t>
+  </si>
+  <si>
+    <t>878811382</t>
+  </si>
+  <si>
+    <t>Contact perdon update</t>
+  </si>
+  <si>
+    <t>Sand creek road</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>12206</t>
+  </si>
+  <si>
+    <t>8905671234</t>
+  </si>
+  <si>
+    <t>Grpupdate@HSA.COM</t>
+  </si>
+  <si>
+    <t>lname_update</t>
+  </si>
+  <si>
+    <t>fname_Update</t>
+  </si>
+  <si>
+    <t>01/01/1981</t>
+  </si>
+  <si>
+    <t>678345891</t>
+  </si>
+  <si>
+    <t>driver 1234</t>
+  </si>
+  <si>
+    <t>12202</t>
+  </si>
+  <si>
+    <t>"HSA Notes : Member details has been successfully  updated</t>
+  </si>
+  <si>
+    <t>HSA Notes : Group details are updated successfully</t>
+  </si>
+  <si>
+    <t>Sand creek road 12</t>
+  </si>
+  <si>
+    <t>RIDGARD391</t>
+  </si>
+  <si>
+    <t>MENTON</t>
+  </si>
+  <si>
+    <t>MCENTEE610</t>
+  </si>
+  <si>
+    <t>JESSY</t>
+  </si>
+  <si>
+    <t>JEM</t>
+  </si>
+  <si>
+    <t>JAZ</t>
+  </si>
+  <si>
+    <t>JIN</t>
+  </si>
+  <si>
+    <t>JANW</t>
+  </si>
+  <si>
+    <t>FNAMEUPDATE</t>
+  </si>
+  <si>
+    <t>LNAMEUPDATE</t>
+  </si>
+  <si>
+    <t>RANI</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>45012514500</t>
+  </si>
+  <si>
+    <t>45012514400</t>
+  </si>
+  <si>
+    <t>45012514300</t>
+  </si>
+  <si>
+    <t>45012513900</t>
+  </si>
+  <si>
+    <t>45012513600</t>
+  </si>
+  <si>
+    <t>45012513800</t>
+  </si>
+  <si>
+    <t>45012513100</t>
+  </si>
+  <si>
+    <t>45012513300</t>
+  </si>
+  <si>
+    <t>45012513200</t>
+  </si>
+  <si>
+    <t>45012497200</t>
+  </si>
+  <si>
+    <t>45012497100</t>
+  </si>
+  <si>
+    <t>45012497000</t>
+  </si>
+  <si>
+    <t>45012496900</t>
+  </si>
+  <si>
+    <t>CG5012</t>
+  </si>
+  <si>
+    <t>CG5011</t>
+  </si>
+  <si>
+    <t>CG5010</t>
+  </si>
+  <si>
+    <t>CG5008</t>
+  </si>
+  <si>
+    <t>CG5007</t>
+  </si>
+  <si>
+    <t>CG5006</t>
+  </si>
+  <si>
+    <t>CG5004</t>
+  </si>
+  <si>
+    <t>CG5003</t>
+  </si>
+  <si>
+    <t>CG5001</t>
+  </si>
+  <si>
+    <t>CG5000</t>
+  </si>
+  <si>
+    <t>CG4998</t>
+  </si>
+  <si>
+    <t>CG4997</t>
   </si>
 </sst>
 </file>
@@ -172,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -195,12 +401,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -212,6 +427,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -533,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9684E98A-EA7A-41F6-A6B8-842EDFAC86CC}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,4 +971,343 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429E2D65-46FC-4E21-9DB5-EB567EC510F0}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06FC4A3-CF87-4C6E-8D77-7DC31AD6245D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505BDE4A-FAD6-477D-8AA2-FC6AA01AB3D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCD203F-0FD9-48D8-BF48-B48CD262C412}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="105">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -335,6 +335,12 @@
   </si>
   <si>
     <t>CG4997</t>
+  </si>
+  <si>
+    <t>45012233900</t>
+  </si>
+  <si>
+    <t>CG5005</t>
   </si>
 </sst>
 </file>
@@ -415,7 +421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -435,6 +441,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -978,12 +985,12 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54.7109375" bestFit="1" customWidth="1"/>
@@ -993,20 +1000,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>79</v>
+      <c r="A1" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
         <v>58</v>
       </c>
       <c r="H1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>41</v>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCD203F-0FD9-48D8-BF48-B48CD262C412}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B52A470-0715-4BF4-84AC-8DF7AF089A9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFIC" sheetId="1" r:id="rId1"/>
     <sheet name="CR" sheetId="2" r:id="rId2"/>
     <sheet name="HSA" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Enroll360" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">HSA!#REF!</definedName>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="154">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -337,17 +337,164 @@
     <t>CG4997</t>
   </si>
   <si>
-    <t>45012233900</t>
-  </si>
-  <si>
-    <t>CG5005</t>
+    <t>CG0502</t>
+  </si>
+  <si>
+    <t>PARAMOUNT HOMECARE AGENCY _123</t>
+  </si>
+  <si>
+    <t>CG0501</t>
+  </si>
+  <si>
+    <t>LINDSAY BUSHWICK ASSOCIATES</t>
+  </si>
+  <si>
+    <t>CG0500</t>
+  </si>
+  <si>
+    <t>TRI BLOCK ASSOCIATES</t>
+  </si>
+  <si>
+    <t>274237301</t>
+  </si>
+  <si>
+    <t>133062829</t>
+  </si>
+  <si>
+    <t>133155402</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>01/01/2015</t>
+  </si>
+  <si>
+    <t>999888777</t>
+  </si>
+  <si>
+    <t>CG0123</t>
+  </si>
+  <si>
+    <t>CP0445</t>
+  </si>
+  <si>
+    <t>CP0444</t>
+  </si>
+  <si>
+    <t>CP0443</t>
+  </si>
+  <si>
+    <t>CP0442</t>
+  </si>
+  <si>
+    <t>CP0441</t>
+  </si>
+  <si>
+    <t>CP0440</t>
+  </si>
+  <si>
+    <t>CP0439</t>
+  </si>
+  <si>
+    <t>16891</t>
+  </si>
+  <si>
+    <t>16855</t>
+  </si>
+  <si>
+    <t>16851</t>
+  </si>
+  <si>
+    <t>16834</t>
+  </si>
+  <si>
+    <t>16830</t>
+  </si>
+  <si>
+    <t>16910</t>
+  </si>
+  <si>
+    <t>18430</t>
+  </si>
+  <si>
+    <t>45012405100</t>
+  </si>
+  <si>
+    <t>45012405000</t>
+  </si>
+  <si>
+    <t>45012404900</t>
+  </si>
+  <si>
+    <t>45012404800</t>
+  </si>
+  <si>
+    <t>45012404700</t>
+  </si>
+  <si>
+    <t>45012404600</t>
+  </si>
+  <si>
+    <t>4501240'4500</t>
+  </si>
+  <si>
+    <t>45012403600</t>
+  </si>
+  <si>
+    <t>45012404400</t>
+  </si>
+  <si>
+    <t>45012404300</t>
+  </si>
+  <si>
+    <t>03/01/2020</t>
+  </si>
+  <si>
+    <t>12012405100</t>
+  </si>
+  <si>
+    <t>03/01/2022</t>
+  </si>
+  <si>
+    <t>01/01/2021</t>
+  </si>
+  <si>
+    <t>45012413201</t>
+  </si>
+  <si>
+    <t>45012413200</t>
+  </si>
+  <si>
+    <t>45012413101</t>
+  </si>
+  <si>
+    <t>45012413100</t>
+  </si>
+  <si>
+    <t>45012413003</t>
+  </si>
+  <si>
+    <t>45012413001</t>
+  </si>
+  <si>
+    <t>45012413002</t>
+  </si>
+  <si>
+    <t>45012413000</t>
+  </si>
+  <si>
+    <t>45012410800</t>
+  </si>
+  <si>
+    <t>45012410700</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +511,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Trebuchet MS"/>
@@ -421,7 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -441,7 +595,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -984,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429E2D65-46FC-4E21-9DB5-EB567EC510F0}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,20 +1157,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>103</v>
+      <c r="A1" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
         <v>58</v>
       </c>
       <c r="H1" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>41</v>
@@ -1307,14 +1464,381 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06FC4A3-CF87-4C6E-8D77-7DC31AD6245D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B52A470-0715-4BF4-84AC-8DF7AF089A9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA94AC5-28B6-4109-9A16-C654F43D53AA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="196">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -337,51 +337,6 @@
     <t>CG4997</t>
   </si>
   <si>
-    <t>CG0502</t>
-  </si>
-  <si>
-    <t>PARAMOUNT HOMECARE AGENCY _123</t>
-  </si>
-  <si>
-    <t>CG0501</t>
-  </si>
-  <si>
-    <t>LINDSAY BUSHWICK ASSOCIATES</t>
-  </si>
-  <si>
-    <t>CG0500</t>
-  </si>
-  <si>
-    <t>TRI BLOCK ASSOCIATES</t>
-  </si>
-  <si>
-    <t>274237301</t>
-  </si>
-  <si>
-    <t>133062829</t>
-  </si>
-  <si>
-    <t>133155402</t>
-  </si>
-  <si>
-    <t>Invalid</t>
-  </si>
-  <si>
-    <t>01/01/2015</t>
-  </si>
-  <si>
-    <t>999888777</t>
-  </si>
-  <si>
-    <t>CG0123</t>
-  </si>
-  <si>
-    <t>CP0445</t>
-  </si>
-  <si>
-    <t>CP0444</t>
-  </si>
-  <si>
     <t>CP0443</t>
   </si>
   <si>
@@ -391,12 +346,6 @@
     <t>CP0441</t>
   </si>
   <si>
-    <t>CP0440</t>
-  </si>
-  <si>
-    <t>CP0439</t>
-  </si>
-  <si>
     <t>16891</t>
   </si>
   <si>
@@ -406,18 +355,6 @@
     <t>16851</t>
   </si>
   <si>
-    <t>16834</t>
-  </si>
-  <si>
-    <t>16830</t>
-  </si>
-  <si>
-    <t>16910</t>
-  </si>
-  <si>
-    <t>18430</t>
-  </si>
-  <si>
     <t>45012405100</t>
   </si>
   <si>
@@ -436,27 +373,12 @@
     <t>45012404600</t>
   </si>
   <si>
-    <t>4501240'4500</t>
-  </si>
-  <si>
     <t>45012403600</t>
   </si>
   <si>
-    <t>45012404400</t>
-  </si>
-  <si>
-    <t>45012404300</t>
-  </si>
-  <si>
     <t>03/01/2020</t>
   </si>
   <si>
-    <t>12012405100</t>
-  </si>
-  <si>
-    <t>03/01/2022</t>
-  </si>
-  <si>
     <t>01/01/2021</t>
   </si>
   <si>
@@ -466,28 +388,232 @@
     <t>45012413200</t>
   </si>
   <si>
-    <t>45012413101</t>
-  </si>
-  <si>
     <t>45012413100</t>
   </si>
   <si>
     <t>45012413003</t>
   </si>
   <si>
-    <t>45012413001</t>
-  </si>
-  <si>
-    <t>45012413002</t>
-  </si>
-  <si>
-    <t>45012413000</t>
-  </si>
-  <si>
-    <t>45012410800</t>
-  </si>
-  <si>
-    <t>45012410700</t>
+    <t>CG4925</t>
+  </si>
+  <si>
+    <t>JOHN</t>
+  </si>
+  <si>
+    <t>JERRY</t>
+  </si>
+  <si>
+    <t>45012184000</t>
+  </si>
+  <si>
+    <t>HFIC</t>
+  </si>
+  <si>
+    <t>Healthpass</t>
+  </si>
+  <si>
+    <t>MEMBNO</t>
+  </si>
+  <si>
+    <t>EFFDAT</t>
+  </si>
+  <si>
+    <t>FSTNAM</t>
+  </si>
+  <si>
+    <t>LSTNAM</t>
+  </si>
+  <si>
+    <t>BTHDAT</t>
+  </si>
+  <si>
+    <t>SEXCOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOPE                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WERT                               </t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JULIE                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JADE                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JACK                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPARROW                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JACKIE                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAN                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAMIC                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAM                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIYUSH                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALIK                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAMAL                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISHQ                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOMNIC                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMBA                              </t>
+  </si>
+  <si>
+    <t>03/04/1985</t>
+  </si>
+  <si>
+    <t>08/07/1987</t>
+  </si>
+  <si>
+    <t>03/04/1987</t>
+  </si>
+  <si>
+    <t>02/03/1987</t>
+  </si>
+  <si>
+    <t>03/02/1987</t>
+  </si>
+  <si>
+    <t>01/09/1987</t>
+  </si>
+  <si>
+    <t>03/14/1985</t>
+  </si>
+  <si>
+    <t>897493703</t>
+  </si>
+  <si>
+    <t>328648934</t>
+  </si>
+  <si>
+    <t>024914085</t>
+  </si>
+  <si>
+    <t>793824723</t>
+  </si>
+  <si>
+    <t>384789473</t>
+  </si>
+  <si>
+    <t>389749237</t>
+  </si>
+  <si>
+    <t>45012404500</t>
+  </si>
+  <si>
+    <t>346834972</t>
+  </si>
+  <si>
+    <t>839797328</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>SSN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATA3                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILE3                              </t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATA2                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILE2                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATA4                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILE4                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATA8                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILE8                              </t>
+  </si>
+  <si>
+    <t>04/07/1963</t>
+  </si>
+  <si>
+    <t>09/22/1956</t>
+  </si>
+  <si>
+    <t>03/23/1962</t>
+  </si>
+  <si>
+    <t>09/18/2003</t>
+  </si>
+  <si>
+    <t>676399983</t>
+  </si>
+  <si>
+    <t>676399982</t>
+  </si>
+  <si>
+    <t>676399984</t>
+  </si>
+  <si>
+    <t>676399988</t>
+  </si>
+  <si>
+    <t>23012405100</t>
+  </si>
+  <si>
+    <t>03/01/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srikanth            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sagar                            </t>
+  </si>
+  <si>
+    <t>05/12/1989</t>
+  </si>
+  <si>
+    <t>897493000</t>
+  </si>
+  <si>
+    <t>CGP123</t>
+  </si>
+  <si>
+    <t>Srikanth</t>
+  </si>
+  <si>
+    <t>01/01/1989</t>
+  </si>
+  <si>
+    <t>464631234</t>
   </si>
 </sst>
 </file>
@@ -518,10 +644,11 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Trebuchet MS"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -538,7 +665,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -570,12 +697,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -595,10 +733,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1139,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429E2D65-46FC-4E21-9DB5-EB567EC510F0}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,26 +1297,27 @@
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>85</v>
+      <c r="A1" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
         <v>58</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>41</v>
@@ -1455,6 +1602,9 @@
       <c r="A15" s="2" t="s">
         <v>90</v>
       </c>
+    </row>
+    <row r="17" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1464,378 +1614,533 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06FC4A3-CF87-4C6E-8D77-7DC31AD6245D}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="F1"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F3"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
+      </c>
+      <c r="F4"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F5"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>192</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+      <c r="F6"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F7"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>103</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>104</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F9"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>105</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="F10"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F11"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="G28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" t="s">
+        <v>171</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA94AC5-28B6-4109-9A16-C654F43D53AA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5393C314-D60A-4CD9-9173-A6520D68FDC6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFIC" sheetId="1" r:id="rId1"/>
     <sheet name="CR" sheetId="2" r:id="rId2"/>
     <sheet name="HSA" sheetId="3" r:id="rId3"/>
     <sheet name="Enroll360" sheetId="4" r:id="rId4"/>
+    <sheet name="Search" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">HSA!#REF!</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="216">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -614,13 +615,73 @@
   </si>
   <si>
     <t>464631234</t>
+  </si>
+  <si>
+    <t>7476701</t>
+  </si>
+  <si>
+    <t>HFA7070</t>
+  </si>
+  <si>
+    <t>CG5032</t>
+  </si>
+  <si>
+    <t>298391283</t>
+  </si>
+  <si>
+    <t>application id</t>
+  </si>
+  <si>
+    <t>Transcation id</t>
+  </si>
+  <si>
+    <t>group id</t>
+  </si>
+  <si>
+    <t>taxid</t>
+  </si>
+  <si>
+    <t>grp name</t>
+  </si>
+  <si>
+    <t>subscriber id</t>
+  </si>
+  <si>
+    <t>CE from date</t>
+  </si>
+  <si>
+    <t>CE to date</t>
+  </si>
+  <si>
+    <t>AR from</t>
+  </si>
+  <si>
+    <t>AR To</t>
+  </si>
+  <si>
+    <t>broker id</t>
+  </si>
+  <si>
+    <t>Group term-01</t>
+  </si>
+  <si>
+    <t>3100704953</t>
+  </si>
+  <si>
+    <t>45012519700</t>
+  </si>
+  <si>
+    <t>04/07/2021</t>
+  </si>
+  <si>
+    <t>12/01/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,6 +710,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -713,7 +780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -745,6 +812,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1616,7 +1684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06FC4A3-CF87-4C6E-8D77-7DC31AD6245D}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -2146,4 +2214,112 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2973B0-CDDC-449E-8E3C-85328113B7FE}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5393C314-D60A-4CD9-9173-A6520D68FDC6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474A5E45-4610-41DD-9F6F-C90A8C33E9DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFIC" sheetId="1" r:id="rId1"/>
@@ -17,17 +17,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">HSA!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="256">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -341,21 +347,9 @@
     <t>CP0443</t>
   </si>
   <si>
-    <t>CP0442</t>
-  </si>
-  <si>
-    <t>CP0441</t>
-  </si>
-  <si>
     <t>16891</t>
   </si>
   <si>
-    <t>16855</t>
-  </si>
-  <si>
-    <t>16851</t>
-  </si>
-  <si>
     <t>45012405100</t>
   </si>
   <si>
@@ -605,18 +599,9 @@
     <t>897493000</t>
   </si>
   <si>
-    <t>CGP123</t>
-  </si>
-  <si>
     <t>Srikanth</t>
   </si>
   <si>
-    <t>01/01/1989</t>
-  </si>
-  <si>
-    <t>464631234</t>
-  </si>
-  <si>
     <t>7476701</t>
   </si>
   <si>
@@ -675,6 +660,147 @@
   </si>
   <si>
     <t>12/01/2019</t>
+  </si>
+  <si>
+    <t>HFA707020210408093341</t>
+  </si>
+  <si>
+    <t>876785431</t>
+  </si>
+  <si>
+    <t>3100704066</t>
+  </si>
+  <si>
+    <t>HFA704320210407084112</t>
+  </si>
+  <si>
+    <t>EMPL12STYUMAR</t>
+  </si>
+  <si>
+    <t>45012492200</t>
+  </si>
+  <si>
+    <t>TSK-62619</t>
+  </si>
+  <si>
+    <t>3100002430</t>
+  </si>
+  <si>
+    <t>CG0778</t>
+  </si>
+  <si>
+    <t>CG0778BTA</t>
+  </si>
+  <si>
+    <t>Srikanth SAGAR</t>
+  </si>
+  <si>
+    <t>CP0000</t>
+  </si>
+  <si>
+    <t>01/01/1920</t>
+  </si>
+  <si>
+    <t>CG0000</t>
+  </si>
+  <si>
+    <t>123123123</t>
+  </si>
+  <si>
+    <t>srikanth</t>
+  </si>
+  <si>
+    <t>01/01/1820</t>
+  </si>
+  <si>
+    <t>03/01/1920</t>
+  </si>
+  <si>
+    <t>67012413201</t>
+  </si>
+  <si>
+    <t>sagar</t>
+  </si>
+  <si>
+    <t>03/04/1786</t>
+  </si>
+  <si>
+    <t>01/01/1654</t>
+  </si>
+  <si>
+    <t>vidhya</t>
+  </si>
+  <si>
+    <t>04/07/1213</t>
+  </si>
+  <si>
+    <t>HFIC Invalid Member effective date Search</t>
+  </si>
+  <si>
+    <t>HP invalid member id search</t>
+  </si>
+  <si>
+    <t>HP Invalid effective date search</t>
+  </si>
+  <si>
+    <t>HP Valid Member Search</t>
+  </si>
+  <si>
+    <t>HFIC Valid member search</t>
+  </si>
+  <si>
+    <t>HFIC Invalid Member id Search</t>
+  </si>
+  <si>
+    <t>HFIC Member : Invalid First name Search</t>
+  </si>
+  <si>
+    <t>HFIC Member : Invalid Last name Search</t>
+  </si>
+  <si>
+    <t>HFIC Member : Invalid DOB name Search</t>
+  </si>
+  <si>
+    <t>HFIC Member : Valid Member Daetailed Search</t>
+  </si>
+  <si>
+    <t>HP Member : Invalid First name Search</t>
+  </si>
+  <si>
+    <t>HP Member : Invalid Last name Search</t>
+  </si>
+  <si>
+    <t>HP Member : Valid Member Daetailed Search</t>
+  </si>
+  <si>
+    <t>HP Member : Invalid DOB  Search</t>
+  </si>
+  <si>
+    <t>Invalid Health pass MHS group id Search</t>
+  </si>
+  <si>
+    <t>Invalid Healthpass Group id Search</t>
+  </si>
+  <si>
+    <t>Invalid HealthpassEffective date Search</t>
+  </si>
+  <si>
+    <t>Valid Healthpass Group Search</t>
+  </si>
+  <si>
+    <t>Invalid HFIC Group id Search</t>
+  </si>
+  <si>
+    <t>Invalid HFIC  Group name  Search</t>
+  </si>
+  <si>
+    <t>Invalid HFIC  Effective date Search</t>
+  </si>
+  <si>
+    <t>In Valid HFIC  Tax id Search</t>
+  </si>
+  <si>
+    <t>Valid HFIC Group Search</t>
   </si>
 </sst>
 </file>
@@ -718,7 +844,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -731,8 +857,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -764,23 +914,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -811,8 +950,46 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1373,19 +1550,19 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
         <v>58</v>
       </c>
       <c r="H1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>41</v>
@@ -1682,532 +1859,746 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06FC4A3-CF87-4C6E-8D77-7DC31AD6245D}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" t="s">
+        <v>239</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C2" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="M2" t="s">
+        <v>240</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="R2" s="36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D3" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="J3" t="s">
+        <v>237</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="M3" t="s">
+        <v>241</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q3" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="R3" s="36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E4" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="M4" t="s">
+        <v>242</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="O4" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q4" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="R4" s="38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F1"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F5"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F6"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F7"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="6"/>
+      <c r="J5" t="s">
+        <v>235</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="M5" t="s">
+        <v>243</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="O5" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q5" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="R5" s="39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G6"/>
+      <c r="J6" t="s">
+        <v>236</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" t="s">
+        <v>244</v>
+      </c>
+      <c r="N6" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="O6" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q6" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="R6" s="39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G7"/>
+      <c r="M7" t="s">
+        <v>246</v>
+      </c>
+      <c r="N7" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="O7" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q7" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="R7" s="39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G8"/>
+      <c r="M8" t="s">
+        <v>245</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="P8" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q8" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G10"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G11"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="C15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="C16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F11"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="H21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" t="s">
         <v>126</v>
       </c>
-      <c r="F12"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="E26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" t="s">
         <v>128</v>
       </c>
-      <c r="B13" t="s">
+      <c r="H26" t="s">
         <v>129</v>
       </c>
-      <c r="C13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F13" s="10" t="s">
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="H27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" t="s">
         <v>168</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="E28" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H28" t="s">
         <v>167</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="G16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="G17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="G18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="G19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="G20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" t="s">
-        <v>150</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="G21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C23" t="s">
-        <v>188</v>
-      </c>
-      <c r="D23" t="s">
-        <v>189</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="G23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="D29" t="s">
         <v>170</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="E29" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" t="s">
-        <v>172</v>
-      </c>
-      <c r="D28" t="s">
-        <v>173</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="G28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" t="s">
-        <v>174</v>
-      </c>
-      <c r="D29" t="s">
-        <v>175</v>
-      </c>
-      <c r="E29" s="14" t="s">
+      <c r="F29" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="G29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="H29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="s">
-        <v>176</v>
+      <c r="C30" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="D30" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="G30" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="G30" t="s">
-        <v>171</v>
+      <c r="H30" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2218,105 +2609,174 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2973B0-CDDC-449E-8E3C-85328113B7FE}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="J5" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="17">
+        <v>43800</v>
+      </c>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="18">
+        <v>43800</v>
+      </c>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="B10" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>202</v>
       </c>
-      <c r="B4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B11" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>214</v>
-      </c>
+      <c r="J11" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474A5E45-4610-41DD-9F6F-C90A8C33E9DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0877012-0262-41D3-AC4B-E512813D11B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFIC" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="258">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -92,18 +92,6 @@
     <t>LAW OFFICE OF WILLIAM J MCDER</t>
   </si>
   <si>
-    <t>CG0491</t>
-  </si>
-  <si>
-    <t>JEWISH COMM PROJ OF LWR MANHAT</t>
-  </si>
-  <si>
-    <t>CG0490</t>
-  </si>
-  <si>
-    <t>S&amp;K WARBASSE PHARMACY</t>
-  </si>
-  <si>
     <t>01/01/2018</t>
   </si>
   <si>
@@ -131,12 +119,6 @@
     <t>113399299</t>
   </si>
   <si>
-    <t>113706587</t>
-  </si>
-  <si>
-    <t>208799775</t>
-  </si>
-  <si>
     <t>Change request Upload document General notes</t>
   </si>
   <si>
@@ -801,6 +783,30 @@
   </si>
   <si>
     <t>Valid HFIC Group Search</t>
+  </si>
+  <si>
+    <t>DOCUMENT UPLOAD CR ATTACHMENT-Audit -&gt;	Supporting Tax Documents</t>
+  </si>
+  <si>
+    <t>DOCUMENT UPLOAD CR ATTACHMENT-&gt;Audit -&gt;Common Ownership Certification</t>
+  </si>
+  <si>
+    <t>DOCUMENT UPLOAD CR ATTACHMENT--&gt; Audit -&gt;Employer Information Form</t>
+  </si>
+  <si>
+    <t>DOCUMENT UPLOAD CR ATTACHMENT-Other -&gt;Group Application</t>
+  </si>
+  <si>
+    <t>DOCUMENT UPLOAD CR ATTACHMENT-Other -&gt;Eligibility Waivers</t>
+  </si>
+  <si>
+    <t>DOCUMENT UPLOAD CR ATTACHMENT-Other -&gt;NYS - 45 Form</t>
+  </si>
+  <si>
+    <t>DOCUMENT UPLOAD CR ATTACHMENT-Other -&gt;No NYS 45</t>
+  </si>
+  <si>
+    <t>DOCUMENT UPLOAD CR ATTACHMENT-Other -&gt;Other</t>
   </si>
 </sst>
 </file>
@@ -1307,219 +1313,205 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9684E98A-EA7A-41F6-A6B8-842EDFAC86CC}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A2:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>25</v>
+        <v>252</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>26</v>
+        <v>251</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>250</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
         <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>30</v>
+        <v>255</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>31</v>
+        <v>256</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>32</v>
+      <c r="E9" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1550,302 +1542,302 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H14" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1861,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06FC4A3-CF87-4C6E-8D77-7DC31AD6245D}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1886,119 +1878,119 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K1" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="M1" t="s">
+        <v>233</v>
+      </c>
+      <c r="N1" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="L1" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="M1" t="s">
-        <v>239</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>188</v>
-      </c>
       <c r="O1" s="36" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="R1" s="36" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L2" s="32" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="N2" s="36" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="P2" s="37" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q2" s="37" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="R2" s="36" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -2007,54 +1999,54 @@
         <v>4</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="P3" s="32" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q3" s="37" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -2063,54 +2055,54 @@
         <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L4" s="33" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M4" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="N4" s="38" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="O4" s="38" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="R4" s="38" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>3</v>
@@ -2119,112 +2111,112 @@
         <v>4</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="11"/>
       <c r="I5" s="6"/>
       <c r="J5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L5" s="32" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="O5" s="39" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R5" s="39" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G6"/>
       <c r="J6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="N6" s="39" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O6" s="35" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="Q6" s="33" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R6" s="39" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G7"/>
       <c r="M7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N7" s="39" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O7" s="39" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R7" s="39" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G8"/>
       <c r="M8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N8" s="38" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O8" s="38" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R8" s="38" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -2242,217 +2234,217 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G12"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H15" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H16" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E17" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H17" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E18" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H18" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E19" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H19" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>152</v>
-      </c>
       <c r="G21" s="12" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H21" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -2463,142 +2455,142 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D23" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E23" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H23" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H26" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E27" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H27" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E28" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>175</v>
-      </c>
       <c r="G28" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H28" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E29" t="s">
-        <v>171</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>176</v>
-      </c>
       <c r="G29" s="12" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H29" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E30" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H30" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2626,122 +2618,122 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" s="20" t="s">
         <v>209</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="J3" s="21" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E8" s="17">
         <v>43800</v>
@@ -2750,10 +2742,10 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E9" s="18">
         <v>43800</v>
@@ -2762,19 +2754,19 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J11" s="19"/>
     </row>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0877012-0262-41D3-AC4B-E512813D11B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D0F035-B218-4579-8537-105EB5BBFD07}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1313,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9684E98A-EA7A-41F6-A6B8-842EDFAC86CC}">
-  <dimension ref="A2:G9"/>
+  <dimension ref="A2:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,7 +1330,7 @@
     <col min="8" max="8" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>252</v>
       </c>
@@ -1352,8 +1352,29 @@
       <c r="G2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>251</v>
       </c>
@@ -1375,8 +1396,29 @@
       <c r="G3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>250</v>
       </c>
@@ -1398,119 +1440,71 @@
       <c r="G4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="H4" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="L4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
+      <c r="N4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H5" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
         <v>28</v>
       </c>
-      <c r="G6" t="s">
+      <c r="N5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H6" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="L6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="N6" t="s">
         <v>29</v>
       </c>
     </row>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,16 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D0F035-B218-4579-8537-105EB5BBFD07}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1556DE04-142C-4B9B-B304-55B223242BDE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFIC" sheetId="1" r:id="rId1"/>
     <sheet name="CR" sheetId="2" r:id="rId2"/>
     <sheet name="HSA" sheetId="3" r:id="rId3"/>
-    <sheet name="Enroll360" sheetId="4" r:id="rId4"/>
-    <sheet name="Search" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="Enroll360" sheetId="4" r:id="rId6"/>
+    <sheet name="Search" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">HSA!#REF!</definedName>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="551">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -125,126 +127,21 @@
     <t>Other Supporting documents</t>
   </si>
   <si>
-    <t>Albany</t>
-  </si>
-  <si>
-    <t>TESTINGGTMC1JULY10244</t>
-  </si>
-  <si>
-    <t>TESTINGGTMC2JULY547</t>
-  </si>
-  <si>
-    <t>TESTINGGTMC2JULY965</t>
-  </si>
-  <si>
-    <t>TESTINGGTMC2JULY617</t>
-  </si>
-  <si>
-    <t>TESTINGGTMC2JULY295</t>
-  </si>
-  <si>
-    <t>TESTINGGTMC2JULY757</t>
-  </si>
-  <si>
-    <t>TESTINGGTMC2JULY635</t>
-  </si>
-  <si>
-    <t>666705335</t>
-  </si>
-  <si>
-    <t>323235236</t>
-  </si>
-  <si>
-    <t>222164623</t>
-  </si>
-  <si>
-    <t>272733349</t>
-  </si>
-  <si>
-    <t>151542333</t>
-  </si>
-  <si>
-    <t>201985161</t>
-  </si>
-  <si>
-    <t>878811382</t>
-  </si>
-  <si>
-    <t>Contact perdon update</t>
-  </si>
-  <si>
-    <t>Sand creek road</t>
-  </si>
-  <si>
-    <t>Troy</t>
-  </si>
-  <si>
     <t>12206</t>
   </si>
   <si>
-    <t>8905671234</t>
-  </si>
-  <si>
-    <t>Grpupdate@HSA.COM</t>
-  </si>
-  <si>
-    <t>lname_update</t>
-  </si>
-  <si>
-    <t>fname_Update</t>
-  </si>
-  <si>
-    <t>01/01/1981</t>
-  </si>
-  <si>
-    <t>678345891</t>
-  </si>
-  <si>
-    <t>driver 1234</t>
-  </si>
-  <si>
-    <t>12202</t>
-  </si>
-  <si>
-    <t>"HSA Notes : Member details has been successfully  updated</t>
-  </si>
-  <si>
-    <t>HSA Notes : Group details are updated successfully</t>
-  </si>
-  <si>
-    <t>Sand creek road 12</t>
-  </si>
-  <si>
-    <t>RIDGARD391</t>
-  </si>
-  <si>
     <t>MENTON</t>
   </si>
   <si>
     <t>MCENTEE610</t>
   </si>
   <si>
-    <t>JESSY</t>
-  </si>
-  <si>
-    <t>JEM</t>
-  </si>
-  <si>
     <t>JAZ</t>
   </si>
   <si>
-    <t>JIN</t>
-  </si>
-  <si>
     <t>JANW</t>
   </si>
   <si>
-    <t>FNAMEUPDATE</t>
-  </si>
-  <si>
-    <t>LNAMEUPDATE</t>
-  </si>
-  <si>
     <t>RANI</t>
   </si>
   <si>
@@ -254,60 +151,6 @@
     <t>45012514500</t>
   </si>
   <si>
-    <t>45012514400</t>
-  </si>
-  <si>
-    <t>45012514300</t>
-  </si>
-  <si>
-    <t>45012513900</t>
-  </si>
-  <si>
-    <t>45012513600</t>
-  </si>
-  <si>
-    <t>45012513800</t>
-  </si>
-  <si>
-    <t>45012513100</t>
-  </si>
-  <si>
-    <t>45012513300</t>
-  </si>
-  <si>
-    <t>45012513200</t>
-  </si>
-  <si>
-    <t>45012497200</t>
-  </si>
-  <si>
-    <t>45012497100</t>
-  </si>
-  <si>
-    <t>45012497000</t>
-  </si>
-  <si>
-    <t>45012496900</t>
-  </si>
-  <si>
-    <t>CG5012</t>
-  </si>
-  <si>
-    <t>CG5011</t>
-  </si>
-  <si>
-    <t>CG5010</t>
-  </si>
-  <si>
-    <t>CG5008</t>
-  </si>
-  <si>
-    <t>CG5007</t>
-  </si>
-  <si>
-    <t>CG5006</t>
-  </si>
-  <si>
     <t>CG5004</t>
   </si>
   <si>
@@ -317,15 +160,6 @@
     <t>CG5001</t>
   </si>
   <si>
-    <t>CG5000</t>
-  </si>
-  <si>
-    <t>CG4998</t>
-  </si>
-  <si>
-    <t>CG4997</t>
-  </si>
-  <si>
     <t>CP0443</t>
   </si>
   <si>
@@ -377,12 +211,6 @@
     <t>JOHN</t>
   </si>
   <si>
-    <t>JERRY</t>
-  </si>
-  <si>
-    <t>45012184000</t>
-  </si>
-  <si>
     <t>HFIC</t>
   </si>
   <si>
@@ -807,6 +635,1059 @@
   </si>
   <si>
     <t>DOCUMENT UPLOAD CR ATTACHMENT-Other -&gt;Other</t>
+  </si>
+  <si>
+    <t>Change Request :HSA Member Update</t>
+  </si>
+  <si>
+    <t>HSA Notes : Member details has been successfully  updated</t>
+  </si>
+  <si>
+    <t>mhsMemberId</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>TAMIL</t>
+  </si>
+  <si>
+    <t>AMAR</t>
+  </si>
+  <si>
+    <t>ARUN</t>
+  </si>
+  <si>
+    <t>LNMAR</t>
+  </si>
+  <si>
+    <t>ARUL</t>
+  </si>
+  <si>
+    <t>KUMAR</t>
+  </si>
+  <si>
+    <t>FNSTYU230</t>
+  </si>
+  <si>
+    <t>LN520MAR</t>
+  </si>
+  <si>
+    <t>FNSTYU300</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>LN820MAR</t>
+  </si>
+  <si>
+    <t>FNSTYU700</t>
+  </si>
+  <si>
+    <t>TEST1</t>
+  </si>
+  <si>
+    <t>STARK</t>
+  </si>
+  <si>
+    <t>SIVA</t>
+  </si>
+  <si>
+    <t>SUNDAR</t>
+  </si>
+  <si>
+    <t>TEST205</t>
+  </si>
+  <si>
+    <t>LAST205</t>
+  </si>
+  <si>
+    <t>TEST204</t>
+  </si>
+  <si>
+    <t>LAST204</t>
+  </si>
+  <si>
+    <t>TEST203</t>
+  </si>
+  <si>
+    <t>LAST203</t>
+  </si>
+  <si>
+    <t>TEST202</t>
+  </si>
+  <si>
+    <t>LAST202</t>
+  </si>
+  <si>
+    <t>TEST201</t>
+  </si>
+  <si>
+    <t>LAST201</t>
+  </si>
+  <si>
+    <t>UMA</t>
+  </si>
+  <si>
+    <t>HADASSAH</t>
+  </si>
+  <si>
+    <t>JACOB</t>
+  </si>
+  <si>
+    <t>WATT</t>
+  </si>
+  <si>
+    <t>RICHIE</t>
+  </si>
+  <si>
+    <t>FRANCISZEK</t>
+  </si>
+  <si>
+    <t>MEDRANO</t>
+  </si>
+  <si>
+    <t>SUMMER-LOUISE</t>
+  </si>
+  <si>
+    <t>PARKER</t>
+  </si>
+  <si>
+    <t>BRENDON</t>
+  </si>
+  <si>
+    <t>CAIRNS</t>
+  </si>
+  <si>
+    <t>LEANNA</t>
+  </si>
+  <si>
+    <t>HICKMAN</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>DEACON</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>RAFE</t>
+  </si>
+  <si>
+    <t>BANNISTER</t>
+  </si>
+  <si>
+    <t>DUANE</t>
+  </si>
+  <si>
+    <t>PAGE</t>
+  </si>
+  <si>
+    <t>SUFYAAN</t>
+  </si>
+  <si>
+    <t>ROCHE</t>
+  </si>
+  <si>
+    <t>MATTIE</t>
+  </si>
+  <si>
+    <t>FRASER</t>
+  </si>
+  <si>
+    <t>ELYSE</t>
+  </si>
+  <si>
+    <t>ARROYO</t>
+  </si>
+  <si>
+    <t>RIA</t>
+  </si>
+  <si>
+    <t>ROBINSON</t>
+  </si>
+  <si>
+    <t>KARA</t>
+  </si>
+  <si>
+    <t>MCNALLY</t>
+  </si>
+  <si>
+    <t>LNSTTEAM</t>
+  </si>
+  <si>
+    <t>STEMP200</t>
+  </si>
+  <si>
+    <t>SNGL</t>
+  </si>
+  <si>
+    <t>LAST1</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>LAN</t>
+  </si>
+  <si>
+    <t>CRUISE</t>
+  </si>
+  <si>
+    <t>TONY</t>
+  </si>
+  <si>
+    <t>ROBIN</t>
+  </si>
+  <si>
+    <t>HARRY</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>FAMILY2</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>KEIL</t>
+  </si>
+  <si>
+    <t>JINSON</t>
+  </si>
+  <si>
+    <t>SUGAN51</t>
+  </si>
+  <si>
+    <t>TEJ161</t>
+  </si>
+  <si>
+    <t>SUGAN45</t>
+  </si>
+  <si>
+    <t>TEJ155</t>
+  </si>
+  <si>
+    <t>SUGAN39</t>
+  </si>
+  <si>
+    <t>TEJ149</t>
+  </si>
+  <si>
+    <t>SUGAN33</t>
+  </si>
+  <si>
+    <t>TEJ143</t>
+  </si>
+  <si>
+    <t>SUGAN28</t>
+  </si>
+  <si>
+    <t>TEJ138</t>
+  </si>
+  <si>
+    <t>SUGAN22</t>
+  </si>
+  <si>
+    <t>TEJ132</t>
+  </si>
+  <si>
+    <t>SUGAN16</t>
+  </si>
+  <si>
+    <t>TEJ126</t>
+  </si>
+  <si>
+    <t>SUGAN7</t>
+  </si>
+  <si>
+    <t>TEJ117</t>
+  </si>
+  <si>
+    <t>SUGAN1</t>
+  </si>
+  <si>
+    <t>TEJ111</t>
+  </si>
+  <si>
+    <t>OLVIN</t>
+  </si>
+  <si>
+    <t>MITCHELLT678</t>
+  </si>
+  <si>
+    <t>HENCHION</t>
+  </si>
+  <si>
+    <t>HARVIR</t>
+  </si>
+  <si>
+    <t>HODSON</t>
+  </si>
+  <si>
+    <t>NOLAN</t>
+  </si>
+  <si>
+    <t>BOOKER</t>
+  </si>
+  <si>
+    <t>AMY</t>
+  </si>
+  <si>
+    <t>MAYER</t>
+  </si>
+  <si>
+    <t>REYANSH</t>
+  </si>
+  <si>
+    <t>BLAIR</t>
+  </si>
+  <si>
+    <t>LLEYTON</t>
+  </si>
+  <si>
+    <t>MCKAY</t>
+  </si>
+  <si>
+    <t>JOVAN</t>
+  </si>
+  <si>
+    <t>HOLDING</t>
+  </si>
+  <si>
+    <t>MACEY</t>
+  </si>
+  <si>
+    <t>PETERSON</t>
+  </si>
+  <si>
+    <t>ARLENE</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>VELEZ</t>
+  </si>
+  <si>
+    <t>NEEL</t>
+  </si>
+  <si>
+    <t>WALLIS</t>
+  </si>
+  <si>
+    <t>RAEANNE</t>
+  </si>
+  <si>
+    <t>SUNIL</t>
+  </si>
+  <si>
+    <t>KAVASKAR</t>
+  </si>
+  <si>
+    <t>GTMGARWL7</t>
+  </si>
+  <si>
+    <t>MEM1</t>
+  </si>
+  <si>
+    <t>MEM13</t>
+  </si>
+  <si>
+    <t>KASUN</t>
+  </si>
+  <si>
+    <t>RATHNAYAKE</t>
+  </si>
+  <si>
+    <t>LEKSHMI</t>
+  </si>
+  <si>
+    <t>RAJAPPAN</t>
+  </si>
+  <si>
+    <t>GTM2019Q3_401</t>
+  </si>
+  <si>
+    <t>GTM2019Q3_413</t>
+  </si>
+  <si>
+    <t>MEM2</t>
+  </si>
+  <si>
+    <t>MEM14</t>
+  </si>
+  <si>
+    <t>DYLAN</t>
+  </si>
+  <si>
+    <t>DICKSON</t>
+  </si>
+  <si>
+    <t>BRAIDEN</t>
+  </si>
+  <si>
+    <t>BASSETT</t>
+  </si>
+  <si>
+    <t>KACY</t>
+  </si>
+  <si>
+    <t>MOHAMAD</t>
+  </si>
+  <si>
+    <t>JEMS</t>
+  </si>
+  <si>
+    <t>GTMGARWL6</t>
+  </si>
+  <si>
+    <t>L14</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>CIARAN</t>
+  </si>
+  <si>
+    <t>VARUN</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>BRENTLINGER</t>
+  </si>
+  <si>
+    <t>SAI</t>
+  </si>
+  <si>
+    <t>SDADSA</t>
+  </si>
+  <si>
+    <t>HF 3 FIRST2</t>
+  </si>
+  <si>
+    <t>HF 3 LAST2</t>
+  </si>
+  <si>
+    <t>HF 2 FIRST4</t>
+  </si>
+  <si>
+    <t>HF 2 LAST4</t>
+  </si>
+  <si>
+    <t>HF 2 FIRST2</t>
+  </si>
+  <si>
+    <t>HF 2 LAST2</t>
+  </si>
+  <si>
+    <t>HF 1 FIRST2</t>
+  </si>
+  <si>
+    <t>HF1 LAST2</t>
+  </si>
+  <si>
+    <t>HF 3 FIRST1</t>
+  </si>
+  <si>
+    <t>HF 3 LAST1</t>
+  </si>
+  <si>
+    <t>HF 2 FIRST1</t>
+  </si>
+  <si>
+    <t>HF 2 LAST1</t>
+  </si>
+  <si>
+    <t>HF 1 FIRST1</t>
+  </si>
+  <si>
+    <t>HF1 LAST1</t>
+  </si>
+  <si>
+    <t>HF FIRST1</t>
+  </si>
+  <si>
+    <t>HF LAST1</t>
+  </si>
+  <si>
+    <t>KULDEEP</t>
+  </si>
+  <si>
+    <t>YADAV</t>
+  </si>
+  <si>
+    <t>DEPT</t>
+  </si>
+  <si>
+    <t>JENSEN</t>
+  </si>
+  <si>
+    <t>WARD</t>
+  </si>
+  <si>
+    <t>RAYMOND</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>VIRGINIA</t>
+  </si>
+  <si>
+    <t>HALL</t>
+  </si>
+  <si>
+    <t>EARL</t>
+  </si>
+  <si>
+    <t>WILLIE</t>
+  </si>
+  <si>
+    <t>JADA</t>
+  </si>
+  <si>
+    <t>KARINA</t>
+  </si>
+  <si>
+    <t>VENKAT</t>
+  </si>
+  <si>
+    <t>MAHI</t>
+  </si>
+  <si>
+    <t>LIMIT19</t>
+  </si>
+  <si>
+    <t>KAAREN</t>
+  </si>
+  <si>
+    <t>BERNARD</t>
+  </si>
+  <si>
+    <t>OLIVIYA3</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>ARJUN</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>RAVI</t>
+  </si>
+  <si>
+    <t>MANOJ</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>KALLUM</t>
+  </si>
+  <si>
+    <t>HORNE</t>
+  </si>
+  <si>
+    <t>DEVA</t>
+  </si>
+  <si>
+    <t>PERK</t>
+  </si>
+  <si>
+    <t>SUBS2</t>
+  </si>
+  <si>
+    <t>OLIVIYA0</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>SENALDA</t>
+  </si>
+  <si>
+    <t>BERGANT</t>
+  </si>
+  <si>
+    <t>YUMNA</t>
+  </si>
+  <si>
+    <t>CHAVALI</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>PARENT</t>
+  </si>
+  <si>
+    <t>VARMA</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>BREUTZMANN</t>
+  </si>
+  <si>
+    <t>NAFISAH</t>
+  </si>
+  <si>
+    <t>STEPHEN5</t>
+  </si>
+  <si>
+    <t>KING5</t>
+  </si>
+  <si>
+    <t>STEPHEN8</t>
+  </si>
+  <si>
+    <t>KING8</t>
+  </si>
+  <si>
+    <t>STEPHEN0</t>
+  </si>
+  <si>
+    <t>KING0</t>
+  </si>
+  <si>
+    <t>RAJESH</t>
+  </si>
+  <si>
+    <t>HFIC2020 LST596</t>
+  </si>
+  <si>
+    <t>HFIC2020 FRS596</t>
+  </si>
+  <si>
+    <t>OLIVIYA9</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>OLIVIYA1</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>UDAYA2</t>
+  </si>
+  <si>
+    <t>SIMBU</t>
+  </si>
+  <si>
+    <t>TAROU</t>
+  </si>
+  <si>
+    <t>VERSIE</t>
+  </si>
+  <si>
+    <t>BREAM</t>
+  </si>
+  <si>
+    <t>SANDHYA</t>
+  </si>
+  <si>
+    <t>CASSELLA</t>
+  </si>
+  <si>
+    <t>CATELLA</t>
+  </si>
+  <si>
+    <t>ALASTAIR</t>
+  </si>
+  <si>
+    <t>BROSSOIT</t>
+  </si>
+  <si>
+    <t>SHEVONNE</t>
+  </si>
+  <si>
+    <t>CALICA</t>
+  </si>
+  <si>
+    <t>BRODERICK</t>
+  </si>
+  <si>
+    <t>NORA</t>
+  </si>
+  <si>
+    <t>BRIEHL</t>
+  </si>
+  <si>
+    <t>BROCKNEY</t>
+  </si>
+  <si>
+    <t>OIHANE</t>
+  </si>
+  <si>
+    <t>BOULDEN</t>
+  </si>
+  <si>
+    <t>dateOfBirth</t>
+  </si>
+  <si>
+    <t>groupNumber</t>
+  </si>
+  <si>
+    <t>CG5005</t>
+  </si>
+  <si>
+    <t>CG4971</t>
+  </si>
+  <si>
+    <t>CG4888</t>
+  </si>
+  <si>
+    <t>CG4886</t>
+  </si>
+  <si>
+    <t>CG4882</t>
+  </si>
+  <si>
+    <t>CG4881</t>
+  </si>
+  <si>
+    <t>CG4879</t>
+  </si>
+  <si>
+    <t>CG4834</t>
+  </si>
+  <si>
+    <t>CG4828</t>
+  </si>
+  <si>
+    <t>CG4811</t>
+  </si>
+  <si>
+    <t>CG4800</t>
+  </si>
+  <si>
+    <t>CG4739</t>
+  </si>
+  <si>
+    <t>CG4672</t>
+  </si>
+  <si>
+    <t>CG4570</t>
+  </si>
+  <si>
+    <t>CG4566</t>
+  </si>
+  <si>
+    <t>CG4564</t>
+  </si>
+  <si>
+    <t>CG4547</t>
+  </si>
+  <si>
+    <t>CG4546</t>
+  </si>
+  <si>
+    <t>CG4543</t>
+  </si>
+  <si>
+    <t>CG4542</t>
+  </si>
+  <si>
+    <t>CG4541</t>
+  </si>
+  <si>
+    <t>CG4531</t>
+  </si>
+  <si>
+    <t>CG4509</t>
+  </si>
+  <si>
+    <t>CG4477</t>
+  </si>
+  <si>
+    <t>CG4451</t>
+  </si>
+  <si>
+    <t>CG4443</t>
+  </si>
+  <si>
+    <t>CG4435</t>
+  </si>
+  <si>
+    <t>CG4430</t>
+  </si>
+  <si>
+    <t>CG4414</t>
+  </si>
+  <si>
+    <t>CG4378</t>
+  </si>
+  <si>
+    <t>CG4305</t>
+  </si>
+  <si>
+    <t>CG4232</t>
+  </si>
+  <si>
+    <t>CG4122</t>
+  </si>
+  <si>
+    <t>CG4101</t>
+  </si>
+  <si>
+    <t>CG4096</t>
+  </si>
+  <si>
+    <t>CG4047</t>
+  </si>
+  <si>
+    <t>CG4017</t>
+  </si>
+  <si>
+    <t>CG3993</t>
+  </si>
+  <si>
+    <t>CG3915</t>
+  </si>
+  <si>
+    <t>CG3910</t>
+  </si>
+  <si>
+    <t>CG3850</t>
+  </si>
+  <si>
+    <t>CG3818</t>
+  </si>
+  <si>
+    <t>CG3695</t>
+  </si>
+  <si>
+    <t>CG3618</t>
+  </si>
+  <si>
+    <t>CG3589</t>
+  </si>
+  <si>
+    <t>CG3587</t>
+  </si>
+  <si>
+    <t>CG3575</t>
+  </si>
+  <si>
+    <t>CG3573</t>
+  </si>
+  <si>
+    <t>CG3571</t>
+  </si>
+  <si>
+    <t>CG3557</t>
+  </si>
+  <si>
+    <t>CG3498</t>
+  </si>
+  <si>
+    <t>CG3466</t>
+  </si>
+  <si>
+    <t>CG3429</t>
+  </si>
+  <si>
+    <t>CG3384</t>
+  </si>
+  <si>
+    <t>CG3344</t>
+  </si>
+  <si>
+    <t>CG3343</t>
+  </si>
+  <si>
+    <t>CG3336</t>
+  </si>
+  <si>
+    <t>CG3327</t>
+  </si>
+  <si>
+    <t>CG3317</t>
+  </si>
+  <si>
+    <t>CG3305</t>
+  </si>
+  <si>
+    <t>CG3274</t>
+  </si>
+  <si>
+    <t>CG1312</t>
+  </si>
+  <si>
+    <t>05/23/1992</t>
+  </si>
+  <si>
+    <t>09/21/1992</t>
+  </si>
+  <si>
+    <t>08/23/1992</t>
+  </si>
+  <si>
+    <t>08/7/1987</t>
+  </si>
+  <si>
+    <t>08/9/1987</t>
+  </si>
+  <si>
+    <t>08/1/1989</t>
+  </si>
+  <si>
+    <t>01/1/1987</t>
+  </si>
+  <si>
+    <t>09/23/1997</t>
+  </si>
+  <si>
+    <t>02/25/1990</t>
+  </si>
+  <si>
+    <t>Test Name</t>
+  </si>
+  <si>
+    <t>01/01/1915</t>
+  </si>
+  <si>
+    <t>01/01/1911</t>
+  </si>
+  <si>
+    <t>567456345</t>
+  </si>
+  <si>
+    <t>567456346</t>
+  </si>
+  <si>
+    <t>567456347</t>
+  </si>
+  <si>
+    <t>12205</t>
+  </si>
+  <si>
+    <t>1233121234</t>
+  </si>
+  <si>
+    <t>email.gmail.com</t>
+  </si>
+  <si>
+    <t>HSA Notes : Group details has been successfully  updated</t>
+  </si>
+  <si>
+    <t>1233121235</t>
+  </si>
+  <si>
+    <t>12207</t>
+  </si>
+  <si>
+    <t>1233121236</t>
+  </si>
+  <si>
+    <t>12208</t>
+  </si>
+  <si>
+    <t>1233121237</t>
+  </si>
+  <si>
+    <t>12209</t>
+  </si>
+  <si>
+    <t>1233121238</t>
+  </si>
+  <si>
+    <t>12210</t>
+  </si>
+  <si>
+    <t>1233121239</t>
+  </si>
+  <si>
+    <t>12211</t>
+  </si>
+  <si>
+    <t>1233121240</t>
+  </si>
+  <si>
+    <t>12212</t>
+  </si>
+  <si>
+    <t>1233121241</t>
+  </si>
+  <si>
+    <t>12213</t>
+  </si>
+  <si>
+    <t>1233121242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change Request :HSA Group Update </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change Request :HSA Member Update </t>
+  </si>
+  <si>
+    <t>12204</t>
+  </si>
+  <si>
+    <t>CG4845</t>
+  </si>
+  <si>
+    <t>CG4822</t>
+  </si>
+  <si>
+    <t>45012514600</t>
+  </si>
+  <si>
+    <t>45012272900</t>
+  </si>
+  <si>
+    <t>dr</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>AVE</t>
+  </si>
+  <si>
+    <t>CTY</t>
+  </si>
+  <si>
+    <t>Ad2</t>
   </si>
 </sst>
 </file>
@@ -888,7 +1769,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -911,21 +1792,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -939,13 +1811,6 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -996,6 +1861,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1315,8 +2181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9684E98A-EA7A-41F6-A6B8-842EDFAC86CC}">
   <dimension ref="A2:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:N6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,7 +2198,7 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>252</v>
+        <v>194</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -1353,7 +2219,7 @@
         <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>253</v>
+        <v>195</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>9</v>
@@ -1376,7 +2242,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>251</v>
+        <v>193</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -1397,7 +2263,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>11</v>
@@ -1420,7 +2286,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -1441,7 +2307,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>255</v>
+        <v>197</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>13</v>
@@ -1464,7 +2330,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H5" s="3" t="s">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>15</v>
@@ -1487,7 +2353,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H6" s="3" t="s">
-        <v>257</v>
+        <v>199</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>17</v>
@@ -1516,326 +2382,3000 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429E2D65-46FC-4E21-9DB5-EB567EC510F0}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:N171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>114</v>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C1" t="s">
+        <v>202</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="D2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="G2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="K2" t="s">
+        <v>546</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="N2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="D3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="K3" t="s">
+        <v>546</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="N3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="K4" t="s">
+        <v>546</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="N4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>538</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F7" t="s">
+        <v>549</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="J7" t="s">
+        <v>521</v>
+      </c>
+      <c r="K7" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>538</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F8" t="s">
+        <v>549</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="J8" t="s">
+        <v>521</v>
+      </c>
+      <c r="K8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>538</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F9" t="s">
+        <v>549</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="J9" t="s">
+        <v>521</v>
+      </c>
+      <c r="K9" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>538</v>
+      </c>
+      <c r="C10" t="s">
+        <v>446</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F10" t="s">
+        <v>549</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J10" t="s">
+        <v>521</v>
+      </c>
+      <c r="K10" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>538</v>
+      </c>
+      <c r="C11" t="s">
+        <v>447</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F11" t="s">
+        <v>549</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="J11" t="s">
+        <v>521</v>
+      </c>
+      <c r="K11" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>448</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F12" t="s">
+        <v>549</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="J12" t="s">
+        <v>521</v>
+      </c>
+      <c r="K12" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>449</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F13" t="s">
+        <v>549</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="J13" t="s">
+        <v>521</v>
+      </c>
+      <c r="K13" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>450</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F14" t="s">
+        <v>549</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="J14" t="s">
+        <v>521</v>
+      </c>
+      <c r="K14" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>451</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F15" t="s">
+        <v>549</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="J15" t="s">
+        <v>521</v>
+      </c>
+      <c r="K15" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="16">
+        <v>45012514700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="16">
+        <v>45012514600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>45012397700</v>
+      </c>
+      <c r="B23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="E23" t="s">
+        <v>443</v>
+      </c>
+      <c r="H23" s="16">
+        <v>45012514500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>45012397600</v>
+      </c>
+      <c r="B24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="E24" t="s">
+        <v>443</v>
+      </c>
+      <c r="H24" s="16">
+        <v>45012514400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>45012397500</v>
+      </c>
+      <c r="B25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="E25" t="s">
+        <v>443</v>
+      </c>
+      <c r="H25" s="16">
+        <v>45012514300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="E26" t="s">
+        <v>443</v>
+      </c>
+      <c r="H26">
+        <v>45012513900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>45012397300</v>
+      </c>
+      <c r="B27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="E27" t="s">
+        <v>443</v>
+      </c>
+      <c r="H27">
+        <v>45012513600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>45012260200</v>
+      </c>
+      <c r="B28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="E28" t="s">
+        <v>444</v>
+      </c>
+      <c r="H28" s="16">
+        <v>45012513800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>45012259900</v>
+      </c>
+      <c r="B29" t="s">
+        <v>248</v>
+      </c>
+      <c r="C29" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="E29" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>45012259800</v>
+      </c>
+      <c r="B30" t="s">
+        <v>250</v>
+      </c>
+      <c r="C30" t="s">
+        <v>251</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="E30" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>45012259600</v>
+      </c>
+      <c r="B31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" t="s">
+        <v>235</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="E31" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>45012259300</v>
+      </c>
+      <c r="B32" t="s">
+        <v>237</v>
+      </c>
+      <c r="C32" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="E32" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>45012259200</v>
+      </c>
+      <c r="B33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" t="s">
+        <v>240</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="E33" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>45012257900</v>
+      </c>
+      <c r="B34" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" t="s">
+        <v>261</v>
+      </c>
+      <c r="D34" s="14">
+        <v>32929</v>
+      </c>
+      <c r="E34" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>45012257800</v>
+      </c>
+      <c r="B35" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" t="s">
+        <v>255</v>
+      </c>
+      <c r="D35" s="14">
+        <v>32929</v>
+      </c>
+      <c r="E35" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>45012257600</v>
+      </c>
+      <c r="B36" t="s">
+        <v>256</v>
+      </c>
+      <c r="C36" t="s">
+        <v>257</v>
+      </c>
+      <c r="D36" s="14">
+        <v>32929</v>
+      </c>
+      <c r="E36" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>45012257500</v>
+      </c>
+      <c r="B37" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" s="14">
+        <v>32929</v>
+      </c>
+      <c r="E37" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>45012244900</v>
+      </c>
+      <c r="B38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C38" t="s">
+        <v>240</v>
+      </c>
+      <c r="D38" s="14">
+        <v>32929</v>
+      </c>
+      <c r="E38" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>45012244200</v>
+      </c>
+      <c r="B39" t="s">
+        <v>243</v>
+      </c>
+      <c r="C39" t="s">
+        <v>244</v>
+      </c>
+      <c r="D39" s="14">
+        <v>32929</v>
+      </c>
+      <c r="E39" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>45012242000</v>
+      </c>
+      <c r="B40" t="s">
+        <v>260</v>
+      </c>
+      <c r="C40" t="s">
+        <v>261</v>
+      </c>
+      <c r="D40" s="14">
+        <v>32929</v>
+      </c>
+      <c r="E40" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>45012240200</v>
+      </c>
+      <c r="B41" t="s">
+        <v>245</v>
+      </c>
+      <c r="C41" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" s="14">
+        <v>32929</v>
+      </c>
+      <c r="E41" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>45012239700</v>
+      </c>
+      <c r="B42" t="s">
+        <v>233</v>
+      </c>
+      <c r="C42" t="s">
+        <v>247</v>
+      </c>
+      <c r="D42" s="14">
+        <v>32929</v>
+      </c>
+      <c r="E42" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>45012239000</v>
+      </c>
+      <c r="B43" t="s">
+        <v>252</v>
+      </c>
+      <c r="C43" t="s">
+        <v>253</v>
+      </c>
+      <c r="D43" s="14">
+        <v>32929</v>
+      </c>
+      <c r="E43" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>45012238400</v>
+      </c>
+      <c r="B44" t="s">
+        <v>241</v>
+      </c>
+      <c r="C44" t="s">
+        <v>242</v>
+      </c>
+      <c r="D44" s="14">
+        <v>32929</v>
+      </c>
+      <c r="E44" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45012236500</v>
+      </c>
+      <c r="B45" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45" t="s">
+        <v>265</v>
+      </c>
+      <c r="D45" s="14">
+        <v>29221</v>
+      </c>
+      <c r="E45" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45012196500</v>
+      </c>
+      <c r="B46" t="s">
+        <v>277</v>
+      </c>
+      <c r="C46" t="s">
+        <v>278</v>
+      </c>
+      <c r="D46" s="14">
+        <v>41883</v>
+      </c>
+      <c r="E46" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45012196300</v>
+      </c>
+      <c r="B47" t="s">
+        <v>279</v>
+      </c>
+      <c r="C47" t="s">
+        <v>280</v>
+      </c>
+      <c r="D47" s="14">
+        <v>41883</v>
+      </c>
+      <c r="E47" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>45012195300</v>
+      </c>
+      <c r="B48" t="s">
+        <v>281</v>
+      </c>
+      <c r="C48" t="s">
+        <v>282</v>
+      </c>
+      <c r="D48" s="14">
+        <v>41883</v>
+      </c>
+      <c r="E48" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>45012195100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>283</v>
+      </c>
+      <c r="C49" t="s">
+        <v>284</v>
+      </c>
+      <c r="D49" s="14">
+        <v>41883</v>
+      </c>
+      <c r="E49" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>45012194900</v>
+      </c>
+      <c r="B50" t="s">
+        <v>285</v>
+      </c>
+      <c r="C50" t="s">
+        <v>286</v>
+      </c>
+      <c r="D50" s="14">
+        <v>32752</v>
+      </c>
+      <c r="E50" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>45012194700</v>
+      </c>
+      <c r="B51" t="s">
+        <v>287</v>
+      </c>
+      <c r="C51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D51" s="14">
+        <v>32752</v>
+      </c>
+      <c r="E51" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>45012194500</v>
+      </c>
+      <c r="B52" t="s">
+        <v>289</v>
+      </c>
+      <c r="C52" t="s">
+        <v>290</v>
+      </c>
+      <c r="D52" s="14">
+        <v>32752</v>
+      </c>
+      <c r="E52" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>45012194200</v>
+      </c>
+      <c r="B53" t="s">
+        <v>291</v>
+      </c>
+      <c r="C53" t="s">
+        <v>292</v>
+      </c>
+      <c r="D53" s="14">
+        <v>32752</v>
+      </c>
+      <c r="E53" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>45012194000</v>
+      </c>
+      <c r="B54" t="s">
+        <v>293</v>
+      </c>
+      <c r="C54" t="s">
+        <v>294</v>
+      </c>
+      <c r="D54" s="14">
+        <v>32752</v>
+      </c>
+      <c r="E54" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>45012195800</v>
+      </c>
+      <c r="B55" t="s">
+        <v>298</v>
+      </c>
+      <c r="C55" t="s">
+        <v>299</v>
+      </c>
+      <c r="D55" s="14">
+        <v>41883</v>
+      </c>
+      <c r="E55" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>45012195600</v>
+      </c>
+      <c r="B56" t="s">
+        <v>300</v>
+      </c>
+      <c r="C56" t="s">
+        <v>301</v>
+      </c>
+      <c r="D56" s="14">
+        <v>41883</v>
+      </c>
+      <c r="E56" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>45012195400</v>
+      </c>
+      <c r="B57" t="s">
+        <v>302</v>
+      </c>
+      <c r="C57" t="s">
+        <v>303</v>
+      </c>
+      <c r="D57" s="14">
+        <v>41883</v>
+      </c>
+      <c r="E57" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>45012186000</v>
+      </c>
+      <c r="B58" t="s">
+        <v>304</v>
+      </c>
+      <c r="C58" t="s">
+        <v>305</v>
+      </c>
+      <c r="D58" s="14">
+        <v>41883</v>
+      </c>
+      <c r="E58" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>45012185800</v>
+      </c>
+      <c r="B59" t="s">
+        <v>306</v>
+      </c>
+      <c r="C59" t="s">
+        <v>307</v>
+      </c>
+      <c r="D59" s="14">
+        <v>32752</v>
+      </c>
+      <c r="E59" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>45012185700</v>
+      </c>
+      <c r="B60" t="s">
+        <v>308</v>
+      </c>
+      <c r="C60" t="s">
+        <v>309</v>
+      </c>
+      <c r="D60" s="14">
+        <v>32752</v>
+      </c>
+      <c r="E60" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>45012185400</v>
+      </c>
+      <c r="B61" t="s">
+        <v>310</v>
+      </c>
+      <c r="C61" t="s">
+        <v>311</v>
+      </c>
+      <c r="D61" s="14">
+        <v>32752</v>
+      </c>
+      <c r="E61" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>45012185200</v>
+      </c>
+      <c r="B62" t="s">
+        <v>312</v>
+      </c>
+      <c r="C62" t="s">
+        <v>313</v>
+      </c>
+      <c r="D62" s="14">
+        <v>32752</v>
+      </c>
+      <c r="E62" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>45012185000</v>
+      </c>
+      <c r="B63" t="s">
+        <v>237</v>
+      </c>
+      <c r="C63" t="s">
+        <v>314</v>
+      </c>
+      <c r="D63" s="14">
+        <v>41883</v>
+      </c>
+      <c r="E63" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>45012184800</v>
+      </c>
+      <c r="B64" t="s">
+        <v>273</v>
+      </c>
+      <c r="C64" t="s">
+        <v>272</v>
+      </c>
+      <c r="D64" s="14">
+        <v>25569</v>
+      </c>
+      <c r="E64" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>45012184600</v>
+      </c>
+      <c r="B65" t="s">
+        <v>315</v>
+      </c>
+      <c r="C65" t="s">
+        <v>316</v>
+      </c>
+      <c r="D65" s="14">
+        <v>32752</v>
+      </c>
+      <c r="E65" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>45011982200</v>
+      </c>
+      <c r="B66" t="s">
+        <v>232</v>
+      </c>
+      <c r="C66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="14">
+        <v>33058</v>
+      </c>
+      <c r="E66" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>45011982200</v>
+      </c>
+      <c r="B67" t="s">
+        <v>232</v>
+      </c>
+      <c r="C67" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" s="14">
+        <v>33058</v>
+      </c>
+      <c r="E67" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>45011982100</v>
+      </c>
+      <c r="B68" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="14">
+        <v>32994</v>
+      </c>
+      <c r="E68" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>45011974800</v>
+      </c>
+      <c r="B69" t="s">
+        <v>208</v>
+      </c>
+      <c r="C69" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" s="14">
+        <v>33055</v>
+      </c>
+      <c r="E69" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>45012965900</v>
+      </c>
+      <c r="B70" t="s">
+        <v>318</v>
+      </c>
+      <c r="C70" t="s">
+        <v>319</v>
+      </c>
+      <c r="D70" s="14">
+        <v>30903</v>
+      </c>
+      <c r="E70" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>45012939900</v>
+      </c>
+      <c r="B71" t="s">
+        <v>220</v>
+      </c>
+      <c r="C71" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="14">
+        <v>33002</v>
+      </c>
+      <c r="E71" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>45012826300</v>
+      </c>
+      <c r="B72" t="s">
+        <v>337</v>
+      </c>
+      <c r="C72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="14">
+        <v>29266</v>
+      </c>
+      <c r="E72" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>45012826200</v>
+      </c>
+      <c r="B73" t="s">
+        <v>276</v>
+      </c>
+      <c r="C73" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" s="14">
+        <v>31180</v>
+      </c>
+      <c r="E73" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>45012824200</v>
+      </c>
+      <c r="B74" t="s">
+        <v>339</v>
+      </c>
+      <c r="C74" t="s">
+        <v>330</v>
+      </c>
+      <c r="D74" s="14">
+        <v>31180</v>
+      </c>
+      <c r="E74" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>45012822200</v>
+      </c>
+      <c r="B75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" s="14">
+        <v>29266</v>
+      </c>
+      <c r="E75" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>45012821900</v>
+      </c>
+      <c r="B76" t="s">
+        <v>296</v>
+      </c>
+      <c r="C76" t="s">
+        <v>297</v>
+      </c>
+      <c r="D76" s="14">
+        <v>31180</v>
+      </c>
+      <c r="E76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>45012811200</v>
+      </c>
+      <c r="B77" t="s">
+        <v>338</v>
+      </c>
+      <c r="C77" t="s">
+        <v>268</v>
+      </c>
+      <c r="D77" s="14">
+        <v>32874</v>
+      </c>
+      <c r="E77" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>45012811300</v>
+      </c>
+      <c r="B78" t="s">
+        <v>320</v>
+      </c>
+      <c r="C78" t="s">
+        <v>270</v>
+      </c>
+      <c r="D78" s="14">
+        <v>33239</v>
+      </c>
+      <c r="E78" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>45012811600</v>
+      </c>
+      <c r="B79" t="s">
+        <v>342</v>
+      </c>
+      <c r="C79" t="s">
+        <v>329</v>
+      </c>
+      <c r="D79" s="14">
+        <v>29266</v>
+      </c>
+      <c r="E79" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>45012390300</v>
+      </c>
+      <c r="B80" t="s">
+        <v>340</v>
+      </c>
+      <c r="C80" t="s">
+        <v>329</v>
+      </c>
+      <c r="D80" s="14">
+        <v>29266</v>
+      </c>
+      <c r="E80" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>45012808500</v>
+      </c>
+      <c r="B81" t="s">
+        <v>343</v>
+      </c>
+      <c r="C81" t="s">
+        <v>330</v>
+      </c>
+      <c r="D81" s="14">
+        <v>31180</v>
+      </c>
+      <c r="E81" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>45012389400</v>
+      </c>
+      <c r="B82" t="s">
+        <v>341</v>
+      </c>
+      <c r="C82" t="s">
+        <v>329</v>
+      </c>
+      <c r="D82" s="14">
+        <v>29266</v>
+      </c>
+      <c r="E82" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>45012807600</v>
+      </c>
+      <c r="B83" t="s">
+        <v>344</v>
+      </c>
+      <c r="C83" t="s">
+        <v>321</v>
+      </c>
+      <c r="D83" s="14">
+        <v>31180</v>
+      </c>
+      <c r="E83" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>45012807600</v>
+      </c>
+      <c r="B84" t="s">
+        <v>344</v>
+      </c>
+      <c r="C84" t="s">
+        <v>321</v>
+      </c>
+      <c r="D84" s="14">
+        <v>31180</v>
+      </c>
+      <c r="E84" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>45012802800</v>
+      </c>
+      <c r="B85" t="s">
+        <v>295</v>
+      </c>
+      <c r="C85" t="s">
+        <v>275</v>
+      </c>
+      <c r="D85" s="14">
+        <v>42171</v>
+      </c>
+      <c r="E85" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>45012801100</v>
+      </c>
+      <c r="B86" t="s">
+        <v>271</v>
+      </c>
+      <c r="C86" t="s">
+        <v>267</v>
+      </c>
+      <c r="D86" s="14">
+        <v>31545</v>
+      </c>
+      <c r="E86" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>45012787000</v>
+      </c>
+      <c r="B87" t="s">
+        <v>210</v>
+      </c>
+      <c r="C87" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="14">
+        <v>33124</v>
+      </c>
+      <c r="E87" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>45012785800</v>
+      </c>
+      <c r="B88" t="s">
+        <v>328</v>
+      </c>
+      <c r="C88" t="s">
+        <v>322</v>
+      </c>
+      <c r="D88" s="14">
+        <v>32991</v>
+      </c>
+      <c r="E88" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>45012786300</v>
+      </c>
+      <c r="B89" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="7" t="s">
+      <c r="C89" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D89" s="14">
+        <v>33063</v>
+      </c>
+      <c r="E89" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>45012785900</v>
+      </c>
+      <c r="B90" t="s">
+        <v>327</v>
+      </c>
+      <c r="C90" t="s">
+        <v>321</v>
+      </c>
+      <c r="D90" s="14">
+        <v>33142</v>
+      </c>
+      <c r="E90" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>45012760300</v>
+      </c>
+      <c r="B91" t="s">
+        <v>211</v>
+      </c>
+      <c r="C91" t="s">
+        <v>36</v>
+      </c>
+      <c r="D91" s="14">
+        <v>32668</v>
+      </c>
+      <c r="E91" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>45012730600</v>
+      </c>
+      <c r="B92" t="s">
+        <v>206</v>
+      </c>
+      <c r="C92" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="14">
+        <v>33094</v>
+      </c>
+      <c r="E92" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>45012691000</v>
+      </c>
+      <c r="B93" t="s">
+        <v>208</v>
+      </c>
+      <c r="C93" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" s="14">
+        <v>33033</v>
+      </c>
+      <c r="E93" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>45012595400</v>
+      </c>
+      <c r="B94" t="s">
+        <v>331</v>
+      </c>
+      <c r="C94" t="s">
+        <v>332</v>
+      </c>
+      <c r="D94" s="14">
+        <v>29664</v>
+      </c>
+      <c r="E94" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>45012595300</v>
+      </c>
+      <c r="B95" t="s">
+        <v>333</v>
+      </c>
+      <c r="C95" t="s">
+        <v>334</v>
+      </c>
+      <c r="D95" s="14">
+        <v>31686</v>
+      </c>
+      <c r="E95" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>45012593000</v>
+      </c>
+      <c r="B96" t="s">
+        <v>335</v>
+      </c>
+      <c r="C96" t="s">
+        <v>336</v>
+      </c>
+      <c r="D96" s="14">
+        <v>32412</v>
+      </c>
+      <c r="E96" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>45012405100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>269</v>
+      </c>
+      <c r="C97" t="s">
+        <v>219</v>
+      </c>
+      <c r="D97" s="14">
+        <v>31048</v>
+      </c>
+      <c r="E97" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>45012104900</v>
+      </c>
+      <c r="B98" t="s">
+        <v>210</v>
+      </c>
+      <c r="C98" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98" s="14">
+        <v>32607</v>
+      </c>
+      <c r="E98" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>45011901000</v>
+      </c>
+      <c r="B99" t="s">
+        <v>215</v>
+      </c>
+      <c r="C99" t="s">
+        <v>350</v>
+      </c>
+      <c r="D99" s="14">
+        <v>32143</v>
+      </c>
+      <c r="E99" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>45011900900</v>
+      </c>
+      <c r="B100" t="s">
+        <v>215</v>
+      </c>
+      <c r="C100" t="s">
+        <v>350</v>
+      </c>
+      <c r="D100" s="14">
+        <v>32143</v>
+      </c>
+      <c r="E100" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>45011900500</v>
+      </c>
+      <c r="B101" t="s">
+        <v>351</v>
+      </c>
+      <c r="C101" t="s">
+        <v>352</v>
+      </c>
+      <c r="D101" s="14">
+        <v>29249</v>
+      </c>
+      <c r="E101" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>45011900400</v>
+      </c>
+      <c r="B102" t="s">
+        <v>353</v>
+      </c>
+      <c r="C102" t="s">
+        <v>354</v>
+      </c>
+      <c r="D102" s="14">
+        <v>29246</v>
+      </c>
+      <c r="E102" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>45011900200</v>
+      </c>
+      <c r="B103" t="s">
+        <v>355</v>
+      </c>
+      <c r="C103" t="s">
+        <v>356</v>
+      </c>
+      <c r="D103" s="14">
+        <v>29240</v>
+      </c>
+      <c r="E103" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>45011899900</v>
+      </c>
+      <c r="B104" t="s">
+        <v>357</v>
+      </c>
+      <c r="C104" t="s">
+        <v>358</v>
+      </c>
+      <c r="D104" s="14">
+        <v>29231</v>
+      </c>
+      <c r="E104" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>45011899500</v>
+      </c>
+      <c r="B105" t="s">
+        <v>359</v>
+      </c>
+      <c r="C105" t="s">
+        <v>360</v>
+      </c>
+      <c r="D105" s="14">
+        <v>29248</v>
+      </c>
+      <c r="E105" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>45011899400</v>
+      </c>
+      <c r="B106" t="s">
+        <v>361</v>
+      </c>
+      <c r="C106" t="s">
+        <v>362</v>
+      </c>
+      <c r="D106" s="14">
+        <v>29239</v>
+      </c>
+      <c r="E106" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>45011899300</v>
+      </c>
+      <c r="B107" t="s">
+        <v>363</v>
+      </c>
+      <c r="C107" t="s">
+        <v>364</v>
+      </c>
+      <c r="D107" s="14">
+        <v>29230</v>
+      </c>
+      <c r="E107" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>45011899200</v>
+      </c>
+      <c r="B108" t="s">
+        <v>365</v>
+      </c>
+      <c r="C108" t="s">
+        <v>366</v>
+      </c>
+      <c r="D108" s="14">
+        <v>29221</v>
+      </c>
+      <c r="E108" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>45011854500</v>
+      </c>
+      <c r="B109" t="s">
+        <v>367</v>
+      </c>
+      <c r="C109" t="s">
+        <v>368</v>
+      </c>
+      <c r="D109" s="14">
+        <v>27912</v>
+      </c>
+      <c r="E109" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>45012645800</v>
+      </c>
+      <c r="B110" t="s">
         <v>57</v>
       </c>
-      <c r="H9" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="7"/>
+      <c r="C110" t="s">
+        <v>369</v>
+      </c>
+      <c r="D110" s="14">
+        <v>35097</v>
+      </c>
+      <c r="E110" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>45012295000</v>
+      </c>
+      <c r="B111" t="s">
+        <v>234</v>
+      </c>
+      <c r="C111" t="s">
+        <v>370</v>
+      </c>
+      <c r="D111" s="14">
+        <v>34049</v>
+      </c>
+      <c r="E111" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>45012293400</v>
+      </c>
+      <c r="B112" t="s">
+        <v>325</v>
+      </c>
+      <c r="C112" t="s">
+        <v>326</v>
+      </c>
+      <c r="D112" s="14">
+        <v>29952</v>
+      </c>
+      <c r="E112" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>45012293100</v>
+      </c>
+      <c r="B113" t="s">
+        <v>323</v>
+      </c>
+      <c r="C113" t="s">
+        <v>324</v>
+      </c>
+      <c r="D113" s="14">
+        <v>29221</v>
+      </c>
+      <c r="E113" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>45012599400</v>
+      </c>
+      <c r="B114" t="s">
+        <v>371</v>
+      </c>
+      <c r="C114" t="s">
+        <v>372</v>
+      </c>
+      <c r="D114" s="14">
+        <v>33318</v>
+      </c>
+      <c r="E114" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>45012597100</v>
+      </c>
+      <c r="B115" t="s">
+        <v>373</v>
+      </c>
+      <c r="C115" t="s">
+        <v>374</v>
+      </c>
+      <c r="D115" s="14">
+        <v>32340</v>
+      </c>
+      <c r="E115" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>45012414900</v>
+      </c>
+      <c r="B116" t="s">
+        <v>375</v>
+      </c>
+      <c r="C116" t="s">
+        <v>376</v>
+      </c>
+      <c r="D116" s="14">
+        <v>32340</v>
+      </c>
+      <c r="E116" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>45012365700</v>
+      </c>
+      <c r="B117" t="s">
+        <v>377</v>
+      </c>
+      <c r="C117" t="s">
+        <v>378</v>
+      </c>
+      <c r="D117" s="14">
+        <v>28911</v>
+      </c>
+      <c r="E117" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>45012231200</v>
+      </c>
+      <c r="B118" t="s">
+        <v>379</v>
+      </c>
+      <c r="C118" t="s">
+        <v>345</v>
+      </c>
+      <c r="D118" s="14">
+        <v>28911</v>
+      </c>
+      <c r="E118" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>45012155100</v>
+      </c>
+      <c r="B119" t="s">
+        <v>380</v>
+      </c>
+      <c r="C119" t="s">
+        <v>347</v>
+      </c>
+      <c r="D119" s="14">
+        <v>30136</v>
+      </c>
+      <c r="E119" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>45012154600</v>
+      </c>
+      <c r="B120" t="s">
+        <v>381</v>
+      </c>
+      <c r="C120" t="s">
+        <v>36</v>
+      </c>
+      <c r="D120" s="14">
+        <v>33027</v>
+      </c>
+      <c r="E120" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>45012088200</v>
+      </c>
+      <c r="B121" t="s">
+        <v>211</v>
+      </c>
+      <c r="C121" t="s">
+        <v>36</v>
+      </c>
+      <c r="D121" s="14">
+        <v>33027</v>
+      </c>
+      <c r="E121" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>45012084700</v>
+      </c>
+      <c r="B122" t="s">
+        <v>382</v>
+      </c>
+      <c r="C122" t="s">
+        <v>36</v>
+      </c>
+      <c r="D122" s="14">
+        <v>25204</v>
+      </c>
+      <c r="E122" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>45011955700</v>
+      </c>
+      <c r="B123" t="s">
+        <v>385</v>
+      </c>
+      <c r="C123" t="s">
+        <v>386</v>
+      </c>
+      <c r="D123" s="14">
+        <v>33318</v>
+      </c>
+      <c r="E123" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>45011878300</v>
+      </c>
+      <c r="B124" t="s">
+        <v>387</v>
+      </c>
+      <c r="C124" t="s">
+        <v>388</v>
+      </c>
+      <c r="D124" s="14">
+        <v>30410</v>
+      </c>
+      <c r="E124" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>45011862500</v>
+      </c>
+      <c r="B125" t="s">
+        <v>389</v>
+      </c>
+      <c r="C125" t="s">
+        <v>266</v>
+      </c>
+      <c r="D125" s="14">
+        <v>31569</v>
+      </c>
+      <c r="E125" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>45011860000</v>
+      </c>
+      <c r="B126" t="s">
+        <v>390</v>
+      </c>
+      <c r="C126" t="s">
+        <v>274</v>
+      </c>
+      <c r="D126" s="14">
+        <v>32094</v>
+      </c>
+      <c r="E126" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>45011858500</v>
+      </c>
+      <c r="B127" t="s">
+        <v>221</v>
+      </c>
+      <c r="C127" t="s">
+        <v>274</v>
+      </c>
+      <c r="D127" s="14">
+        <v>29984</v>
+      </c>
+      <c r="E127" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>45011857400</v>
+      </c>
+      <c r="B128" t="s">
+        <v>208</v>
+      </c>
+      <c r="C128" t="s">
+        <v>391</v>
+      </c>
+      <c r="D128" s="14">
+        <v>30776</v>
+      </c>
+      <c r="E128" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>45011858000</v>
+      </c>
+      <c r="B129" t="s">
+        <v>346</v>
+      </c>
+      <c r="C129" t="s">
+        <v>274</v>
+      </c>
+      <c r="D129" s="14">
+        <v>30378</v>
+      </c>
+      <c r="E129" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>45011847900</v>
+      </c>
+      <c r="B130" t="s">
+        <v>392</v>
+      </c>
+      <c r="C130" t="s">
+        <v>393</v>
+      </c>
+      <c r="D130" s="14">
+        <v>30146</v>
+      </c>
+      <c r="E130" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>45012156200</v>
+      </c>
+      <c r="B131" t="s">
+        <v>394</v>
+      </c>
+      <c r="C131" t="s">
+        <v>395</v>
+      </c>
+      <c r="D131" s="14">
+        <v>32340</v>
+      </c>
+      <c r="E131" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>45012138000</v>
+      </c>
+      <c r="B132" t="s">
+        <v>273</v>
+      </c>
+      <c r="C132" t="s">
+        <v>396</v>
+      </c>
+      <c r="D132" s="14">
+        <v>25818</v>
+      </c>
+      <c r="E132" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>45011974600</v>
+      </c>
+      <c r="B133" t="s">
+        <v>397</v>
+      </c>
+      <c r="C133" t="s">
+        <v>398</v>
+      </c>
+      <c r="D133" s="14">
+        <v>32340</v>
+      </c>
+      <c r="E133" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>45011856500</v>
+      </c>
+      <c r="B134" t="s">
+        <v>264</v>
+      </c>
+      <c r="C134" t="s">
+        <v>205</v>
+      </c>
+      <c r="D134" s="14">
+        <v>29221</v>
+      </c>
+      <c r="E134" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>45011518700</v>
+      </c>
+      <c r="B135" t="s">
+        <v>349</v>
+      </c>
+      <c r="C135" t="s">
+        <v>402</v>
+      </c>
+      <c r="D135" s="14">
+        <v>25569</v>
+      </c>
+      <c r="E135" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>45011518400</v>
+      </c>
+      <c r="B136" t="s">
+        <v>403</v>
+      </c>
+      <c r="C136" t="s">
+        <v>404</v>
+      </c>
+      <c r="D136" s="14">
+        <v>29473</v>
+      </c>
+      <c r="E136" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>45011494800</v>
+      </c>
+      <c r="B137" t="s">
+        <v>405</v>
+      </c>
+      <c r="C137" t="s">
+        <v>406</v>
+      </c>
+      <c r="D137" s="14">
+        <v>32661</v>
+      </c>
+      <c r="E137" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>45011726400</v>
+      </c>
+      <c r="B138" t="s">
+        <v>409</v>
+      </c>
+      <c r="C138" t="s">
+        <v>410</v>
+      </c>
+      <c r="D138" s="14">
+        <v>28911</v>
+      </c>
+      <c r="E138" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>45011725900</v>
+      </c>
+      <c r="B139" t="s">
+        <v>411</v>
+      </c>
+      <c r="C139" t="s">
+        <v>412</v>
+      </c>
+      <c r="D139" s="14">
+        <v>31974</v>
+      </c>
+      <c r="E139" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>45011725800</v>
+      </c>
+      <c r="B140" t="s">
+        <v>413</v>
+      </c>
+      <c r="C140" t="s">
+        <v>414</v>
+      </c>
+      <c r="D140" s="14">
+        <v>32340</v>
+      </c>
+      <c r="E140" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>45011723400</v>
+      </c>
+      <c r="B141" t="s">
+        <v>416</v>
+      </c>
+      <c r="C141" t="s">
+        <v>417</v>
+      </c>
+      <c r="D141" s="14">
+        <v>20086</v>
+      </c>
+      <c r="E141" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>45011723400</v>
+      </c>
+      <c r="B142" t="s">
+        <v>418</v>
+      </c>
+      <c r="C142" t="s">
+        <v>419</v>
+      </c>
+      <c r="D142" s="14">
+        <v>29867</v>
+      </c>
+      <c r="E142" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>45011723000</v>
+      </c>
+      <c r="B143" t="s">
+        <v>420</v>
+      </c>
+      <c r="C143" t="s">
+        <v>421</v>
+      </c>
+      <c r="D143" s="14">
+        <v>29502</v>
+      </c>
+      <c r="E143" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>45011719500</v>
+      </c>
+      <c r="B144" t="s">
+        <v>422</v>
+      </c>
+      <c r="C144" t="s">
+        <v>36</v>
+      </c>
+      <c r="D144" s="14">
+        <v>25204</v>
+      </c>
+      <c r="E144" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>45011713900</v>
+      </c>
+      <c r="B145" t="s">
+        <v>415</v>
+      </c>
+      <c r="C145" t="s">
+        <v>406</v>
+      </c>
+      <c r="D145" s="14">
+        <v>31173</v>
+      </c>
+      <c r="E145" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>45011713600</v>
+      </c>
+      <c r="B146" t="s">
+        <v>423</v>
+      </c>
+      <c r="C146" t="s">
+        <v>406</v>
+      </c>
+      <c r="D146" s="14">
+        <v>31172</v>
+      </c>
+      <c r="E146" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>45011742300</v>
+      </c>
+      <c r="B147" t="s">
+        <v>401</v>
+      </c>
+      <c r="C147" t="s">
+        <v>407</v>
+      </c>
+      <c r="D147" s="14">
+        <v>34478</v>
+      </c>
+      <c r="E147" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>45011740000</v>
+      </c>
+      <c r="B148" t="s">
+        <v>425</v>
+      </c>
+      <c r="C148" t="s">
+        <v>426</v>
+      </c>
+      <c r="D148" s="14">
+        <v>34395</v>
+      </c>
+      <c r="E148" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>45011615200</v>
+      </c>
+      <c r="B149" t="s">
+        <v>427</v>
+      </c>
+      <c r="C149" t="s">
+        <v>428</v>
+      </c>
+      <c r="D149" s="14">
+        <v>34680</v>
+      </c>
+      <c r="E149" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>45011610600</v>
+      </c>
+      <c r="B150" t="s">
+        <v>399</v>
+      </c>
+      <c r="C150" t="s">
+        <v>429</v>
+      </c>
+      <c r="D150" s="14">
+        <v>34010</v>
+      </c>
+      <c r="E150" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>45011398200</v>
+      </c>
+      <c r="B151" t="s">
+        <v>430</v>
+      </c>
+      <c r="C151" t="s">
+        <v>431</v>
+      </c>
+      <c r="D151" s="14">
+        <v>32454</v>
+      </c>
+      <c r="E151" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>45011394600</v>
+      </c>
+      <c r="B152" t="s">
+        <v>427</v>
+      </c>
+      <c r="C152" t="s">
+        <v>433</v>
+      </c>
+      <c r="D152" s="14">
+        <v>33850</v>
+      </c>
+      <c r="E152" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>45011387300</v>
+      </c>
+      <c r="B153" t="s">
+        <v>317</v>
+      </c>
+      <c r="C153" t="s">
+        <v>400</v>
+      </c>
+      <c r="D153" s="14">
+        <v>23925</v>
+      </c>
+      <c r="E153" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>45011273000</v>
+      </c>
+      <c r="B154" t="s">
+        <v>408</v>
+      </c>
+      <c r="C154" t="s">
+        <v>434</v>
+      </c>
+      <c r="D154" s="14">
+        <v>25146</v>
+      </c>
+      <c r="E154" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>45011176300</v>
+      </c>
+      <c r="B155" t="s">
+        <v>435</v>
+      </c>
+      <c r="C155" t="s">
+        <v>436</v>
+      </c>
+      <c r="D155" s="14">
+        <v>30579</v>
+      </c>
+      <c r="E155" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>45011176100</v>
+      </c>
+      <c r="B156" t="s">
+        <v>424</v>
+      </c>
+      <c r="C156" t="s">
+        <v>437</v>
+      </c>
+      <c r="D156" s="14">
+        <v>32818</v>
+      </c>
+      <c r="E156" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>45011175900</v>
+      </c>
+      <c r="B157" t="s">
+        <v>438</v>
+      </c>
+      <c r="C157" t="s">
+        <v>439</v>
+      </c>
+      <c r="D157" s="14">
+        <v>33309</v>
+      </c>
+      <c r="E157" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>45011175300</v>
+      </c>
+      <c r="B158" t="s">
+        <v>432</v>
+      </c>
+      <c r="C158" t="s">
+        <v>348</v>
+      </c>
+      <c r="D158" s="14">
+        <v>31248</v>
+      </c>
+      <c r="E158" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>45011175200</v>
+      </c>
+      <c r="B159" t="s">
+        <v>383</v>
+      </c>
+      <c r="C159" t="s">
+        <v>384</v>
+      </c>
+      <c r="D159" s="14">
+        <v>32717</v>
+      </c>
+      <c r="E159" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>45011742300</v>
+      </c>
+      <c r="B160" t="s">
+        <v>401</v>
+      </c>
+      <c r="C160" t="s">
+        <v>407</v>
+      </c>
+      <c r="D160" s="14">
+        <v>34478</v>
+      </c>
+      <c r="E160" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>45011740000</v>
+      </c>
+      <c r="B161" t="s">
+        <v>425</v>
+      </c>
+      <c r="C161" t="s">
+        <v>426</v>
+      </c>
+      <c r="D161" s="14">
+        <v>34395</v>
+      </c>
+      <c r="E161" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>45011615200</v>
+      </c>
+      <c r="B162" t="s">
+        <v>427</v>
+      </c>
+      <c r="C162" t="s">
+        <v>428</v>
+      </c>
+      <c r="D162" s="14">
+        <v>34680</v>
+      </c>
+      <c r="E162" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>45011610600</v>
+      </c>
+      <c r="B163" t="s">
+        <v>399</v>
+      </c>
+      <c r="C163" t="s">
+        <v>429</v>
+      </c>
+      <c r="D163" s="14">
+        <v>34010</v>
+      </c>
+      <c r="E163" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>45011398200</v>
+      </c>
+      <c r="B164" t="s">
+        <v>430</v>
+      </c>
+      <c r="C164" t="s">
+        <v>431</v>
+      </c>
+      <c r="D164" s="14">
+        <v>32454</v>
+      </c>
+      <c r="E164" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>45011394600</v>
+      </c>
+      <c r="B165" t="s">
+        <v>427</v>
+      </c>
+      <c r="C165" t="s">
+        <v>433</v>
+      </c>
+      <c r="D165" s="14">
+        <v>33850</v>
+      </c>
+      <c r="E165" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>45011387300</v>
+      </c>
+      <c r="B166" t="s">
+        <v>317</v>
+      </c>
+      <c r="C166" t="s">
+        <v>400</v>
+      </c>
+      <c r="D166" s="14">
+        <v>23925</v>
+      </c>
+      <c r="E166" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>45011273000</v>
+      </c>
+      <c r="B167" t="s">
+        <v>408</v>
+      </c>
+      <c r="C167" t="s">
+        <v>434</v>
+      </c>
+      <c r="D167" s="14">
+        <v>25146</v>
+      </c>
+      <c r="E167" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>45011176300</v>
+      </c>
+      <c r="B168" t="s">
+        <v>435</v>
+      </c>
+      <c r="C168" t="s">
+        <v>436</v>
+      </c>
+      <c r="D168" s="14">
+        <v>30579</v>
+      </c>
+      <c r="E168" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>45011176100</v>
+      </c>
+      <c r="B169" t="s">
+        <v>424</v>
+      </c>
+      <c r="C169" t="s">
+        <v>437</v>
+      </c>
+      <c r="D169" s="14">
+        <v>32818</v>
+      </c>
+      <c r="E169" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>45011175900</v>
+      </c>
+      <c r="B170" t="s">
+        <v>438</v>
+      </c>
+      <c r="C170" t="s">
+        <v>439</v>
+      </c>
+      <c r="D170" s="14">
+        <v>33309</v>
+      </c>
+      <c r="E170" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>45011175300</v>
+      </c>
+      <c r="B171" t="s">
+        <v>432</v>
+      </c>
+      <c r="C171" t="s">
+        <v>348</v>
+      </c>
+      <c r="D171" s="14">
+        <v>31248</v>
+      </c>
+      <c r="E171" t="s">
+        <v>503</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1844,6 +5384,1109 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CAEB3A-3E56-44FA-8016-DEE580F527BC}">
+  <dimension ref="H2:H62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="7" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="11" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="12" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="13" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="14" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="15" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="16" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="41" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="42" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="43" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="44" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="45" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="46" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="47" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="48" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="53" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="54" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="55" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="56" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="57" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="58" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="59" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="61" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="62" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>503</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FE690F-DDFD-4144-88FC-DE8D1B169890}">
+  <dimension ref="A1:A153"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>45012492500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>45012491700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>45012491000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>45012397700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>45012397600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>45012397500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>45012397400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>45012397300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>45012260200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>45012259900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>45012259800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>45012259600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>45012259300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>45012259200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>45012257900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>45012257800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>45012257600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>45012257500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>45012240200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>45012239700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>45012239000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>45012238400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>45012244900</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>45012244200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>45012242000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>45012236500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>45012196500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>45012196300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>45012195300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>45012195100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>45012194900</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>45012194700</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>45012194500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>45012194200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>45012194000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>45012195800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>45012195600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>45012195400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>45012186000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>45012185800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>45012185700</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>45012185400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>45012185200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45012185000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45012184800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45012184600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>45011982200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>45011974800</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>45011982200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>45011982100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>45012965900</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>45012939900</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>45012826300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>45012826200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>45012824200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>45012822200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>45012821900</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>45012811200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>45012811300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>45012802800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>45012801100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>45012390300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>45012811600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>45012808500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>45012389400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>45012730600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>45012807600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>45012807600</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>45012787000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>45012785800</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>45012786300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>45012785900</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>45012760300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>45012691000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>45012593000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>45012595400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>45012595300</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>45012405100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>45011742300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>45011740000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>45011615200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>45011610600</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>45011398200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>45011394600</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>45011387300</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>45011273000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>45011176300</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>45011176100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>45011175900</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>45011175300</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>45011175200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>45011742300</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>45011740000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>45011615200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>45011610600</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>45011398200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>45011394600</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>45011387300</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>45011273000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>45011176300</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>45011176100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>45011175900</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>45011175300</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>45012104900</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>45011901000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>45011900900</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>45011900500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>45011900400</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>45011900200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>45011899900</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>45011899500</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>45011899400</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>45011899300</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>45011899200</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>45011854500</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>45012295000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>45012293400</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>45012293100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>45012645800</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>45012599400</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>45012597100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>45012414900</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>45012365700</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>45012231200</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>45012155100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>45012154600</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>45012084700</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>45012088200</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>45011955700</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>45011878300</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>45011860000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>45011847900</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>45011862500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>45011858500</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>45011858000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>45011857400</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>45012156200</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>45011723400</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>45012138000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>45011974600</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>45011856500</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>45011494800</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>45011518700</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>45011518400</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>45011719500</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>45011723400</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>45011723000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>45011726400</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>45011725900</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>45011725800</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>45011713900</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>45011713600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06FC4A3-CF87-4C6E-8D77-7DC31AD6245D}">
   <dimension ref="A1:R30"/>
   <sheetViews>
@@ -1859,7 +6502,7 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="7" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
@@ -1872,10 +6515,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>216</v>
+        <v>187</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>158</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
@@ -1887,54 +6530,54 @@
         <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>98</v>
+        <v>183</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>232</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="L1" s="33" t="s">
-        <v>106</v>
+        <v>174</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="M1" t="s">
-        <v>233</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="P1" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="R1" s="36" t="s">
-        <v>126</v>
+        <v>175</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>213</v>
+      <c r="C2" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>19</v>
@@ -1943,48 +6586,48 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>242</v>
+        <v>184</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>218</v>
+        <v>41</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>160</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>227</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="L2" s="32" t="s">
-        <v>220</v>
+        <v>169</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>162</v>
       </c>
       <c r="M2" t="s">
-        <v>234</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="P2" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q2" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="R2" s="36" t="s">
-        <v>126</v>
+        <v>176</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -1992,55 +6635,55 @@
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>215</v>
+      <c r="D3" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>243</v>
+        <v>185</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>219</v>
+        <v>41</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>161</v>
       </c>
       <c r="J3" t="s">
-        <v>231</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>106</v>
+        <v>173</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>235</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="P3" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q3" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="R3" s="36" t="s">
-        <v>126</v>
+        <v>177</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -2051,166 +6694,166 @@
       <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>217</v>
+      <c r="E4" s="22" t="s">
+        <v>159</v>
       </c>
       <c r="F4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>228</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>107</v>
+        <v>170</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>236</v>
-      </c>
-      <c r="N4" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="O4" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="P4" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q4" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="R4" s="38" t="s">
-        <v>126</v>
+        <v>178</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B5" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="26" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="11"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="6"/>
       <c r="J5" t="s">
-        <v>229</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="L5" s="32" t="s">
-        <v>224</v>
+        <v>171</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>166</v>
       </c>
       <c r="M5" t="s">
-        <v>237</v>
-      </c>
-      <c r="N5" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="O5" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="P5" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q5" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="R5" s="39" t="s">
-        <v>161</v>
+        <v>179</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="R5" s="36" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G6"/>
       <c r="J6" t="s">
-        <v>230</v>
-      </c>
-      <c r="K6" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>107</v>
+        <v>172</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>51</v>
       </c>
       <c r="M6" t="s">
-        <v>238</v>
-      </c>
-      <c r="N6" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="O6" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="P6" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q6" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="R6" s="39" t="s">
-        <v>161</v>
+        <v>180</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="P6" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q6" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="R6" s="36" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G7"/>
       <c r="M7" t="s">
-        <v>240</v>
-      </c>
-      <c r="N7" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="O7" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="P7" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q7" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="R7" s="39" t="s">
-        <v>161</v>
+        <v>182</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="R7" s="36" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G8"/>
       <c r="M8" t="s">
-        <v>239</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="O8" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="P8" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q8" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="R8" s="38" t="s">
-        <v>161</v>
+        <v>181</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="R8" s="35" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -2218,373 +6861,373 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G10"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G11"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="G12"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>157</v>
+        <v>64</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>148</v>
+        <v>67</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="H14" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>149</v>
+        <v>70</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="H15" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>150</v>
+        <v>72</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="H16" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>151</v>
+        <v>74</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="H17" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>152</v>
+        <v>76</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="H18" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>153</v>
+        <v>78</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="H19" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>155</v>
+        <v>80</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="H20" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>156</v>
+        <v>82</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="H21" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>179</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>181</v>
+        <v>121</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="H23" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
-        <v>117</v>
+      <c r="B25" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="H26" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="E27" t="s">
-        <v>160</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>172</v>
+        <v>102</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="H27" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
-        <v>163</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>173</v>
+        <v>105</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="H28" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" t="s">
         <v>107</v>
       </c>
-      <c r="D29" t="s">
-        <v>164</v>
-      </c>
-      <c r="E29" t="s">
-        <v>165</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>174</v>
+      <c r="F29" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="H29" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>167</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>175</v>
+        <v>109</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="H30" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2593,7 +7236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2973B0-CDDC-449E-8E3C-85328113B7FE}">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -2612,157 +7255,157 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>209</v>
+        <v>148</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>210</v>
+        <v>147</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>189</v>
+      <c r="A4" s="13" t="s">
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>211</v>
+        <v>38</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>212</v>
+        <v>146</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="J6" s="19"/>
+        <v>149</v>
+      </c>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="J7" s="19"/>
+        <v>150</v>
+      </c>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="17">
+        <v>144</v>
+      </c>
+      <c r="E8" s="14">
         <v>43800</v>
       </c>
-      <c r="J8" s="19"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E9" s="18">
+        <v>144</v>
+      </c>
+      <c r="E9" s="15">
         <v>43800</v>
       </c>
-      <c r="J9" s="19"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J10" s="19"/>
+        <v>143</v>
+      </c>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J11" s="19"/>
+        <v>143</v>
+      </c>
+      <c r="J11" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1556DE04-142C-4B9B-B304-55B223242BDE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A189B058-0068-4869-B81A-90BA2F66BB5C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFIC" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="558">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -424,21 +424,9 @@
     <t>298391283</t>
   </si>
   <si>
-    <t>application id</t>
-  </si>
-  <si>
     <t>Transcation id</t>
   </si>
   <si>
-    <t>group id</t>
-  </si>
-  <si>
-    <t>taxid</t>
-  </si>
-  <si>
-    <t>grp name</t>
-  </si>
-  <si>
     <t>subscriber id</t>
   </si>
   <si>
@@ -454,9 +442,6 @@
     <t>AR To</t>
   </si>
   <si>
-    <t>broker id</t>
-  </si>
-  <si>
     <t>Group term-01</t>
   </si>
   <si>
@@ -1688,6 +1673,42 @@
   </si>
   <si>
     <t>Ad2</t>
+  </si>
+  <si>
+    <t>Broker id</t>
+  </si>
+  <si>
+    <t>Application id</t>
+  </si>
+  <si>
+    <t>Group id</t>
+  </si>
+  <si>
+    <t>Tax id</t>
+  </si>
+  <si>
+    <t>Group name</t>
+  </si>
+  <si>
+    <t>7476123</t>
+  </si>
+  <si>
+    <t>HFA7123</t>
+  </si>
+  <si>
+    <t>3100704123</t>
+  </si>
+  <si>
+    <t>CG5123</t>
+  </si>
+  <si>
+    <t>298391123</t>
+  </si>
+  <si>
+    <t>Group term123</t>
+  </si>
+  <si>
+    <t>45012519123</t>
   </si>
 </sst>
 </file>
@@ -1797,7 +1818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1862,6 +1883,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2198,7 +2221,7 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -2219,7 +2242,7 @@
         <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>9</v>
@@ -2242,7 +2265,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -2263,7 +2286,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>11</v>
@@ -2286,7 +2309,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -2307,7 +2330,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>13</v>
@@ -2330,7 +2353,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H5" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>15</v>
@@ -2353,7 +2376,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H6" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>17</v>
@@ -2384,8 +2407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429E2D65-46FC-4E21-9DB5-EB567EC510F0}">
   <dimension ref="A1:N171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H15"/>
+    <sheetView topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2402,150 +2425,150 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>544</v>
-      </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="K2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="N2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G3" t="s">
         <v>39</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="K3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="N3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G4" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="K4" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="N4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>56</v>
@@ -2554,269 +2577,269 @@
         <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="J7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="K7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F8" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="G8" s="37" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J8" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="K8" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F9" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="J9" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="K9" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C10" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F10" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="J10" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="K10" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C11" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F11" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="J11" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="K11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F12" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="J12" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="K12" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F13" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="J13" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="K13" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F14" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="J14" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="K14" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F15" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="J15" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="K15" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2834,16 +2857,16 @@
         <v>45012397700</v>
       </c>
       <c r="B23" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C23" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E23" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H23" s="16">
         <v>45012514500</v>
@@ -2854,16 +2877,16 @@
         <v>45012397600</v>
       </c>
       <c r="B24" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C24" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E24" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H24" s="16">
         <v>45012514400</v>
@@ -2874,16 +2897,16 @@
         <v>45012397500</v>
       </c>
       <c r="B25" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C25" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E25" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H25" s="16">
         <v>45012514300</v>
@@ -2891,16 +2914,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E26" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H26">
         <v>45012513900</v>
@@ -2911,16 +2934,16 @@
         <v>45012397300</v>
       </c>
       <c r="B27" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C27" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E27" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H27">
         <v>45012513600</v>
@@ -2931,16 +2954,16 @@
         <v>45012260200</v>
       </c>
       <c r="B28" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C28" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E28" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H28" s="16">
         <v>45012513800</v>
@@ -2951,16 +2974,16 @@
         <v>45012259900</v>
       </c>
       <c r="B29" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C29" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E29" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2968,16 +2991,16 @@
         <v>45012259800</v>
       </c>
       <c r="B30" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C30" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E30" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2985,16 +3008,16 @@
         <v>45012259600</v>
       </c>
       <c r="B31" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C31" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E31" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3002,16 +3025,16 @@
         <v>45012259300</v>
       </c>
       <c r="B32" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C32" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E32" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3019,16 +3042,16 @@
         <v>45012259200</v>
       </c>
       <c r="B33" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C33" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E33" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3036,16 +3059,16 @@
         <v>45012257900</v>
       </c>
       <c r="B34" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C34" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D34" s="14">
         <v>32929</v>
       </c>
       <c r="E34" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3053,16 +3076,16 @@
         <v>45012257800</v>
       </c>
       <c r="B35" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C35" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D35" s="14">
         <v>32929</v>
       </c>
       <c r="E35" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3070,16 +3093,16 @@
         <v>45012257600</v>
       </c>
       <c r="B36" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C36" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D36" s="14">
         <v>32929</v>
       </c>
       <c r="E36" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3087,16 +3110,16 @@
         <v>45012257500</v>
       </c>
       <c r="B37" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C37" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D37" s="14">
         <v>32929</v>
       </c>
       <c r="E37" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3104,16 +3127,16 @@
         <v>45012244900</v>
       </c>
       <c r="B38" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C38" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D38" s="14">
         <v>32929</v>
       </c>
       <c r="E38" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3121,16 +3144,16 @@
         <v>45012244200</v>
       </c>
       <c r="B39" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C39" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D39" s="14">
         <v>32929</v>
       </c>
       <c r="E39" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3138,16 +3161,16 @@
         <v>45012242000</v>
       </c>
       <c r="B40" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C40" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D40" s="14">
         <v>32929</v>
       </c>
       <c r="E40" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3155,16 +3178,16 @@
         <v>45012240200</v>
       </c>
       <c r="B41" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C41" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D41" s="14">
         <v>32929</v>
       </c>
       <c r="E41" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3172,16 +3195,16 @@
         <v>45012239700</v>
       </c>
       <c r="B42" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C42" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D42" s="14">
         <v>32929</v>
       </c>
       <c r="E42" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3189,16 +3212,16 @@
         <v>45012239000</v>
       </c>
       <c r="B43" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C43" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D43" s="14">
         <v>32929</v>
       </c>
       <c r="E43" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3206,16 +3229,16 @@
         <v>45012238400</v>
       </c>
       <c r="B44" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C44" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D44" s="14">
         <v>32929</v>
       </c>
       <c r="E44" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3223,16 +3246,16 @@
         <v>45012236500</v>
       </c>
       <c r="B45" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C45" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D45" s="14">
         <v>29221</v>
       </c>
       <c r="E45" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3240,16 +3263,16 @@
         <v>45012196500</v>
       </c>
       <c r="B46" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C46" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D46" s="14">
         <v>41883</v>
       </c>
       <c r="E46" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3257,16 +3280,16 @@
         <v>45012196300</v>
       </c>
       <c r="B47" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C47" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D47" s="14">
         <v>41883</v>
       </c>
       <c r="E47" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3274,16 +3297,16 @@
         <v>45012195300</v>
       </c>
       <c r="B48" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C48" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D48" s="14">
         <v>41883</v>
       </c>
       <c r="E48" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3291,16 +3314,16 @@
         <v>45012195100</v>
       </c>
       <c r="B49" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C49" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D49" s="14">
         <v>41883</v>
       </c>
       <c r="E49" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3308,16 +3331,16 @@
         <v>45012194900</v>
       </c>
       <c r="B50" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C50" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D50" s="14">
         <v>32752</v>
       </c>
       <c r="E50" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3325,16 +3348,16 @@
         <v>45012194700</v>
       </c>
       <c r="B51" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C51" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D51" s="14">
         <v>32752</v>
       </c>
       <c r="E51" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3342,16 +3365,16 @@
         <v>45012194500</v>
       </c>
       <c r="B52" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C52" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D52" s="14">
         <v>32752</v>
       </c>
       <c r="E52" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3359,16 +3382,16 @@
         <v>45012194200</v>
       </c>
       <c r="B53" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C53" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D53" s="14">
         <v>32752</v>
       </c>
       <c r="E53" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3376,16 +3399,16 @@
         <v>45012194000</v>
       </c>
       <c r="B54" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C54" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D54" s="14">
         <v>32752</v>
       </c>
       <c r="E54" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -3393,16 +3416,16 @@
         <v>45012195800</v>
       </c>
       <c r="B55" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C55" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D55" s="14">
         <v>41883</v>
       </c>
       <c r="E55" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3410,16 +3433,16 @@
         <v>45012195600</v>
       </c>
       <c r="B56" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C56" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D56" s="14">
         <v>41883</v>
       </c>
       <c r="E56" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3427,16 +3450,16 @@
         <v>45012195400</v>
       </c>
       <c r="B57" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D57" s="14">
         <v>41883</v>
       </c>
       <c r="E57" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -3444,16 +3467,16 @@
         <v>45012186000</v>
       </c>
       <c r="B58" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C58" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D58" s="14">
         <v>41883</v>
       </c>
       <c r="E58" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3461,16 +3484,16 @@
         <v>45012185800</v>
       </c>
       <c r="B59" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C59" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D59" s="14">
         <v>32752</v>
       </c>
       <c r="E59" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3478,16 +3501,16 @@
         <v>45012185700</v>
       </c>
       <c r="B60" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C60" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D60" s="14">
         <v>32752</v>
       </c>
       <c r="E60" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3495,16 +3518,16 @@
         <v>45012185400</v>
       </c>
       <c r="B61" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C61" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D61" s="14">
         <v>32752</v>
       </c>
       <c r="E61" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3512,16 +3535,16 @@
         <v>45012185200</v>
       </c>
       <c r="B62" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C62" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D62" s="14">
         <v>32752</v>
       </c>
       <c r="E62" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3529,16 +3552,16 @@
         <v>45012185000</v>
       </c>
       <c r="B63" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C63" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D63" s="14">
         <v>41883</v>
       </c>
       <c r="E63" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -3546,16 +3569,16 @@
         <v>45012184800</v>
       </c>
       <c r="B64" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C64" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D64" s="14">
         <v>25569</v>
       </c>
       <c r="E64" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3563,16 +3586,16 @@
         <v>45012184600</v>
       </c>
       <c r="B65" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C65" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D65" s="14">
         <v>32752</v>
       </c>
       <c r="E65" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3580,7 +3603,7 @@
         <v>45011982200</v>
       </c>
       <c r="B66" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C66" t="s">
         <v>36</v>
@@ -3589,7 +3612,7 @@
         <v>33058</v>
       </c>
       <c r="E66" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3597,7 +3620,7 @@
         <v>45011982200</v>
       </c>
       <c r="B67" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C67" t="s">
         <v>36</v>
@@ -3606,7 +3629,7 @@
         <v>33058</v>
       </c>
       <c r="E67" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3614,7 +3637,7 @@
         <v>45011982100</v>
       </c>
       <c r="B68" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C68" t="s">
         <v>36</v>
@@ -3623,7 +3646,7 @@
         <v>32994</v>
       </c>
       <c r="E68" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3631,7 +3654,7 @@
         <v>45011974800</v>
       </c>
       <c r="B69" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C69" t="s">
         <v>36</v>
@@ -3640,7 +3663,7 @@
         <v>33055</v>
       </c>
       <c r="E69" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3648,16 +3671,16 @@
         <v>45012965900</v>
       </c>
       <c r="B70" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C70" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D70" s="14">
         <v>30903</v>
       </c>
       <c r="E70" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3665,7 +3688,7 @@
         <v>45012939900</v>
       </c>
       <c r="B71" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C71" t="s">
         <v>36</v>
@@ -3674,7 +3697,7 @@
         <v>33002</v>
       </c>
       <c r="E71" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3682,7 +3705,7 @@
         <v>45012826300</v>
       </c>
       <c r="B72" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C72" t="s">
         <v>33</v>
@@ -3691,7 +3714,7 @@
         <v>29266</v>
       </c>
       <c r="E72" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3699,7 +3722,7 @@
         <v>45012826200</v>
       </c>
       <c r="B73" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C73" t="s">
         <v>34</v>
@@ -3708,7 +3731,7 @@
         <v>31180</v>
       </c>
       <c r="E73" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3716,16 +3739,16 @@
         <v>45012824200</v>
       </c>
       <c r="B74" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C74" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D74" s="14">
         <v>31180</v>
       </c>
       <c r="E74" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3742,7 +3765,7 @@
         <v>29266</v>
       </c>
       <c r="E75" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3750,16 +3773,16 @@
         <v>45012821900</v>
       </c>
       <c r="B76" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C76" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D76" s="14">
         <v>31180</v>
       </c>
       <c r="E76" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3767,16 +3790,16 @@
         <v>45012811200</v>
       </c>
       <c r="B77" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C77" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D77" s="14">
         <v>32874</v>
       </c>
       <c r="E77" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3784,16 +3807,16 @@
         <v>45012811300</v>
       </c>
       <c r="B78" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C78" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D78" s="14">
         <v>33239</v>
       </c>
       <c r="E78" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3801,16 +3824,16 @@
         <v>45012811600</v>
       </c>
       <c r="B79" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C79" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D79" s="14">
         <v>29266</v>
       </c>
       <c r="E79" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3818,16 +3841,16 @@
         <v>45012390300</v>
       </c>
       <c r="B80" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C80" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D80" s="14">
         <v>29266</v>
       </c>
       <c r="E80" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3835,16 +3858,16 @@
         <v>45012808500</v>
       </c>
       <c r="B81" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C81" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D81" s="14">
         <v>31180</v>
       </c>
       <c r="E81" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3852,16 +3875,16 @@
         <v>45012389400</v>
       </c>
       <c r="B82" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C82" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D82" s="14">
         <v>29266</v>
       </c>
       <c r="E82" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3869,16 +3892,16 @@
         <v>45012807600</v>
       </c>
       <c r="B83" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C83" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D83" s="14">
         <v>31180</v>
       </c>
       <c r="E83" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3886,16 +3909,16 @@
         <v>45012807600</v>
       </c>
       <c r="B84" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C84" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D84" s="14">
         <v>31180</v>
       </c>
       <c r="E84" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3903,16 +3926,16 @@
         <v>45012802800</v>
       </c>
       <c r="B85" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C85" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D85" s="14">
         <v>42171</v>
       </c>
       <c r="E85" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3920,16 +3943,16 @@
         <v>45012801100</v>
       </c>
       <c r="B86" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C86" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D86" s="14">
         <v>31545</v>
       </c>
       <c r="E86" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3937,7 +3960,7 @@
         <v>45012787000</v>
       </c>
       <c r="B87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C87" t="s">
         <v>36</v>
@@ -3946,7 +3969,7 @@
         <v>33124</v>
       </c>
       <c r="E87" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3954,16 +3977,16 @@
         <v>45012785800</v>
       </c>
       <c r="B88" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C88" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D88" s="14">
         <v>32991</v>
       </c>
       <c r="E88" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3980,7 +4003,7 @@
         <v>33063</v>
       </c>
       <c r="E89" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3988,16 +4011,16 @@
         <v>45012785900</v>
       </c>
       <c r="B90" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C90" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D90" s="14">
         <v>33142</v>
       </c>
       <c r="E90" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -4005,7 +4028,7 @@
         <v>45012760300</v>
       </c>
       <c r="B91" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C91" t="s">
         <v>36</v>
@@ -4014,7 +4037,7 @@
         <v>32668</v>
       </c>
       <c r="E91" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -4022,7 +4045,7 @@
         <v>45012730600</v>
       </c>
       <c r="B92" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C92" t="s">
         <v>36</v>
@@ -4031,7 +4054,7 @@
         <v>33094</v>
       </c>
       <c r="E92" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -4039,7 +4062,7 @@
         <v>45012691000</v>
       </c>
       <c r="B93" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C93" t="s">
         <v>36</v>
@@ -4048,7 +4071,7 @@
         <v>33033</v>
       </c>
       <c r="E93" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -4056,16 +4079,16 @@
         <v>45012595400</v>
       </c>
       <c r="B94" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C94" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D94" s="14">
         <v>29664</v>
       </c>
       <c r="E94" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -4073,16 +4096,16 @@
         <v>45012595300</v>
       </c>
       <c r="B95" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C95" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D95" s="14">
         <v>31686</v>
       </c>
       <c r="E95" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -4090,16 +4113,16 @@
         <v>45012593000</v>
       </c>
       <c r="B96" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C96" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D96" s="14">
         <v>32412</v>
       </c>
       <c r="E96" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -4107,16 +4130,16 @@
         <v>45012405100</v>
       </c>
       <c r="B97" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C97" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D97" s="14">
         <v>31048</v>
       </c>
       <c r="E97" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -4124,7 +4147,7 @@
         <v>45012104900</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C98" t="s">
         <v>36</v>
@@ -4133,7 +4156,7 @@
         <v>32607</v>
       </c>
       <c r="E98" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -4141,16 +4164,16 @@
         <v>45011901000</v>
       </c>
       <c r="B99" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C99" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D99" s="14">
         <v>32143</v>
       </c>
       <c r="E99" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -4158,16 +4181,16 @@
         <v>45011900900</v>
       </c>
       <c r="B100" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C100" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D100" s="14">
         <v>32143</v>
       </c>
       <c r="E100" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -4175,16 +4198,16 @@
         <v>45011900500</v>
       </c>
       <c r="B101" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C101" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D101" s="14">
         <v>29249</v>
       </c>
       <c r="E101" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -4192,16 +4215,16 @@
         <v>45011900400</v>
       </c>
       <c r="B102" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C102" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D102" s="14">
         <v>29246</v>
       </c>
       <c r="E102" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -4209,16 +4232,16 @@
         <v>45011900200</v>
       </c>
       <c r="B103" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C103" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D103" s="14">
         <v>29240</v>
       </c>
       <c r="E103" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -4226,16 +4249,16 @@
         <v>45011899900</v>
       </c>
       <c r="B104" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C104" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D104" s="14">
         <v>29231</v>
       </c>
       <c r="E104" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -4243,16 +4266,16 @@
         <v>45011899500</v>
       </c>
       <c r="B105" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C105" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D105" s="14">
         <v>29248</v>
       </c>
       <c r="E105" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -4260,16 +4283,16 @@
         <v>45011899400</v>
       </c>
       <c r="B106" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C106" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D106" s="14">
         <v>29239</v>
       </c>
       <c r="E106" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -4277,16 +4300,16 @@
         <v>45011899300</v>
       </c>
       <c r="B107" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C107" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D107" s="14">
         <v>29230</v>
       </c>
       <c r="E107" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -4294,16 +4317,16 @@
         <v>45011899200</v>
       </c>
       <c r="B108" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C108" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D108" s="14">
         <v>29221</v>
       </c>
       <c r="E108" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -4311,16 +4334,16 @@
         <v>45011854500</v>
       </c>
       <c r="B109" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C109" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D109" s="14">
         <v>27912</v>
       </c>
       <c r="E109" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -4331,13 +4354,13 @@
         <v>57</v>
       </c>
       <c r="C110" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D110" s="14">
         <v>35097</v>
       </c>
       <c r="E110" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -4345,16 +4368,16 @@
         <v>45012295000</v>
       </c>
       <c r="B111" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C111" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D111" s="14">
         <v>34049</v>
       </c>
       <c r="E111" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -4362,16 +4385,16 @@
         <v>45012293400</v>
       </c>
       <c r="B112" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C112" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D112" s="14">
         <v>29952</v>
       </c>
       <c r="E112" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -4379,16 +4402,16 @@
         <v>45012293100</v>
       </c>
       <c r="B113" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C113" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D113" s="14">
         <v>29221</v>
       </c>
       <c r="E113" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -4396,16 +4419,16 @@
         <v>45012599400</v>
       </c>
       <c r="B114" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C114" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D114" s="14">
         <v>33318</v>
       </c>
       <c r="E114" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -4413,16 +4436,16 @@
         <v>45012597100</v>
       </c>
       <c r="B115" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C115" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D115" s="14">
         <v>32340</v>
       </c>
       <c r="E115" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -4430,16 +4453,16 @@
         <v>45012414900</v>
       </c>
       <c r="B116" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C116" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D116" s="14">
         <v>32340</v>
       </c>
       <c r="E116" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -4447,16 +4470,16 @@
         <v>45012365700</v>
       </c>
       <c r="B117" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C117" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D117" s="14">
         <v>28911</v>
       </c>
       <c r="E117" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -4464,16 +4487,16 @@
         <v>45012231200</v>
       </c>
       <c r="B118" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C118" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D118" s="14">
         <v>28911</v>
       </c>
       <c r="E118" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -4481,16 +4504,16 @@
         <v>45012155100</v>
       </c>
       <c r="B119" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C119" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D119" s="14">
         <v>30136</v>
       </c>
       <c r="E119" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -4498,7 +4521,7 @@
         <v>45012154600</v>
       </c>
       <c r="B120" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C120" t="s">
         <v>36</v>
@@ -4507,7 +4530,7 @@
         <v>33027</v>
       </c>
       <c r="E120" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -4515,7 +4538,7 @@
         <v>45012088200</v>
       </c>
       <c r="B121" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C121" t="s">
         <v>36</v>
@@ -4524,7 +4547,7 @@
         <v>33027</v>
       </c>
       <c r="E121" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -4532,7 +4555,7 @@
         <v>45012084700</v>
       </c>
       <c r="B122" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C122" t="s">
         <v>36</v>
@@ -4541,7 +4564,7 @@
         <v>25204</v>
       </c>
       <c r="E122" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -4549,16 +4572,16 @@
         <v>45011955700</v>
       </c>
       <c r="B123" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C123" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D123" s="14">
         <v>33318</v>
       </c>
       <c r="E123" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -4566,16 +4589,16 @@
         <v>45011878300</v>
       </c>
       <c r="B124" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C124" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D124" s="14">
         <v>30410</v>
       </c>
       <c r="E124" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -4583,16 +4606,16 @@
         <v>45011862500</v>
       </c>
       <c r="B125" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C125" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D125" s="14">
         <v>31569</v>
       </c>
       <c r="E125" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -4600,16 +4623,16 @@
         <v>45011860000</v>
       </c>
       <c r="B126" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C126" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D126" s="14">
         <v>32094</v>
       </c>
       <c r="E126" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -4617,16 +4640,16 @@
         <v>45011858500</v>
       </c>
       <c r="B127" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C127" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D127" s="14">
         <v>29984</v>
       </c>
       <c r="E127" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -4634,16 +4657,16 @@
         <v>45011857400</v>
       </c>
       <c r="B128" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C128" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D128" s="14">
         <v>30776</v>
       </c>
       <c r="E128" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -4651,16 +4674,16 @@
         <v>45011858000</v>
       </c>
       <c r="B129" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C129" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D129" s="14">
         <v>30378</v>
       </c>
       <c r="E129" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -4668,16 +4691,16 @@
         <v>45011847900</v>
       </c>
       <c r="B130" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C130" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D130" s="14">
         <v>30146</v>
       </c>
       <c r="E130" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -4685,16 +4708,16 @@
         <v>45012156200</v>
       </c>
       <c r="B131" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C131" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D131" s="14">
         <v>32340</v>
       </c>
       <c r="E131" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -4702,16 +4725,16 @@
         <v>45012138000</v>
       </c>
       <c r="B132" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C132" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D132" s="14">
         <v>25818</v>
       </c>
       <c r="E132" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -4719,16 +4742,16 @@
         <v>45011974600</v>
       </c>
       <c r="B133" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C133" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D133" s="14">
         <v>32340</v>
       </c>
       <c r="E133" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -4736,16 +4759,16 @@
         <v>45011856500</v>
       </c>
       <c r="B134" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C134" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D134" s="14">
         <v>29221</v>
       </c>
       <c r="E134" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -4753,16 +4776,16 @@
         <v>45011518700</v>
       </c>
       <c r="B135" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C135" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D135" s="14">
         <v>25569</v>
       </c>
       <c r="E135" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -4770,16 +4793,16 @@
         <v>45011518400</v>
       </c>
       <c r="B136" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C136" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D136" s="14">
         <v>29473</v>
       </c>
       <c r="E136" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -4787,16 +4810,16 @@
         <v>45011494800</v>
       </c>
       <c r="B137" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C137" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D137" s="14">
         <v>32661</v>
       </c>
       <c r="E137" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -4804,16 +4827,16 @@
         <v>45011726400</v>
       </c>
       <c r="B138" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C138" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D138" s="14">
         <v>28911</v>
       </c>
       <c r="E138" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -4821,16 +4844,16 @@
         <v>45011725900</v>
       </c>
       <c r="B139" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C139" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D139" s="14">
         <v>31974</v>
       </c>
       <c r="E139" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -4838,16 +4861,16 @@
         <v>45011725800</v>
       </c>
       <c r="B140" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C140" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D140" s="14">
         <v>32340</v>
       </c>
       <c r="E140" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -4855,16 +4878,16 @@
         <v>45011723400</v>
       </c>
       <c r="B141" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C141" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D141" s="14">
         <v>20086</v>
       </c>
       <c r="E141" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -4872,16 +4895,16 @@
         <v>45011723400</v>
       </c>
       <c r="B142" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C142" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D142" s="14">
         <v>29867</v>
       </c>
       <c r="E142" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -4889,16 +4912,16 @@
         <v>45011723000</v>
       </c>
       <c r="B143" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C143" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D143" s="14">
         <v>29502</v>
       </c>
       <c r="E143" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -4906,7 +4929,7 @@
         <v>45011719500</v>
       </c>
       <c r="B144" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C144" t="s">
         <v>36</v>
@@ -4915,7 +4938,7 @@
         <v>25204</v>
       </c>
       <c r="E144" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -4923,16 +4946,16 @@
         <v>45011713900</v>
       </c>
       <c r="B145" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C145" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D145" s="14">
         <v>31173</v>
       </c>
       <c r="E145" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -4940,16 +4963,16 @@
         <v>45011713600</v>
       </c>
       <c r="B146" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C146" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D146" s="14">
         <v>31172</v>
       </c>
       <c r="E146" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4957,16 +4980,16 @@
         <v>45011742300</v>
       </c>
       <c r="B147" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C147" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D147" s="14">
         <v>34478</v>
       </c>
       <c r="E147" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -4974,16 +4997,16 @@
         <v>45011740000</v>
       </c>
       <c r="B148" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C148" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D148" s="14">
         <v>34395</v>
       </c>
       <c r="E148" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4991,16 +5014,16 @@
         <v>45011615200</v>
       </c>
       <c r="B149" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C149" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D149" s="14">
         <v>34680</v>
       </c>
       <c r="E149" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -5008,16 +5031,16 @@
         <v>45011610600</v>
       </c>
       <c r="B150" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C150" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D150" s="14">
         <v>34010</v>
       </c>
       <c r="E150" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -5025,16 +5048,16 @@
         <v>45011398200</v>
       </c>
       <c r="B151" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C151" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D151" s="14">
         <v>32454</v>
       </c>
       <c r="E151" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -5042,16 +5065,16 @@
         <v>45011394600</v>
       </c>
       <c r="B152" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C152" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D152" s="14">
         <v>33850</v>
       </c>
       <c r="E152" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -5059,16 +5082,16 @@
         <v>45011387300</v>
       </c>
       <c r="B153" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C153" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D153" s="14">
         <v>23925</v>
       </c>
       <c r="E153" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -5076,16 +5099,16 @@
         <v>45011273000</v>
       </c>
       <c r="B154" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C154" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D154" s="14">
         <v>25146</v>
       </c>
       <c r="E154" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -5093,16 +5116,16 @@
         <v>45011176300</v>
       </c>
       <c r="B155" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C155" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D155" s="14">
         <v>30579</v>
       </c>
       <c r="E155" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -5110,16 +5133,16 @@
         <v>45011176100</v>
       </c>
       <c r="B156" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C156" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D156" s="14">
         <v>32818</v>
       </c>
       <c r="E156" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -5127,16 +5150,16 @@
         <v>45011175900</v>
       </c>
       <c r="B157" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C157" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D157" s="14">
         <v>33309</v>
       </c>
       <c r="E157" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -5144,16 +5167,16 @@
         <v>45011175300</v>
       </c>
       <c r="B158" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C158" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D158" s="14">
         <v>31248</v>
       </c>
       <c r="E158" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -5161,16 +5184,16 @@
         <v>45011175200</v>
       </c>
       <c r="B159" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C159" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D159" s="14">
         <v>32717</v>
       </c>
       <c r="E159" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -5178,16 +5201,16 @@
         <v>45011742300</v>
       </c>
       <c r="B160" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C160" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D160" s="14">
         <v>34478</v>
       </c>
       <c r="E160" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -5195,16 +5218,16 @@
         <v>45011740000</v>
       </c>
       <c r="B161" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C161" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D161" s="14">
         <v>34395</v>
       </c>
       <c r="E161" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -5212,16 +5235,16 @@
         <v>45011615200</v>
       </c>
       <c r="B162" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C162" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D162" s="14">
         <v>34680</v>
       </c>
       <c r="E162" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -5229,16 +5252,16 @@
         <v>45011610600</v>
       </c>
       <c r="B163" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C163" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D163" s="14">
         <v>34010</v>
       </c>
       <c r="E163" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -5246,16 +5269,16 @@
         <v>45011398200</v>
       </c>
       <c r="B164" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C164" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D164" s="14">
         <v>32454</v>
       </c>
       <c r="E164" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -5263,16 +5286,16 @@
         <v>45011394600</v>
       </c>
       <c r="B165" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C165" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D165" s="14">
         <v>33850</v>
       </c>
       <c r="E165" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -5280,16 +5303,16 @@
         <v>45011387300</v>
       </c>
       <c r="B166" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C166" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D166" s="14">
         <v>23925</v>
       </c>
       <c r="E166" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -5297,16 +5320,16 @@
         <v>45011273000</v>
       </c>
       <c r="B167" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C167" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D167" s="14">
         <v>25146</v>
       </c>
       <c r="E167" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -5314,16 +5337,16 @@
         <v>45011176300</v>
       </c>
       <c r="B168" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C168" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D168" s="14">
         <v>30579</v>
       </c>
       <c r="E168" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -5331,16 +5354,16 @@
         <v>45011176100</v>
       </c>
       <c r="B169" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C169" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D169" s="14">
         <v>32818</v>
       </c>
       <c r="E169" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -5348,16 +5371,16 @@
         <v>45011175900</v>
       </c>
       <c r="B170" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C170" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D170" s="14">
         <v>33309</v>
       </c>
       <c r="E170" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -5365,16 +5388,16 @@
         <v>45011175300</v>
       </c>
       <c r="B171" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C171" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D171" s="14">
         <v>31248</v>
       </c>
       <c r="E171" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -5388,314 +5411,314 @@
   <dimension ref="H2:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H12"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H4" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="28" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H30" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H32" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H35" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H36" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H37" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H38" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H39" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H43" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H44" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H45" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H46" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="47" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H47" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="48" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H48" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H49" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H50" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H51" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H53" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H54" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H55" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H56" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H57" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H58" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H59" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="60" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H60" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="61" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H61" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="62" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H62" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -5705,10 +5728,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FE690F-DDFD-4144-88FC-DE8D1B169890}">
-  <dimension ref="A1:A153"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="H2" sqref="H2:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5716,82 +5739,147 @@
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>45012492500</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>45012491700</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>45012491000</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>45012397700</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>45012397600</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>45012397500</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M7" s="16"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>45012397400</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>45012397300</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H9" s="14">
+        <v>43800</v>
+      </c>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>45012260200</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H10" s="15">
+        <v>43800</v>
+      </c>
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>45012259900</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>45012259800</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>45012259600</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>45012259300</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>45012259200</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>45012257900</v>
       </c>
@@ -6515,10 +6603,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
@@ -6530,10 +6618,10 @@
         <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>42</v>
@@ -6542,7 +6630,7 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K1" s="29" t="s">
         <v>118</v>
@@ -6551,7 +6639,7 @@
         <v>50</v>
       </c>
       <c r="M1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="N1" s="32" t="s">
         <v>124</v>
@@ -6571,13 +6659,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>19</v>
@@ -6586,34 +6674,34 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K2" s="30" t="s">
         <v>43</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N2" s="33" t="s">
         <v>66</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="P2" s="34" t="s">
         <v>83</v>
@@ -6627,7 +6715,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -6636,13 +6724,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>41</v>
@@ -6651,10 +6739,10 @@
         <v>42</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K3" s="31" t="s">
         <v>43</v>
@@ -6663,7 +6751,7 @@
         <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="N3" s="33" t="s">
         <v>66</v>
@@ -6672,7 +6760,7 @@
         <v>67</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="Q3" s="34" t="s">
         <v>90</v>
@@ -6683,7 +6771,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -6695,10 +6783,10 @@
         <v>19</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G4" s="23" t="s">
         <v>41</v>
@@ -6710,16 +6798,16 @@
         <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L4" s="30" t="s">
         <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="N4" s="35" t="s">
         <v>66</v>
@@ -6739,7 +6827,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>3</v>
@@ -6757,19 +6845,19 @@
       <c r="H5" s="8"/>
       <c r="I5" s="6"/>
       <c r="J5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K5" s="30" t="s">
         <v>52</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="O5" s="36" t="s">
         <v>102</v>
@@ -6787,7 +6875,7 @@
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G6"/>
       <c r="J6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K6" s="31" t="s">
         <v>52</v>
@@ -6796,13 +6884,13 @@
         <v>51</v>
       </c>
       <c r="M6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N6" s="36" t="s">
         <v>101</v>
       </c>
       <c r="O6" s="32" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="P6" s="30" t="s">
         <v>110</v>
@@ -6817,7 +6905,7 @@
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G7"/>
       <c r="M7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="N7" s="36" t="s">
         <v>101</v>
@@ -6826,7 +6914,7 @@
         <v>102</v>
       </c>
       <c r="P7" s="29" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="30" t="s">
         <v>114</v>
@@ -6838,7 +6926,7 @@
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G8"/>
       <c r="M8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N8" s="35" t="s">
         <v>101</v>
@@ -7238,174 +7326,276 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2973B0-CDDC-449E-8E3C-85328113B7FE}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>129</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="E1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>551</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>126</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
+      </c>
+      <c r="F2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
+      </c>
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="D4" t="s">
         <v>127</v>
       </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>132</v>
+      <c r="E4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>554</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="H5" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>134</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="14">
-        <v>43800</v>
-      </c>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="G8" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="15">
-        <v>43800</v>
-      </c>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D9" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J11" s="16"/>
+      <c r="H9" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H11" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A189B058-0068-4869-B81A-90BA2F66BB5C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E39D59-A342-4D81-910D-9656BBB92A6E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFIC" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
     <sheet name="Enroll360" sheetId="4" r:id="rId6"/>
     <sheet name="Search" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">HSA!#REF!</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="567">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -430,18 +431,6 @@
     <t>subscriber id</t>
   </si>
   <si>
-    <t>CE from date</t>
-  </si>
-  <si>
-    <t>CE to date</t>
-  </si>
-  <si>
-    <t>AR from</t>
-  </si>
-  <si>
-    <t>AR To</t>
-  </si>
-  <si>
     <t>Group term-01</t>
   </si>
   <si>
@@ -451,12 +440,6 @@
     <t>45012519700</t>
   </si>
   <si>
-    <t>04/07/2021</t>
-  </si>
-  <si>
-    <t>12/01/2019</t>
-  </si>
-  <si>
     <t>HFA707020210408093341</t>
   </si>
   <si>
@@ -1690,32 +1673,77 @@
     <t>Group name</t>
   </si>
   <si>
-    <t>7476123</t>
-  </si>
-  <si>
-    <t>HFA7123</t>
-  </si>
-  <si>
-    <t>3100704123</t>
-  </si>
-  <si>
-    <t>CG5123</t>
-  </si>
-  <si>
-    <t>298391123</t>
-  </si>
-  <si>
-    <t>Group term123</t>
-  </si>
-  <si>
-    <t>45012519123</t>
+    <t>HFA702820210408045351</t>
+  </si>
+  <si>
+    <t>CG4992</t>
+  </si>
+  <si>
+    <t>TESTMAR1601</t>
+  </si>
+  <si>
+    <t>985954908</t>
+  </si>
+  <si>
+    <t>3100703900</t>
+  </si>
+  <si>
+    <t>834783759</t>
+  </si>
+  <si>
+    <t>3100704982</t>
+  </si>
+  <si>
+    <t>HFA707320210409110633</t>
+  </si>
+  <si>
+    <t>CG5035</t>
+  </si>
+  <si>
+    <t>Group Contract add-03</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>45012488300</t>
+  </si>
+  <si>
+    <t>45012520200</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>SMG</t>
+  </si>
+  <si>
+    <t>CRITICAL</t>
+  </si>
+  <si>
+    <t>TSK-272146</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Passive-2</t>
+  </si>
+  <si>
+    <t>CG0001</t>
+  </si>
+  <si>
+    <t>RESOLVED</t>
+  </si>
+  <si>
+    <t>TSK-272150</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1750,6 +1778,11 @@
       <color rgb="FF000000"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFD70303"/>
+      <name val="OpenSans"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1790,7 +1823,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1813,12 +1846,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1883,8 +1925,26 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2172,22 +2232,22 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2208,7 +2268,7 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="74.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
@@ -2219,9 +2279,9 @@
     <col min="8" max="8" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -2242,7 +2302,7 @@
         <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>9</v>
@@ -2263,9 +2323,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -2286,7 +2346,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>11</v>
@@ -2307,9 +2367,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -2330,7 +2390,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>13</v>
@@ -2351,9 +2411,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="H5" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>15</v>
@@ -2374,9 +2434,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="H6" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>17</v>
@@ -2411,7 +2471,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
@@ -2423,152 +2483,152 @@
     <col min="8" max="13" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14">
       <c r="B1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14">
+      <c r="B2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" t="s">
         <v>198</v>
       </c>
-      <c r="E1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F1" t="s">
-        <v>435</v>
-      </c>
-      <c r="G1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="F2" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="G2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="D2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>499</v>
-      </c>
-      <c r="G2" t="s">
-        <v>437</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>540</v>
-      </c>
       <c r="K2" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="N2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
       <c r="B3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G3" t="s">
         <v>39</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="K3" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="N3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
       <c r="B4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="G4" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="K4" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="N4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
       <c r="B7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>56</v>
@@ -2577,1033 +2637,1033 @@
         <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="J7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="K7" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
       <c r="B8" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F8" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G8" s="37" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="J8" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="K8" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F9" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="J9" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="K9" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C10" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F10" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="J10" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="K10" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
       <c r="B11" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C11" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F11" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="J11" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="K11" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
       <c r="C12" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F12" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="J12" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="K12" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
       <c r="C13" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F13" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="J13" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="K13" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
       <c r="C14" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F14" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="J14" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="K14" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
       <c r="C15" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F15" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="J15" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="K15" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="H21" s="16">
         <v>45012514700</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="H22" s="16">
         <v>45012514600</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>45012397700</v>
       </c>
       <c r="B23" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C23" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="E23" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H23" s="16">
         <v>45012514500</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>45012397600</v>
       </c>
       <c r="B24" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C24" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="E24" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H24" s="16">
         <v>45012514400</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>45012397500</v>
       </c>
       <c r="B25" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C25" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E25" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H25" s="16">
         <v>45012514300</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="B26" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C26" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="E26" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H26">
         <v>45012513900</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>45012397300</v>
       </c>
       <c r="B27" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C27" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E27" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H27">
         <v>45012513600</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>45012260200</v>
       </c>
       <c r="B28" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C28" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="E28" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="H28" s="16">
         <v>45012513800</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>45012259900</v>
       </c>
       <c r="B29" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C29" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E29" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>45012259800</v>
       </c>
       <c r="B30" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C30" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E30" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>45012259600</v>
       </c>
       <c r="B31" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C31" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E31" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>45012259300</v>
       </c>
       <c r="B32" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C32" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E32" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>45012259200</v>
       </c>
       <c r="B33" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C33" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E33" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>45012257900</v>
       </c>
       <c r="B34" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C34" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D34" s="14">
         <v>32929</v>
       </c>
       <c r="E34" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>45012257800</v>
       </c>
       <c r="B35" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C35" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D35" s="14">
         <v>32929</v>
       </c>
       <c r="E35" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>45012257600</v>
       </c>
       <c r="B36" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C36" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D36" s="14">
         <v>32929</v>
       </c>
       <c r="E36" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>45012257500</v>
       </c>
       <c r="B37" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C37" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D37" s="14">
         <v>32929</v>
       </c>
       <c r="E37" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>45012244900</v>
       </c>
       <c r="B38" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C38" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D38" s="14">
         <v>32929</v>
       </c>
       <c r="E38" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>45012244200</v>
       </c>
       <c r="B39" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C39" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D39" s="14">
         <v>32929</v>
       </c>
       <c r="E39" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>45012242000</v>
       </c>
       <c r="B40" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C40" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D40" s="14">
         <v>32929</v>
       </c>
       <c r="E40" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>45012240200</v>
       </c>
       <c r="B41" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C41" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D41" s="14">
         <v>32929</v>
       </c>
       <c r="E41" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>45012239700</v>
       </c>
       <c r="B42" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C42" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D42" s="14">
         <v>32929</v>
       </c>
       <c r="E42" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>45012239000</v>
       </c>
       <c r="B43" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C43" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D43" s="14">
         <v>32929</v>
       </c>
       <c r="E43" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>45012238400</v>
       </c>
       <c r="B44" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C44" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D44" s="14">
         <v>32929</v>
       </c>
       <c r="E44" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>45012236500</v>
       </c>
       <c r="B45" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C45" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D45" s="14">
         <v>29221</v>
       </c>
       <c r="E45" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>45012196500</v>
       </c>
       <c r="B46" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C46" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D46" s="14">
         <v>41883</v>
       </c>
       <c r="E46" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>45012196300</v>
       </c>
       <c r="B47" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C47" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D47" s="14">
         <v>41883</v>
       </c>
       <c r="E47" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>45012195300</v>
       </c>
       <c r="B48" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C48" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D48" s="14">
         <v>41883</v>
       </c>
       <c r="E48" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>45012195100</v>
       </c>
       <c r="B49" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C49" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D49" s="14">
         <v>41883</v>
       </c>
       <c r="E49" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>45012194900</v>
       </c>
       <c r="B50" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C50" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D50" s="14">
         <v>32752</v>
       </c>
       <c r="E50" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>45012194700</v>
       </c>
       <c r="B51" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C51" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D51" s="14">
         <v>32752</v>
       </c>
       <c r="E51" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>45012194500</v>
       </c>
       <c r="B52" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C52" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D52" s="14">
         <v>32752</v>
       </c>
       <c r="E52" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>45012194200</v>
       </c>
       <c r="B53" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C53" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D53" s="14">
         <v>32752</v>
       </c>
       <c r="E53" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>45012194000</v>
       </c>
       <c r="B54" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C54" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D54" s="14">
         <v>32752</v>
       </c>
       <c r="E54" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>45012195800</v>
       </c>
       <c r="B55" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C55" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D55" s="14">
         <v>41883</v>
       </c>
       <c r="E55" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>45012195600</v>
       </c>
       <c r="B56" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C56" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D56" s="14">
         <v>41883</v>
       </c>
       <c r="E56" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>45012195400</v>
       </c>
       <c r="B57" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C57" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D57" s="14">
         <v>41883</v>
       </c>
       <c r="E57" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>45012186000</v>
       </c>
       <c r="B58" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C58" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D58" s="14">
         <v>41883</v>
       </c>
       <c r="E58" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>45012185800</v>
       </c>
       <c r="B59" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C59" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D59" s="14">
         <v>32752</v>
       </c>
       <c r="E59" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>45012185700</v>
       </c>
       <c r="B60" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C60" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D60" s="14">
         <v>32752</v>
       </c>
       <c r="E60" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>45012185400</v>
       </c>
       <c r="B61" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C61" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D61" s="14">
         <v>32752</v>
       </c>
       <c r="E61" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>45012185200</v>
       </c>
       <c r="B62" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C62" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D62" s="14">
         <v>32752</v>
       </c>
       <c r="E62" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>45012185000</v>
       </c>
       <c r="B63" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C63" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D63" s="14">
         <v>41883</v>
       </c>
       <c r="E63" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>45012184800</v>
       </c>
       <c r="B64" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C64" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D64" s="14">
         <v>25569</v>
       </c>
       <c r="E64" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>45012184600</v>
       </c>
       <c r="B65" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C65" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D65" s="14">
         <v>32752</v>
       </c>
       <c r="E65" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>45011982200</v>
       </c>
       <c r="B66" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C66" t="s">
         <v>36</v>
@@ -3612,15 +3672,15 @@
         <v>33058</v>
       </c>
       <c r="E66" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>45011982200</v>
       </c>
       <c r="B67" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C67" t="s">
         <v>36</v>
@@ -3629,15 +3689,15 @@
         <v>33058</v>
       </c>
       <c r="E67" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>45011982100</v>
       </c>
       <c r="B68" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C68" t="s">
         <v>36</v>
@@ -3646,15 +3706,15 @@
         <v>32994</v>
       </c>
       <c r="E68" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>45011974800</v>
       </c>
       <c r="B69" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C69" t="s">
         <v>36</v>
@@ -3663,32 +3723,32 @@
         <v>33055</v>
       </c>
       <c r="E69" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>45012965900</v>
       </c>
       <c r="B70" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C70" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D70" s="14">
         <v>30903</v>
       </c>
       <c r="E70" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>45012939900</v>
       </c>
       <c r="B71" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C71" t="s">
         <v>36</v>
@@ -3697,15 +3757,15 @@
         <v>33002</v>
       </c>
       <c r="E71" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>45012826300</v>
       </c>
       <c r="B72" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C72" t="s">
         <v>33</v>
@@ -3714,15 +3774,15 @@
         <v>29266</v>
       </c>
       <c r="E72" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>45012826200</v>
       </c>
       <c r="B73" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C73" t="s">
         <v>34</v>
@@ -3731,27 +3791,27 @@
         <v>31180</v>
       </c>
       <c r="E73" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>45012824200</v>
       </c>
       <c r="B74" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C74" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D74" s="14">
         <v>31180</v>
       </c>
       <c r="E74" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>45012822200</v>
       </c>
@@ -3765,202 +3825,202 @@
         <v>29266</v>
       </c>
       <c r="E75" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>45012821900</v>
       </c>
       <c r="B76" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C76" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D76" s="14">
         <v>31180</v>
       </c>
       <c r="E76" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>45012811200</v>
       </c>
       <c r="B77" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C77" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D77" s="14">
         <v>32874</v>
       </c>
       <c r="E77" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>45012811300</v>
       </c>
       <c r="B78" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C78" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D78" s="14">
         <v>33239</v>
       </c>
       <c r="E78" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>45012811600</v>
       </c>
       <c r="B79" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C79" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D79" s="14">
         <v>29266</v>
       </c>
       <c r="E79" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>45012390300</v>
       </c>
       <c r="B80" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C80" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D80" s="14">
         <v>29266</v>
       </c>
       <c r="E80" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>45012808500</v>
       </c>
       <c r="B81" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C81" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D81" s="14">
         <v>31180</v>
       </c>
       <c r="E81" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>45012389400</v>
       </c>
       <c r="B82" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C82" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D82" s="14">
         <v>29266</v>
       </c>
       <c r="E82" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>45012807600</v>
       </c>
       <c r="B83" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C83" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D83" s="14">
         <v>31180</v>
       </c>
       <c r="E83" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>45012807600</v>
       </c>
       <c r="B84" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C84" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D84" s="14">
         <v>31180</v>
       </c>
       <c r="E84" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>45012802800</v>
       </c>
       <c r="B85" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C85" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D85" s="14">
         <v>42171</v>
       </c>
       <c r="E85" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>45012801100</v>
       </c>
       <c r="B86" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C86" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D86" s="14">
         <v>31545</v>
       </c>
       <c r="E86" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>45012787000</v>
       </c>
       <c r="B87" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C87" t="s">
         <v>36</v>
@@ -3969,27 +4029,27 @@
         <v>33124</v>
       </c>
       <c r="E87" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>45012785800</v>
       </c>
       <c r="B88" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C88" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D88" s="14">
         <v>32991</v>
       </c>
       <c r="E88" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>45012786300</v>
       </c>
@@ -4003,32 +4063,32 @@
         <v>33063</v>
       </c>
       <c r="E89" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>45012785900</v>
       </c>
       <c r="B90" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C90" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D90" s="14">
         <v>33142</v>
       </c>
       <c r="E90" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>45012760300</v>
       </c>
       <c r="B91" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C91" t="s">
         <v>36</v>
@@ -4037,15 +4097,15 @@
         <v>32668</v>
       </c>
       <c r="E91" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>45012730600</v>
       </c>
       <c r="B92" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C92" t="s">
         <v>36</v>
@@ -4054,15 +4114,15 @@
         <v>33094</v>
       </c>
       <c r="E92" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>45012691000</v>
       </c>
       <c r="B93" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C93" t="s">
         <v>36</v>
@@ -4071,83 +4131,83 @@
         <v>33033</v>
       </c>
       <c r="E93" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>45012595400</v>
       </c>
       <c r="B94" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C94" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D94" s="14">
         <v>29664</v>
       </c>
       <c r="E94" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>45012595300</v>
       </c>
       <c r="B95" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C95" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D95" s="14">
         <v>31686</v>
       </c>
       <c r="E95" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>45012593000</v>
       </c>
       <c r="B96" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C96" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D96" s="14">
         <v>32412</v>
       </c>
       <c r="E96" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>45012405100</v>
       </c>
       <c r="B97" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C97" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D97" s="14">
         <v>31048</v>
       </c>
       <c r="E97" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>45012104900</v>
       </c>
       <c r="B98" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C98" t="s">
         <v>36</v>
@@ -4156,197 +4216,197 @@
         <v>32607</v>
       </c>
       <c r="E98" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>45011901000</v>
       </c>
       <c r="B99" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C99" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D99" s="14">
         <v>32143</v>
       </c>
       <c r="E99" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>45011900900</v>
       </c>
       <c r="B100" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C100" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D100" s="14">
         <v>32143</v>
       </c>
       <c r="E100" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>45011900500</v>
       </c>
       <c r="B101" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C101" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D101" s="14">
         <v>29249</v>
       </c>
       <c r="E101" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>45011900400</v>
       </c>
       <c r="B102" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C102" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D102" s="14">
         <v>29246</v>
       </c>
       <c r="E102" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>45011900200</v>
       </c>
       <c r="B103" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C103" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D103" s="14">
         <v>29240</v>
       </c>
       <c r="E103" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>45011899900</v>
       </c>
       <c r="B104" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C104" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D104" s="14">
         <v>29231</v>
       </c>
       <c r="E104" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>45011899500</v>
       </c>
       <c r="B105" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C105" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D105" s="14">
         <v>29248</v>
       </c>
       <c r="E105" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>45011899400</v>
       </c>
       <c r="B106" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C106" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D106" s="14">
         <v>29239</v>
       </c>
       <c r="E106" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>45011899300</v>
       </c>
       <c r="B107" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C107" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D107" s="14">
         <v>29230</v>
       </c>
       <c r="E107" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>45011899200</v>
       </c>
       <c r="B108" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C108" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D108" s="14">
         <v>29221</v>
       </c>
       <c r="E108" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>45011854500</v>
       </c>
       <c r="B109" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C109" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D109" s="14">
         <v>27912</v>
       </c>
       <c r="E109" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110">
         <v>45012645800</v>
       </c>
@@ -4354,174 +4414,174 @@
         <v>57</v>
       </c>
       <c r="C110" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D110" s="14">
         <v>35097</v>
       </c>
       <c r="E110" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111">
         <v>45012295000</v>
       </c>
       <c r="B111" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C111" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D111" s="14">
         <v>34049</v>
       </c>
       <c r="E111" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112">
         <v>45012293400</v>
       </c>
       <c r="B112" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C112" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D112" s="14">
         <v>29952</v>
       </c>
       <c r="E112" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113">
         <v>45012293100</v>
       </c>
       <c r="B113" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C113" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D113" s="14">
         <v>29221</v>
       </c>
       <c r="E113" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114">
         <v>45012599400</v>
       </c>
       <c r="B114" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C114" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D114" s="14">
         <v>33318</v>
       </c>
       <c r="E114" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115">
         <v>45012597100</v>
       </c>
       <c r="B115" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C115" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D115" s="14">
         <v>32340</v>
       </c>
       <c r="E115" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116">
         <v>45012414900</v>
       </c>
       <c r="B116" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C116" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D116" s="14">
         <v>32340</v>
       </c>
       <c r="E116" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117">
         <v>45012365700</v>
       </c>
       <c r="B117" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C117" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D117" s="14">
         <v>28911</v>
       </c>
       <c r="E117" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118">
         <v>45012231200</v>
       </c>
       <c r="B118" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C118" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D118" s="14">
         <v>28911</v>
       </c>
       <c r="E118" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119">
         <v>45012155100</v>
       </c>
       <c r="B119" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C119" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D119" s="14">
         <v>30136</v>
       </c>
       <c r="E119" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120">
         <v>45012154600</v>
       </c>
       <c r="B120" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C120" t="s">
         <v>36</v>
@@ -4530,15 +4590,15 @@
         <v>33027</v>
       </c>
       <c r="E120" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121">
         <v>45012088200</v>
       </c>
       <c r="B121" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C121" t="s">
         <v>36</v>
@@ -4547,15 +4607,15 @@
         <v>33027</v>
       </c>
       <c r="E121" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122">
         <v>45012084700</v>
       </c>
       <c r="B122" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C122" t="s">
         <v>36</v>
@@ -4564,372 +4624,372 @@
         <v>25204</v>
       </c>
       <c r="E122" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123">
         <v>45011955700</v>
       </c>
       <c r="B123" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C123" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D123" s="14">
         <v>33318</v>
       </c>
       <c r="E123" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124">
         <v>45011878300</v>
       </c>
       <c r="B124" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C124" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D124" s="14">
         <v>30410</v>
       </c>
       <c r="E124" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125">
         <v>45011862500</v>
       </c>
       <c r="B125" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C125" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D125" s="14">
         <v>31569</v>
       </c>
       <c r="E125" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126">
         <v>45011860000</v>
       </c>
       <c r="B126" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C126" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D126" s="14">
         <v>32094</v>
       </c>
       <c r="E126" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127">
         <v>45011858500</v>
       </c>
       <c r="B127" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C127" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D127" s="14">
         <v>29984</v>
       </c>
       <c r="E127" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128">
         <v>45011857400</v>
       </c>
       <c r="B128" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C128" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D128" s="14">
         <v>30776</v>
       </c>
       <c r="E128" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129">
         <v>45011858000</v>
       </c>
       <c r="B129" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C129" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D129" s="14">
         <v>30378</v>
       </c>
       <c r="E129" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130">
         <v>45011847900</v>
       </c>
       <c r="B130" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C130" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D130" s="14">
         <v>30146</v>
       </c>
       <c r="E130" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131">
         <v>45012156200</v>
       </c>
       <c r="B131" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C131" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D131" s="14">
         <v>32340</v>
       </c>
       <c r="E131" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132">
         <v>45012138000</v>
       </c>
       <c r="B132" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C132" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D132" s="14">
         <v>25818</v>
       </c>
       <c r="E132" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133">
         <v>45011974600</v>
       </c>
       <c r="B133" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C133" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D133" s="14">
         <v>32340</v>
       </c>
       <c r="E133" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134">
         <v>45011856500</v>
       </c>
       <c r="B134" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C134" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D134" s="14">
         <v>29221</v>
       </c>
       <c r="E134" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135">
         <v>45011518700</v>
       </c>
       <c r="B135" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C135" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D135" s="14">
         <v>25569</v>
       </c>
       <c r="E135" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136">
         <v>45011518400</v>
       </c>
       <c r="B136" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C136" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D136" s="14">
         <v>29473</v>
       </c>
       <c r="E136" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137">
         <v>45011494800</v>
       </c>
       <c r="B137" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C137" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D137" s="14">
         <v>32661</v>
       </c>
       <c r="E137" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138">
         <v>45011726400</v>
       </c>
       <c r="B138" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C138" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D138" s="14">
         <v>28911</v>
       </c>
       <c r="E138" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139">
         <v>45011725900</v>
       </c>
       <c r="B139" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C139" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D139" s="14">
         <v>31974</v>
       </c>
       <c r="E139" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140">
         <v>45011725800</v>
       </c>
       <c r="B140" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C140" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D140" s="14">
         <v>32340</v>
       </c>
       <c r="E140" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141">
         <v>45011723400</v>
       </c>
       <c r="B141" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C141" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D141" s="14">
         <v>20086</v>
       </c>
       <c r="E141" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142">
         <v>45011723400</v>
       </c>
       <c r="B142" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C142" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D142" s="14">
         <v>29867</v>
       </c>
       <c r="E142" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143">
         <v>45011723000</v>
       </c>
       <c r="B143" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C143" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D143" s="14">
         <v>29502</v>
       </c>
       <c r="E143" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144">
         <v>45011719500</v>
       </c>
       <c r="B144" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C144" t="s">
         <v>36</v>
@@ -4938,466 +4998,466 @@
         <v>25204</v>
       </c>
       <c r="E144" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145">
         <v>45011713900</v>
       </c>
       <c r="B145" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C145" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D145" s="14">
         <v>31173</v>
       </c>
       <c r="E145" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146">
         <v>45011713600</v>
       </c>
       <c r="B146" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C146" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D146" s="14">
         <v>31172</v>
       </c>
       <c r="E146" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147">
         <v>45011742300</v>
       </c>
       <c r="B147" t="s">
+        <v>390</v>
+      </c>
+      <c r="C147" t="s">
         <v>396</v>
-      </c>
-      <c r="C147" t="s">
-        <v>402</v>
       </c>
       <c r="D147" s="14">
         <v>34478</v>
       </c>
       <c r="E147" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148">
         <v>45011740000</v>
       </c>
       <c r="B148" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C148" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D148" s="14">
         <v>34395</v>
       </c>
       <c r="E148" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149">
         <v>45011615200</v>
       </c>
       <c r="B149" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C149" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D149" s="14">
         <v>34680</v>
       </c>
       <c r="E149" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150">
         <v>45011610600</v>
       </c>
       <c r="B150" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C150" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D150" s="14">
         <v>34010</v>
       </c>
       <c r="E150" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151">
         <v>45011398200</v>
       </c>
       <c r="B151" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C151" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D151" s="14">
         <v>32454</v>
       </c>
       <c r="E151" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152">
         <v>45011394600</v>
       </c>
       <c r="B152" t="s">
+        <v>416</v>
+      </c>
+      <c r="C152" t="s">
         <v>422</v>
-      </c>
-      <c r="C152" t="s">
-        <v>428</v>
       </c>
       <c r="D152" s="14">
         <v>33850</v>
       </c>
       <c r="E152" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153">
         <v>45011387300</v>
       </c>
       <c r="B153" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C153" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D153" s="14">
         <v>23925</v>
       </c>
       <c r="E153" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154">
         <v>45011273000</v>
       </c>
       <c r="B154" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C154" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D154" s="14">
         <v>25146</v>
       </c>
       <c r="E154" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155">
         <v>45011176300</v>
       </c>
       <c r="B155" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C155" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D155" s="14">
         <v>30579</v>
       </c>
       <c r="E155" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156">
         <v>45011176100</v>
       </c>
       <c r="B156" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C156" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D156" s="14">
         <v>32818</v>
       </c>
       <c r="E156" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157">
         <v>45011175900</v>
       </c>
       <c r="B157" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C157" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D157" s="14">
         <v>33309</v>
       </c>
       <c r="E157" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158">
         <v>45011175300</v>
       </c>
       <c r="B158" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C158" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D158" s="14">
         <v>31248</v>
       </c>
       <c r="E158" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159">
         <v>45011175200</v>
       </c>
       <c r="B159" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C159" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D159" s="14">
         <v>32717</v>
       </c>
       <c r="E159" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160">
         <v>45011742300</v>
       </c>
       <c r="B160" t="s">
+        <v>390</v>
+      </c>
+      <c r="C160" t="s">
         <v>396</v>
-      </c>
-      <c r="C160" t="s">
-        <v>402</v>
       </c>
       <c r="D160" s="14">
         <v>34478</v>
       </c>
       <c r="E160" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161">
         <v>45011740000</v>
       </c>
       <c r="B161" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C161" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D161" s="14">
         <v>34395</v>
       </c>
       <c r="E161" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162">
         <v>45011615200</v>
       </c>
       <c r="B162" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C162" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D162" s="14">
         <v>34680</v>
       </c>
       <c r="E162" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163">
         <v>45011610600</v>
       </c>
       <c r="B163" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C163" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D163" s="14">
         <v>34010</v>
       </c>
       <c r="E163" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164">
         <v>45011398200</v>
       </c>
       <c r="B164" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C164" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D164" s="14">
         <v>32454</v>
       </c>
       <c r="E164" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165">
         <v>45011394600</v>
       </c>
       <c r="B165" t="s">
+        <v>416</v>
+      </c>
+      <c r="C165" t="s">
         <v>422</v>
-      </c>
-      <c r="C165" t="s">
-        <v>428</v>
       </c>
       <c r="D165" s="14">
         <v>33850</v>
       </c>
       <c r="E165" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166">
         <v>45011387300</v>
       </c>
       <c r="B166" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C166" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D166" s="14">
         <v>23925</v>
       </c>
       <c r="E166" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167">
         <v>45011273000</v>
       </c>
       <c r="B167" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C167" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D167" s="14">
         <v>25146</v>
       </c>
       <c r="E167" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168">
         <v>45011176300</v>
       </c>
       <c r="B168" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C168" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D168" s="14">
         <v>30579</v>
       </c>
       <c r="E168" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169">
         <v>45011176100</v>
       </c>
       <c r="B169" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C169" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D169" s="14">
         <v>32818</v>
       </c>
       <c r="E169" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170">
         <v>45011175900</v>
       </c>
       <c r="B170" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C170" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D170" s="14">
         <v>33309</v>
       </c>
       <c r="E170" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171">
         <v>45011175300</v>
       </c>
       <c r="B171" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C171" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D171" s="14">
         <v>31248</v>
       </c>
       <c r="E171" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -5414,311 +5474,311 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="8:8">
       <c r="H2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="8:8">
+      <c r="H3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4" spans="8:8">
+      <c r="H4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="5" spans="8:8">
+      <c r="H5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="8:8">
+      <c r="H6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7" spans="8:8">
+      <c r="H7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8">
+      <c r="H8" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="3" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="9" spans="8:8">
+      <c r="H9" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H4" t="s">
+    <row r="10" spans="8:8">
+      <c r="H10" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="5" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H5" t="s">
+    <row r="11" spans="8:8">
+      <c r="H11" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="6" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="12" spans="8:8">
+      <c r="H12" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="7" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+    <row r="13" spans="8:8">
+      <c r="H13" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="8" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H8" t="s">
+    <row r="14" spans="8:8">
+      <c r="H14" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H9" t="s">
+    <row r="15" spans="8:8">
+      <c r="H15" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="10" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
+    <row r="16" spans="8:8">
+      <c r="H16" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="11" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H11" t="s">
+    <row r="17" spans="8:8">
+      <c r="H17" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="12" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H12" t="s">
+    <row r="18" spans="8:8">
+      <c r="H18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H13" t="s">
+    <row r="19" spans="8:8">
+      <c r="H19" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="14" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H14" t="s">
+    <row r="20" spans="8:8">
+      <c r="H20" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="15" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H15" t="s">
+    <row r="21" spans="8:8">
+      <c r="H21" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H16" t="s">
+    <row r="22" spans="8:8">
+      <c r="H22" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" t="s">
+    <row r="23" spans="8:8">
+      <c r="H23" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" t="s">
+    <row r="24" spans="8:8">
+      <c r="H24" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" t="s">
+    <row r="25" spans="8:8">
+      <c r="H25" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H20" t="s">
+    <row r="26" spans="8:8">
+      <c r="H26" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H21" t="s">
+    <row r="27" spans="8:8">
+      <c r="H27" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H22" t="s">
+    <row r="28" spans="8:8">
+      <c r="H28" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H23" t="s">
+    <row r="29" spans="8:8">
+      <c r="H29" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H24" t="s">
+    <row r="30" spans="8:8">
+      <c r="H30" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H25" t="s">
+    <row r="31" spans="8:8">
+      <c r="H31" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H26" t="s">
+    <row r="32" spans="8:8">
+      <c r="H32" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H27" t="s">
+    <row r="33" spans="8:8">
+      <c r="H33" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H28" t="s">
+    <row r="34" spans="8:8">
+      <c r="H34" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H29" t="s">
+    <row r="35" spans="8:8">
+      <c r="H35" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H30" t="s">
+    <row r="36" spans="8:8">
+      <c r="H36" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H31" t="s">
+    <row r="37" spans="8:8">
+      <c r="H37" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H32" t="s">
+    <row r="38" spans="8:8">
+      <c r="H38" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H33" t="s">
+    <row r="39" spans="8:8">
+      <c r="H39" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H34" t="s">
+    <row r="40" spans="8:8">
+      <c r="H40" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H35" t="s">
+    <row r="41" spans="8:8">
+      <c r="H41" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H36" t="s">
+    <row r="42" spans="8:8">
+      <c r="H42" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H37" t="s">
+    <row r="43" spans="8:8">
+      <c r="H43" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H38" t="s">
+    <row r="44" spans="8:8">
+      <c r="H44" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H39" t="s">
+    <row r="45" spans="8:8">
+      <c r="H45" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H40" t="s">
+    <row r="46" spans="8:8">
+      <c r="H46" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H41" t="s">
+    <row r="47" spans="8:8">
+      <c r="H47" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H42" t="s">
+    <row r="48" spans="8:8">
+      <c r="H48" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H43" t="s">
+    <row r="49" spans="8:8">
+      <c r="H49" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H44" t="s">
+    <row r="50" spans="8:8">
+      <c r="H50" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="45" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H45" t="s">
+    <row r="51" spans="8:8">
+      <c r="H51" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H46" t="s">
+    <row r="52" spans="8:8">
+      <c r="H52" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="47" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H47" t="s">
+    <row r="53" spans="8:8">
+      <c r="H53" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H48" t="s">
+    <row r="54" spans="8:8">
+      <c r="H54" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H49" t="s">
+    <row r="55" spans="8:8">
+      <c r="H55" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H50" t="s">
+    <row r="56" spans="8:8">
+      <c r="H56" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H51" t="s">
+    <row r="57" spans="8:8">
+      <c r="H57" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H52" t="s">
+    <row r="58" spans="8:8">
+      <c r="H58" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H53" t="s">
+    <row r="59" spans="8:8">
+      <c r="H59" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="54" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H54" t="s">
+    <row r="60" spans="8:8">
+      <c r="H60" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="55" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H55" t="s">
+    <row r="61" spans="8:8">
+      <c r="H61" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="56" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H56" t="s">
+    <row r="62" spans="8:8">
+      <c r="H62" t="s">
         <v>492</v>
-      </c>
-    </row>
-    <row r="57" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H57" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="58" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H58" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="59" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H59" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="60" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H60" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="61" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H61" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="62" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H62" t="s">
-        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -5734,17 +5794,17 @@
       <selection activeCell="H2" sqref="H2:M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>45012492500</v>
       </c>
@@ -5755,35 +5815,35 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3">
         <v>45012491700</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M3" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>45012491000</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="M4" s="18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>45012397700</v>
       </c>
@@ -5794,10 +5854,10 @@
         <v>38</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>45012397600</v>
       </c>
@@ -5805,37 +5865,37 @@
         <v>128</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>45012397500</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M7" s="16"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>45012397400</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="M8" s="16"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>45012397300</v>
       </c>
@@ -5844,7 +5904,7 @@
       </c>
       <c r="M9" s="16"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15.75">
       <c r="A10">
         <v>45012260200</v>
       </c>
@@ -5853,718 +5913,718 @@
       </c>
       <c r="M10" s="16"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>45012259900</v>
       </c>
       <c r="M11" s="16"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>45012259800</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>45012259600</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>45012259300</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>45012259200</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>45012257900</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>45012257800</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>45012257600</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>45012257500</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>45012240200</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>45012239700</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>45012239000</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>45012238400</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24">
         <v>45012244900</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25">
         <v>45012244200</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26">
         <v>45012242000</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27">
         <v>45012236500</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28">
         <v>45012196500</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29">
         <v>45012196300</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30">
         <v>45012195300</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31">
         <v>45012195100</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32">
         <v>45012194900</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33">
         <v>45012194700</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34">
         <v>45012194500</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35">
         <v>45012194200</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36">
         <v>45012194000</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37">
         <v>45012195800</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38">
         <v>45012195600</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39">
         <v>45012195400</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40">
         <v>45012186000</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41">
         <v>45012185800</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42">
         <v>45012185700</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43">
         <v>45012185400</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44">
         <v>45012185200</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45">
         <v>45012185000</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46">
         <v>45012184800</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47">
         <v>45012184600</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48">
         <v>45011982200</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49">
         <v>45011974800</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50">
         <v>45011982200</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51">
         <v>45011982100</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52">
         <v>45012965900</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53">
         <v>45012939900</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54">
         <v>45012826300</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55">
         <v>45012826200</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56">
         <v>45012824200</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57">
         <v>45012822200</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1">
       <c r="A58">
         <v>45012821900</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59">
         <v>45012811200</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60">
         <v>45012811300</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61">
         <v>45012802800</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1">
       <c r="A62">
         <v>45012801100</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1">
       <c r="A63">
         <v>45012390300</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1">
       <c r="A64">
         <v>45012811600</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65">
         <v>45012808500</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66">
         <v>45012389400</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67">
         <v>45012730600</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1">
       <c r="A68">
         <v>45012807600</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1">
       <c r="A69">
         <v>45012807600</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1">
       <c r="A70">
         <v>45012787000</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1">
       <c r="A71">
         <v>45012785800</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1">
       <c r="A72">
         <v>45012786300</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1">
       <c r="A73">
         <v>45012785900</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1">
       <c r="A74">
         <v>45012760300</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1">
       <c r="A75">
         <v>45012691000</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1">
       <c r="A76">
         <v>45012593000</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1">
       <c r="A77">
         <v>45012595400</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1">
       <c r="A78">
         <v>45012595300</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1">
       <c r="A79">
         <v>45012405100</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1">
       <c r="A80">
         <v>45011742300</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81">
         <v>45011740000</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82">
         <v>45011615200</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83">
         <v>45011610600</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84">
         <v>45011398200</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85">
         <v>45011394600</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86">
         <v>45011387300</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1">
       <c r="A87">
         <v>45011273000</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1">
       <c r="A88">
         <v>45011176300</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1">
       <c r="A89">
         <v>45011176100</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1">
       <c r="A90">
         <v>45011175900</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1">
       <c r="A91">
         <v>45011175300</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1">
       <c r="A92">
         <v>45011175200</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1">
       <c r="A93">
         <v>45011742300</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1">
       <c r="A94">
         <v>45011740000</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1">
       <c r="A95">
         <v>45011615200</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1">
       <c r="A96">
         <v>45011610600</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97">
         <v>45011398200</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98">
         <v>45011394600</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1">
       <c r="A99">
         <v>45011387300</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1">
       <c r="A100">
         <v>45011273000</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1">
       <c r="A101">
         <v>45011176300</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1">
       <c r="A102">
         <v>45011176100</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1">
       <c r="A103">
         <v>45011175900</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1">
       <c r="A104">
         <v>45011175300</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1">
       <c r="A105">
         <v>45012104900</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1">
       <c r="A106">
         <v>45011901000</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107">
         <v>45011900900</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1">
       <c r="A108">
         <v>45011900500</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1">
       <c r="A109">
         <v>45011900400</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1">
       <c r="A110">
         <v>45011900200</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1">
       <c r="A111">
         <v>45011899900</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1">
       <c r="A112">
         <v>45011899500</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1">
       <c r="A113">
         <v>45011899400</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1">
       <c r="A114">
         <v>45011899300</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1">
       <c r="A115">
         <v>45011899200</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1">
       <c r="A116">
         <v>45011854500</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1">
       <c r="A117">
         <v>45012295000</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1">
       <c r="A118">
         <v>45012293400</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1">
       <c r="A119">
         <v>45012293100</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1">
       <c r="A120">
         <v>45012645800</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1">
       <c r="A121">
         <v>45012599400</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1">
       <c r="A122">
         <v>45012597100</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1">
       <c r="A123">
         <v>45012414900</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1">
       <c r="A124">
         <v>45012365700</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1">
       <c r="A125">
         <v>45012231200</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1">
       <c r="A126">
         <v>45012155100</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1">
       <c r="A127">
         <v>45012154600</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1">
       <c r="A128">
         <v>45012084700</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1">
       <c r="A129">
         <v>45012088200</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1">
       <c r="A130">
         <v>45011955700</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1">
       <c r="A131">
         <v>45011878300</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1">
       <c r="A132">
         <v>45011860000</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1">
       <c r="A133">
         <v>45011847900</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1">
       <c r="A134">
         <v>45011862500</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1">
       <c r="A135">
         <v>45011858500</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1">
       <c r="A136">
         <v>45011858000</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1">
       <c r="A137">
         <v>45011857400</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1">
       <c r="A138">
         <v>45012156200</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1">
       <c r="A139">
         <v>45011723400</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1">
       <c r="A140">
         <v>45012138000</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1">
       <c r="A141">
         <v>45011974600</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1">
       <c r="A142">
         <v>45011856500</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1">
       <c r="A143">
         <v>45011494800</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1">
       <c r="A144">
         <v>45011518700</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1">
       <c r="A145">
         <v>45011518400</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1">
       <c r="A146">
         <v>45011719500</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1">
       <c r="A147">
         <v>45011723400</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1">
       <c r="A148">
         <v>45011723000</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1">
       <c r="A149">
         <v>45011726400</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1">
       <c r="A150">
         <v>45011725900</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1">
       <c r="A151">
         <v>45011725800</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1">
       <c r="A152">
         <v>45011713900</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1">
       <c r="A153">
         <v>45011713600</v>
       </c>
@@ -6582,7 +6642,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -6601,12 +6661,12 @@
     <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
@@ -6618,10 +6678,10 @@
         <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>42</v>
@@ -6630,7 +6690,7 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="K1" s="29" t="s">
         <v>118</v>
@@ -6639,7 +6699,7 @@
         <v>50</v>
       </c>
       <c r="M1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="N1" s="32" t="s">
         <v>124</v>
@@ -6657,15 +6717,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>19</v>
@@ -6674,34 +6734,34 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K2" s="30" t="s">
         <v>43</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="N2" s="33" t="s">
         <v>66</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="P2" s="34" t="s">
         <v>83</v>
@@ -6713,9 +6773,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -6724,13 +6784,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>41</v>
@@ -6739,10 +6799,10 @@
         <v>42</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="K3" s="31" t="s">
         <v>43</v>
@@ -6751,7 +6811,7 @@
         <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="N3" s="33" t="s">
         <v>66</v>
@@ -6760,7 +6820,7 @@
         <v>67</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="Q3" s="34" t="s">
         <v>90</v>
@@ -6769,9 +6829,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -6783,10 +6843,10 @@
         <v>19</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G4" s="23" t="s">
         <v>41</v>
@@ -6798,16 +6858,16 @@
         <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L4" s="30" t="s">
         <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="N4" s="35" t="s">
         <v>66</v>
@@ -6825,9 +6885,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>3</v>
@@ -6845,19 +6905,19 @@
       <c r="H5" s="8"/>
       <c r="I5" s="6"/>
       <c r="J5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K5" s="30" t="s">
         <v>52</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="M5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="O5" s="36" t="s">
         <v>102</v>
@@ -6872,10 +6932,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="G6"/>
       <c r="J6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K6" s="31" t="s">
         <v>52</v>
@@ -6884,13 +6944,13 @@
         <v>51</v>
       </c>
       <c r="M6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="N6" s="36" t="s">
         <v>101</v>
       </c>
       <c r="O6" s="32" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="P6" s="30" t="s">
         <v>110</v>
@@ -6902,10 +6962,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="G7"/>
       <c r="M7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="N7" s="36" t="s">
         <v>101</v>
@@ -6914,7 +6974,7 @@
         <v>102</v>
       </c>
       <c r="P7" s="29" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Q7" s="30" t="s">
         <v>114</v>
@@ -6923,10 +6983,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="G8"/>
       <c r="M8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="N8" s="35" t="s">
         <v>101</v>
@@ -6944,26 +7004,26 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="G10"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="G11"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="B12" t="s">
         <v>58</v>
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="B13" t="s">
         <v>60</v>
       </c>
@@ -6988,7 +7048,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
@@ -7011,7 +7071,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
@@ -7034,7 +7094,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
@@ -7057,7 +7117,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8">
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
@@ -7080,7 +7140,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
@@ -7103,7 +7163,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8">
       <c r="B19" s="2" t="s">
         <v>48</v>
       </c>
@@ -7126,7 +7186,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8">
       <c r="B20" s="2" t="s">
         <v>96</v>
       </c>
@@ -7149,7 +7209,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8">
       <c r="B21" s="2" t="s">
         <v>49</v>
       </c>
@@ -7172,13 +7232,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8">
       <c r="B23" s="2" t="s">
         <v>118</v>
       </c>
@@ -7201,12 +7261,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8">
       <c r="B25" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8">
       <c r="B26" t="s">
         <v>60</v>
       </c>
@@ -7226,7 +7286,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8">
       <c r="B27" s="2" t="s">
         <v>52</v>
       </c>
@@ -7249,7 +7309,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8">
       <c r="B28" s="2" t="s">
         <v>53</v>
       </c>
@@ -7272,7 +7332,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8">
       <c r="B29" s="2" t="s">
         <v>54</v>
       </c>
@@ -7295,7 +7355,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8">
       <c r="B30" s="2" t="s">
         <v>55</v>
       </c>
@@ -7326,276 +7386,705 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2973B0-CDDC-449E-8E3C-85328113B7FE}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75">
+      <c r="A1" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="E1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="F6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="B10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D10" t="s">
+        <v>546</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D11" t="s">
+        <v>546</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>545</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="D12" t="s">
+        <v>546</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>545</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>545</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D14" t="s">
+        <v>546</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>545</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D15" t="s">
+        <v>546</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>545</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D16" t="s">
+        <v>546</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>545</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>549</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>546</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>548</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1">
+      <c r="A18" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9D5C48-D696-4D79-973E-D2C676FE265C}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="B1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="E1" t="s">
-        <v>549</v>
-      </c>
-      <c r="F1" t="s">
-        <v>550</v>
-      </c>
-      <c r="G1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>552</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>553</v>
-      </c>
-      <c r="D4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="F6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>556</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>557</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H11" s="16"/>
+    <row r="1" spans="1:9">
+      <c r="A1" s="45" t="s">
+        <v>560</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>561</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>562</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>559</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>563</v>
+      </c>
+      <c r="F1" s="40">
+        <v>45011502800</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>564</v>
+      </c>
+      <c r="H1" s="41">
+        <v>42439</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A2" s="42" t="s">
+        <v>560</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>566</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>562</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>559</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>563</v>
+      </c>
+      <c r="F2" s="43">
+        <v>45011502800</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>564</v>
+      </c>
+      <c r="H2" s="44">
+        <v>42439</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="43"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="43"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E39D59-A342-4D81-910D-9656BBB92A6E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D522832-91CC-4172-B1E3-C378FA51E801}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
     <sheet name="Enroll360" sheetId="4" r:id="rId6"/>
     <sheet name="Search" sheetId="5" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId8"/>
+    <sheet name="Task" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">HSA!#REF!</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="564">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -1715,35 +1715,26 @@
     <t>Invalid</t>
   </si>
   <si>
-    <t>SMG</t>
-  </si>
-  <si>
-    <t>CRITICAL</t>
+    <t>x</t>
   </si>
   <si>
     <t>TSK-272146</t>
   </si>
   <si>
-    <t>Maintenance</t>
-  </si>
-  <si>
     <t>Passive-2</t>
   </si>
   <si>
-    <t>CG0001</t>
-  </si>
-  <si>
-    <t>RESOLVED</t>
-  </si>
-  <si>
     <t>TSK-272150</t>
+  </si>
+  <si>
+    <t>45011502800</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1778,11 +1769,6 @@
       <color rgb="FF000000"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFD70303"/>
-      <name val="OpenSans"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1823,7 +1809,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1846,21 +1832,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1927,24 +1904,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2232,22 +2191,22 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2268,7 +2227,7 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
@@ -2279,7 +2238,7 @@
     <col min="8" max="8" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>183</v>
       </c>
@@ -2323,7 +2282,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>182</v>
       </c>
@@ -2367,7 +2326,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>181</v>
       </c>
@@ -2411,7 +2370,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H5" s="3" t="s">
         <v>187</v>
       </c>
@@ -2434,7 +2393,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H6" s="3" t="s">
         <v>188</v>
       </c>
@@ -2471,7 +2430,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
@@ -2483,7 +2442,7 @@
     <col min="8" max="13" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>502</v>
       </c>
@@ -2503,7 +2462,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>528</v>
       </c>
@@ -2544,7 +2503,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>189</v>
       </c>
@@ -2585,7 +2544,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>189</v>
       </c>
@@ -2626,7 +2585,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>527</v>
       </c>
@@ -2658,7 +2617,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>527</v>
       </c>
@@ -2690,7 +2649,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>527</v>
       </c>
@@ -2722,7 +2681,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>527</v>
       </c>
@@ -2754,7 +2713,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>527</v>
       </c>
@@ -2786,7 +2745,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>437</v>
       </c>
@@ -2815,7 +2774,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>438</v>
       </c>
@@ -2844,7 +2803,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>439</v>
       </c>
@@ -2873,7 +2832,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>440</v>
       </c>
@@ -2902,17 +2861,17 @@
         <v>511</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H21" s="16">
         <v>45012514700</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H22" s="16">
         <v>45012514600</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>45012397700</v>
       </c>
@@ -2932,7 +2891,7 @@
         <v>45012514500</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>45012397600</v>
       </c>
@@ -2952,7 +2911,7 @@
         <v>45012514400</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>45012397500</v>
       </c>
@@ -2972,7 +2931,7 @@
         <v>45012514300</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>217</v>
       </c>
@@ -2989,7 +2948,7 @@
         <v>45012513900</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>45012397300</v>
       </c>
@@ -3009,7 +2968,7 @@
         <v>45012513600</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>45012260200</v>
       </c>
@@ -3029,7 +2988,7 @@
         <v>45012513800</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>45012259900</v>
       </c>
@@ -3046,7 +3005,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>45012259800</v>
       </c>
@@ -3063,7 +3022,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>45012259600</v>
       </c>
@@ -3080,7 +3039,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>45012259300</v>
       </c>
@@ -3097,7 +3056,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>45012259200</v>
       </c>
@@ -3114,7 +3073,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>45012257900</v>
       </c>
@@ -3131,7 +3090,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>45012257800</v>
       </c>
@@ -3148,7 +3107,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>45012257600</v>
       </c>
@@ -3165,7 +3124,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>45012257500</v>
       </c>
@@ -3182,7 +3141,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>45012244900</v>
       </c>
@@ -3199,7 +3158,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>45012244200</v>
       </c>
@@ -3216,7 +3175,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>45012242000</v>
       </c>
@@ -3233,7 +3192,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>45012240200</v>
       </c>
@@ -3250,7 +3209,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>45012239700</v>
       </c>
@@ -3267,7 +3226,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>45012239000</v>
       </c>
@@ -3284,7 +3243,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>45012238400</v>
       </c>
@@ -3301,7 +3260,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45012236500</v>
       </c>
@@ -3318,7 +3277,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45012196500</v>
       </c>
@@ -3335,7 +3294,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45012196300</v>
       </c>
@@ -3352,7 +3311,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45012195300</v>
       </c>
@@ -3369,7 +3328,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>45012195100</v>
       </c>
@@ -3386,7 +3345,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>45012194900</v>
       </c>
@@ -3403,7 +3362,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>45012194700</v>
       </c>
@@ -3420,7 +3379,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>45012194500</v>
       </c>
@@ -3437,7 +3396,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>45012194200</v>
       </c>
@@ -3454,7 +3413,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>45012194000</v>
       </c>
@@ -3471,7 +3430,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>45012195800</v>
       </c>
@@ -3488,7 +3447,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>45012195600</v>
       </c>
@@ -3505,7 +3464,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>45012195400</v>
       </c>
@@ -3522,7 +3481,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>45012186000</v>
       </c>
@@ -3539,7 +3498,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>45012185800</v>
       </c>
@@ -3556,7 +3515,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>45012185700</v>
       </c>
@@ -3573,7 +3532,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>45012185400</v>
       </c>
@@ -3590,7 +3549,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>45012185200</v>
       </c>
@@ -3607,7 +3566,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>45012185000</v>
       </c>
@@ -3624,7 +3583,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>45012184800</v>
       </c>
@@ -3641,7 +3600,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>45012184600</v>
       </c>
@@ -3658,7 +3617,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>45011982200</v>
       </c>
@@ -3675,7 +3634,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>45011982200</v>
       </c>
@@ -3692,7 +3651,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>45011982100</v>
       </c>
@@ -3709,7 +3668,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>45011974800</v>
       </c>
@@ -3726,7 +3685,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>45012965900</v>
       </c>
@@ -3743,7 +3702,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>45012939900</v>
       </c>
@@ -3760,7 +3719,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>45012826300</v>
       </c>
@@ -3777,7 +3736,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>45012826200</v>
       </c>
@@ -3794,7 +3753,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>45012824200</v>
       </c>
@@ -3811,7 +3770,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>45012822200</v>
       </c>
@@ -3828,7 +3787,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>45012821900</v>
       </c>
@@ -3845,7 +3804,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>45012811200</v>
       </c>
@@ -3862,7 +3821,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>45012811300</v>
       </c>
@@ -3879,7 +3838,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>45012811600</v>
       </c>
@@ -3896,7 +3855,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>45012390300</v>
       </c>
@@ -3913,7 +3872,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>45012808500</v>
       </c>
@@ -3930,7 +3889,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>45012389400</v>
       </c>
@@ -3947,7 +3906,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>45012807600</v>
       </c>
@@ -3964,7 +3923,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>45012807600</v>
       </c>
@@ -3981,7 +3940,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>45012802800</v>
       </c>
@@ -3998,7 +3957,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>45012801100</v>
       </c>
@@ -4015,7 +3974,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>45012787000</v>
       </c>
@@ -4032,7 +3991,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>45012785800</v>
       </c>
@@ -4049,7 +4008,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>45012786300</v>
       </c>
@@ -4066,7 +4025,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>45012785900</v>
       </c>
@@ -4083,7 +4042,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>45012760300</v>
       </c>
@@ -4100,7 +4059,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>45012730600</v>
       </c>
@@ -4117,7 +4076,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>45012691000</v>
       </c>
@@ -4134,7 +4093,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>45012595400</v>
       </c>
@@ -4151,7 +4110,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>45012595300</v>
       </c>
@@ -4168,7 +4127,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>45012593000</v>
       </c>
@@ -4185,7 +4144,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>45012405100</v>
       </c>
@@ -4202,7 +4161,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>45012104900</v>
       </c>
@@ -4219,7 +4178,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>45011901000</v>
       </c>
@@ -4236,7 +4195,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>45011900900</v>
       </c>
@@ -4253,7 +4212,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>45011900500</v>
       </c>
@@ -4270,7 +4229,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>45011900400</v>
       </c>
@@ -4287,7 +4246,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>45011900200</v>
       </c>
@@ -4304,7 +4263,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>45011899900</v>
       </c>
@@ -4321,7 +4280,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>45011899500</v>
       </c>
@@ -4338,7 +4297,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>45011899400</v>
       </c>
@@ -4355,7 +4314,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>45011899300</v>
       </c>
@@ -4372,7 +4331,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>45011899200</v>
       </c>
@@ -4389,7 +4348,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>45011854500</v>
       </c>
@@ -4406,7 +4365,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>45012645800</v>
       </c>
@@ -4423,7 +4382,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>45012295000</v>
       </c>
@@ -4440,7 +4399,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>45012293400</v>
       </c>
@@ -4457,7 +4416,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>45012293100</v>
       </c>
@@ -4474,7 +4433,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>45012599400</v>
       </c>
@@ -4491,7 +4450,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>45012597100</v>
       </c>
@@ -4508,7 +4467,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>45012414900</v>
       </c>
@@ -4525,7 +4484,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>45012365700</v>
       </c>
@@ -4542,7 +4501,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>45012231200</v>
       </c>
@@ -4559,7 +4518,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>45012155100</v>
       </c>
@@ -4576,7 +4535,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>45012154600</v>
       </c>
@@ -4593,7 +4552,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>45012088200</v>
       </c>
@@ -4610,7 +4569,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>45012084700</v>
       </c>
@@ -4627,7 +4586,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>45011955700</v>
       </c>
@@ -4644,7 +4603,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>45011878300</v>
       </c>
@@ -4661,7 +4620,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>45011862500</v>
       </c>
@@ -4678,7 +4637,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>45011860000</v>
       </c>
@@ -4695,7 +4654,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>45011858500</v>
       </c>
@@ -4712,7 +4671,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>45011857400</v>
       </c>
@@ -4729,7 +4688,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>45011858000</v>
       </c>
@@ -4746,7 +4705,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>45011847900</v>
       </c>
@@ -4763,7 +4722,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>45012156200</v>
       </c>
@@ -4780,7 +4739,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>45012138000</v>
       </c>
@@ -4797,7 +4756,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>45011974600</v>
       </c>
@@ -4814,7 +4773,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>45011856500</v>
       </c>
@@ -4831,7 +4790,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>45011518700</v>
       </c>
@@ -4848,7 +4807,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>45011518400</v>
       </c>
@@ -4865,7 +4824,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>45011494800</v>
       </c>
@@ -4882,7 +4841,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>45011726400</v>
       </c>
@@ -4899,7 +4858,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>45011725900</v>
       </c>
@@ -4916,7 +4875,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>45011725800</v>
       </c>
@@ -4933,7 +4892,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>45011723400</v>
       </c>
@@ -4950,7 +4909,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>45011723400</v>
       </c>
@@ -4967,7 +4926,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>45011723000</v>
       </c>
@@ -4984,7 +4943,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>45011719500</v>
       </c>
@@ -5001,7 +4960,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>45011713900</v>
       </c>
@@ -5018,7 +4977,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>45011713600</v>
       </c>
@@ -5035,7 +4994,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>45011742300</v>
       </c>
@@ -5052,7 +5011,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>45011740000</v>
       </c>
@@ -5069,7 +5028,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>45011615200</v>
       </c>
@@ -5086,7 +5045,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>45011610600</v>
       </c>
@@ -5103,7 +5062,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>45011398200</v>
       </c>
@@ -5120,7 +5079,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>45011394600</v>
       </c>
@@ -5137,7 +5096,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>45011387300</v>
       </c>
@@ -5154,7 +5113,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>45011273000</v>
       </c>
@@ -5171,7 +5130,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>45011176300</v>
       </c>
@@ -5188,7 +5147,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>45011176100</v>
       </c>
@@ -5205,7 +5164,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>45011175900</v>
       </c>
@@ -5222,7 +5181,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>45011175300</v>
       </c>
@@ -5239,7 +5198,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>45011175200</v>
       </c>
@@ -5256,7 +5215,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>45011742300</v>
       </c>
@@ -5273,7 +5232,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>45011740000</v>
       </c>
@@ -5290,7 +5249,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>45011615200</v>
       </c>
@@ -5307,7 +5266,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>45011610600</v>
       </c>
@@ -5324,7 +5283,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>45011398200</v>
       </c>
@@ -5341,7 +5300,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>45011394600</v>
       </c>
@@ -5358,7 +5317,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>45011387300</v>
       </c>
@@ -5375,7 +5334,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>45011273000</v>
       </c>
@@ -5392,7 +5351,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>45011176300</v>
       </c>
@@ -5409,7 +5368,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>45011176100</v>
       </c>
@@ -5426,7 +5385,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>45011175900</v>
       </c>
@@ -5443,7 +5402,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>45011175300</v>
       </c>
@@ -5474,309 +5433,309 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="8:8">
+    <row r="2" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="3" spans="8:8">
+    <row r="3" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="4" spans="8:8">
+    <row r="4" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H4" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="5" spans="8:8">
+    <row r="5" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="8:8">
+    <row r="6" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="7" spans="8:8">
+    <row r="7" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="8" spans="8:8">
+    <row r="8" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="9" spans="8:8">
+    <row r="9" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="10" spans="8:8">
+    <row r="10" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="11" spans="8:8">
+    <row r="11" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="12" spans="8:8">
+    <row r="12" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="13" spans="8:8">
+    <row r="13" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="14" spans="8:8">
+    <row r="14" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="15" spans="8:8">
+    <row r="15" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="16" spans="8:8">
+    <row r="16" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="17" spans="8:8">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="18" spans="8:8">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="8:8">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="20" spans="8:8">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="8:8">
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="22" spans="8:8">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="23" spans="8:8">
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="24" spans="8:8">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="25" spans="8:8">
+    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="26" spans="8:8">
+    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="27" spans="8:8">
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="8:8">
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="29" spans="8:8">
+    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="30" spans="8:8">
+    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H30" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="31" spans="8:8">
+    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="32" spans="8:8">
+    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H32" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="33" spans="8:8">
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="34" spans="8:8">
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="35" spans="8:8">
+    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H35" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="36" spans="8:8">
+    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H36" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="37" spans="8:8">
+    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H37" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="38" spans="8:8">
+    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H38" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="39" spans="8:8">
+    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H39" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="40" spans="8:8">
+    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="41" spans="8:8">
+    <row r="41" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="42" spans="8:8">
+    <row r="42" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="43" spans="8:8">
+    <row r="43" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H43" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="44" spans="8:8">
+    <row r="44" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H44" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="45" spans="8:8">
+    <row r="45" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H45" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="46" spans="8:8">
+    <row r="46" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H46" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="47" spans="8:8">
+    <row r="47" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H47" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="48" spans="8:8">
+    <row r="48" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H48" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="49" spans="8:8">
+    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H49" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="50" spans="8:8">
+    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H50" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="51" spans="8:8">
+    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H51" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="52" spans="8:8">
+    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="53" spans="8:8">
+    <row r="53" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H53" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="54" spans="8:8">
+    <row r="54" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H54" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="55" spans="8:8">
+    <row r="55" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H55" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="56" spans="8:8">
+    <row r="56" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H56" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="57" spans="8:8">
+    <row r="57" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H57" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="58" spans="8:8">
+    <row r="58" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H58" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="59" spans="8:8">
+    <row r="59" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H59" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="60" spans="8:8">
+    <row r="60" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H60" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="61" spans="8:8">
+    <row r="61" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H61" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="62" spans="8:8">
+    <row r="62" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H62" t="s">
         <v>492</v>
       </c>
@@ -5794,17 +5753,17 @@
       <selection activeCell="H2" sqref="H2:M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>45012492500</v>
       </c>
@@ -5815,7 +5774,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>45012491700</v>
       </c>
@@ -5829,7 +5788,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>45012491000</v>
       </c>
@@ -5843,7 +5802,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>45012397700</v>
       </c>
@@ -5857,7 +5816,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>45012397600</v>
       </c>
@@ -5871,7 +5830,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>45012397500</v>
       </c>
@@ -5883,7 +5842,7 @@
       </c>
       <c r="M7" s="16"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>45012397400</v>
       </c>
@@ -5895,7 +5854,7 @@
       </c>
       <c r="M8" s="16"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>45012397300</v>
       </c>
@@ -5904,7 +5863,7 @@
       </c>
       <c r="M9" s="16"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75">
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>45012260200</v>
       </c>
@@ -5913,718 +5872,718 @@
       </c>
       <c r="M10" s="16"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>45012259900</v>
       </c>
       <c r="M11" s="16"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>45012259800</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>45012259600</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>45012259300</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>45012259200</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>45012257900</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>45012257800</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>45012257600</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>45012257500</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>45012240200</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>45012239700</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>45012239000</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>45012238400</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>45012244900</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>45012244200</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>45012242000</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>45012236500</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>45012196500</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>45012196300</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>45012195300</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>45012195100</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>45012194900</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>45012194700</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>45012194500</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>45012194200</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>45012194000</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>45012195800</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>45012195600</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>45012195400</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>45012186000</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>45012185800</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>45012185700</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>45012185400</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>45012185200</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45012185000</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45012184800</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45012184600</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45011982200</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>45011974800</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>45011982200</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>45011982100</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>45012965900</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>45012939900</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>45012826300</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>45012826200</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>45012824200</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>45012822200</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>45012821900</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>45012811200</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>45012811300</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>45012802800</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>45012801100</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>45012390300</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>45012811600</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>45012808500</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>45012389400</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>45012730600</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>45012807600</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>45012807600</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>45012787000</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>45012785800</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>45012786300</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>45012785900</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>45012760300</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>45012691000</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>45012593000</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>45012595400</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>45012595300</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>45012405100</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>45011742300</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>45011740000</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>45011615200</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>45011610600</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>45011398200</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>45011394600</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>45011387300</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>45011273000</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>45011176300</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>45011176100</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>45011175900</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>45011175300</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>45011175200</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>45011742300</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>45011740000</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>45011615200</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>45011610600</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>45011398200</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>45011394600</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>45011387300</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>45011273000</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>45011176300</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>45011176100</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>45011175900</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>45011175300</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>45012104900</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>45011901000</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>45011900900</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>45011900500</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>45011900400</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>45011900200</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>45011899900</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>45011899500</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>45011899400</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>45011899300</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>45011899200</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>45011854500</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>45012295000</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>45012293400</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>45012293100</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>45012645800</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>45012599400</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>45012597100</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>45012414900</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>45012365700</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>45012231200</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>45012155100</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>45012154600</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>45012084700</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>45012088200</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>45011955700</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>45011878300</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>45011860000</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>45011847900</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>45011862500</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>45011858500</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>45011858000</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>45011857400</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>45012156200</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>45011723400</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>45012138000</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>45011974600</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>45011856500</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>45011494800</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>45011518700</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>45011518400</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>45011719500</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>45011723400</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>45011723000</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>45011726400</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>45011725900</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>45011725800</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>45011713900</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>45011713600</v>
       </c>
@@ -6642,7 +6601,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -6661,7 +6620,7 @@
     <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>176</v>
       </c>
@@ -6717,7 +6676,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>177</v>
       </c>
@@ -6773,7 +6732,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>178</v>
       </c>
@@ -6829,7 +6788,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>179</v>
       </c>
@@ -6885,7 +6844,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>180</v>
       </c>
@@ -6932,7 +6891,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G6"/>
       <c r="J6" t="s">
         <v>161</v>
@@ -6962,7 +6921,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G7"/>
       <c r="M7" t="s">
         <v>171</v>
@@ -6983,7 +6942,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G8"/>
       <c r="M8" t="s">
         <v>170</v>
@@ -7004,26 +6963,26 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G10"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G11"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>58</v>
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>60</v>
       </c>
@@ -7048,7 +7007,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
@@ -7071,7 +7030,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
@@ -7094,7 +7053,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
@@ -7117,7 +7076,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
@@ -7140,7 +7099,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
@@ -7163,7 +7122,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>48</v>
       </c>
@@ -7186,7 +7145,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>96</v>
       </c>
@@ -7209,7 +7168,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>49</v>
       </c>
@@ -7232,13 +7191,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>118</v>
       </c>
@@ -7261,12 +7220,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>60</v>
       </c>
@@ -7286,7 +7245,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>52</v>
       </c>
@@ -7309,7 +7268,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>53</v>
       </c>
@@ -7332,7 +7291,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>54</v>
       </c>
@@ -7355,7 +7314,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>55</v>
       </c>
@@ -7392,7 +7351,7 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -7401,7 +7360,7 @@
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>540</v>
       </c>
@@ -7424,7 +7383,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>558</v>
       </c>
@@ -7447,7 +7406,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>125</v>
       </c>
@@ -7470,7 +7429,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>125</v>
       </c>
@@ -7493,7 +7452,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>125</v>
       </c>
@@ -7516,7 +7475,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>125</v>
       </c>
@@ -7539,7 +7498,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>125</v>
       </c>
@@ -7562,7 +7521,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>125</v>
       </c>
@@ -7585,7 +7544,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>125</v>
       </c>
@@ -7608,7 +7567,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>558</v>
       </c>
@@ -7631,7 +7590,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>125</v>
       </c>
@@ -7654,7 +7613,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>125</v>
       </c>
@@ -7677,7 +7636,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>125</v>
       </c>
@@ -7700,7 +7659,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>125</v>
       </c>
@@ -7723,7 +7682,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>125</v>
       </c>
@@ -7746,7 +7705,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>125</v>
       </c>
@@ -7769,7 +7728,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>125</v>
       </c>
@@ -7792,7 +7751,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1">
+    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>558</v>
       </c>
@@ -7815,7 +7774,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>555</v>
       </c>
@@ -7838,7 +7797,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>555</v>
       </c>
@@ -7861,7 +7820,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>555</v>
       </c>
@@ -7884,7 +7843,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>555</v>
       </c>
@@ -7907,7 +7866,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>555</v>
       </c>
@@ -7930,7 +7889,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>555</v>
       </c>
@@ -7953,7 +7912,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>555</v>
       </c>
@@ -7984,107 +7943,138 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9D5C48-D696-4D79-973E-D2C676FE265C}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A2:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="45" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" t="s">
+        <v>558</v>
+      </c>
+      <c r="D4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>562</v>
+      </c>
+      <c r="B9" t="s">
+        <v>558</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>560</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B10" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C10" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>560</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>561</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>562</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>559</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>563</v>
-      </c>
-      <c r="F1" s="40">
-        <v>45011502800</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>564</v>
-      </c>
-      <c r="H1" s="41">
-        <v>42439</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A2" s="42" t="s">
-        <v>560</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>566</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>562</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>559</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>563</v>
-      </c>
-      <c r="F2" s="43">
-        <v>45011502800</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>564</v>
-      </c>
-      <c r="H2" s="44">
-        <v>42439</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="43"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="43"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D522832-91CC-4172-B1E3-C378FA51E801}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A8AECE-1EA2-4A94-A70F-16BA171097E6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="568">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -1728,6 +1728,18 @@
   </si>
   <si>
     <t>45011502800</t>
+  </si>
+  <si>
+    <t>CG4858</t>
+  </si>
+  <si>
+    <t>PR1192247960433970</t>
+  </si>
+  <si>
+    <t>TESTDEC23</t>
+  </si>
+  <si>
+    <t>invalid</t>
   </si>
 </sst>
 </file>
@@ -7347,7 +7359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2973B0-CDDC-449E-8E3C-85328113B7FE}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -7943,20 +7955,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9D5C48-D696-4D79-973E-D2C676FE265C}">
-  <dimension ref="A2:O11"/>
+  <dimension ref="A2:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -8076,6 +8089,50 @@
         <v>561</v>
       </c>
     </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>567</v>
+      </c>
+      <c r="B13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C13" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>565</v>
+      </c>
+      <c r="B14" t="s">
+        <v>567</v>
+      </c>
+      <c r="C14" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>565</v>
+      </c>
+      <c r="B15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C15" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>565</v>
+      </c>
+      <c r="B16" t="s">
+        <v>566</v>
+      </c>
+      <c r="C16" t="s">
+        <v>564</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A8AECE-1EA2-4A94-A70F-16BA171097E6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C20350-2338-4515-A695-E00F4DBB16FA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19170" windowHeight="9240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFIC" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="570">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -1740,6 +1740,12 @@
   </si>
   <si>
     <t>invalid</t>
+  </si>
+  <si>
+    <t>TSK-100942</t>
+  </si>
+  <si>
+    <t>HFA5138</t>
   </si>
 </sst>
 </file>
@@ -7955,15 +7961,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9D5C48-D696-4D79-973E-D2C676FE265C}">
-  <dimension ref="A2:O16"/>
+  <dimension ref="A2:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -7973,7 +7979,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>558</v>
       </c>
       <c r="B2" t="s">
@@ -7990,7 +7996,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B3" t="s">
@@ -8004,7 +8010,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B4" t="s">
@@ -8018,7 +8024,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B5" t="s">
@@ -8032,7 +8038,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B6" t="s">
@@ -8046,7 +8052,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="7" t="s">
         <v>558</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -8057,7 +8063,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="7" t="s">
         <v>562</v>
       </c>
       <c r="B9" t="s">
@@ -8068,7 +8074,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="7" t="s">
         <v>560</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -8079,7 +8085,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="7" t="s">
         <v>560</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -8090,7 +8096,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="7" t="s">
         <v>567</v>
       </c>
       <c r="B13" t="s">
@@ -8101,7 +8107,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="7" t="s">
         <v>565</v>
       </c>
       <c r="B14" t="s">
@@ -8112,7 +8118,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="7" t="s">
         <v>565</v>
       </c>
       <c r="B15" t="s">
@@ -8123,7 +8129,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="7" t="s">
         <v>565</v>
       </c>
       <c r="B16" t="s">
@@ -8131,6 +8137,30 @@
       </c>
       <c r="C16" t="s">
         <v>564</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>558</v>
+      </c>
+      <c r="B18" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>568</v>
+      </c>
+      <c r="B19" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>568</v>
+      </c>
+      <c r="B20" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C20350-2338-4515-A695-E00F4DBB16FA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71735B86-892D-4B1C-8CB6-985E2F180166}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19170" windowHeight="9240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFIC" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="573">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -1746,6 +1746,15 @@
   </si>
   <si>
     <t>HFA5138</t>
+  </si>
+  <si>
+    <t>TSK-304019</t>
+  </si>
+  <si>
+    <t>HFA6954</t>
+  </si>
+  <si>
+    <t>45012399200</t>
   </si>
 </sst>
 </file>
@@ -7961,10 +7970,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9D5C48-D696-4D79-973E-D2C676FE265C}">
-  <dimension ref="A2:O20"/>
+  <dimension ref="A2:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8139,7 +8148,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>558</v>
       </c>
@@ -8147,7 +8156,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>568</v>
       </c>
@@ -8155,12 +8164,82 @@
         <v>558</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>568</v>
       </c>
       <c r="B20" t="s">
         <v>569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>567</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D22" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>570</v>
+      </c>
+      <c r="B23" t="s">
+        <v>567</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D23" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>570</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C24" t="s">
+        <v>567</v>
+      </c>
+      <c r="D24" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>570</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D25" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>570</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D26" t="s">
+        <v>571</v>
       </c>
     </row>
   </sheetData>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71735B86-892D-4B1C-8CB6-985E2F180166}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5239BAC0-A130-40FD-B4F3-DC541D312BB1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="592">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -1755,6 +1755,63 @@
   </si>
   <si>
     <t>45012399200</t>
+  </si>
+  <si>
+    <t>TSK-312317</t>
+  </si>
+  <si>
+    <t>HFA704920210326074335</t>
+  </si>
+  <si>
+    <t>45012497301</t>
+  </si>
+  <si>
+    <t>45012497300</t>
+  </si>
+  <si>
+    <t>TSK-317324</t>
+  </si>
+  <si>
+    <t>CG5020</t>
+  </si>
+  <si>
+    <t>HFA705520210409084716</t>
+  </si>
+  <si>
+    <t>EMPST34YUMAR</t>
+  </si>
+  <si>
+    <t>HCR-14215</t>
+  </si>
+  <si>
+    <t>CG5039</t>
+  </si>
+  <si>
+    <t>04/12/2021</t>
+  </si>
+  <si>
+    <t>TSK-249323</t>
+  </si>
+  <si>
+    <t>CP1746</t>
+  </si>
+  <si>
+    <t>MSVS0512 Q2</t>
+  </si>
+  <si>
+    <t>RECON-496</t>
+  </si>
+  <si>
+    <t>CP0227</t>
+  </si>
+  <si>
+    <t>YG19583</t>
+  </si>
+  <si>
+    <t>45011581900</t>
+  </si>
+  <si>
+    <t>7710172041</t>
   </si>
 </sst>
 </file>
@@ -1798,7 +1855,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1835,6 +1892,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1864,7 +1927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1931,6 +1994,31 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7375,7 +7463,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7970,34 +8058,34 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9D5C48-D696-4D79-973E-D2C676FE265C}">
-  <dimension ref="A2:O26"/>
+  <dimension ref="A2:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="36" t="s">
         <v>558</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="40" t="s">
         <v>143</v>
       </c>
       <c r="O2" t="s">
@@ -8005,241 +8093,588 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="40" t="s">
         <v>558</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="40" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="40" t="s">
         <v>558</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="40" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="40" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="40" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="36" t="s">
         <v>558</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="41" t="s">
         <v>563</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="48" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="36" t="s">
         <v>562</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="40" t="s">
         <v>558</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="48" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="36" t="s">
         <v>560</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="41" t="s">
         <v>563</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="40" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="36" t="s">
         <v>560</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="41" t="s">
         <v>563</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="48" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="36" t="s">
         <v>567</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="40" t="s">
         <v>566</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="40" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="36" t="s">
         <v>565</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="40" t="s">
         <v>567</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="40" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="36" t="s">
         <v>565</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="40" t="s">
         <v>566</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="40" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="36" t="s">
         <v>565</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="40" t="s">
         <v>566</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="40" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="36" t="s">
         <v>558</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="40" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="36" t="s">
         <v>568</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="40" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="36" t="s">
         <v>568</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="40" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="36" t="s">
         <v>567</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="41" t="s">
         <v>572</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="41" t="s">
         <v>572</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="40" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="36" t="s">
         <v>570</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="40" t="s">
         <v>567</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="41" t="s">
         <v>572</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="40" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="36" t="s">
         <v>570</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="41" t="s">
         <v>572</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="40" t="s">
         <v>567</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="40" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="36" t="s">
         <v>570</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="41" t="s">
         <v>572</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="41" t="s">
         <v>572</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="40" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="36" t="s">
         <v>570</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="41" t="s">
         <v>572</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="41" t="s">
         <v>572</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="40" t="s">
         <v>571</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="46" t="s">
+        <v>558</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="46" t="s">
+        <v>573</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="46" t="s">
+        <v>573</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="46" t="s">
+        <v>573</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="46" t="s">
+        <v>573</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>558</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>578</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>579</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>558</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>579</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>578</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>558</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>578</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>579</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>578</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>579</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>578</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>579</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="36" t="s">
+        <v>558</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>583</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="36" t="s">
+        <v>581</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>558</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="36" t="s">
+        <v>581</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>583</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="36" t="s">
+        <v>581</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>583</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="47" t="s">
+        <v>558</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>585</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="47" t="s">
+        <v>584</v>
+      </c>
+      <c r="B50" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="47" t="s">
+        <v>584</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>585</v>
+      </c>
+      <c r="C51" s="44" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="47" t="s">
+        <v>584</v>
+      </c>
+      <c r="B52" s="45" t="s">
+        <v>585</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="49" t="s">
+        <v>558</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>590</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>588</v>
+      </c>
+      <c r="D55" s="43" t="s">
+        <v>589</v>
+      </c>
+      <c r="E55" s="50" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="49" t="s">
+        <v>587</v>
+      </c>
+      <c r="B56" s="49" t="s">
+        <v>558</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>588</v>
+      </c>
+      <c r="D56" s="43" t="s">
+        <v>589</v>
+      </c>
+      <c r="E56" s="50" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="49" t="s">
+        <v>587</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>590</v>
+      </c>
+      <c r="C57" s="49" t="s">
+        <v>558</v>
+      </c>
+      <c r="D57" s="43" t="s">
+        <v>589</v>
+      </c>
+      <c r="E57" s="50" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="49" t="s">
+        <v>587</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>590</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>588</v>
+      </c>
+      <c r="D58" s="49" t="s">
+        <v>558</v>
+      </c>
+      <c r="E58" s="50" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="49" t="s">
+        <v>587</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>590</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>588</v>
+      </c>
+      <c r="D59" s="43" t="s">
+        <v>589</v>
+      </c>
+      <c r="E59" s="49" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="49" t="s">
+        <v>587</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>590</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>588</v>
+      </c>
+      <c r="D60" s="43" t="s">
+        <v>589</v>
+      </c>
+      <c r="E60" s="50" t="s">
+        <v>591</v>
       </c>
     </row>
   </sheetData>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5239BAC0-A130-40FD-B4F3-DC541D312BB1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BBDB82-51B4-4D82-9410-0D20CEB59DFA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="660">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -1715,9 +1715,6 @@
     <t>Invalid</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>TSK-272146</t>
   </si>
   <si>
@@ -1812,6 +1809,213 @@
   </si>
   <si>
     <t>7710172041</t>
+  </si>
+  <si>
+    <t>HP_Reconciliation_Search-&gt;Valid record Search</t>
+  </si>
+  <si>
+    <t>HP_Reconciliation_Search-&gt;Case id is invalid Search</t>
+  </si>
+  <si>
+    <t>HP_Reconciliation_Search-&gt;Invalid MHS Subscriber ID Search</t>
+  </si>
+  <si>
+    <t>HP_Reconciliation_Search-&gt;Invalid Group ID Search</t>
+  </si>
+  <si>
+    <t>HP_Reconciliation_Search-&gt;Invalid HealthPass Group ID Search</t>
+  </si>
+  <si>
+    <t>HP_Reconciliation_Search-&gt; Invalid HealthPass Subscriber ID Search</t>
+  </si>
+  <si>
+    <t>HP_Group_Search-&gt;Invalid Group ID Search</t>
+  </si>
+  <si>
+    <t>HP_Group_Search-&gt; invalid Task id Search</t>
+  </si>
+  <si>
+    <t>HP_Group_Search-&gt;Invalid Group name Search</t>
+  </si>
+  <si>
+    <t>HP_Group_Search-&gt;Valid HP Group Search</t>
+  </si>
+  <si>
+    <t>Validate Billing task Search with invalid Task id</t>
+  </si>
+  <si>
+    <t>Validate Billing task Search with invalid Transaction  id</t>
+  </si>
+  <si>
+    <t>Validate Billing task Search with invalid Group id</t>
+  </si>
+  <si>
+    <t>Validate Billing task Search with invalid Account  id</t>
+  </si>
+  <si>
+    <t>Validate Membership task Search with invalid Task id</t>
+  </si>
+  <si>
+    <t>Validate Membership task Search with invalid MHS Subscriber  id</t>
+  </si>
+  <si>
+    <t>Validate Membership task Search with invalid Application id</t>
+  </si>
+  <si>
+    <t>Validate Membership task Search with  valid detail</t>
+  </si>
+  <si>
+    <t>Validate Billing task Search with  valid detail</t>
+  </si>
+  <si>
+    <t>Validate Group task Search with invalid Group id</t>
+  </si>
+  <si>
+    <t>Validate Group task Search with invalid Application  id</t>
+  </si>
+  <si>
+    <t>Validate Group task Search with invalid Application Name id</t>
+  </si>
+  <si>
+    <t>Validate PaymentException task Search with invalid Application  id</t>
+  </si>
+  <si>
+    <t>Validate PaymentException task Search with invalid PaymentException Task id</t>
+  </si>
+  <si>
+    <t>Validate PaymentException task Search with  valid details</t>
+  </si>
+  <si>
+    <t>Validate Group task Search with  valid details</t>
+  </si>
+  <si>
+    <t>Validate COB Tracking task Search with invalid Task id</t>
+  </si>
+  <si>
+    <t>Validate COB Tracking task Search with invalid MHS Member ID id</t>
+  </si>
+  <si>
+    <t>Validate COB Tracking task Search with invalid MHS Subscriber ID</t>
+  </si>
+  <si>
+    <t>Validate COB Tracking task Search with invalid Application #</t>
+  </si>
+  <si>
+    <t>Validate COB Tracking task Search with valid</t>
+  </si>
+  <si>
+    <t>Validate QLE Tracking task Search with invalid Task id</t>
+  </si>
+  <si>
+    <t>Validate QLE Tracking task Search with invalid MHS Member ID id</t>
+  </si>
+  <si>
+    <t>Validate QLE Tracking task Search with invalid MHS Subscriber ID</t>
+  </si>
+  <si>
+    <t>Validate QLE Tracking task Search with invalid Application #</t>
+  </si>
+  <si>
+    <t>Validate QLE Tracking task Search with valid details</t>
+  </si>
+  <si>
+    <t>Validate Presumptive Tracking task Search with invalid Task id</t>
+  </si>
+  <si>
+    <t>Validate Presumptive Tracking task Search with valid details</t>
+  </si>
+  <si>
+    <t>Validate Presumptive Tracking task Search with invalid group id</t>
+  </si>
+  <si>
+    <t>Validate Presumptive Tracking task Search with invalid Application ID</t>
+  </si>
+  <si>
+    <t>Validate Presumptive Tracking task Search with invalid Application name</t>
+  </si>
+  <si>
+    <t>Validate Change Request task Search with valid details</t>
+  </si>
+  <si>
+    <t>Validate Change Request task Search with invalid CR ID</t>
+  </si>
+  <si>
+    <t>Validate Change Request task Search with invalid creation date</t>
+  </si>
+  <si>
+    <t>Validate Change Request task Search with invalid Group id</t>
+  </si>
+  <si>
+    <t>Validate Initial HFIC application Search with Invalid Task id</t>
+  </si>
+  <si>
+    <t>Validate Initial HFIC application Search with Invalid Application id</t>
+  </si>
+  <si>
+    <t>Validate Initial HFIC application Search with Invalid Transcation id</t>
+  </si>
+  <si>
+    <t>Validate Initial HFIC application Search with Invalid Group id</t>
+  </si>
+  <si>
+    <t>Validate Initial HFIC application Search with Invalid Tax id</t>
+  </si>
+  <si>
+    <t>Validate Initial HFIC application Search with Invalid Group Name</t>
+  </si>
+  <si>
+    <t>Validate Initial HFIC application Search with Invalid Subscriber id</t>
+  </si>
+  <si>
+    <t>Validate Initial HFIC application Search with Valid Details</t>
+  </si>
+  <si>
+    <t>Validate Renewal HFIC application Search with Invalid Task id</t>
+  </si>
+  <si>
+    <t>Validate Renewal HFIC application Search with Invalid Application id</t>
+  </si>
+  <si>
+    <t>Validate Renewal HFIC application Search with Invalid Transcation id</t>
+  </si>
+  <si>
+    <t>Validate Renewal HFIC application Search with Invalid Group id</t>
+  </si>
+  <si>
+    <t>Validate Renewal HFIC application Search with Invalid Tax id</t>
+  </si>
+  <si>
+    <t>Validate Renewal HFIC application Search with Invalid Group Name</t>
+  </si>
+  <si>
+    <t>Validate Renewal HFIC application Search with Invalid Subscriber id</t>
+  </si>
+  <si>
+    <t>Validate Renewal HFIC application Search with Valid Details</t>
+  </si>
+  <si>
+    <t>Validate Roster Maintenance HFIC application Search with Invalid Task id</t>
+  </si>
+  <si>
+    <t>Validate Roster Maintenance HFIC application Search with Invalid Application id</t>
+  </si>
+  <si>
+    <t>Validate Roster Maintenance HFIC application Search with Invalid Transcation id</t>
+  </si>
+  <si>
+    <t>Validate Roster Maintenance HFIC application Search with Invalid Group id</t>
+  </si>
+  <si>
+    <t>Validate Roster Maintenance HFIC application Search with Invalid Tax id</t>
+  </si>
+  <si>
+    <t>Validate Roster Maintenance HFIC application Search with Invalid Group Name</t>
+  </si>
+  <si>
+    <t>Validate Roster Maintenance HFIC application Search with Invalid Subscriber id</t>
+  </si>
+  <si>
+    <t>Validate Roster Maintenance HFIC application Search with Valid Details</t>
   </si>
 </sst>
 </file>
@@ -1899,7 +2103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1922,12 +2126,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2019,6 +2234,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7460,10 +7676,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2973B0-CDDC-449E-8E3C-85328113B7FE}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H10" sqref="H10:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7473,9 +7689,10 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>540</v>
       </c>
@@ -7498,7 +7715,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>558</v>
       </c>
@@ -7520,8 +7737,11 @@
       <c r="G2" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>125</v>
       </c>
@@ -7543,8 +7763,11 @@
       <c r="G3" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>125</v>
       </c>
@@ -7566,8 +7789,11 @@
       <c r="G4" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>125</v>
       </c>
@@ -7589,8 +7815,11 @@
       <c r="G5" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>125</v>
       </c>
@@ -7612,8 +7841,11 @@
       <c r="G6" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>125</v>
       </c>
@@ -7635,8 +7867,11 @@
       <c r="G7" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>125</v>
       </c>
@@ -7658,31 +7893,37 @@
       <c r="G8" s="18" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="H8" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="38" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>558</v>
       </c>
@@ -7704,8 +7945,11 @@
       <c r="G10" s="2" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>125</v>
       </c>
@@ -7727,8 +7971,11 @@
       <c r="G11" s="2" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>125</v>
       </c>
@@ -7750,8 +7997,11 @@
       <c r="G12" s="2" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>125</v>
       </c>
@@ -7773,8 +8023,11 @@
       <c r="G13" s="2" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>125</v>
       </c>
@@ -7796,8 +8049,11 @@
       <c r="G14" s="2" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>125</v>
       </c>
@@ -7819,8 +8075,11 @@
       <c r="G15" s="2" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>125</v>
       </c>
@@ -7842,8 +8101,11 @@
       <c r="G16" s="18" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>125</v>
       </c>
@@ -7865,8 +8127,11 @@
       <c r="G17" s="38" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>558</v>
       </c>
@@ -7888,8 +8153,11 @@
       <c r="G18" s="9" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>555</v>
       </c>
@@ -7911,8 +8179,11 @@
       <c r="G19" s="9" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>555</v>
       </c>
@@ -7934,8 +8205,11 @@
       <c r="G20" s="9" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>555</v>
       </c>
@@ -7957,8 +8231,11 @@
       <c r="G21" s="9" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>555</v>
       </c>
@@ -7980,8 +8257,11 @@
       <c r="G22" s="9" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>555</v>
       </c>
@@ -8003,8 +8283,11 @@
       <c r="G23" s="9" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>555</v>
       </c>
@@ -8026,8 +8309,11 @@
       <c r="G24" s="18" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>555</v>
       </c>
@@ -8048,6 +8334,9 @@
       </c>
       <c r="G25" s="9" t="s">
         <v>557</v>
+      </c>
+      <c r="H25" t="s">
+        <v>651</v>
       </c>
     </row>
   </sheetData>
@@ -8058,24 +8347,25 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9D5C48-D696-4D79-973E-D2C676FE265C}">
-  <dimension ref="A2:O60"/>
+  <dimension ref="A2:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>558</v>
       </c>
@@ -8088,11 +8378,11 @@
       <c r="D2" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="O2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E2" s="51" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>140</v>
       </c>
@@ -8105,8 +8395,11 @@
       <c r="D3" s="40" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E3" s="51" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>140</v>
       </c>
@@ -8119,8 +8412,11 @@
       <c r="D4" s="40" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E4" s="51" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>140</v>
       </c>
@@ -8133,8 +8429,11 @@
       <c r="D5" s="40" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E5" s="51" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>140</v>
       </c>
@@ -8147,533 +8446,656 @@
       <c r="D6" s="40" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="E6" s="51" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
         <v>558</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C8" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="36" t="s">
         <v>561</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="36" t="s">
-        <v>562</v>
       </c>
       <c r="B9" s="40" t="s">
         <v>558</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C10" s="40" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="D10" s="51" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
+        <v>559</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>562</v>
+      </c>
+      <c r="C11" s="48" t="s">
         <v>560</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="D11" s="51" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>566</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>564</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>565</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
         <v>563</v>
       </c>
-      <c r="C11" s="48" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>567</v>
-      </c>
-      <c r="B13" s="40" t="s">
+      <c r="B14" s="40" t="s">
         <v>566</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C14" s="40" t="s">
+        <v>565</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
+        <v>563</v>
+      </c>
+      <c r="B15" s="36" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="C15" s="40" t="s">
+        <v>566</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="40" t="s">
+        <v>563</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>564</v>
+      </c>
+      <c r="C16" s="40" t="s">
         <v>565</v>
       </c>
-      <c r="B14" s="40" t="s">
-        <v>567</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>565</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>566</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>565</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>566</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="51" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>558</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B19" s="40" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="51" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
+        <v>567</v>
+      </c>
+      <c r="B20" s="40" t="s">
         <v>568</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="C20" s="51" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>566</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>571</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>571</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>570</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>567</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>572</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>572</v>
-      </c>
-      <c r="D22" s="40" t="s">
+      <c r="B23" s="40" t="s">
+        <v>566</v>
+      </c>
+      <c r="C23" s="41" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="D23" s="40" t="s">
         <v>570</v>
       </c>
-      <c r="B23" s="40" t="s">
-        <v>567</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>572</v>
-      </c>
-      <c r="D23" s="40" t="s">
+      <c r="E23" s="51" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>569</v>
+      </c>
+      <c r="B24" s="41" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+      <c r="C24" s="40" t="s">
+        <v>566</v>
+      </c>
+      <c r="D24" s="40" t="s">
         <v>570</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>572</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>567</v>
-      </c>
-      <c r="D24" s="40" t="s">
+      <c r="E24" s="51" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>569</v>
+      </c>
+      <c r="B25" s="41" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+      <c r="C25" s="41" t="s">
+        <v>571</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>566</v>
+      </c>
+      <c r="E25" s="51" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
+        <v>569</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>571</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>571</v>
+      </c>
+      <c r="D26" s="40" t="s">
         <v>570</v>
       </c>
-      <c r="B25" s="41" t="s">
-        <v>572</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>572</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
-        <v>570</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>572</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>572</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="51" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="46" t="s">
         <v>558</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>576</v>
-      </c>
       <c r="D29" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="46" t="s">
+        <v>572</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E30" s="51" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="46" t="s">
+        <v>572</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
+      <c r="C31" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="E31" s="51" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="46" t="s">
+        <v>572</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="46" t="s">
+      <c r="C32" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="46" t="s">
+        <v>572</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="s">
-        <v>573</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
-        <v>573</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="51" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
         <v>558</v>
       </c>
       <c r="B36" s="40" t="s">
+        <v>577</v>
+      </c>
+      <c r="C36" s="40" t="s">
         <v>578</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="D36" s="40" t="s">
         <v>579</v>
       </c>
-      <c r="D36" s="40" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="51" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B37" s="36" t="s">
         <v>558</v>
       </c>
       <c r="C37" s="40" t="s">
+        <v>578</v>
+      </c>
+      <c r="D37" s="40" t="s">
         <v>579</v>
       </c>
-      <c r="D37" s="40" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="51" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
+        <v>576</v>
+      </c>
+      <c r="B38" s="40" t="s">
         <v>577</v>
-      </c>
-      <c r="B38" s="40" t="s">
-        <v>578</v>
       </c>
       <c r="C38" s="36" t="s">
         <v>558</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+      <c r="E38" s="51" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
+        <v>576</v>
+      </c>
+      <c r="B39" s="40" t="s">
         <v>577</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="C39" s="40" t="s">
         <v>578</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>579</v>
       </c>
       <c r="D39" s="36" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="51" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
+        <v>576</v>
+      </c>
+      <c r="B40" s="40" t="s">
         <v>577</v>
       </c>
-      <c r="B40" s="40" t="s">
+      <c r="C40" s="40" t="s">
         <v>578</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="D40" s="40" t="s">
         <v>579</v>
       </c>
-      <c r="D40" s="40" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="51" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
+        <v>576</v>
+      </c>
+      <c r="B41" s="40" t="s">
         <v>577</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="C41" s="40" t="s">
         <v>578</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>579</v>
       </c>
       <c r="D41" s="41" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="36" t="s">
         <v>558</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+      <c r="D44" s="51" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="36" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B45" s="42" t="s">
         <v>558</v>
       </c>
-      <c r="C45" s="42" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="40" t="s">
+        <v>581</v>
+      </c>
+      <c r="D45" s="51" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C46" s="42" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="51" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="36" t="s">
+        <v>580</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>582</v>
+      </c>
+      <c r="C47" s="40" t="s">
         <v>581</v>
       </c>
-      <c r="B47" s="42" t="s">
-        <v>583</v>
-      </c>
-      <c r="C47" s="40" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="51" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>558</v>
       </c>
       <c r="B49" s="45" t="s">
+        <v>584</v>
+      </c>
+      <c r="C49" s="45" t="s">
         <v>585</v>
       </c>
-      <c r="C49" s="45" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B50" s="44" t="s">
         <v>558</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+      <c r="D50" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
+        <v>583</v>
+      </c>
+      <c r="B51" s="45" t="s">
         <v>584</v>
-      </c>
-      <c r="B51" s="45" t="s">
-        <v>585</v>
       </c>
       <c r="C51" s="44" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
+        <v>583</v>
+      </c>
+      <c r="B52" s="45" t="s">
         <v>584</v>
       </c>
-      <c r="B52" s="45" t="s">
+      <c r="C52" s="45" t="s">
         <v>585</v>
       </c>
-      <c r="C52" s="45" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="49" t="s">
         <v>558</v>
       </c>
       <c r="B55" s="41" t="s">
+        <v>589</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>587</v>
+      </c>
+      <c r="D55" s="43" t="s">
+        <v>588</v>
+      </c>
+      <c r="E55" s="50" t="s">
         <v>590</v>
       </c>
-      <c r="C55" s="43" t="s">
-        <v>588</v>
-      </c>
-      <c r="D55" s="43" t="s">
-        <v>589</v>
-      </c>
-      <c r="E55" s="50" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="49" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B56" s="49" t="s">
         <v>558</v>
       </c>
       <c r="C56" s="43" t="s">
+        <v>587</v>
+      </c>
+      <c r="D56" s="43" t="s">
         <v>588</v>
       </c>
-      <c r="D56" s="43" t="s">
+      <c r="E56" s="50" t="s">
+        <v>590</v>
+      </c>
+      <c r="F56" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="49" t="s">
+        <v>586</v>
+      </c>
+      <c r="B57" s="41" t="s">
         <v>589</v>
-      </c>
-      <c r="E56" s="50" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="49" t="s">
-        <v>587</v>
-      </c>
-      <c r="B57" s="41" t="s">
-        <v>590</v>
       </c>
       <c r="C57" s="49" t="s">
         <v>558</v>
       </c>
       <c r="D57" s="43" t="s">
+        <v>588</v>
+      </c>
+      <c r="E57" s="50" t="s">
+        <v>590</v>
+      </c>
+      <c r="F57" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="49" t="s">
+        <v>586</v>
+      </c>
+      <c r="B58" s="41" t="s">
         <v>589</v>
       </c>
-      <c r="E57" s="50" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="49" t="s">
+      <c r="C58" s="43" t="s">
         <v>587</v>
-      </c>
-      <c r="B58" s="41" t="s">
-        <v>590</v>
-      </c>
-      <c r="C58" s="43" t="s">
-        <v>588</v>
       </c>
       <c r="D58" s="49" t="s">
         <v>558</v>
       </c>
       <c r="E58" s="50" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+      <c r="F58" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="49" t="s">
+        <v>586</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>589</v>
+      </c>
+      <c r="C59" s="43" t="s">
         <v>587</v>
       </c>
-      <c r="B59" s="41" t="s">
-        <v>590</v>
-      </c>
-      <c r="C59" s="43" t="s">
+      <c r="D59" s="43" t="s">
         <v>588</v>
-      </c>
-      <c r="D59" s="43" t="s">
-        <v>589</v>
       </c>
       <c r="E59" s="49" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="49" t="s">
+        <v>586</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>589</v>
+      </c>
+      <c r="C60" s="43" t="s">
         <v>587</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="D60" s="43" t="s">
+        <v>588</v>
+      </c>
+      <c r="E60" s="50" t="s">
         <v>590</v>
       </c>
-      <c r="C60" s="43" t="s">
-        <v>588</v>
-      </c>
-      <c r="D60" s="43" t="s">
-        <v>589</v>
-      </c>
-      <c r="E60" s="50" t="s">
+      <c r="F60" t="s">
         <v>591</v>
       </c>
     </row>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BBDB82-51B4-4D82-9410-0D20CEB59DFA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB08732-17B7-4BE4-9B79-9BB096F18C19}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFIC" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="661">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -470,21 +470,12 @@
     <t>CG0778BTA</t>
   </si>
   <si>
-    <t>Srikanth SAGAR</t>
-  </si>
-  <si>
     <t>CP0000</t>
   </si>
   <si>
     <t>01/01/1920</t>
   </si>
   <si>
-    <t>CG0000</t>
-  </si>
-  <si>
-    <t>123123123</t>
-  </si>
-  <si>
     <t>srikanth</t>
   </si>
   <si>
@@ -2016,6 +2007,18 @@
   </si>
   <si>
     <t>Validate Roster Maintenance HFIC application Search with Valid Details</t>
+  </si>
+  <si>
+    <t>RENEWAL CHAGE</t>
+  </si>
+  <si>
+    <t>7/1/2020</t>
+  </si>
+  <si>
+    <t>314516481</t>
+  </si>
+  <si>
+    <t>01/01/1800</t>
   </si>
 </sst>
 </file>
@@ -2059,7 +2062,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2099,6 +2102,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2142,7 +2151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2173,19 +2182,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2235,6 +2235,25 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2571,7 +2590,7 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -2592,7 +2611,7 @@
         <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>9</v>
@@ -2615,7 +2634,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -2636,7 +2655,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>11</v>
@@ -2659,7 +2678,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -2680,7 +2699,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>13</v>
@@ -2703,7 +2722,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H5" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>15</v>
@@ -2726,7 +2745,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H6" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>17</v>
@@ -2758,7 +2777,7 @@
   <dimension ref="A1:N171"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2775,150 +2794,150 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="D2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>490</v>
+      </c>
+      <c r="G2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="K2" t="s">
+        <v>532</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="D2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>493</v>
-      </c>
-      <c r="G2" t="s">
-        <v>431</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="K2" t="s">
-        <v>535</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="N2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>494</v>
+        <v>202</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>491</v>
       </c>
       <c r="G3" t="s">
         <v>39</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="K3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="N3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>495</v>
+        <v>199</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>492</v>
       </c>
       <c r="G4" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>507</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="K4" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="N4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>56</v>
@@ -2927,269 +2946,269 @@
         <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F7" t="s">
-        <v>538</v>
-      </c>
-      <c r="G7" s="37" t="s">
+        <v>535</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>505</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="J7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K7" t="s">
         <v>508</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="J7" t="s">
-        <v>510</v>
-      </c>
-      <c r="K7" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>524</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>527</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>530</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F8" t="s">
-        <v>538</v>
-      </c>
-      <c r="G8" s="37" t="s">
+        <v>535</v>
+      </c>
+      <c r="G8" s="34" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="J8" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="K8" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F9" t="s">
-        <v>538</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>513</v>
+        <v>535</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>510</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="J9" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="K9" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F10" t="s">
-        <v>538</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>515</v>
+        <v>535</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>512</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="J10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="K10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F11" t="s">
-        <v>538</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>517</v>
+        <v>535</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>514</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="J11" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="K11" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F12" t="s">
-        <v>538</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>519</v>
+        <v>535</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>516</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="J12" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="K12" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F13" t="s">
-        <v>538</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>521</v>
+        <v>535</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>518</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J13" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="K13" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F14" t="s">
-        <v>538</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>523</v>
+        <v>535</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>520</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="J14" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="K14" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F15" t="s">
-        <v>538</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>525</v>
+        <v>535</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>522</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="J15" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="K15" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3207,16 +3226,16 @@
         <v>45012397700</v>
       </c>
       <c r="B23" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C23" t="s">
-        <v>212</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>496</v>
+        <v>209</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>493</v>
       </c>
       <c r="E23" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H23" s="16">
         <v>45012514500</v>
@@ -3227,16 +3246,16 @@
         <v>45012397600</v>
       </c>
       <c r="B24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C24" t="s">
-        <v>214</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>497</v>
+        <v>211</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>494</v>
       </c>
       <c r="E24" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H24" s="16">
         <v>45012514400</v>
@@ -3247,16 +3266,16 @@
         <v>45012397500</v>
       </c>
       <c r="B25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C25" t="s">
-        <v>216</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>498</v>
+        <v>213</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>495</v>
       </c>
       <c r="E25" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H25" s="16">
         <v>45012514300</v>
@@ -3264,16 +3283,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C26" t="s">
-        <v>218</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>496</v>
+        <v>215</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>493</v>
       </c>
       <c r="E26" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H26">
         <v>45012513900</v>
@@ -3284,16 +3303,16 @@
         <v>45012397300</v>
       </c>
       <c r="B27" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C27" t="s">
-        <v>220</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>499</v>
+        <v>217</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>496</v>
       </c>
       <c r="E27" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H27">
         <v>45012513600</v>
@@ -3304,16 +3323,16 @@
         <v>45012260200</v>
       </c>
       <c r="B28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C28" t="s">
-        <v>251</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>500</v>
+        <v>248</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>497</v>
       </c>
       <c r="E28" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H28" s="16">
         <v>45012513800</v>
@@ -3324,16 +3343,16 @@
         <v>45012259900</v>
       </c>
       <c r="B29" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C29" t="s">
-        <v>238</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>501</v>
+        <v>235</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>498</v>
       </c>
       <c r="E29" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3341,16 +3360,16 @@
         <v>45012259800</v>
       </c>
       <c r="B30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C30" t="s">
-        <v>240</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>501</v>
+        <v>237</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>498</v>
       </c>
       <c r="E30" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3358,16 +3377,16 @@
         <v>45012259600</v>
       </c>
       <c r="B31" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C31" t="s">
-        <v>224</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>501</v>
+        <v>221</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>498</v>
       </c>
       <c r="E31" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3375,16 +3394,16 @@
         <v>45012259300</v>
       </c>
       <c r="B32" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C32" t="s">
-        <v>227</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>501</v>
+        <v>224</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>498</v>
       </c>
       <c r="E32" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3392,16 +3411,16 @@
         <v>45012259200</v>
       </c>
       <c r="B33" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C33" t="s">
-        <v>229</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>501</v>
+        <v>226</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>498</v>
       </c>
       <c r="E33" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3409,16 +3428,16 @@
         <v>45012257900</v>
       </c>
       <c r="B34" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C34" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D34" s="14">
         <v>32929</v>
       </c>
       <c r="E34" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3426,16 +3445,16 @@
         <v>45012257800</v>
       </c>
       <c r="B35" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C35" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D35" s="14">
         <v>32929</v>
       </c>
       <c r="E35" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3443,16 +3462,16 @@
         <v>45012257600</v>
       </c>
       <c r="B36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D36" s="14">
         <v>32929</v>
       </c>
       <c r="E36" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3460,16 +3479,16 @@
         <v>45012257500</v>
       </c>
       <c r="B37" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C37" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D37" s="14">
         <v>32929</v>
       </c>
       <c r="E37" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3477,16 +3496,16 @@
         <v>45012244900</v>
       </c>
       <c r="B38" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C38" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D38" s="14">
         <v>32929</v>
       </c>
       <c r="E38" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3494,16 +3513,16 @@
         <v>45012244200</v>
       </c>
       <c r="B39" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C39" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D39" s="14">
         <v>32929</v>
       </c>
       <c r="E39" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3511,16 +3530,16 @@
         <v>45012242000</v>
       </c>
       <c r="B40" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C40" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D40" s="14">
         <v>32929</v>
       </c>
       <c r="E40" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3528,16 +3547,16 @@
         <v>45012240200</v>
       </c>
       <c r="B41" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C41" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D41" s="14">
         <v>32929</v>
       </c>
       <c r="E41" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3545,16 +3564,16 @@
         <v>45012239700</v>
       </c>
       <c r="B42" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C42" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D42" s="14">
         <v>32929</v>
       </c>
       <c r="E42" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3562,16 +3581,16 @@
         <v>45012239000</v>
       </c>
       <c r="B43" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C43" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D43" s="14">
         <v>32929</v>
       </c>
       <c r="E43" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3579,16 +3598,16 @@
         <v>45012238400</v>
       </c>
       <c r="B44" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C44" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D44" s="14">
         <v>32929</v>
       </c>
       <c r="E44" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3596,16 +3615,16 @@
         <v>45012236500</v>
       </c>
       <c r="B45" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C45" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D45" s="14">
         <v>29221</v>
       </c>
       <c r="E45" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3613,16 +3632,16 @@
         <v>45012196500</v>
       </c>
       <c r="B46" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C46" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D46" s="14">
         <v>41883</v>
       </c>
       <c r="E46" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3630,16 +3649,16 @@
         <v>45012196300</v>
       </c>
       <c r="B47" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D47" s="14">
         <v>41883</v>
       </c>
       <c r="E47" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3647,16 +3666,16 @@
         <v>45012195300</v>
       </c>
       <c r="B48" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C48" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D48" s="14">
         <v>41883</v>
       </c>
       <c r="E48" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3664,16 +3683,16 @@
         <v>45012195100</v>
       </c>
       <c r="B49" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C49" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D49" s="14">
         <v>41883</v>
       </c>
       <c r="E49" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3681,16 +3700,16 @@
         <v>45012194900</v>
       </c>
       <c r="B50" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C50" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D50" s="14">
         <v>32752</v>
       </c>
       <c r="E50" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3698,16 +3717,16 @@
         <v>45012194700</v>
       </c>
       <c r="B51" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C51" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D51" s="14">
         <v>32752</v>
       </c>
       <c r="E51" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3715,16 +3734,16 @@
         <v>45012194500</v>
       </c>
       <c r="B52" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C52" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D52" s="14">
         <v>32752</v>
       </c>
       <c r="E52" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3732,16 +3751,16 @@
         <v>45012194200</v>
       </c>
       <c r="B53" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C53" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D53" s="14">
         <v>32752</v>
       </c>
       <c r="E53" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3749,16 +3768,16 @@
         <v>45012194000</v>
       </c>
       <c r="B54" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C54" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D54" s="14">
         <v>32752</v>
       </c>
       <c r="E54" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -3766,16 +3785,16 @@
         <v>45012195800</v>
       </c>
       <c r="B55" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C55" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D55" s="14">
         <v>41883</v>
       </c>
       <c r="E55" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3783,16 +3802,16 @@
         <v>45012195600</v>
       </c>
       <c r="B56" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C56" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D56" s="14">
         <v>41883</v>
       </c>
       <c r="E56" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3800,16 +3819,16 @@
         <v>45012195400</v>
       </c>
       <c r="B57" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C57" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D57" s="14">
         <v>41883</v>
       </c>
       <c r="E57" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -3817,16 +3836,16 @@
         <v>45012186000</v>
       </c>
       <c r="B58" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C58" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D58" s="14">
         <v>41883</v>
       </c>
       <c r="E58" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3834,16 +3853,16 @@
         <v>45012185800</v>
       </c>
       <c r="B59" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C59" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D59" s="14">
         <v>32752</v>
       </c>
       <c r="E59" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3851,16 +3870,16 @@
         <v>45012185700</v>
       </c>
       <c r="B60" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C60" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D60" s="14">
         <v>32752</v>
       </c>
       <c r="E60" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3868,16 +3887,16 @@
         <v>45012185400</v>
       </c>
       <c r="B61" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C61" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D61" s="14">
         <v>32752</v>
       </c>
       <c r="E61" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3885,16 +3904,16 @@
         <v>45012185200</v>
       </c>
       <c r="B62" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C62" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D62" s="14">
         <v>32752</v>
       </c>
       <c r="E62" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3902,16 +3921,16 @@
         <v>45012185000</v>
       </c>
       <c r="B63" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C63" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D63" s="14">
         <v>41883</v>
       </c>
       <c r="E63" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -3919,16 +3938,16 @@
         <v>45012184800</v>
       </c>
       <c r="B64" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C64" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D64" s="14">
         <v>25569</v>
       </c>
       <c r="E64" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3936,16 +3955,16 @@
         <v>45012184600</v>
       </c>
       <c r="B65" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C65" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D65" s="14">
         <v>32752</v>
       </c>
       <c r="E65" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3953,7 +3972,7 @@
         <v>45011982200</v>
       </c>
       <c r="B66" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C66" t="s">
         <v>36</v>
@@ -3962,7 +3981,7 @@
         <v>33058</v>
       </c>
       <c r="E66" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3970,7 +3989,7 @@
         <v>45011982200</v>
       </c>
       <c r="B67" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C67" t="s">
         <v>36</v>
@@ -3979,7 +3998,7 @@
         <v>33058</v>
       </c>
       <c r="E67" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3987,7 +4006,7 @@
         <v>45011982100</v>
       </c>
       <c r="B68" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C68" t="s">
         <v>36</v>
@@ -3996,7 +4015,7 @@
         <v>32994</v>
       </c>
       <c r="E68" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -4004,7 +4023,7 @@
         <v>45011974800</v>
       </c>
       <c r="B69" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C69" t="s">
         <v>36</v>
@@ -4013,7 +4032,7 @@
         <v>33055</v>
       </c>
       <c r="E69" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -4021,16 +4040,16 @@
         <v>45012965900</v>
       </c>
       <c r="B70" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C70" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D70" s="14">
         <v>30903</v>
       </c>
       <c r="E70" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -4038,7 +4057,7 @@
         <v>45012939900</v>
       </c>
       <c r="B71" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C71" t="s">
         <v>36</v>
@@ -4047,7 +4066,7 @@
         <v>33002</v>
       </c>
       <c r="E71" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -4055,7 +4074,7 @@
         <v>45012826300</v>
       </c>
       <c r="B72" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C72" t="s">
         <v>33</v>
@@ -4064,7 +4083,7 @@
         <v>29266</v>
       </c>
       <c r="E72" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -4072,7 +4091,7 @@
         <v>45012826200</v>
       </c>
       <c r="B73" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C73" t="s">
         <v>34</v>
@@ -4081,7 +4100,7 @@
         <v>31180</v>
       </c>
       <c r="E73" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -4089,16 +4108,16 @@
         <v>45012824200</v>
       </c>
       <c r="B74" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C74" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D74" s="14">
         <v>31180</v>
       </c>
       <c r="E74" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -4115,7 +4134,7 @@
         <v>29266</v>
       </c>
       <c r="E75" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -4123,16 +4142,16 @@
         <v>45012821900</v>
       </c>
       <c r="B76" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C76" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D76" s="14">
         <v>31180</v>
       </c>
       <c r="E76" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -4140,16 +4159,16 @@
         <v>45012811200</v>
       </c>
       <c r="B77" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C77" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D77" s="14">
         <v>32874</v>
       </c>
       <c r="E77" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -4157,16 +4176,16 @@
         <v>45012811300</v>
       </c>
       <c r="B78" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C78" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D78" s="14">
         <v>33239</v>
       </c>
       <c r="E78" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -4174,16 +4193,16 @@
         <v>45012811600</v>
       </c>
       <c r="B79" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C79" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D79" s="14">
         <v>29266</v>
       </c>
       <c r="E79" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -4191,16 +4210,16 @@
         <v>45012390300</v>
       </c>
       <c r="B80" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C80" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D80" s="14">
         <v>29266</v>
       </c>
       <c r="E80" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -4208,16 +4227,16 @@
         <v>45012808500</v>
       </c>
       <c r="B81" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C81" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D81" s="14">
         <v>31180</v>
       </c>
       <c r="E81" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -4225,16 +4244,16 @@
         <v>45012389400</v>
       </c>
       <c r="B82" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C82" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D82" s="14">
         <v>29266</v>
       </c>
       <c r="E82" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -4242,16 +4261,16 @@
         <v>45012807600</v>
       </c>
       <c r="B83" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C83" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D83" s="14">
         <v>31180</v>
       </c>
       <c r="E83" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -4259,16 +4278,16 @@
         <v>45012807600</v>
       </c>
       <c r="B84" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C84" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D84" s="14">
         <v>31180</v>
       </c>
       <c r="E84" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -4276,16 +4295,16 @@
         <v>45012802800</v>
       </c>
       <c r="B85" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C85" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D85" s="14">
         <v>42171</v>
       </c>
       <c r="E85" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -4293,16 +4312,16 @@
         <v>45012801100</v>
       </c>
       <c r="B86" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C86" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D86" s="14">
         <v>31545</v>
       </c>
       <c r="E86" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -4310,7 +4329,7 @@
         <v>45012787000</v>
       </c>
       <c r="B87" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C87" t="s">
         <v>36</v>
@@ -4319,7 +4338,7 @@
         <v>33124</v>
       </c>
       <c r="E87" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -4327,16 +4346,16 @@
         <v>45012785800</v>
       </c>
       <c r="B88" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C88" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D88" s="14">
         <v>32991</v>
       </c>
       <c r="E88" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -4353,7 +4372,7 @@
         <v>33063</v>
       </c>
       <c r="E89" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -4361,16 +4380,16 @@
         <v>45012785900</v>
       </c>
       <c r="B90" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C90" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D90" s="14">
         <v>33142</v>
       </c>
       <c r="E90" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -4378,7 +4397,7 @@
         <v>45012760300</v>
       </c>
       <c r="B91" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C91" t="s">
         <v>36</v>
@@ -4387,7 +4406,7 @@
         <v>32668</v>
       </c>
       <c r="E91" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -4395,7 +4414,7 @@
         <v>45012730600</v>
       </c>
       <c r="B92" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C92" t="s">
         <v>36</v>
@@ -4404,7 +4423,7 @@
         <v>33094</v>
       </c>
       <c r="E92" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -4412,7 +4431,7 @@
         <v>45012691000</v>
       </c>
       <c r="B93" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C93" t="s">
         <v>36</v>
@@ -4421,7 +4440,7 @@
         <v>33033</v>
       </c>
       <c r="E93" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -4429,16 +4448,16 @@
         <v>45012595400</v>
       </c>
       <c r="B94" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C94" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D94" s="14">
         <v>29664</v>
       </c>
       <c r="E94" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -4446,16 +4465,16 @@
         <v>45012595300</v>
       </c>
       <c r="B95" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C95" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D95" s="14">
         <v>31686</v>
       </c>
       <c r="E95" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -4463,16 +4482,16 @@
         <v>45012593000</v>
       </c>
       <c r="B96" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C96" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D96" s="14">
         <v>32412</v>
       </c>
       <c r="E96" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -4480,16 +4499,16 @@
         <v>45012405100</v>
       </c>
       <c r="B97" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C97" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D97" s="14">
         <v>31048</v>
       </c>
       <c r="E97" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -4497,7 +4516,7 @@
         <v>45012104900</v>
       </c>
       <c r="B98" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C98" t="s">
         <v>36</v>
@@ -4506,7 +4525,7 @@
         <v>32607</v>
       </c>
       <c r="E98" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -4514,16 +4533,16 @@
         <v>45011901000</v>
       </c>
       <c r="B99" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C99" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D99" s="14">
         <v>32143</v>
       </c>
       <c r="E99" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -4531,16 +4550,16 @@
         <v>45011900900</v>
       </c>
       <c r="B100" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C100" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D100" s="14">
         <v>32143</v>
       </c>
       <c r="E100" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -4548,16 +4567,16 @@
         <v>45011900500</v>
       </c>
       <c r="B101" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C101" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D101" s="14">
         <v>29249</v>
       </c>
       <c r="E101" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -4565,16 +4584,16 @@
         <v>45011900400</v>
       </c>
       <c r="B102" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C102" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D102" s="14">
         <v>29246</v>
       </c>
       <c r="E102" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -4582,16 +4601,16 @@
         <v>45011900200</v>
       </c>
       <c r="B103" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C103" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D103" s="14">
         <v>29240</v>
       </c>
       <c r="E103" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -4599,16 +4618,16 @@
         <v>45011899900</v>
       </c>
       <c r="B104" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C104" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D104" s="14">
         <v>29231</v>
       </c>
       <c r="E104" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -4616,16 +4635,16 @@
         <v>45011899500</v>
       </c>
       <c r="B105" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C105" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D105" s="14">
         <v>29248</v>
       </c>
       <c r="E105" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -4633,16 +4652,16 @@
         <v>45011899400</v>
       </c>
       <c r="B106" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C106" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D106" s="14">
         <v>29239</v>
       </c>
       <c r="E106" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -4650,16 +4669,16 @@
         <v>45011899300</v>
       </c>
       <c r="B107" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C107" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D107" s="14">
         <v>29230</v>
       </c>
       <c r="E107" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -4667,16 +4686,16 @@
         <v>45011899200</v>
       </c>
       <c r="B108" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C108" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D108" s="14">
         <v>29221</v>
       </c>
       <c r="E108" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -4684,16 +4703,16 @@
         <v>45011854500</v>
       </c>
       <c r="B109" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C109" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D109" s="14">
         <v>27912</v>
       </c>
       <c r="E109" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -4704,13 +4723,13 @@
         <v>57</v>
       </c>
       <c r="C110" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D110" s="14">
         <v>35097</v>
       </c>
       <c r="E110" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -4718,16 +4737,16 @@
         <v>45012295000</v>
       </c>
       <c r="B111" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C111" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D111" s="14">
         <v>34049</v>
       </c>
       <c r="E111" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -4735,16 +4754,16 @@
         <v>45012293400</v>
       </c>
       <c r="B112" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C112" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D112" s="14">
         <v>29952</v>
       </c>
       <c r="E112" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -4752,16 +4771,16 @@
         <v>45012293100</v>
       </c>
       <c r="B113" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C113" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D113" s="14">
         <v>29221</v>
       </c>
       <c r="E113" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -4769,16 +4788,16 @@
         <v>45012599400</v>
       </c>
       <c r="B114" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C114" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D114" s="14">
         <v>33318</v>
       </c>
       <c r="E114" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -4786,16 +4805,16 @@
         <v>45012597100</v>
       </c>
       <c r="B115" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C115" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D115" s="14">
         <v>32340</v>
       </c>
       <c r="E115" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -4803,16 +4822,16 @@
         <v>45012414900</v>
       </c>
       <c r="B116" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C116" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D116" s="14">
         <v>32340</v>
       </c>
       <c r="E116" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -4820,16 +4839,16 @@
         <v>45012365700</v>
       </c>
       <c r="B117" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C117" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D117" s="14">
         <v>28911</v>
       </c>
       <c r="E117" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -4837,16 +4856,16 @@
         <v>45012231200</v>
       </c>
       <c r="B118" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C118" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D118" s="14">
         <v>28911</v>
       </c>
       <c r="E118" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -4854,16 +4873,16 @@
         <v>45012155100</v>
       </c>
       <c r="B119" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C119" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D119" s="14">
         <v>30136</v>
       </c>
       <c r="E119" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -4871,7 +4890,7 @@
         <v>45012154600</v>
       </c>
       <c r="B120" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C120" t="s">
         <v>36</v>
@@ -4880,7 +4899,7 @@
         <v>33027</v>
       </c>
       <c r="E120" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -4888,7 +4907,7 @@
         <v>45012088200</v>
       </c>
       <c r="B121" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C121" t="s">
         <v>36</v>
@@ -4897,7 +4916,7 @@
         <v>33027</v>
       </c>
       <c r="E121" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -4905,7 +4924,7 @@
         <v>45012084700</v>
       </c>
       <c r="B122" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C122" t="s">
         <v>36</v>
@@ -4914,7 +4933,7 @@
         <v>25204</v>
       </c>
       <c r="E122" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -4922,16 +4941,16 @@
         <v>45011955700</v>
       </c>
       <c r="B123" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C123" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D123" s="14">
         <v>33318</v>
       </c>
       <c r="E123" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -4939,16 +4958,16 @@
         <v>45011878300</v>
       </c>
       <c r="B124" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C124" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D124" s="14">
         <v>30410</v>
       </c>
       <c r="E124" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -4956,16 +4975,16 @@
         <v>45011862500</v>
       </c>
       <c r="B125" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C125" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D125" s="14">
         <v>31569</v>
       </c>
       <c r="E125" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -4973,16 +4992,16 @@
         <v>45011860000</v>
       </c>
       <c r="B126" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C126" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D126" s="14">
         <v>32094</v>
       </c>
       <c r="E126" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -4990,16 +5009,16 @@
         <v>45011858500</v>
       </c>
       <c r="B127" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C127" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D127" s="14">
         <v>29984</v>
       </c>
       <c r="E127" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -5007,16 +5026,16 @@
         <v>45011857400</v>
       </c>
       <c r="B128" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C128" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D128" s="14">
         <v>30776</v>
       </c>
       <c r="E128" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -5024,16 +5043,16 @@
         <v>45011858000</v>
       </c>
       <c r="B129" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C129" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D129" s="14">
         <v>30378</v>
       </c>
       <c r="E129" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -5041,16 +5060,16 @@
         <v>45011847900</v>
       </c>
       <c r="B130" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C130" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D130" s="14">
         <v>30146</v>
       </c>
       <c r="E130" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -5058,16 +5077,16 @@
         <v>45012156200</v>
       </c>
       <c r="B131" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C131" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D131" s="14">
         <v>32340</v>
       </c>
       <c r="E131" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -5075,16 +5094,16 @@
         <v>45012138000</v>
       </c>
       <c r="B132" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C132" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D132" s="14">
         <v>25818</v>
       </c>
       <c r="E132" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -5092,16 +5111,16 @@
         <v>45011974600</v>
       </c>
       <c r="B133" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C133" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D133" s="14">
         <v>32340</v>
       </c>
       <c r="E133" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -5109,16 +5128,16 @@
         <v>45011856500</v>
       </c>
       <c r="B134" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C134" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D134" s="14">
         <v>29221</v>
       </c>
       <c r="E134" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -5126,16 +5145,16 @@
         <v>45011518700</v>
       </c>
       <c r="B135" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C135" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D135" s="14">
         <v>25569</v>
       </c>
       <c r="E135" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -5143,16 +5162,16 @@
         <v>45011518400</v>
       </c>
       <c r="B136" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C136" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D136" s="14">
         <v>29473</v>
       </c>
       <c r="E136" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -5160,16 +5179,16 @@
         <v>45011494800</v>
       </c>
       <c r="B137" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C137" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D137" s="14">
         <v>32661</v>
       </c>
       <c r="E137" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -5177,16 +5196,16 @@
         <v>45011726400</v>
       </c>
       <c r="B138" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D138" s="14">
         <v>28911</v>
       </c>
       <c r="E138" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -5194,16 +5213,16 @@
         <v>45011725900</v>
       </c>
       <c r="B139" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C139" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D139" s="14">
         <v>31974</v>
       </c>
       <c r="E139" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -5211,16 +5230,16 @@
         <v>45011725800</v>
       </c>
       <c r="B140" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C140" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D140" s="14">
         <v>32340</v>
       </c>
       <c r="E140" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -5228,16 +5247,16 @@
         <v>45011723400</v>
       </c>
       <c r="B141" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C141" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D141" s="14">
         <v>20086</v>
       </c>
       <c r="E141" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -5245,16 +5264,16 @@
         <v>45011723400</v>
       </c>
       <c r="B142" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C142" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D142" s="14">
         <v>29867</v>
       </c>
       <c r="E142" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -5262,16 +5281,16 @@
         <v>45011723000</v>
       </c>
       <c r="B143" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C143" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D143" s="14">
         <v>29502</v>
       </c>
       <c r="E143" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -5279,7 +5298,7 @@
         <v>45011719500</v>
       </c>
       <c r="B144" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C144" t="s">
         <v>36</v>
@@ -5288,7 +5307,7 @@
         <v>25204</v>
       </c>
       <c r="E144" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -5296,16 +5315,16 @@
         <v>45011713900</v>
       </c>
       <c r="B145" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C145" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D145" s="14">
         <v>31173</v>
       </c>
       <c r="E145" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -5313,16 +5332,16 @@
         <v>45011713600</v>
       </c>
       <c r="B146" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C146" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D146" s="14">
         <v>31172</v>
       </c>
       <c r="E146" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -5330,16 +5349,16 @@
         <v>45011742300</v>
       </c>
       <c r="B147" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C147" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D147" s="14">
         <v>34478</v>
       </c>
       <c r="E147" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -5347,16 +5366,16 @@
         <v>45011740000</v>
       </c>
       <c r="B148" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C148" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D148" s="14">
         <v>34395</v>
       </c>
       <c r="E148" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -5364,16 +5383,16 @@
         <v>45011615200</v>
       </c>
       <c r="B149" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C149" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D149" s="14">
         <v>34680</v>
       </c>
       <c r="E149" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -5381,16 +5400,16 @@
         <v>45011610600</v>
       </c>
       <c r="B150" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C150" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D150" s="14">
         <v>34010</v>
       </c>
       <c r="E150" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -5398,16 +5417,16 @@
         <v>45011398200</v>
       </c>
       <c r="B151" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C151" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D151" s="14">
         <v>32454</v>
       </c>
       <c r="E151" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -5415,16 +5434,16 @@
         <v>45011394600</v>
       </c>
       <c r="B152" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C152" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D152" s="14">
         <v>33850</v>
       </c>
       <c r="E152" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -5432,16 +5451,16 @@
         <v>45011387300</v>
       </c>
       <c r="B153" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C153" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D153" s="14">
         <v>23925</v>
       </c>
       <c r="E153" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -5449,16 +5468,16 @@
         <v>45011273000</v>
       </c>
       <c r="B154" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C154" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D154" s="14">
         <v>25146</v>
       </c>
       <c r="E154" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -5466,16 +5485,16 @@
         <v>45011176300</v>
       </c>
       <c r="B155" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C155" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D155" s="14">
         <v>30579</v>
       </c>
       <c r="E155" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -5483,16 +5502,16 @@
         <v>45011176100</v>
       </c>
       <c r="B156" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C156" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D156" s="14">
         <v>32818</v>
       </c>
       <c r="E156" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -5500,16 +5519,16 @@
         <v>45011175900</v>
       </c>
       <c r="B157" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C157" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D157" s="14">
         <v>33309</v>
       </c>
       <c r="E157" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -5517,16 +5536,16 @@
         <v>45011175300</v>
       </c>
       <c r="B158" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C158" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D158" s="14">
         <v>31248</v>
       </c>
       <c r="E158" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -5534,16 +5553,16 @@
         <v>45011175200</v>
       </c>
       <c r="B159" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C159" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D159" s="14">
         <v>32717</v>
       </c>
       <c r="E159" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -5551,16 +5570,16 @@
         <v>45011742300</v>
       </c>
       <c r="B160" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C160" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D160" s="14">
         <v>34478</v>
       </c>
       <c r="E160" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -5568,16 +5587,16 @@
         <v>45011740000</v>
       </c>
       <c r="B161" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C161" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D161" s="14">
         <v>34395</v>
       </c>
       <c r="E161" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -5585,16 +5604,16 @@
         <v>45011615200</v>
       </c>
       <c r="B162" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C162" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D162" s="14">
         <v>34680</v>
       </c>
       <c r="E162" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -5602,16 +5621,16 @@
         <v>45011610600</v>
       </c>
       <c r="B163" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C163" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D163" s="14">
         <v>34010</v>
       </c>
       <c r="E163" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -5619,16 +5638,16 @@
         <v>45011398200</v>
       </c>
       <c r="B164" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C164" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D164" s="14">
         <v>32454</v>
       </c>
       <c r="E164" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -5636,16 +5655,16 @@
         <v>45011394600</v>
       </c>
       <c r="B165" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C165" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D165" s="14">
         <v>33850</v>
       </c>
       <c r="E165" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -5653,16 +5672,16 @@
         <v>45011387300</v>
       </c>
       <c r="B166" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C166" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D166" s="14">
         <v>23925</v>
       </c>
       <c r="E166" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -5670,16 +5689,16 @@
         <v>45011273000</v>
       </c>
       <c r="B167" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C167" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D167" s="14">
         <v>25146</v>
       </c>
       <c r="E167" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -5687,16 +5706,16 @@
         <v>45011176300</v>
       </c>
       <c r="B168" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C168" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D168" s="14">
         <v>30579</v>
       </c>
       <c r="E168" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -5704,16 +5723,16 @@
         <v>45011176100</v>
       </c>
       <c r="B169" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C169" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D169" s="14">
         <v>32818</v>
       </c>
       <c r="E169" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -5721,16 +5740,16 @@
         <v>45011175900</v>
       </c>
       <c r="B170" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C170" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D170" s="14">
         <v>33309</v>
       </c>
       <c r="E170" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -5738,16 +5757,16 @@
         <v>45011175300</v>
       </c>
       <c r="B171" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C171" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D171" s="14">
         <v>31248</v>
       </c>
       <c r="E171" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -5768,307 +5787,307 @@
   <sheetData>
     <row r="2" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="25" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H30" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="31" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="32" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H32" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H35" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H36" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H37" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H38" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H39" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H43" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H44" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H45" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H46" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="47" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H47" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="48" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H48" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H49" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H50" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H51" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H53" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H54" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H55" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H56" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H57" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H58" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H59" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="60" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H60" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="61" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H61" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="62" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H62" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -6091,7 +6110,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -6928,8 +6947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06FC4A3-CF87-4C6E-8D77-7DC31AD6245D}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6953,25 +6972,25 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>20</v>
+        <v>173</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>657</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>658</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>659</v>
       </c>
       <c r="F1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>42</v>
@@ -6980,42 +6999,42 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K1" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="K1" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="27" t="s">
         <v>50</v>
       </c>
       <c r="M1" t="s">
-        <v>164</v>
-      </c>
-      <c r="N1" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="N1" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="30" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>144</v>
+      <c r="C2" s="3" t="s">
+        <v>563</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>19</v>
@@ -7024,48 +7043,48 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="28" t="s">
-        <v>149</v>
+      <c r="H2" s="25" t="s">
+        <v>146</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K2" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="K2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="29" t="s">
-        <v>151</v>
+      <c r="L2" s="26" t="s">
+        <v>148</v>
       </c>
       <c r="M2" t="s">
-        <v>165</v>
-      </c>
-      <c r="N2" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="P2" s="34" t="s">
+      <c r="O2" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="P2" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="30" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -7073,14 +7092,14 @@
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>146</v>
+      <c r="D3" s="3" t="s">
+        <v>563</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>41</v>
@@ -7088,40 +7107,40 @@
       <c r="H3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="21" t="s">
-        <v>150</v>
+      <c r="I3" s="20" t="s">
+        <v>147</v>
       </c>
       <c r="J3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K3" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="28" t="s">
         <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>166</v>
-      </c>
-      <c r="N3" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="N3" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="O3" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q3" s="34" t="s">
+      <c r="P3" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q3" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="R3" s="33" t="s">
+      <c r="R3" s="30" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -7130,167 +7149,167 @@
         <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="F4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>19</v>
-      </c>
       <c r="J4" t="s">
-        <v>159</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="L4" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="L4" s="27" t="s">
         <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>167</v>
-      </c>
-      <c r="N4" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="N4" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="35" t="s">
+      <c r="O4" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="Q4" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="R4" s="32" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>20</v>
+        <v>177</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>428</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>657</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>658</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>659</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="8"/>
       <c r="I5" s="6"/>
       <c r="J5" t="s">
-        <v>160</v>
-      </c>
-      <c r="K5" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="K5" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="29" t="s">
-        <v>155</v>
+      <c r="L5" s="26" t="s">
+        <v>152</v>
       </c>
       <c r="M5" t="s">
-        <v>168</v>
-      </c>
-      <c r="N5" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="O5" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="O5" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="P5" s="30" t="s">
+      <c r="P5" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="Q5" s="30" t="s">
+      <c r="Q5" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="R5" s="36" t="s">
+      <c r="R5" s="33" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G6"/>
       <c r="J6" t="s">
-        <v>161</v>
-      </c>
-      <c r="K6" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="28" t="s">
         <v>51</v>
       </c>
       <c r="M6" t="s">
-        <v>169</v>
-      </c>
-      <c r="N6" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="N6" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="O6" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="P6" s="30" t="s">
+      <c r="O6" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="P6" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="Q6" s="30" t="s">
+      <c r="Q6" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="R6" s="36" t="s">
+      <c r="R6" s="33" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G7"/>
       <c r="M7" t="s">
-        <v>171</v>
-      </c>
-      <c r="N7" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="N7" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="O7" s="36" t="s">
+      <c r="O7" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="P7" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q7" s="30" t="s">
+      <c r="P7" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q7" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="R7" s="36" t="s">
+      <c r="R7" s="33" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G8"/>
       <c r="M8" t="s">
-        <v>170</v>
-      </c>
-      <c r="N8" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="N8" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="O8" s="35" t="s">
+      <c r="O8" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="P8" s="31" t="s">
+      <c r="P8" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="Q8" s="31" t="s">
+      <c r="Q8" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="R8" s="35" t="s">
+      <c r="R8" s="32" t="s">
         <v>103</v>
       </c>
     </row>
@@ -7694,22 +7713,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G1" t="s">
         <v>130</v>
@@ -7717,7 +7736,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>126</v>
@@ -7738,7 +7757,7 @@
         <v>133</v>
       </c>
       <c r="H2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -7746,7 +7765,7 @@
         <v>125</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>132</v>
@@ -7764,7 +7783,7 @@
         <v>133</v>
       </c>
       <c r="H3" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -7775,7 +7794,7 @@
         <v>126</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D4" t="s">
         <v>127</v>
@@ -7790,7 +7809,7 @@
         <v>133</v>
       </c>
       <c r="H4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -7804,7 +7823,7 @@
         <v>132</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>128</v>
@@ -7816,7 +7835,7 @@
         <v>133</v>
       </c>
       <c r="H5" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -7833,7 +7852,7 @@
         <v>127</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F6" t="s">
         <v>131</v>
@@ -7842,7 +7861,7 @@
         <v>133</v>
       </c>
       <c r="H6" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -7862,13 +7881,13 @@
         <v>128</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>133</v>
       </c>
       <c r="H7" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -7891,62 +7910,62 @@
         <v>131</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H8" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="35" t="s">
         <v>133</v>
       </c>
       <c r="H9" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B10" t="s">
+        <v>542</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D10" t="s">
+        <v>543</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="D10" t="s">
-        <v>546</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>548</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H10" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -7954,25 +7973,25 @@
         <v>125</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D11" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H11" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -7980,25 +7999,25 @@
         <v>125</v>
       </c>
       <c r="B12" t="s">
+        <v>542</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="D12" t="s">
+        <v>543</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>558</v>
-      </c>
-      <c r="D12" t="s">
-        <v>546</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>548</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H12" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -8006,25 +8025,25 @@
         <v>125</v>
       </c>
       <c r="B13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>558</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>548</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H13" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -8032,25 +8051,25 @@
         <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D14" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H14" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -8058,25 +8077,25 @@
         <v>125</v>
       </c>
       <c r="B15" t="s">
+        <v>542</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D15" t="s">
+        <v>543</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="D15" t="s">
-        <v>546</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>548</v>
-      </c>
       <c r="F15" s="18" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H15" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -8084,259 +8103,259 @@
         <v>125</v>
       </c>
       <c r="B16" t="s">
+        <v>542</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D16" t="s">
+        <v>543</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="F16" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="H16" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>542</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>546</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>558</v>
-      </c>
-      <c r="H16" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" s="39" t="s">
+      <c r="D17" s="36" t="s">
+        <v>543</v>
+      </c>
+      <c r="E17" s="35" t="s">
         <v>545</v>
       </c>
-      <c r="C17" s="38" t="s">
-        <v>549</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>546</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>548</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>547</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>556</v>
+      <c r="F17" s="35" t="s">
+        <v>544</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>553</v>
       </c>
       <c r="H17" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>557</v>
-      </c>
       <c r="H18" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>558</v>
-      </c>
       <c r="C19" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>557</v>
-      </c>
       <c r="H19" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>558</v>
-      </c>
       <c r="D20" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>557</v>
-      </c>
       <c r="H20" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="E21" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>558</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>557</v>
-      </c>
       <c r="H21" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="F22" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>558</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>557</v>
-      </c>
       <c r="H22" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>558</v>
-      </c>
       <c r="G23" s="9" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H23" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="G24" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>558</v>
-      </c>
       <c r="H24" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>557</v>
-      </c>
       <c r="H25" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -8349,7 +8368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9D5C48-D696-4D79-973E-D2C676FE265C}">
   <dimension ref="A2:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
@@ -8366,737 +8385,737 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>557</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="33" t="s">
         <v>558</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>558</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>558</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="51" t="s">
+      <c r="B9" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>557</v>
+      </c>
+      <c r="D9" s="48" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>558</v>
-      </c>
-      <c r="E5" s="51" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="D10" s="48" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="51" t="s">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>557</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>563</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>562</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>560</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>562</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>560</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="D15" s="48" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="36" t="s">
-        <v>558</v>
-      </c>
-      <c r="B8" s="41" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
+        <v>560</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="C16" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="C8" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="36" t="s">
-        <v>561</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>558</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>559</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>562</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>558</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="36" t="s">
-        <v>559</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>562</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="D16" s="48" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>565</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>564</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>564</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>565</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>563</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>567</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
         <v>566</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>564</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>565</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="B23" s="37" t="s">
         <v>563</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="C23" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>567</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
         <v>566</v>
       </c>
-      <c r="C14" s="40" t="s">
-        <v>565</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="B24" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="C24" s="37" t="s">
         <v>563</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>564</v>
-      </c>
-      <c r="C15" s="40" t="s">
+      <c r="D24" s="37" t="s">
+        <v>567</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
         <v>566</v>
       </c>
-      <c r="D15" s="51" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="B25" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="D25" s="37" t="s">
         <v>563</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>564</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>565</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>558</v>
-      </c>
-      <c r="B18" s="40" t="s">
+      <c r="E25" s="48" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="B26" s="38" t="s">
         <v>568</v>
       </c>
-      <c r="C18" s="51" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="C26" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="D26" s="37" t="s">
         <v>567</v>
       </c>
-      <c r="B19" s="40" t="s">
-        <v>558</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>567</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>568</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>566</v>
-      </c>
-      <c r="B22" s="41" t="s">
+      <c r="E26" s="48" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="43" t="s">
+        <v>555</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C29" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
+        <v>569</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>572</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
+        <v>569</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="C31" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="E22" s="51" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="E31" s="48" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="43" t="s">
         <v>569</v>
       </c>
-      <c r="B23" s="40" t="s">
-        <v>566</v>
-      </c>
-      <c r="C23" s="41" t="s">
+      <c r="B32" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="C32" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="43" t="s">
+        <v>569</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="E23" s="51" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
-        <v>569</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>571</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>566</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>570</v>
-      </c>
-      <c r="E24" s="51" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>569</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>571</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>571</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>566</v>
-      </c>
-      <c r="E25" s="51" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
-        <v>569</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>571</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>571</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>570</v>
-      </c>
-      <c r="E26" s="51" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
-        <v>558</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="E33" s="48" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="B36" s="37" t="s">
         <v>574</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C36" s="37" t="s">
         <v>575</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D36" s="37" t="s">
+        <v>576</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
         <v>573</v>
       </c>
-      <c r="E29" s="51" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
-        <v>572</v>
-      </c>
-      <c r="B30" s="26" t="s">
+      <c r="B37" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="C37" s="37" t="s">
         <v>575</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D37" s="37" t="s">
+        <v>576</v>
+      </c>
+      <c r="E37" s="48" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
+        <v>573</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>576</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
+        <v>573</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="C39" s="37" t="s">
         <v>575</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D39" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="E39" s="48" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
         <v>573</v>
       </c>
-      <c r="E30" s="51" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="46" t="s">
-        <v>572</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="B40" s="37" t="s">
         <v>574</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C40" s="37" t="s">
+        <v>575</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>576</v>
+      </c>
+      <c r="E40" s="48" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="33" t="s">
+        <v>573</v>
+      </c>
+      <c r="B41" s="37" t="s">
         <v>574</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="E31" s="51" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="s">
-        <v>572</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="C41" s="37" t="s">
         <v>575</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="E32" s="51" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
-        <v>572</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="E33" s="51" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
-        <v>558</v>
-      </c>
-      <c r="B36" s="40" t="s">
+      <c r="D41" s="38" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>579</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>578</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="33" t="s">
         <v>577</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="B45" s="39" t="s">
+        <v>555</v>
+      </c>
+      <c r="C45" s="37" t="s">
         <v>578</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D45" s="48" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="33" t="s">
+        <v>577</v>
+      </c>
+      <c r="B46" s="39" t="s">
         <v>579</v>
       </c>
-      <c r="E36" s="51" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
-        <v>576</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>558</v>
-      </c>
-      <c r="C37" s="40" t="s">
+      <c r="C46" s="39" t="s">
+        <v>555</v>
+      </c>
+      <c r="D46" s="48" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
+        <v>577</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>579</v>
+      </c>
+      <c r="C47" s="37" t="s">
         <v>578</v>
       </c>
-      <c r="D37" s="40" t="s">
-        <v>579</v>
-      </c>
-      <c r="E37" s="51" t="s">
+      <c r="D47" s="48" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
-        <v>576</v>
-      </c>
-      <c r="B38" s="40" t="s">
-        <v>577</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>558</v>
-      </c>
-      <c r="D38" s="40" t="s">
-        <v>579</v>
-      </c>
-      <c r="E38" s="51" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
-        <v>576</v>
-      </c>
-      <c r="B39" s="40" t="s">
-        <v>577</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>578</v>
-      </c>
-      <c r="D39" s="36" t="s">
-        <v>558</v>
-      </c>
-      <c r="E39" s="51" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
-        <v>576</v>
-      </c>
-      <c r="B40" s="40" t="s">
-        <v>577</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>578</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>579</v>
-      </c>
-      <c r="E40" s="51" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
-        <v>576</v>
-      </c>
-      <c r="B41" s="40" t="s">
-        <v>577</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>578</v>
-      </c>
-      <c r="D41" s="41" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="44" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
-        <v>558</v>
-      </c>
-      <c r="B44" s="42" t="s">
+      <c r="B49" s="42" t="s">
+        <v>581</v>
+      </c>
+      <c r="C49" s="42" t="s">
         <v>582</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="D49" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="44" t="s">
+        <v>580</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>582</v>
+      </c>
+      <c r="D50" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="44" t="s">
+        <v>580</v>
+      </c>
+      <c r="B51" s="42" t="s">
         <v>581</v>
       </c>
-      <c r="D44" s="51" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
+      <c r="C51" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="D51" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="44" t="s">
         <v>580</v>
       </c>
-      <c r="B45" s="42" t="s">
-        <v>558</v>
-      </c>
-      <c r="C45" s="40" t="s">
+      <c r="B52" s="42" t="s">
         <v>581</v>
       </c>
-      <c r="D45" s="51" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
-        <v>580</v>
-      </c>
-      <c r="B46" s="42" t="s">
+      <c r="C52" s="42" t="s">
         <v>582</v>
       </c>
-      <c r="C46" s="42" t="s">
-        <v>558</v>
-      </c>
-      <c r="D46" s="51" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
-        <v>580</v>
-      </c>
-      <c r="B47" s="42" t="s">
-        <v>582</v>
-      </c>
-      <c r="C47" s="40" t="s">
-        <v>581</v>
-      </c>
-      <c r="D47" s="51" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="47" t="s">
-        <v>558</v>
-      </c>
-      <c r="B49" s="45" t="s">
-        <v>584</v>
-      </c>
-      <c r="C49" s="45" t="s">
-        <v>585</v>
-      </c>
-      <c r="D49" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="47" t="s">
-        <v>583</v>
-      </c>
-      <c r="B50" s="44" t="s">
-        <v>558</v>
-      </c>
-      <c r="C50" s="45" t="s">
-        <v>585</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="D52" t="s">
         <v>597</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="47" t="s">
-        <v>583</v>
-      </c>
-      <c r="B51" s="45" t="s">
-        <v>584</v>
-      </c>
-      <c r="C51" s="44" t="s">
-        <v>558</v>
-      </c>
-      <c r="D51" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="47" t="s">
-        <v>583</v>
-      </c>
-      <c r="B52" s="45" t="s">
-        <v>584</v>
-      </c>
-      <c r="C52" s="45" t="s">
-        <v>585</v>
-      </c>
-      <c r="D52" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="49" t="s">
-        <v>558</v>
-      </c>
-      <c r="B55" s="41" t="s">
+      <c r="A55" s="46" t="s">
+        <v>555</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>586</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>584</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>585</v>
+      </c>
+      <c r="E55" s="47" t="s">
+        <v>587</v>
+      </c>
+      <c r="F55" t="s">
         <v>589</v>
       </c>
-      <c r="C55" s="43" t="s">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="46" t="s">
+        <v>583</v>
+      </c>
+      <c r="B56" s="46" t="s">
+        <v>555</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>584</v>
+      </c>
+      <c r="D56" s="40" t="s">
+        <v>585</v>
+      </c>
+      <c r="E56" s="47" t="s">
         <v>587</v>
       </c>
-      <c r="D55" s="43" t="s">
+      <c r="F56" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="46" t="s">
+        <v>583</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>586</v>
+      </c>
+      <c r="C57" s="46" t="s">
+        <v>555</v>
+      </c>
+      <c r="D57" s="40" t="s">
+        <v>585</v>
+      </c>
+      <c r="E57" s="47" t="s">
+        <v>587</v>
+      </c>
+      <c r="F57" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="46" t="s">
+        <v>583</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>586</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>584</v>
+      </c>
+      <c r="D58" s="46" t="s">
+        <v>555</v>
+      </c>
+      <c r="E58" s="47" t="s">
+        <v>587</v>
+      </c>
+      <c r="F58" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="46" t="s">
+        <v>583</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>586</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>584</v>
+      </c>
+      <c r="D59" s="40" t="s">
+        <v>585</v>
+      </c>
+      <c r="E59" s="46" t="s">
+        <v>555</v>
+      </c>
+      <c r="F59" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="46" t="s">
+        <v>583</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>586</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>584</v>
+      </c>
+      <c r="D60" s="40" t="s">
+        <v>585</v>
+      </c>
+      <c r="E60" s="47" t="s">
+        <v>587</v>
+      </c>
+      <c r="F60" t="s">
         <v>588</v>
-      </c>
-      <c r="E55" s="50" t="s">
-        <v>590</v>
-      </c>
-      <c r="F55" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="49" t="s">
-        <v>586</v>
-      </c>
-      <c r="B56" s="49" t="s">
-        <v>558</v>
-      </c>
-      <c r="C56" s="43" t="s">
-        <v>587</v>
-      </c>
-      <c r="D56" s="43" t="s">
-        <v>588</v>
-      </c>
-      <c r="E56" s="50" t="s">
-        <v>590</v>
-      </c>
-      <c r="F56" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="49" t="s">
-        <v>586</v>
-      </c>
-      <c r="B57" s="41" t="s">
-        <v>589</v>
-      </c>
-      <c r="C57" s="49" t="s">
-        <v>558</v>
-      </c>
-      <c r="D57" s="43" t="s">
-        <v>588</v>
-      </c>
-      <c r="E57" s="50" t="s">
-        <v>590</v>
-      </c>
-      <c r="F57" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="49" t="s">
-        <v>586</v>
-      </c>
-      <c r="B58" s="41" t="s">
-        <v>589</v>
-      </c>
-      <c r="C58" s="43" t="s">
-        <v>587</v>
-      </c>
-      <c r="D58" s="49" t="s">
-        <v>558</v>
-      </c>
-      <c r="E58" s="50" t="s">
-        <v>590</v>
-      </c>
-      <c r="F58" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="49" t="s">
-        <v>586</v>
-      </c>
-      <c r="B59" s="41" t="s">
-        <v>589</v>
-      </c>
-      <c r="C59" s="43" t="s">
-        <v>587</v>
-      </c>
-      <c r="D59" s="43" t="s">
-        <v>588</v>
-      </c>
-      <c r="E59" s="49" t="s">
-        <v>558</v>
-      </c>
-      <c r="F59" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="49" t="s">
-        <v>586</v>
-      </c>
-      <c r="B60" s="41" t="s">
-        <v>589</v>
-      </c>
-      <c r="C60" s="43" t="s">
-        <v>587</v>
-      </c>
-      <c r="D60" s="43" t="s">
-        <v>588</v>
-      </c>
-      <c r="E60" s="50" t="s">
-        <v>590</v>
-      </c>
-      <c r="F60" t="s">
-        <v>591</v>
       </c>
     </row>
   </sheetData>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB08732-17B7-4BE4-9B79-9BB096F18C19}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A958CC-657D-4A5A-98B8-5AA87D24DE3B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFIC" sheetId="1" r:id="rId1"/>
@@ -6947,7 +6947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06FC4A3-CF87-4C6E-8D77-7DC31AD6245D}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -7698,7 +7698,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8368,8 +8368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9D5C48-D696-4D79-973E-D2C676FE265C}">
   <dimension ref="A2:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8389,10 +8389,10 @@
         <v>555</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>141</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>142</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>143</v>
@@ -8409,7 +8409,7 @@
         <v>555</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>143</v>
@@ -8423,7 +8423,7 @@
         <v>140</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>555</v>
@@ -8440,13 +8440,13 @@
         <v>140</v>
       </c>
       <c r="B5" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>142</v>
-      </c>
       <c r="D5" s="37" t="s">
-        <v>555</v>
+        <v>143</v>
       </c>
       <c r="E5" s="48" t="s">
         <v>601</v>
@@ -8457,13 +8457,13 @@
         <v>140</v>
       </c>
       <c r="B6" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>142</v>
-      </c>
       <c r="D6" s="37" t="s">
-        <v>143</v>
+        <v>563</v>
       </c>
       <c r="E6" s="48" t="s">
         <v>606</v>
@@ -8496,6 +8496,7 @@
       <c r="D9" s="48" t="s">
         <v>603</v>
       </c>
+      <c r="E9" s="37"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
@@ -8510,6 +8511,7 @@
       <c r="D10" s="48" t="s">
         <v>604</v>
       </c>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="33" t="s">
@@ -8524,6 +8526,10 @@
       <c r="D11" s="48" t="s">
         <v>605</v>
       </c>
+      <c r="E11" s="37"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="37"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
@@ -8538,6 +8544,7 @@
       <c r="D13" s="48" t="s">
         <v>607</v>
       </c>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A958CC-657D-4A5A-98B8-5AA87D24DE3B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD44F43-DA5B-435F-9449-6CF6413CD0E8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFIC" sheetId="1" r:id="rId1"/>
@@ -7697,8 +7697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2973B0-CDDC-449E-8E3C-85328113B7FE}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8368,7 +8368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9D5C48-D696-4D79-973E-D2C676FE265C}">
   <dimension ref="A2:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD44F43-DA5B-435F-9449-6CF6413CD0E8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B365C6-413C-4A43-A35C-77D161C31459}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFIC" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="Enroll360" sheetId="4" r:id="rId6"/>
     <sheet name="Search" sheetId="5" r:id="rId7"/>
     <sheet name="Task" sheetId="8" r:id="rId8"/>
+    <sheet name="Login" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">HSA!#REF!</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="678">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -2019,6 +2020,57 @@
   </si>
   <si>
     <t>01/01/1800</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>Sagar</t>
+  </si>
+  <si>
+    <t>srikanth automation organization</t>
+  </si>
+  <si>
+    <t>10009</t>
+  </si>
+  <si>
+    <t>12-3456789</t>
+  </si>
+  <si>
+    <t>317 drive</t>
+  </si>
+  <si>
+    <t>avenel</t>
+  </si>
+  <si>
+    <t>123-456-7890</t>
+  </si>
+  <si>
+    <t>Srikanth@sagar.com</t>
+  </si>
+  <si>
+    <t>123-456-7891</t>
+  </si>
+  <si>
+    <t>BA F NAME</t>
+  </si>
+  <si>
+    <t>BA L NAME</t>
+  </si>
+  <si>
+    <t>TEST@123.COM</t>
+  </si>
+  <si>
+    <t>031201360</t>
+  </si>
+  <si>
+    <t>4242322222</t>
+  </si>
+  <si>
+    <t>317 driver</t>
   </si>
 </sst>
 </file>
@@ -7697,7 +7749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2973B0-CDDC-449E-8E3C-85328113B7FE}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -9129,4 +9181,184 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA826F97-EC1C-45B8-B3B7-55F36E05E22E}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{DE45C77C-1B1D-49FC-8A06-66A0354CEE39}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{8350959D-8B00-426F-95AC-F593E9AA6E5D}"/>
+    <hyperlink ref="A20" r:id="rId3" xr:uid="{81C91BD0-B456-46CE-AC45-2B544901A31A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B365C6-413C-4A43-A35C-77D161C31459}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898EB130-CCFD-448E-BA13-596EAC93AB70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFIC" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="679">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -1737,15 +1739,6 @@
     <t>HFA5138</t>
   </si>
   <si>
-    <t>TSK-304019</t>
-  </si>
-  <si>
-    <t>HFA6954</t>
-  </si>
-  <si>
-    <t>45012399200</t>
-  </si>
-  <si>
     <t>TSK-312317</t>
   </si>
   <si>
@@ -1812,24 +1805,15 @@
     <t>HP_Reconciliation_Search-&gt;Invalid MHS Subscriber ID Search</t>
   </si>
   <si>
-    <t>HP_Reconciliation_Search-&gt;Invalid Group ID Search</t>
-  </si>
-  <si>
     <t>HP_Reconciliation_Search-&gt;Invalid HealthPass Group ID Search</t>
   </si>
   <si>
-    <t>HP_Reconciliation_Search-&gt; Invalid HealthPass Subscriber ID Search</t>
-  </si>
-  <si>
     <t>HP_Group_Search-&gt;Invalid Group ID Search</t>
   </si>
   <si>
     <t>HP_Group_Search-&gt; invalid Task id Search</t>
   </si>
   <si>
-    <t>HP_Group_Search-&gt;Invalid Group name Search</t>
-  </si>
-  <si>
     <t>HP_Group_Search-&gt;Valid HP Group Search</t>
   </si>
   <si>
@@ -2071,6 +2055,27 @@
   </si>
   <si>
     <t>317 driver</t>
+  </si>
+  <si>
+    <t>HP_Reconciliation_Search-&gt;Invalid HealthPass Subscriber ID Search</t>
+  </si>
+  <si>
+    <t>04/12/2029</t>
+  </si>
+  <si>
+    <t>TSK-312293</t>
+  </si>
+  <si>
+    <t>HFA703620210323102959</t>
+  </si>
+  <si>
+    <t>45012509800</t>
+  </si>
+  <si>
+    <t>45012509801</t>
+  </si>
+  <si>
+    <t>HP_Group_Search-&gt;Invalid HP Group name Search</t>
   </si>
 </sst>
 </file>
@@ -2164,7 +2169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2198,12 +2203,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2266,9 +2280,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2304,6 +2315,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2625,8 +2642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9684E98A-EA7A-41F6-A6B8-842EDFAC86CC}">
   <dimension ref="A2:N6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7029,14 +7046,14 @@
       <c r="B1" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="C1" s="49" t="s">
-        <v>657</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>658</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>659</v>
+      <c r="C1" s="48" t="s">
+        <v>651</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>652</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>653</v>
       </c>
       <c r="F1" t="s">
         <v>169</v>
@@ -7201,7 +7218,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>563</v>
@@ -7250,17 +7267,17 @@
       <c r="A5" t="s">
         <v>177</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>428</v>
       </c>
-      <c r="C5" s="53" t="s">
-        <v>657</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>658</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>659</v>
+      <c r="C5" s="52" t="s">
+        <v>651</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>652</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>653</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="8"/>
@@ -7749,7 +7766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2973B0-CDDC-449E-8E3C-85328113B7FE}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -7809,7 +7826,7 @@
         <v>133</v>
       </c>
       <c r="H2" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -7835,7 +7852,7 @@
         <v>133</v>
       </c>
       <c r="H3" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -7861,7 +7878,7 @@
         <v>133</v>
       </c>
       <c r="H4" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -7887,7 +7904,7 @@
         <v>133</v>
       </c>
       <c r="H5" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -7913,7 +7930,7 @@
         <v>133</v>
       </c>
       <c r="H6" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -7939,7 +7956,7 @@
         <v>133</v>
       </c>
       <c r="H7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -7965,7 +7982,7 @@
         <v>555</v>
       </c>
       <c r="H8" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -7991,7 +8008,7 @@
         <v>133</v>
       </c>
       <c r="H9" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -8017,7 +8034,7 @@
         <v>553</v>
       </c>
       <c r="H10" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -8043,7 +8060,7 @@
         <v>553</v>
       </c>
       <c r="H11" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -8069,7 +8086,7 @@
         <v>553</v>
       </c>
       <c r="H12" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -8095,7 +8112,7 @@
         <v>553</v>
       </c>
       <c r="H13" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -8121,7 +8138,7 @@
         <v>553</v>
       </c>
       <c r="H14" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -8147,7 +8164,7 @@
         <v>553</v>
       </c>
       <c r="H15" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -8173,7 +8190,7 @@
         <v>555</v>
       </c>
       <c r="H16" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -8199,7 +8216,7 @@
         <v>553</v>
       </c>
       <c r="H17" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8225,7 +8242,7 @@
         <v>554</v>
       </c>
       <c r="H18" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -8251,7 +8268,7 @@
         <v>554</v>
       </c>
       <c r="H19" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -8277,7 +8294,7 @@
         <v>554</v>
       </c>
       <c r="H20" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -8303,7 +8320,7 @@
         <v>554</v>
       </c>
       <c r="H21" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -8329,7 +8346,7 @@
         <v>554</v>
       </c>
       <c r="H22" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -8355,7 +8372,7 @@
         <v>554</v>
       </c>
       <c r="H23" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -8381,7 +8398,7 @@
         <v>555</v>
       </c>
       <c r="H24" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -8407,7 +8424,7 @@
         <v>554</v>
       </c>
       <c r="H25" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -8418,18 +8435,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9D5C48-D696-4D79-973E-D2C676FE265C}">
-  <dimension ref="A2:F60"/>
+  <dimension ref="A2:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
     <col min="4" max="4" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="51.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -8440,85 +8458,85 @@
       <c r="A2" s="33" t="s">
         <v>555</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="48" t="s">
-        <v>598</v>
+      <c r="E2" s="47" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="33" t="s">
         <v>555</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="37" t="s">
+      <c r="C3" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="48" t="s">
-        <v>599</v>
+      <c r="E3" s="47" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>555</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="48" t="s">
-        <v>600</v>
+      <c r="E4" s="47" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>601</v>
+      <c r="D5" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>563</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>606</v>
+      <c r="D6" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
@@ -8528,11 +8546,11 @@
       <c r="B8" s="38" t="s">
         <v>559</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="44" t="s">
         <v>557</v>
       </c>
-      <c r="D8" s="48" t="s">
-        <v>602</v>
+      <c r="D8" s="47" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
@@ -8542,11 +8560,11 @@
       <c r="B9" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="44" t="s">
         <v>557</v>
       </c>
-      <c r="D9" s="48" t="s">
-        <v>603</v>
+      <c r="D9" s="47" t="s">
+        <v>597</v>
       </c>
       <c r="E9" s="37"/>
     </row>
@@ -8560,8 +8578,8 @@
       <c r="C10" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="D10" s="48" t="s">
-        <v>604</v>
+      <c r="D10" s="47" t="s">
+        <v>598</v>
       </c>
       <c r="E10" s="37"/>
     </row>
@@ -8572,11 +8590,11 @@
       <c r="B11" s="38" t="s">
         <v>559</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="44" t="s">
         <v>557</v>
       </c>
-      <c r="D11" s="48" t="s">
-        <v>605</v>
+      <c r="D11" s="47" t="s">
+        <v>599</v>
       </c>
       <c r="E11" s="37"/>
     </row>
@@ -8593,8 +8611,8 @@
       <c r="C13" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="D13" s="48" t="s">
-        <v>607</v>
+      <c r="D13" s="47" t="s">
+        <v>601</v>
       </c>
       <c r="E13" s="37"/>
     </row>
@@ -8608,8 +8626,8 @@
       <c r="C14" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="D14" s="48" t="s">
-        <v>608</v>
+      <c r="D14" s="47" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -8622,8 +8640,8 @@
       <c r="C15" s="37" t="s">
         <v>563</v>
       </c>
-      <c r="D15" s="48" t="s">
-        <v>609</v>
+      <c r="D15" s="47" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -8636,8 +8654,8 @@
       <c r="C16" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="D16" s="48" t="s">
-        <v>613</v>
+      <c r="D16" s="47" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -8647,8 +8665,8 @@
       <c r="B18" s="37" t="s">
         <v>565</v>
       </c>
-      <c r="C18" s="48" t="s">
-        <v>611</v>
+      <c r="C18" s="47" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -8658,8 +8676,8 @@
       <c r="B19" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="C19" s="48" t="s">
-        <v>610</v>
+      <c r="C19" s="47" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -8669,512 +8687,488 @@
       <c r="B20" s="37" t="s">
         <v>565</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="47" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="56" t="s">
+        <v>555</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>677</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>676</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>675</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="56" t="s">
+        <v>674</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>676</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>676</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>675</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="56" t="s">
+        <v>674</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>677</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>677</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>675</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="56" t="s">
+        <v>674</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>677</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>676</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>555</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="56" t="s">
+        <v>674</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>677</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>676</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>675</v>
+      </c>
+      <c r="E26" s="47" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
-        <v>563</v>
-      </c>
-      <c r="B22" s="38" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="55"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="42" t="s">
+        <v>555</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C29" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="42" t="s">
+        <v>566</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
+        <v>566</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="C31" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="E22" s="48" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="E31" s="47" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="42" t="s">
         <v>566</v>
       </c>
-      <c r="B23" s="37" t="s">
-        <v>563</v>
-      </c>
-      <c r="C23" s="38" t="s">
+      <c r="B32" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="D23" s="37" t="s">
-        <v>567</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
-        <v>566</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>568</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>563</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>567</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
-        <v>566</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>568</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>568</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>563</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
-        <v>566</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>568</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>568</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>567</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
-        <v>555</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="C32" s="5" t="s">
         <v>569</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>572</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
-        <v>569</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="43" t="s">
-        <v>569</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>572</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="E32" s="48" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
+      <c r="E32" s="47" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
+        <v>566</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>572</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
         <v>555</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>576</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+      <c r="E36" s="47" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B37" s="33" t="s">
         <v>555</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>576</v>
-      </c>
-      <c r="E37" s="48" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+      <c r="E37" s="47" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C38" s="33" t="s">
         <v>555</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>576</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+      <c r="E38" s="47" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D39" s="33" t="s">
         <v>555</v>
       </c>
-      <c r="E39" s="48" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="47" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
+        <v>570</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>571</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="D40" s="37" t="s">
         <v>573</v>
       </c>
-      <c r="B40" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>575</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>576</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="33" t="s">
-        <v>573</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>575</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="47" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="33"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="38"/>
+      <c r="F41" s="47"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
         <v>555</v>
       </c>
       <c r="B44" s="39" t="s">
+        <v>576</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>575</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>673</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>575</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>576</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>673</v>
+      </c>
+      <c r="D46" s="47" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>576</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>575</v>
+      </c>
+      <c r="D47" s="47" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="43" t="s">
+        <v>555</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>578</v>
+      </c>
+      <c r="C49" s="41" t="s">
         <v>579</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="D49" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="43" t="s">
+        <v>577</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>555</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>579</v>
+      </c>
+      <c r="D50" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="43" t="s">
+        <v>577</v>
+      </c>
+      <c r="B51" s="41" t="s">
         <v>578</v>
       </c>
-      <c r="D44" s="48" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
+      <c r="C51" s="40" t="s">
+        <v>555</v>
+      </c>
+      <c r="D51" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="43" t="s">
         <v>577</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B52" s="41" t="s">
+        <v>578</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>579</v>
+      </c>
+      <c r="D52" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="45" t="s">
         <v>555</v>
       </c>
-      <c r="C45" s="37" t="s">
-        <v>578</v>
-      </c>
-      <c r="D45" s="48" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="B46" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="C46" s="39" t="s">
+      <c r="B54" s="38" t="s">
+        <v>583</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>581</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="E54" s="46" t="s">
+        <v>584</v>
+      </c>
+      <c r="F54" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="45" t="s">
+        <v>580</v>
+      </c>
+      <c r="B55" s="45" t="s">
         <v>555</v>
       </c>
-      <c r="D46" s="48" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>578</v>
-      </c>
-      <c r="D47" s="48" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="44" t="s">
+      <c r="C55" s="41" t="s">
+        <v>581</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="E55" s="46" t="s">
+        <v>584</v>
+      </c>
+      <c r="F55" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="45" t="s">
+        <v>580</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>583</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>581</v>
+      </c>
+      <c r="D56" s="45" t="s">
         <v>555</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="E56" s="46" t="s">
+        <v>584</v>
+      </c>
+      <c r="F56" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="45" t="s">
+        <v>580</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>583</v>
+      </c>
+      <c r="C57" s="41" t="s">
         <v>581</v>
       </c>
-      <c r="C49" s="42" t="s">
+      <c r="D57" s="41" t="s">
         <v>582</v>
       </c>
-      <c r="D49" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="44" t="s">
+      <c r="E57" s="46" t="s">
+        <v>563</v>
+      </c>
+      <c r="F57" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="45" t="s">
         <v>580</v>
       </c>
-      <c r="B50" s="41" t="s">
-        <v>555</v>
-      </c>
-      <c r="C50" s="42" t="s">
+      <c r="B58" s="38" t="s">
+        <v>583</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>581</v>
+      </c>
+      <c r="D58" s="41" t="s">
         <v>582</v>
       </c>
-      <c r="D50" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="44" t="s">
-        <v>580</v>
-      </c>
-      <c r="B51" s="42" t="s">
-        <v>581</v>
-      </c>
-      <c r="C51" s="41" t="s">
-        <v>555</v>
-      </c>
-      <c r="D51" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="44" t="s">
-        <v>580</v>
-      </c>
-      <c r="B52" s="42" t="s">
-        <v>581</v>
-      </c>
-      <c r="C52" s="42" t="s">
-        <v>582</v>
-      </c>
-      <c r="D52" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="46" t="s">
-        <v>555</v>
-      </c>
-      <c r="B55" s="38" t="s">
-        <v>586</v>
-      </c>
-      <c r="C55" s="40" t="s">
+      <c r="E58" s="46" t="s">
         <v>584</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="F58" t="s">
         <v>585</v>
-      </c>
-      <c r="E55" s="47" t="s">
-        <v>587</v>
-      </c>
-      <c r="F55" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="46" t="s">
-        <v>583</v>
-      </c>
-      <c r="B56" s="46" t="s">
-        <v>555</v>
-      </c>
-      <c r="C56" s="40" t="s">
-        <v>584</v>
-      </c>
-      <c r="D56" s="40" t="s">
-        <v>585</v>
-      </c>
-      <c r="E56" s="47" t="s">
-        <v>587</v>
-      </c>
-      <c r="F56" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="46" t="s">
-        <v>583</v>
-      </c>
-      <c r="B57" s="38" t="s">
-        <v>586</v>
-      </c>
-      <c r="C57" s="46" t="s">
-        <v>555</v>
-      </c>
-      <c r="D57" s="40" t="s">
-        <v>585</v>
-      </c>
-      <c r="E57" s="47" t="s">
-        <v>587</v>
-      </c>
-      <c r="F57" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="46" t="s">
-        <v>583</v>
-      </c>
-      <c r="B58" s="38" t="s">
-        <v>586</v>
-      </c>
-      <c r="C58" s="40" t="s">
-        <v>584</v>
-      </c>
-      <c r="D58" s="46" t="s">
-        <v>555</v>
-      </c>
-      <c r="E58" s="47" t="s">
-        <v>587</v>
-      </c>
-      <c r="F58" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="46" t="s">
-        <v>583</v>
-      </c>
-      <c r="B59" s="38" t="s">
-        <v>586</v>
-      </c>
-      <c r="C59" s="40" t="s">
-        <v>584</v>
-      </c>
-      <c r="D59" s="40" t="s">
-        <v>585</v>
-      </c>
-      <c r="E59" s="46" t="s">
-        <v>555</v>
-      </c>
-      <c r="F59" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="46" t="s">
-        <v>583</v>
-      </c>
-      <c r="B60" s="38" t="s">
-        <v>586</v>
-      </c>
-      <c r="C60" s="40" t="s">
-        <v>584</v>
-      </c>
-      <c r="D60" s="40" t="s">
-        <v>585</v>
-      </c>
-      <c r="E60" s="47" t="s">
-        <v>587</v>
-      </c>
-      <c r="F60" t="s">
-        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -9187,8 +9181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA826F97-EC1C-45B8-B3B7-55F36E05E22E}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9202,7 +9196,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C1" t="s">
         <v>124</v>
@@ -9216,7 +9210,7 @@
         <v>533</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -9224,12 +9218,12 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -9237,7 +9231,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="C5" t="s">
         <v>201</v>
@@ -9245,27 +9239,27 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -9275,47 +9269,47 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -9325,32 +9319,32 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898EB130-CCFD-448E-BA13-596EAC93AB70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D30983-C142-43E0-BB71-022D36EE16CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1724,12 +1724,6 @@
     <t>CG4858</t>
   </si>
   <si>
-    <t>PR1192247960433970</t>
-  </si>
-  <si>
-    <t>TESTDEC23</t>
-  </si>
-  <si>
     <t>invalid</t>
   </si>
   <si>
@@ -2076,13 +2070,19 @@
   </si>
   <si>
     <t>HP_Group_Search-&gt;Invalid HP Group name Search</t>
+  </si>
+  <si>
+    <t>TinTin ST Test05</t>
+  </si>
+  <si>
+    <t>PR5008970838604262</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2114,6 +2114,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
@@ -2217,7 +2223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2323,6 +2329,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7044,16 +7051,16 @@
         <v>173</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C1" s="48" t="s">
+        <v>649</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>650</v>
+      </c>
+      <c r="E1" s="50" t="s">
         <v>651</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>652</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>653</v>
       </c>
       <c r="F1" t="s">
         <v>169</v>
@@ -7103,7 +7110,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>19</v>
@@ -7162,7 +7169,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>20</v>
@@ -7218,10 +7225,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F4" t="s">
         <v>172</v>
@@ -7271,13 +7278,13 @@
         <v>428</v>
       </c>
       <c r="C5" s="52" t="s">
+        <v>649</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>650</v>
+      </c>
+      <c r="E5" s="54" t="s">
         <v>651</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>652</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>653</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="8"/>
@@ -7826,7 +7833,7 @@
         <v>133</v>
       </c>
       <c r="H2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -7852,7 +7859,7 @@
         <v>133</v>
       </c>
       <c r="H3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -7878,7 +7885,7 @@
         <v>133</v>
       </c>
       <c r="H4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -7904,7 +7911,7 @@
         <v>133</v>
       </c>
       <c r="H5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -7930,7 +7937,7 @@
         <v>133</v>
       </c>
       <c r="H6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -7956,7 +7963,7 @@
         <v>133</v>
       </c>
       <c r="H7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -7982,7 +7989,7 @@
         <v>555</v>
       </c>
       <c r="H8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -8008,7 +8015,7 @@
         <v>133</v>
       </c>
       <c r="H9" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -8034,7 +8041,7 @@
         <v>553</v>
       </c>
       <c r="H10" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -8060,7 +8067,7 @@
         <v>553</v>
       </c>
       <c r="H11" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -8086,7 +8093,7 @@
         <v>553</v>
       </c>
       <c r="H12" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -8112,7 +8119,7 @@
         <v>553</v>
       </c>
       <c r="H13" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -8138,7 +8145,7 @@
         <v>553</v>
       </c>
       <c r="H14" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -8164,7 +8171,7 @@
         <v>553</v>
       </c>
       <c r="H15" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -8190,7 +8197,7 @@
         <v>555</v>
       </c>
       <c r="H16" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -8216,7 +8223,7 @@
         <v>553</v>
       </c>
       <c r="H17" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8242,7 +8249,7 @@
         <v>554</v>
       </c>
       <c r="H18" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -8268,7 +8275,7 @@
         <v>554</v>
       </c>
       <c r="H19" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -8294,7 +8301,7 @@
         <v>554</v>
       </c>
       <c r="H20" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -8320,7 +8327,7 @@
         <v>554</v>
       </c>
       <c r="H21" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -8346,7 +8353,7 @@
         <v>554</v>
       </c>
       <c r="H22" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -8372,7 +8379,7 @@
         <v>554</v>
       </c>
       <c r="H23" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -8398,7 +8405,7 @@
         <v>555</v>
       </c>
       <c r="H24" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -8424,7 +8431,7 @@
         <v>554</v>
       </c>
       <c r="H25" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -8437,14 +8444,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9D5C48-D696-4D79-973E-D2C676FE265C}">
   <dimension ref="A2:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.85546875" customWidth="1"/>
     <col min="4" max="4" width="57.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="67" bestFit="1" customWidth="1"/>
@@ -8468,7 +8475,7 @@
         <v>143</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8485,7 +8492,7 @@
         <v>143</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8502,7 +8509,7 @@
         <v>143</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8519,7 +8526,7 @@
         <v>555</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -8536,7 +8543,7 @@
         <v>143</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
@@ -8550,7 +8557,7 @@
         <v>557</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
@@ -8564,7 +8571,7 @@
         <v>557</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E9" s="37"/>
     </row>
@@ -8579,7 +8586,7 @@
         <v>555</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E10" s="37"/>
     </row>
@@ -8594,40 +8601,40 @@
         <v>557</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E11" s="37"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E12" s="37"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>561</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>562</v>
+        <v>678</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>677</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E13" s="37"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
         <v>560</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>563</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>562</v>
+        <v>561</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>677</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -8635,27 +8642,27 @@
         <v>560</v>
       </c>
       <c r="B15" s="33" t="s">
+        <v>678</v>
+      </c>
+      <c r="C15" s="37" t="s">
         <v>561</v>
       </c>
-      <c r="C15" s="37" t="s">
-        <v>563</v>
-      </c>
       <c r="D15" s="47" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>560</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>561</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>562</v>
+        <v>678</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>677</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -8663,32 +8670,32 @@
         <v>555</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>555</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8696,84 +8703,84 @@
         <v>555</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="56" t="s">
+        <v>672</v>
+      </c>
+      <c r="B23" s="38" t="s">
         <v>674</v>
       </c>
-      <c r="B23" s="38" t="s">
-        <v>676</v>
-      </c>
       <c r="C23" s="38" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D24" s="56" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="56" t="s">
+        <v>672</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>675</v>
+      </c>
+      <c r="C25" s="38" t="s">
         <v>674</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>676</v>
       </c>
       <c r="D25" s="56" t="s">
         <v>555</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="56" t="s">
+        <v>672</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>675</v>
+      </c>
+      <c r="C26" s="38" t="s">
         <v>674</v>
       </c>
-      <c r="B26" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>676</v>
-      </c>
       <c r="D26" s="56" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -8784,84 +8791,84 @@
         <v>555</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>568</v>
-      </c>
       <c r="C31" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E31" s="47" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>568</v>
-      </c>
       <c r="C32" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E32" s="47" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>568</v>
-      </c>
       <c r="C33" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -8869,84 +8876,84 @@
         <v>555</v>
       </c>
       <c r="B36" s="37" t="s">
+        <v>569</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>570</v>
+      </c>
+      <c r="D36" s="37" t="s">
         <v>571</v>
       </c>
-      <c r="C36" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>573</v>
-      </c>
       <c r="E36" s="47" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B37" s="33" t="s">
         <v>555</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C38" s="33" t="s">
         <v>555</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>569</v>
+      </c>
+      <c r="C39" s="37" t="s">
         <v>570</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>571</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>572</v>
       </c>
       <c r="D39" s="33" t="s">
         <v>555</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>569</v>
+      </c>
+      <c r="C40" s="37" t="s">
         <v>570</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="D40" s="37" t="s">
         <v>571</v>
       </c>
-      <c r="C40" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>573</v>
-      </c>
       <c r="E40" s="47" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -8961,55 +8968,55 @@
         <v>555</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="B46" s="39" t="s">
         <v>574</v>
       </c>
-      <c r="B46" s="39" t="s">
-        <v>576</v>
-      </c>
       <c r="C46" s="39" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D46" s="47" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="B47" s="39" t="s">
         <v>574</v>
       </c>
-      <c r="B47" s="39" t="s">
-        <v>576</v>
-      </c>
       <c r="C47" s="37" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -9017,55 +9024,55 @@
         <v>555</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D49" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="43" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B50" s="40" t="s">
         <v>555</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D50" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="43" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C51" s="40" t="s">
         <v>555</v>
       </c>
       <c r="D51" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="43" t="s">
+        <v>575</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>576</v>
+      </c>
+      <c r="C52" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="B52" s="41" t="s">
-        <v>578</v>
-      </c>
-      <c r="C52" s="41" t="s">
-        <v>579</v>
-      </c>
       <c r="D52" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -9076,99 +9083,99 @@
         <v>555</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D54" s="41" t="s">
+        <v>580</v>
+      </c>
+      <c r="E54" s="46" t="s">
         <v>582</v>
       </c>
-      <c r="E54" s="46" t="s">
+      <c r="F54" t="s">
         <v>584</v>
-      </c>
-      <c r="F54" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="45" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B55" s="45" t="s">
         <v>555</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D55" s="41" t="s">
+        <v>580</v>
+      </c>
+      <c r="E55" s="46" t="s">
         <v>582</v>
       </c>
-      <c r="E55" s="46" t="s">
-        <v>584</v>
-      </c>
       <c r="F55" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="45" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D56" s="45" t="s">
         <v>555</v>
       </c>
       <c r="E56" s="46" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F56" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="45" t="s">
+        <v>578</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>581</v>
+      </c>
+      <c r="C57" s="41" t="s">
+        <v>579</v>
+      </c>
+      <c r="D57" s="41" t="s">
         <v>580</v>
       </c>
-      <c r="B57" s="38" t="s">
-        <v>583</v>
-      </c>
-      <c r="C57" s="41" t="s">
-        <v>581</v>
-      </c>
-      <c r="D57" s="41" t="s">
-        <v>582</v>
-      </c>
       <c r="E57" s="46" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F57" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="45" t="s">
+        <v>578</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>581</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>579</v>
+      </c>
+      <c r="D58" s="41" t="s">
         <v>580</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="E58" s="46" t="s">
+        <v>582</v>
+      </c>
+      <c r="F58" t="s">
         <v>583</v>
-      </c>
-      <c r="C58" s="41" t="s">
-        <v>581</v>
-      </c>
-      <c r="D58" s="41" t="s">
-        <v>582</v>
-      </c>
-      <c r="E58" s="46" t="s">
-        <v>584</v>
-      </c>
-      <c r="F58" t="s">
-        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -9196,7 +9203,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C1" t="s">
         <v>124</v>
@@ -9210,7 +9217,7 @@
         <v>533</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -9218,12 +9225,12 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -9231,7 +9238,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C5" t="s">
         <v>201</v>
@@ -9239,27 +9246,27 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -9269,47 +9276,47 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -9319,32 +9326,32 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D30983-C142-43E0-BB71-022D36EE16CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6B5D3A-2F18-42F6-8C53-645BE8E67B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFIC" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,8 @@
     <sheet name="Enroll360" sheetId="4" r:id="rId6"/>
     <sheet name="Search" sheetId="5" r:id="rId7"/>
     <sheet name="Task" sheetId="8" r:id="rId8"/>
-    <sheet name="Login" sheetId="9" r:id="rId9"/>
+    <sheet name="Pega" sheetId="10" r:id="rId9"/>
+    <sheet name="Login" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">HSA!#REF!</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="684">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -2076,13 +2077,28 @@
   </si>
   <si>
     <t>PR5008970838604262</t>
+  </si>
+  <si>
+    <t>HFIC_Manager</t>
+  </si>
+  <si>
+    <t>install</t>
+  </si>
+  <si>
+    <t>HFA7175</t>
+  </si>
+  <si>
+    <t>HFIC_SuperUser</t>
+  </si>
+  <si>
+    <t>HFA6972</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2121,6 +2137,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
@@ -2175,7 +2197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2218,12 +2240,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2330,6 +2365,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2645,6 +2685,186 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA826F97-EC1C-45B8-B3B7-55F36E05E22E}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>656</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{DE45C77C-1B1D-49FC-8A06-66A0354CEE39}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{8350959D-8B00-426F-95AC-F593E9AA6E5D}"/>
+    <hyperlink ref="A20" r:id="rId3" xr:uid="{81C91BD0-B456-46CE-AC45-2B544901A31A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9684E98A-EA7A-41F6-A6B8-842EDFAC86CC}">
   <dimension ref="A2:N6"/>
@@ -8444,8 +8664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9D5C48-D696-4D79-973E-D2C676FE265C}">
   <dimension ref="A2:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A3" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9185,181 +9405,47 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA826F97-EC1C-45B8-B3B7-55F36E05E22E}">
-  <dimension ref="A1:C27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316E4CD8-C7B3-4FDA-A48F-3A075489B33D}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="C1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>656</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="C5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>657</v>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
+        <v>679</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>680</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
+        <v>682</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>680</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>683</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{DE45C77C-1B1D-49FC-8A06-66A0354CEE39}"/>
-    <hyperlink ref="A13" r:id="rId2" xr:uid="{8350959D-8B00-426F-95AC-F593E9AA6E5D}"/>
-    <hyperlink ref="A20" r:id="rId3" xr:uid="{81C91BD0-B456-46CE-AC45-2B544901A31A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6B5D3A-2F18-42F6-8C53-645BE8E67B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C641149-B67E-47BC-858B-0767FC19A7A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2010,9 +2010,6 @@
     <t>Sagar</t>
   </si>
   <si>
-    <t>srikanth automation organization</t>
-  </si>
-  <si>
     <t>10009</t>
   </si>
   <si>
@@ -2085,13 +2082,16 @@
     <t>install</t>
   </si>
   <si>
-    <t>HFA7175</t>
-  </si>
-  <si>
     <t>HFIC_SuperUser</t>
   </si>
   <si>
-    <t>HFA6972</t>
+    <t>HFIC SMG</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>HFA7192</t>
   </si>
 </sst>
 </file>
@@ -2258,7 +2258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2367,9 +2367,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2690,7 +2687,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2715,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>533</v>
+        <v>682</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>654</v>
@@ -2731,7 +2728,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>656</v>
+        <v>681</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -2739,7 +2736,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C5" t="s">
         <v>201</v>
@@ -2747,27 +2744,27 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2782,42 +2779,42 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2827,32 +2824,32 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -8833,10 +8830,10 @@
         <v>561</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D13" s="47" t="s">
         <v>599</v>
@@ -8851,7 +8848,7 @@
         <v>561</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D14" s="47" t="s">
         <v>600</v>
@@ -8862,7 +8859,7 @@
         <v>560</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>561</v>
@@ -8876,10 +8873,10 @@
         <v>560</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D16" s="47" t="s">
         <v>605</v>
@@ -8923,13 +8920,13 @@
         <v>555</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E22" s="47" t="s">
         <v>606</v>
@@ -8937,16 +8934,16 @@
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="56" t="s">
+        <v>671</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>673</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>673</v>
+      </c>
+      <c r="D23" s="56" t="s">
         <v>672</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>674</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>674</v>
-      </c>
-      <c r="D23" s="56" t="s">
-        <v>673</v>
       </c>
       <c r="E23" s="47" t="s">
         <v>607</v>
@@ -8954,16 +8951,16 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56" t="s">
+        <v>671</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>674</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>674</v>
+      </c>
+      <c r="D24" s="56" t="s">
         <v>672</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>675</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>675</v>
-      </c>
-      <c r="D24" s="56" t="s">
-        <v>673</v>
       </c>
       <c r="E24" s="47" t="s">
         <v>608</v>
@@ -8971,13 +8968,13 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="56" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D25" s="56" t="s">
         <v>555</v>
@@ -8988,16 +8985,16 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="56" t="s">
+        <v>671</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>674</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>673</v>
+      </c>
+      <c r="D26" s="56" t="s">
         <v>672</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>675</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>674</v>
-      </c>
-      <c r="D26" s="56" t="s">
-        <v>673</v>
       </c>
       <c r="E26" s="47" t="s">
         <v>610</v>
@@ -9202,7 +9199,7 @@
         <v>572</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C45" s="37" t="s">
         <v>573</v>
@@ -9219,7 +9216,7 @@
         <v>574</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D46" s="47" t="s">
         <v>624</v>
@@ -9278,7 +9275,7 @@
         <v>555</v>
       </c>
       <c r="D51" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -9375,7 +9372,7 @@
         <v>561</v>
       </c>
       <c r="F57" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -9406,10 +9403,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316E4CD8-C7B3-4FDA-A48F-3A075489B33D}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9417,32 +9414,36 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="58" t="s">
+        <v>678</v>
+      </c>
+      <c r="B1" s="58" t="s">
         <v>679</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="C1" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D1" s="59" t="s">
         <v>680</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>681</v>
-      </c>
-      <c r="D1" s="59" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>680</v>
-      </c>
-      <c r="C2" s="60" t="s">
+        <v>679</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>683</v>
       </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="E11" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C641149-B67E-47BC-858B-0767FC19A7A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0A80BD-2A75-427E-8675-97BE497F5089}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2091,7 +2091,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>HFA7192</t>
+    <t>HFA7200</t>
   </si>
 </sst>
 </file>
@@ -9406,7 +9406,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0A80BD-2A75-427E-8675-97BE497F5089}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7099FE2-1571-4498-8B66-6732432BC260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2091,7 +2091,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>HFA7200</t>
+    <t>HFA7208</t>
   </si>
 </sst>
 </file>
@@ -9406,7 +9406,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7099FE2-1571-4498-8B66-6732432BC260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9798E05D-E7F1-40E8-AEF7-00BFD967987D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFIC" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="682">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -210,9 +210,6 @@
     <t>45012413003</t>
   </si>
   <si>
-    <t>CG4925</t>
-  </si>
-  <si>
     <t>JOHN</t>
   </si>
   <si>
@@ -1623,30 +1620,15 @@
     <t>12204</t>
   </si>
   <si>
-    <t>CG4845</t>
-  </si>
-  <si>
-    <t>CG4822</t>
-  </si>
-  <si>
     <t>45012514600</t>
   </si>
   <si>
-    <t>45012272900</t>
-  </si>
-  <si>
-    <t>dr</t>
-  </si>
-  <si>
     <t>up</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>AVE</t>
-  </si>
-  <si>
     <t>CTY</t>
   </si>
   <si>
@@ -2091,7 +2073,19 @@
     <t>0</t>
   </si>
   <si>
-    <t>HFA7208</t>
+    <t>HFA7214</t>
+  </si>
+  <si>
+    <t>dr1</t>
+  </si>
+  <si>
+    <t>AVE1</t>
+  </si>
+  <si>
+    <t>45012405800</t>
+  </si>
+  <si>
+    <t>CG5015</t>
   </si>
 </sst>
 </file>
@@ -2701,10 +2695,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2712,10 +2706,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2723,12 +2717,12 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -2736,120 +2730,120 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -2883,7 +2877,7 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -2904,7 +2898,7 @@
         <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>9</v>
@@ -2927,7 +2921,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -2948,7 +2942,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>11</v>
@@ -2971,7 +2965,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -2992,7 +2986,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>13</v>
@@ -3015,7 +3009,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H5" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>15</v>
@@ -3038,7 +3032,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H6" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>17</v>
@@ -3069,8 +3063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429E2D65-46FC-4E21-9DB5-EB567EC510F0}">
   <dimension ref="A1:N171"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3087,421 +3081,426 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" t="s">
         <v>188</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>189</v>
       </c>
-      <c r="E1" t="s">
-        <v>190</v>
-      </c>
       <c r="F1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G1" t="s">
         <v>426</v>
-      </c>
-      <c r="G1" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="D2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>489</v>
+      </c>
+      <c r="G2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="K2" t="s">
+        <v>527</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>530</v>
-      </c>
-      <c r="D2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>490</v>
-      </c>
-      <c r="G2" t="s">
-        <v>428</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="K2" t="s">
-        <v>532</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>526</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="N2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G3" t="s">
         <v>39</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>531</v>
+        <v>678</v>
       </c>
       <c r="K3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="N3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G4" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>531</v>
+        <v>678</v>
       </c>
       <c r="K4" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="N4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>56</v>
+        <v>681</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>534</v>
+        <v>679</v>
       </c>
       <c r="F7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="G7" s="34" t="s">
+        <v>504</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" t="s">
         <v>506</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>507</v>
-      </c>
-      <c r="K7" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>527</v>
+        <v>681</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>534</v>
+        <v>679</v>
       </c>
       <c r="F8" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="G8" s="34" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J8" t="s">
+        <v>506</v>
+      </c>
+      <c r="K8" t="s">
         <v>507</v>
-      </c>
-      <c r="K8" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>528</v>
+        <v>681</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>534</v>
+        <v>679</v>
       </c>
       <c r="F9" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="G9" s="34" t="s">
+        <v>509</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="J9" t="s">
+        <v>506</v>
+      </c>
+      <c r="K9" t="s">
         <v>507</v>
-      </c>
-      <c r="K9" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>534</v>
+        <v>679</v>
       </c>
       <c r="F10" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="G10" s="34" t="s">
+        <v>511</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>513</v>
-      </c>
       <c r="J10" t="s">
+        <v>506</v>
+      </c>
+      <c r="K10" t="s">
         <v>507</v>
-      </c>
-      <c r="K10" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>534</v>
+        <v>679</v>
       </c>
       <c r="F11" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="G11" s="34" t="s">
+        <v>513</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>515</v>
-      </c>
       <c r="J11" t="s">
+        <v>506</v>
+      </c>
+      <c r="K11" t="s">
         <v>507</v>
-      </c>
-      <c r="K11" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>534</v>
+        <v>679</v>
       </c>
       <c r="F12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="G12" s="34" t="s">
+        <v>515</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>517</v>
-      </c>
       <c r="J12" t="s">
+        <v>506</v>
+      </c>
+      <c r="K12" t="s">
         <v>507</v>
-      </c>
-      <c r="K12" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>534</v>
+        <v>679</v>
       </c>
       <c r="F13" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="G13" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>519</v>
-      </c>
       <c r="J13" t="s">
+        <v>506</v>
+      </c>
+      <c r="K13" t="s">
         <v>507</v>
-      </c>
-      <c r="K13" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>534</v>
+        <v>679</v>
       </c>
       <c r="F14" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="G14" s="34" t="s">
+        <v>519</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>521</v>
-      </c>
       <c r="J14" t="s">
+        <v>506</v>
+      </c>
+      <c r="K14" t="s">
         <v>507</v>
-      </c>
-      <c r="K14" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>534</v>
+        <v>679</v>
       </c>
       <c r="F15" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="G15" s="34" t="s">
+        <v>521</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>523</v>
-      </c>
       <c r="J15" t="s">
+        <v>506</v>
+      </c>
+      <c r="K15" t="s">
         <v>507</v>
       </c>
-      <c r="K15" t="s">
-        <v>508</v>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3519,16 +3518,16 @@
         <v>45012397700</v>
       </c>
       <c r="B23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" t="s">
         <v>208</v>
       </c>
-      <c r="C23" t="s">
-        <v>209</v>
-      </c>
       <c r="D23" s="34" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H23" s="16">
         <v>45012514500</v>
@@ -3539,16 +3538,16 @@
         <v>45012397600</v>
       </c>
       <c r="B24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" t="s">
         <v>210</v>
       </c>
-      <c r="C24" t="s">
-        <v>211</v>
-      </c>
       <c r="D24" s="34" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E24" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H24" s="16">
         <v>45012514400</v>
@@ -3559,16 +3558,16 @@
         <v>45012397500</v>
       </c>
       <c r="B25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" t="s">
         <v>212</v>
       </c>
-      <c r="C25" t="s">
-        <v>213</v>
-      </c>
       <c r="D25" s="34" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E25" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H25" s="16">
         <v>45012514300</v>
@@ -3576,16 +3575,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" t="s">
         <v>214</v>
       </c>
-      <c r="C26" t="s">
-        <v>215</v>
-      </c>
       <c r="D26" s="34" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E26" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H26">
         <v>45012513900</v>
@@ -3596,16 +3595,16 @@
         <v>45012397300</v>
       </c>
       <c r="B27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" t="s">
         <v>216</v>
       </c>
-      <c r="C27" t="s">
-        <v>217</v>
-      </c>
       <c r="D27" s="34" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E27" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H27">
         <v>45012513600</v>
@@ -3616,16 +3615,16 @@
         <v>45012260200</v>
       </c>
       <c r="B28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H28" s="16">
         <v>45012513800</v>
@@ -3636,16 +3635,16 @@
         <v>45012259900</v>
       </c>
       <c r="B29" t="s">
+        <v>233</v>
+      </c>
+      <c r="C29" t="s">
         <v>234</v>
       </c>
-      <c r="C29" t="s">
-        <v>235</v>
-      </c>
       <c r="D29" s="34" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3653,16 +3652,16 @@
         <v>45012259800</v>
       </c>
       <c r="B30" t="s">
+        <v>235</v>
+      </c>
+      <c r="C30" t="s">
         <v>236</v>
       </c>
-      <c r="C30" t="s">
-        <v>237</v>
-      </c>
       <c r="D30" s="34" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3670,16 +3669,16 @@
         <v>45012259600</v>
       </c>
       <c r="B31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3687,16 +3686,16 @@
         <v>45012259300</v>
       </c>
       <c r="B32" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" t="s">
         <v>223</v>
       </c>
-      <c r="C32" t="s">
-        <v>224</v>
-      </c>
       <c r="D32" s="34" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E32" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3704,16 +3703,16 @@
         <v>45012259200</v>
       </c>
       <c r="B33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C33" t="s">
         <v>225</v>
       </c>
-      <c r="C33" t="s">
-        <v>226</v>
-      </c>
       <c r="D33" s="34" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E33" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3721,16 +3720,16 @@
         <v>45012257900</v>
       </c>
       <c r="B34" t="s">
+        <v>245</v>
+      </c>
+      <c r="C34" t="s">
         <v>246</v>
-      </c>
-      <c r="C34" t="s">
-        <v>247</v>
       </c>
       <c r="D34" s="14">
         <v>32929</v>
       </c>
       <c r="E34" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3738,16 +3737,16 @@
         <v>45012257800</v>
       </c>
       <c r="B35" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35" t="s">
         <v>240</v>
-      </c>
-      <c r="C35" t="s">
-        <v>241</v>
       </c>
       <c r="D35" s="14">
         <v>32929</v>
       </c>
       <c r="E35" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3755,16 +3754,16 @@
         <v>45012257600</v>
       </c>
       <c r="B36" t="s">
+        <v>241</v>
+      </c>
+      <c r="C36" t="s">
         <v>242</v>
-      </c>
-      <c r="C36" t="s">
-        <v>243</v>
       </c>
       <c r="D36" s="14">
         <v>32929</v>
       </c>
       <c r="E36" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3772,16 +3771,16 @@
         <v>45012257500</v>
       </c>
       <c r="B37" t="s">
+        <v>243</v>
+      </c>
+      <c r="C37" t="s">
         <v>244</v>
-      </c>
-      <c r="C37" t="s">
-        <v>245</v>
       </c>
       <c r="D37" s="14">
         <v>32929</v>
       </c>
       <c r="E37" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3789,16 +3788,16 @@
         <v>45012244900</v>
       </c>
       <c r="B38" t="s">
+        <v>224</v>
+      </c>
+      <c r="C38" t="s">
         <v>225</v>
-      </c>
-      <c r="C38" t="s">
-        <v>226</v>
       </c>
       <c r="D38" s="14">
         <v>32929</v>
       </c>
       <c r="E38" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3806,16 +3805,16 @@
         <v>45012244200</v>
       </c>
       <c r="B39" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" t="s">
         <v>229</v>
-      </c>
-      <c r="C39" t="s">
-        <v>230</v>
       </c>
       <c r="D39" s="14">
         <v>32929</v>
       </c>
       <c r="E39" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3823,16 +3822,16 @@
         <v>45012242000</v>
       </c>
       <c r="B40" t="s">
+        <v>245</v>
+      </c>
+      <c r="C40" t="s">
         <v>246</v>
-      </c>
-      <c r="C40" t="s">
-        <v>247</v>
       </c>
       <c r="D40" s="14">
         <v>32929</v>
       </c>
       <c r="E40" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3840,16 +3839,16 @@
         <v>45012240200</v>
       </c>
       <c r="B41" t="s">
+        <v>230</v>
+      </c>
+      <c r="C41" t="s">
         <v>231</v>
-      </c>
-      <c r="C41" t="s">
-        <v>232</v>
       </c>
       <c r="D41" s="14">
         <v>32929</v>
       </c>
       <c r="E41" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3857,16 +3856,16 @@
         <v>45012239700</v>
       </c>
       <c r="B42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D42" s="14">
         <v>32929</v>
       </c>
       <c r="E42" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3874,16 +3873,16 @@
         <v>45012239000</v>
       </c>
       <c r="B43" t="s">
+        <v>237</v>
+      </c>
+      <c r="C43" t="s">
         <v>238</v>
-      </c>
-      <c r="C43" t="s">
-        <v>239</v>
       </c>
       <c r="D43" s="14">
         <v>32929</v>
       </c>
       <c r="E43" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3891,16 +3890,16 @@
         <v>45012238400</v>
       </c>
       <c r="B44" t="s">
+        <v>226</v>
+      </c>
+      <c r="C44" t="s">
         <v>227</v>
-      </c>
-      <c r="C44" t="s">
-        <v>228</v>
       </c>
       <c r="D44" s="14">
         <v>32929</v>
       </c>
       <c r="E44" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3908,16 +3907,16 @@
         <v>45012236500</v>
       </c>
       <c r="B45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D45" s="14">
         <v>29221</v>
       </c>
       <c r="E45" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3925,16 +3924,16 @@
         <v>45012196500</v>
       </c>
       <c r="B46" t="s">
+        <v>262</v>
+      </c>
+      <c r="C46" t="s">
         <v>263</v>
-      </c>
-      <c r="C46" t="s">
-        <v>264</v>
       </c>
       <c r="D46" s="14">
         <v>41883</v>
       </c>
       <c r="E46" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3942,16 +3941,16 @@
         <v>45012196300</v>
       </c>
       <c r="B47" t="s">
+        <v>264</v>
+      </c>
+      <c r="C47" t="s">
         <v>265</v>
-      </c>
-      <c r="C47" t="s">
-        <v>266</v>
       </c>
       <c r="D47" s="14">
         <v>41883</v>
       </c>
       <c r="E47" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3959,16 +3958,16 @@
         <v>45012195300</v>
       </c>
       <c r="B48" t="s">
+        <v>266</v>
+      </c>
+      <c r="C48" t="s">
         <v>267</v>
-      </c>
-      <c r="C48" t="s">
-        <v>268</v>
       </c>
       <c r="D48" s="14">
         <v>41883</v>
       </c>
       <c r="E48" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3976,16 +3975,16 @@
         <v>45012195100</v>
       </c>
       <c r="B49" t="s">
+        <v>268</v>
+      </c>
+      <c r="C49" t="s">
         <v>269</v>
-      </c>
-      <c r="C49" t="s">
-        <v>270</v>
       </c>
       <c r="D49" s="14">
         <v>41883</v>
       </c>
       <c r="E49" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3993,16 +3992,16 @@
         <v>45012194900</v>
       </c>
       <c r="B50" t="s">
+        <v>270</v>
+      </c>
+      <c r="C50" t="s">
         <v>271</v>
-      </c>
-      <c r="C50" t="s">
-        <v>272</v>
       </c>
       <c r="D50" s="14">
         <v>32752</v>
       </c>
       <c r="E50" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -4010,16 +4009,16 @@
         <v>45012194700</v>
       </c>
       <c r="B51" t="s">
+        <v>272</v>
+      </c>
+      <c r="C51" t="s">
         <v>273</v>
-      </c>
-      <c r="C51" t="s">
-        <v>274</v>
       </c>
       <c r="D51" s="14">
         <v>32752</v>
       </c>
       <c r="E51" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -4027,16 +4026,16 @@
         <v>45012194500</v>
       </c>
       <c r="B52" t="s">
+        <v>274</v>
+      </c>
+      <c r="C52" t="s">
         <v>275</v>
-      </c>
-      <c r="C52" t="s">
-        <v>276</v>
       </c>
       <c r="D52" s="14">
         <v>32752</v>
       </c>
       <c r="E52" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -4044,16 +4043,16 @@
         <v>45012194200</v>
       </c>
       <c r="B53" t="s">
+        <v>276</v>
+      </c>
+      <c r="C53" t="s">
         <v>277</v>
-      </c>
-      <c r="C53" t="s">
-        <v>278</v>
       </c>
       <c r="D53" s="14">
         <v>32752</v>
       </c>
       <c r="E53" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -4061,16 +4060,16 @@
         <v>45012194000</v>
       </c>
       <c r="B54" t="s">
+        <v>278</v>
+      </c>
+      <c r="C54" t="s">
         <v>279</v>
-      </c>
-      <c r="C54" t="s">
-        <v>280</v>
       </c>
       <c r="D54" s="14">
         <v>32752</v>
       </c>
       <c r="E54" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -4078,16 +4077,16 @@
         <v>45012195800</v>
       </c>
       <c r="B55" t="s">
+        <v>283</v>
+      </c>
+      <c r="C55" t="s">
         <v>284</v>
-      </c>
-      <c r="C55" t="s">
-        <v>285</v>
       </c>
       <c r="D55" s="14">
         <v>41883</v>
       </c>
       <c r="E55" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -4095,16 +4094,16 @@
         <v>45012195600</v>
       </c>
       <c r="B56" t="s">
+        <v>285</v>
+      </c>
+      <c r="C56" t="s">
         <v>286</v>
-      </c>
-      <c r="C56" t="s">
-        <v>287</v>
       </c>
       <c r="D56" s="14">
         <v>41883</v>
       </c>
       <c r="E56" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -4112,16 +4111,16 @@
         <v>45012195400</v>
       </c>
       <c r="B57" t="s">
+        <v>287</v>
+      </c>
+      <c r="C57" t="s">
         <v>288</v>
-      </c>
-      <c r="C57" t="s">
-        <v>289</v>
       </c>
       <c r="D57" s="14">
         <v>41883</v>
       </c>
       <c r="E57" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -4129,16 +4128,16 @@
         <v>45012186000</v>
       </c>
       <c r="B58" t="s">
+        <v>289</v>
+      </c>
+      <c r="C58" t="s">
         <v>290</v>
-      </c>
-      <c r="C58" t="s">
-        <v>291</v>
       </c>
       <c r="D58" s="14">
         <v>41883</v>
       </c>
       <c r="E58" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -4146,16 +4145,16 @@
         <v>45012185800</v>
       </c>
       <c r="B59" t="s">
+        <v>291</v>
+      </c>
+      <c r="C59" t="s">
         <v>292</v>
-      </c>
-      <c r="C59" t="s">
-        <v>293</v>
       </c>
       <c r="D59" s="14">
         <v>32752</v>
       </c>
       <c r="E59" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -4163,16 +4162,16 @@
         <v>45012185700</v>
       </c>
       <c r="B60" t="s">
+        <v>293</v>
+      </c>
+      <c r="C60" t="s">
         <v>294</v>
-      </c>
-      <c r="C60" t="s">
-        <v>295</v>
       </c>
       <c r="D60" s="14">
         <v>32752</v>
       </c>
       <c r="E60" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -4180,16 +4179,16 @@
         <v>45012185400</v>
       </c>
       <c r="B61" t="s">
+        <v>295</v>
+      </c>
+      <c r="C61" t="s">
         <v>296</v>
-      </c>
-      <c r="C61" t="s">
-        <v>297</v>
       </c>
       <c r="D61" s="14">
         <v>32752</v>
       </c>
       <c r="E61" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -4197,16 +4196,16 @@
         <v>45012185200</v>
       </c>
       <c r="B62" t="s">
+        <v>297</v>
+      </c>
+      <c r="C62" t="s">
         <v>298</v>
-      </c>
-      <c r="C62" t="s">
-        <v>299</v>
       </c>
       <c r="D62" s="14">
         <v>32752</v>
       </c>
       <c r="E62" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -4214,16 +4213,16 @@
         <v>45012185000</v>
       </c>
       <c r="B63" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C63" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D63" s="14">
         <v>41883</v>
       </c>
       <c r="E63" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -4231,16 +4230,16 @@
         <v>45012184800</v>
       </c>
       <c r="B64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D64" s="14">
         <v>25569</v>
       </c>
       <c r="E64" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -4248,16 +4247,16 @@
         <v>45012184600</v>
       </c>
       <c r="B65" t="s">
+        <v>300</v>
+      </c>
+      <c r="C65" t="s">
         <v>301</v>
-      </c>
-      <c r="C65" t="s">
-        <v>302</v>
       </c>
       <c r="D65" s="14">
         <v>32752</v>
       </c>
       <c r="E65" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -4265,7 +4264,7 @@
         <v>45011982200</v>
       </c>
       <c r="B66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C66" t="s">
         <v>36</v>
@@ -4274,7 +4273,7 @@
         <v>33058</v>
       </c>
       <c r="E66" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -4282,7 +4281,7 @@
         <v>45011982200</v>
       </c>
       <c r="B67" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C67" t="s">
         <v>36</v>
@@ -4291,7 +4290,7 @@
         <v>33058</v>
       </c>
       <c r="E67" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -4299,7 +4298,7 @@
         <v>45011982100</v>
       </c>
       <c r="B68" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C68" t="s">
         <v>36</v>
@@ -4308,7 +4307,7 @@
         <v>32994</v>
       </c>
       <c r="E68" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -4316,7 +4315,7 @@
         <v>45011974800</v>
       </c>
       <c r="B69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C69" t="s">
         <v>36</v>
@@ -4325,7 +4324,7 @@
         <v>33055</v>
       </c>
       <c r="E69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -4333,16 +4332,16 @@
         <v>45012965900</v>
       </c>
       <c r="B70" t="s">
+        <v>303</v>
+      </c>
+      <c r="C70" t="s">
         <v>304</v>
-      </c>
-      <c r="C70" t="s">
-        <v>305</v>
       </c>
       <c r="D70" s="14">
         <v>30903</v>
       </c>
       <c r="E70" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -4350,7 +4349,7 @@
         <v>45012939900</v>
       </c>
       <c r="B71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C71" t="s">
         <v>36</v>
@@ -4359,7 +4358,7 @@
         <v>33002</v>
       </c>
       <c r="E71" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -4367,7 +4366,7 @@
         <v>45012826300</v>
       </c>
       <c r="B72" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C72" t="s">
         <v>33</v>
@@ -4376,7 +4375,7 @@
         <v>29266</v>
       </c>
       <c r="E72" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -4384,7 +4383,7 @@
         <v>45012826200</v>
       </c>
       <c r="B73" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C73" t="s">
         <v>34</v>
@@ -4393,7 +4392,7 @@
         <v>31180</v>
       </c>
       <c r="E73" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -4401,16 +4400,16 @@
         <v>45012824200</v>
       </c>
       <c r="B74" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C74" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D74" s="14">
         <v>31180</v>
       </c>
       <c r="E74" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -4427,7 +4426,7 @@
         <v>29266</v>
       </c>
       <c r="E75" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -4435,16 +4434,16 @@
         <v>45012821900</v>
       </c>
       <c r="B76" t="s">
+        <v>281</v>
+      </c>
+      <c r="C76" t="s">
         <v>282</v>
-      </c>
-      <c r="C76" t="s">
-        <v>283</v>
       </c>
       <c r="D76" s="14">
         <v>31180</v>
       </c>
       <c r="E76" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -4452,16 +4451,16 @@
         <v>45012811200</v>
       </c>
       <c r="B77" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D77" s="14">
         <v>32874</v>
       </c>
       <c r="E77" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -4469,16 +4468,16 @@
         <v>45012811300</v>
       </c>
       <c r="B78" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C78" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D78" s="14">
         <v>33239</v>
       </c>
       <c r="E78" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -4486,16 +4485,16 @@
         <v>45012811600</v>
       </c>
       <c r="B79" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C79" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D79" s="14">
         <v>29266</v>
       </c>
       <c r="E79" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -4503,16 +4502,16 @@
         <v>45012390300</v>
       </c>
       <c r="B80" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C80" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D80" s="14">
         <v>29266</v>
       </c>
       <c r="E80" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -4520,16 +4519,16 @@
         <v>45012808500</v>
       </c>
       <c r="B81" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C81" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D81" s="14">
         <v>31180</v>
       </c>
       <c r="E81" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -4537,16 +4536,16 @@
         <v>45012389400</v>
       </c>
       <c r="B82" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C82" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D82" s="14">
         <v>29266</v>
       </c>
       <c r="E82" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -4554,16 +4553,16 @@
         <v>45012807600</v>
       </c>
       <c r="B83" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C83" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D83" s="14">
         <v>31180</v>
       </c>
       <c r="E83" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -4571,16 +4570,16 @@
         <v>45012807600</v>
       </c>
       <c r="B84" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C84" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D84" s="14">
         <v>31180</v>
       </c>
       <c r="E84" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -4588,16 +4587,16 @@
         <v>45012802800</v>
       </c>
       <c r="B85" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C85" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D85" s="14">
         <v>42171</v>
       </c>
       <c r="E85" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -4605,16 +4604,16 @@
         <v>45012801100</v>
       </c>
       <c r="B86" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C86" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D86" s="14">
         <v>31545</v>
       </c>
       <c r="E86" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -4622,7 +4621,7 @@
         <v>45012787000</v>
       </c>
       <c r="B87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C87" t="s">
         <v>36</v>
@@ -4631,7 +4630,7 @@
         <v>33124</v>
       </c>
       <c r="E87" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -4639,16 +4638,16 @@
         <v>45012785800</v>
       </c>
       <c r="B88" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C88" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D88" s="14">
         <v>32991</v>
       </c>
       <c r="E88" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -4665,7 +4664,7 @@
         <v>33063</v>
       </c>
       <c r="E89" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -4673,16 +4672,16 @@
         <v>45012785900</v>
       </c>
       <c r="B90" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C90" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D90" s="14">
         <v>33142</v>
       </c>
       <c r="E90" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -4690,7 +4689,7 @@
         <v>45012760300</v>
       </c>
       <c r="B91" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C91" t="s">
         <v>36</v>
@@ -4699,7 +4698,7 @@
         <v>32668</v>
       </c>
       <c r="E91" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -4707,7 +4706,7 @@
         <v>45012730600</v>
       </c>
       <c r="B92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C92" t="s">
         <v>36</v>
@@ -4716,7 +4715,7 @@
         <v>33094</v>
       </c>
       <c r="E92" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -4724,7 +4723,7 @@
         <v>45012691000</v>
       </c>
       <c r="B93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C93" t="s">
         <v>36</v>
@@ -4733,7 +4732,7 @@
         <v>33033</v>
       </c>
       <c r="E93" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -4741,16 +4740,16 @@
         <v>45012595400</v>
       </c>
       <c r="B94" t="s">
+        <v>316</v>
+      </c>
+      <c r="C94" t="s">
         <v>317</v>
-      </c>
-      <c r="C94" t="s">
-        <v>318</v>
       </c>
       <c r="D94" s="14">
         <v>29664</v>
       </c>
       <c r="E94" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -4758,16 +4757,16 @@
         <v>45012595300</v>
       </c>
       <c r="B95" t="s">
+        <v>318</v>
+      </c>
+      <c r="C95" t="s">
         <v>319</v>
-      </c>
-      <c r="C95" t="s">
-        <v>320</v>
       </c>
       <c r="D95" s="14">
         <v>31686</v>
       </c>
       <c r="E95" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -4775,16 +4774,16 @@
         <v>45012593000</v>
       </c>
       <c r="B96" t="s">
+        <v>320</v>
+      </c>
+      <c r="C96" t="s">
         <v>321</v>
-      </c>
-      <c r="C96" t="s">
-        <v>322</v>
       </c>
       <c r="D96" s="14">
         <v>32412</v>
       </c>
       <c r="E96" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -4792,16 +4791,16 @@
         <v>45012405100</v>
       </c>
       <c r="B97" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D97" s="14">
         <v>31048</v>
       </c>
       <c r="E97" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -4809,7 +4808,7 @@
         <v>45012104900</v>
       </c>
       <c r="B98" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C98" t="s">
         <v>36</v>
@@ -4818,7 +4817,7 @@
         <v>32607</v>
       </c>
       <c r="E98" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -4826,16 +4825,16 @@
         <v>45011901000</v>
       </c>
       <c r="B99" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C99" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D99" s="14">
         <v>32143</v>
       </c>
       <c r="E99" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -4843,16 +4842,16 @@
         <v>45011900900</v>
       </c>
       <c r="B100" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C100" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D100" s="14">
         <v>32143</v>
       </c>
       <c r="E100" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -4860,16 +4859,16 @@
         <v>45011900500</v>
       </c>
       <c r="B101" t="s">
+        <v>336</v>
+      </c>
+      <c r="C101" t="s">
         <v>337</v>
-      </c>
-      <c r="C101" t="s">
-        <v>338</v>
       </c>
       <c r="D101" s="14">
         <v>29249</v>
       </c>
       <c r="E101" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -4877,16 +4876,16 @@
         <v>45011900400</v>
       </c>
       <c r="B102" t="s">
+        <v>338</v>
+      </c>
+      <c r="C102" t="s">
         <v>339</v>
-      </c>
-      <c r="C102" t="s">
-        <v>340</v>
       </c>
       <c r="D102" s="14">
         <v>29246</v>
       </c>
       <c r="E102" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -4894,16 +4893,16 @@
         <v>45011900200</v>
       </c>
       <c r="B103" t="s">
+        <v>340</v>
+      </c>
+      <c r="C103" t="s">
         <v>341</v>
-      </c>
-      <c r="C103" t="s">
-        <v>342</v>
       </c>
       <c r="D103" s="14">
         <v>29240</v>
       </c>
       <c r="E103" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -4911,16 +4910,16 @@
         <v>45011899900</v>
       </c>
       <c r="B104" t="s">
+        <v>342</v>
+      </c>
+      <c r="C104" t="s">
         <v>343</v>
-      </c>
-      <c r="C104" t="s">
-        <v>344</v>
       </c>
       <c r="D104" s="14">
         <v>29231</v>
       </c>
       <c r="E104" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -4928,16 +4927,16 @@
         <v>45011899500</v>
       </c>
       <c r="B105" t="s">
+        <v>344</v>
+      </c>
+      <c r="C105" t="s">
         <v>345</v>
-      </c>
-      <c r="C105" t="s">
-        <v>346</v>
       </c>
       <c r="D105" s="14">
         <v>29248</v>
       </c>
       <c r="E105" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -4945,16 +4944,16 @@
         <v>45011899400</v>
       </c>
       <c r="B106" t="s">
+        <v>346</v>
+      </c>
+      <c r="C106" t="s">
         <v>347</v>
-      </c>
-      <c r="C106" t="s">
-        <v>348</v>
       </c>
       <c r="D106" s="14">
         <v>29239</v>
       </c>
       <c r="E106" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -4962,16 +4961,16 @@
         <v>45011899300</v>
       </c>
       <c r="B107" t="s">
+        <v>348</v>
+      </c>
+      <c r="C107" t="s">
         <v>349</v>
-      </c>
-      <c r="C107" t="s">
-        <v>350</v>
       </c>
       <c r="D107" s="14">
         <v>29230</v>
       </c>
       <c r="E107" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -4979,16 +4978,16 @@
         <v>45011899200</v>
       </c>
       <c r="B108" t="s">
+        <v>350</v>
+      </c>
+      <c r="C108" t="s">
         <v>351</v>
-      </c>
-      <c r="C108" t="s">
-        <v>352</v>
       </c>
       <c r="D108" s="14">
         <v>29221</v>
       </c>
       <c r="E108" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -4996,16 +4995,16 @@
         <v>45011854500</v>
       </c>
       <c r="B109" t="s">
+        <v>352</v>
+      </c>
+      <c r="C109" t="s">
         <v>353</v>
-      </c>
-      <c r="C109" t="s">
-        <v>354</v>
       </c>
       <c r="D109" s="14">
         <v>27912</v>
       </c>
       <c r="E109" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -5013,16 +5012,16 @@
         <v>45012645800</v>
       </c>
       <c r="B110" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C110" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D110" s="14">
         <v>35097</v>
       </c>
       <c r="E110" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -5030,16 +5029,16 @@
         <v>45012295000</v>
       </c>
       <c r="B111" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C111" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D111" s="14">
         <v>34049</v>
       </c>
       <c r="E111" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -5047,16 +5046,16 @@
         <v>45012293400</v>
       </c>
       <c r="B112" t="s">
+        <v>310</v>
+      </c>
+      <c r="C112" t="s">
         <v>311</v>
-      </c>
-      <c r="C112" t="s">
-        <v>312</v>
       </c>
       <c r="D112" s="14">
         <v>29952</v>
       </c>
       <c r="E112" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -5064,16 +5063,16 @@
         <v>45012293100</v>
       </c>
       <c r="B113" t="s">
+        <v>308</v>
+      </c>
+      <c r="C113" t="s">
         <v>309</v>
-      </c>
-      <c r="C113" t="s">
-        <v>310</v>
       </c>
       <c r="D113" s="14">
         <v>29221</v>
       </c>
       <c r="E113" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -5081,16 +5080,16 @@
         <v>45012599400</v>
       </c>
       <c r="B114" t="s">
+        <v>356</v>
+      </c>
+      <c r="C114" t="s">
         <v>357</v>
-      </c>
-      <c r="C114" t="s">
-        <v>358</v>
       </c>
       <c r="D114" s="14">
         <v>33318</v>
       </c>
       <c r="E114" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -5098,16 +5097,16 @@
         <v>45012597100</v>
       </c>
       <c r="B115" t="s">
+        <v>358</v>
+      </c>
+      <c r="C115" t="s">
         <v>359</v>
-      </c>
-      <c r="C115" t="s">
-        <v>360</v>
       </c>
       <c r="D115" s="14">
         <v>32340</v>
       </c>
       <c r="E115" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -5115,16 +5114,16 @@
         <v>45012414900</v>
       </c>
       <c r="B116" t="s">
+        <v>360</v>
+      </c>
+      <c r="C116" t="s">
         <v>361</v>
-      </c>
-      <c r="C116" t="s">
-        <v>362</v>
       </c>
       <c r="D116" s="14">
         <v>32340</v>
       </c>
       <c r="E116" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -5132,16 +5131,16 @@
         <v>45012365700</v>
       </c>
       <c r="B117" t="s">
+        <v>362</v>
+      </c>
+      <c r="C117" t="s">
         <v>363</v>
-      </c>
-      <c r="C117" t="s">
-        <v>364</v>
       </c>
       <c r="D117" s="14">
         <v>28911</v>
       </c>
       <c r="E117" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -5149,16 +5148,16 @@
         <v>45012231200</v>
       </c>
       <c r="B118" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C118" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D118" s="14">
         <v>28911</v>
       </c>
       <c r="E118" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -5166,16 +5165,16 @@
         <v>45012155100</v>
       </c>
       <c r="B119" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C119" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D119" s="14">
         <v>30136</v>
       </c>
       <c r="E119" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -5183,7 +5182,7 @@
         <v>45012154600</v>
       </c>
       <c r="B120" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C120" t="s">
         <v>36</v>
@@ -5192,7 +5191,7 @@
         <v>33027</v>
       </c>
       <c r="E120" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -5200,7 +5199,7 @@
         <v>45012088200</v>
       </c>
       <c r="B121" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C121" t="s">
         <v>36</v>
@@ -5209,7 +5208,7 @@
         <v>33027</v>
       </c>
       <c r="E121" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -5217,7 +5216,7 @@
         <v>45012084700</v>
       </c>
       <c r="B122" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C122" t="s">
         <v>36</v>
@@ -5226,7 +5225,7 @@
         <v>25204</v>
       </c>
       <c r="E122" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -5234,16 +5233,16 @@
         <v>45011955700</v>
       </c>
       <c r="B123" t="s">
+        <v>370</v>
+      </c>
+      <c r="C123" t="s">
         <v>371</v>
-      </c>
-      <c r="C123" t="s">
-        <v>372</v>
       </c>
       <c r="D123" s="14">
         <v>33318</v>
       </c>
       <c r="E123" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -5251,16 +5250,16 @@
         <v>45011878300</v>
       </c>
       <c r="B124" t="s">
+        <v>372</v>
+      </c>
+      <c r="C124" t="s">
         <v>373</v>
-      </c>
-      <c r="C124" t="s">
-        <v>374</v>
       </c>
       <c r="D124" s="14">
         <v>30410</v>
       </c>
       <c r="E124" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -5268,16 +5267,16 @@
         <v>45011862500</v>
       </c>
       <c r="B125" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C125" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D125" s="14">
         <v>31569</v>
       </c>
       <c r="E125" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -5285,16 +5284,16 @@
         <v>45011860000</v>
       </c>
       <c r="B126" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C126" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D126" s="14">
         <v>32094</v>
       </c>
       <c r="E126" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -5302,16 +5301,16 @@
         <v>45011858500</v>
       </c>
       <c r="B127" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C127" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D127" s="14">
         <v>29984</v>
       </c>
       <c r="E127" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -5319,16 +5318,16 @@
         <v>45011857400</v>
       </c>
       <c r="B128" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C128" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D128" s="14">
         <v>30776</v>
       </c>
       <c r="E128" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -5336,16 +5335,16 @@
         <v>45011858000</v>
       </c>
       <c r="B129" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C129" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D129" s="14">
         <v>30378</v>
       </c>
       <c r="E129" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -5353,16 +5352,16 @@
         <v>45011847900</v>
       </c>
       <c r="B130" t="s">
+        <v>377</v>
+      </c>
+      <c r="C130" t="s">
         <v>378</v>
-      </c>
-      <c r="C130" t="s">
-        <v>379</v>
       </c>
       <c r="D130" s="14">
         <v>30146</v>
       </c>
       <c r="E130" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -5370,16 +5369,16 @@
         <v>45012156200</v>
       </c>
       <c r="B131" t="s">
+        <v>379</v>
+      </c>
+      <c r="C131" t="s">
         <v>380</v>
-      </c>
-      <c r="C131" t="s">
-        <v>381</v>
       </c>
       <c r="D131" s="14">
         <v>32340</v>
       </c>
       <c r="E131" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -5387,16 +5386,16 @@
         <v>45012138000</v>
       </c>
       <c r="B132" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C132" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D132" s="14">
         <v>25818</v>
       </c>
       <c r="E132" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -5404,16 +5403,16 @@
         <v>45011974600</v>
       </c>
       <c r="B133" t="s">
+        <v>382</v>
+      </c>
+      <c r="C133" t="s">
         <v>383</v>
-      </c>
-      <c r="C133" t="s">
-        <v>384</v>
       </c>
       <c r="D133" s="14">
         <v>32340</v>
       </c>
       <c r="E133" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -5421,16 +5420,16 @@
         <v>45011856500</v>
       </c>
       <c r="B134" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C134" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D134" s="14">
         <v>29221</v>
       </c>
       <c r="E134" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -5438,16 +5437,16 @@
         <v>45011518700</v>
       </c>
       <c r="B135" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C135" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D135" s="14">
         <v>25569</v>
       </c>
       <c r="E135" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -5455,16 +5454,16 @@
         <v>45011518400</v>
       </c>
       <c r="B136" t="s">
+        <v>388</v>
+      </c>
+      <c r="C136" t="s">
         <v>389</v>
-      </c>
-      <c r="C136" t="s">
-        <v>390</v>
       </c>
       <c r="D136" s="14">
         <v>29473</v>
       </c>
       <c r="E136" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -5472,16 +5471,16 @@
         <v>45011494800</v>
       </c>
       <c r="B137" t="s">
+        <v>390</v>
+      </c>
+      <c r="C137" t="s">
         <v>391</v>
-      </c>
-      <c r="C137" t="s">
-        <v>392</v>
       </c>
       <c r="D137" s="14">
         <v>32661</v>
       </c>
       <c r="E137" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -5489,16 +5488,16 @@
         <v>45011726400</v>
       </c>
       <c r="B138" t="s">
+        <v>394</v>
+      </c>
+      <c r="C138" t="s">
         <v>395</v>
-      </c>
-      <c r="C138" t="s">
-        <v>396</v>
       </c>
       <c r="D138" s="14">
         <v>28911</v>
       </c>
       <c r="E138" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -5506,16 +5505,16 @@
         <v>45011725900</v>
       </c>
       <c r="B139" t="s">
+        <v>396</v>
+      </c>
+      <c r="C139" t="s">
         <v>397</v>
-      </c>
-      <c r="C139" t="s">
-        <v>398</v>
       </c>
       <c r="D139" s="14">
         <v>31974</v>
       </c>
       <c r="E139" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -5523,16 +5522,16 @@
         <v>45011725800</v>
       </c>
       <c r="B140" t="s">
+        <v>398</v>
+      </c>
+      <c r="C140" t="s">
         <v>399</v>
-      </c>
-      <c r="C140" t="s">
-        <v>400</v>
       </c>
       <c r="D140" s="14">
         <v>32340</v>
       </c>
       <c r="E140" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -5540,16 +5539,16 @@
         <v>45011723400</v>
       </c>
       <c r="B141" t="s">
+        <v>401</v>
+      </c>
+      <c r="C141" t="s">
         <v>402</v>
-      </c>
-      <c r="C141" t="s">
-        <v>403</v>
       </c>
       <c r="D141" s="14">
         <v>20086</v>
       </c>
       <c r="E141" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -5557,16 +5556,16 @@
         <v>45011723400</v>
       </c>
       <c r="B142" t="s">
+        <v>403</v>
+      </c>
+      <c r="C142" t="s">
         <v>404</v>
-      </c>
-      <c r="C142" t="s">
-        <v>405</v>
       </c>
       <c r="D142" s="14">
         <v>29867</v>
       </c>
       <c r="E142" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -5574,16 +5573,16 @@
         <v>45011723000</v>
       </c>
       <c r="B143" t="s">
+        <v>405</v>
+      </c>
+      <c r="C143" t="s">
         <v>406</v>
-      </c>
-      <c r="C143" t="s">
-        <v>407</v>
       </c>
       <c r="D143" s="14">
         <v>29502</v>
       </c>
       <c r="E143" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -5591,7 +5590,7 @@
         <v>45011719500</v>
       </c>
       <c r="B144" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C144" t="s">
         <v>36</v>
@@ -5600,7 +5599,7 @@
         <v>25204</v>
       </c>
       <c r="E144" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -5608,16 +5607,16 @@
         <v>45011713900</v>
       </c>
       <c r="B145" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C145" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D145" s="14">
         <v>31173</v>
       </c>
       <c r="E145" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -5625,16 +5624,16 @@
         <v>45011713600</v>
       </c>
       <c r="B146" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C146" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D146" s="14">
         <v>31172</v>
       </c>
       <c r="E146" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -5642,16 +5641,16 @@
         <v>45011742300</v>
       </c>
       <c r="B147" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C147" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D147" s="14">
         <v>34478</v>
       </c>
       <c r="E147" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -5659,16 +5658,16 @@
         <v>45011740000</v>
       </c>
       <c r="B148" t="s">
+        <v>410</v>
+      </c>
+      <c r="C148" t="s">
         <v>411</v>
-      </c>
-      <c r="C148" t="s">
-        <v>412</v>
       </c>
       <c r="D148" s="14">
         <v>34395</v>
       </c>
       <c r="E148" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -5676,16 +5675,16 @@
         <v>45011615200</v>
       </c>
       <c r="B149" t="s">
+        <v>412</v>
+      </c>
+      <c r="C149" t="s">
         <v>413</v>
-      </c>
-      <c r="C149" t="s">
-        <v>414</v>
       </c>
       <c r="D149" s="14">
         <v>34680</v>
       </c>
       <c r="E149" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -5693,16 +5692,16 @@
         <v>45011610600</v>
       </c>
       <c r="B150" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C150" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D150" s="14">
         <v>34010</v>
       </c>
       <c r="E150" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -5710,16 +5709,16 @@
         <v>45011398200</v>
       </c>
       <c r="B151" t="s">
+        <v>415</v>
+      </c>
+      <c r="C151" t="s">
         <v>416</v>
-      </c>
-      <c r="C151" t="s">
-        <v>417</v>
       </c>
       <c r="D151" s="14">
         <v>32454</v>
       </c>
       <c r="E151" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -5727,16 +5726,16 @@
         <v>45011394600</v>
       </c>
       <c r="B152" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C152" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D152" s="14">
         <v>33850</v>
       </c>
       <c r="E152" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -5744,16 +5743,16 @@
         <v>45011387300</v>
       </c>
       <c r="B153" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C153" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D153" s="14">
         <v>23925</v>
       </c>
       <c r="E153" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -5761,16 +5760,16 @@
         <v>45011273000</v>
       </c>
       <c r="B154" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C154" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D154" s="14">
         <v>25146</v>
       </c>
       <c r="E154" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -5778,16 +5777,16 @@
         <v>45011176300</v>
       </c>
       <c r="B155" t="s">
+        <v>420</v>
+      </c>
+      <c r="C155" t="s">
         <v>421</v>
-      </c>
-      <c r="C155" t="s">
-        <v>422</v>
       </c>
       <c r="D155" s="14">
         <v>30579</v>
       </c>
       <c r="E155" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -5795,16 +5794,16 @@
         <v>45011176100</v>
       </c>
       <c r="B156" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C156" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D156" s="14">
         <v>32818</v>
       </c>
       <c r="E156" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -5812,16 +5811,16 @@
         <v>45011175900</v>
       </c>
       <c r="B157" t="s">
+        <v>423</v>
+      </c>
+      <c r="C157" t="s">
         <v>424</v>
-      </c>
-      <c r="C157" t="s">
-        <v>425</v>
       </c>
       <c r="D157" s="14">
         <v>33309</v>
       </c>
       <c r="E157" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -5829,16 +5828,16 @@
         <v>45011175300</v>
       </c>
       <c r="B158" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C158" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D158" s="14">
         <v>31248</v>
       </c>
       <c r="E158" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -5846,16 +5845,16 @@
         <v>45011175200</v>
       </c>
       <c r="B159" t="s">
+        <v>368</v>
+      </c>
+      <c r="C159" t="s">
         <v>369</v>
-      </c>
-      <c r="C159" t="s">
-        <v>370</v>
       </c>
       <c r="D159" s="14">
         <v>32717</v>
       </c>
       <c r="E159" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -5863,16 +5862,16 @@
         <v>45011742300</v>
       </c>
       <c r="B160" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C160" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D160" s="14">
         <v>34478</v>
       </c>
       <c r="E160" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -5880,16 +5879,16 @@
         <v>45011740000</v>
       </c>
       <c r="B161" t="s">
+        <v>410</v>
+      </c>
+      <c r="C161" t="s">
         <v>411</v>
-      </c>
-      <c r="C161" t="s">
-        <v>412</v>
       </c>
       <c r="D161" s="14">
         <v>34395</v>
       </c>
       <c r="E161" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -5897,16 +5896,16 @@
         <v>45011615200</v>
       </c>
       <c r="B162" t="s">
+        <v>412</v>
+      </c>
+      <c r="C162" t="s">
         <v>413</v>
-      </c>
-      <c r="C162" t="s">
-        <v>414</v>
       </c>
       <c r="D162" s="14">
         <v>34680</v>
       </c>
       <c r="E162" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -5914,16 +5913,16 @@
         <v>45011610600</v>
       </c>
       <c r="B163" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C163" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D163" s="14">
         <v>34010</v>
       </c>
       <c r="E163" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -5931,16 +5930,16 @@
         <v>45011398200</v>
       </c>
       <c r="B164" t="s">
+        <v>415</v>
+      </c>
+      <c r="C164" t="s">
         <v>416</v>
-      </c>
-      <c r="C164" t="s">
-        <v>417</v>
       </c>
       <c r="D164" s="14">
         <v>32454</v>
       </c>
       <c r="E164" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -5948,16 +5947,16 @@
         <v>45011394600</v>
       </c>
       <c r="B165" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C165" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D165" s="14">
         <v>33850</v>
       </c>
       <c r="E165" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -5965,16 +5964,16 @@
         <v>45011387300</v>
       </c>
       <c r="B166" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C166" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D166" s="14">
         <v>23925</v>
       </c>
       <c r="E166" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -5982,16 +5981,16 @@
         <v>45011273000</v>
       </c>
       <c r="B167" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C167" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D167" s="14">
         <v>25146</v>
       </c>
       <c r="E167" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -5999,16 +5998,16 @@
         <v>45011176300</v>
       </c>
       <c r="B168" t="s">
+        <v>420</v>
+      </c>
+      <c r="C168" t="s">
         <v>421</v>
-      </c>
-      <c r="C168" t="s">
-        <v>422</v>
       </c>
       <c r="D168" s="14">
         <v>30579</v>
       </c>
       <c r="E168" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -6016,16 +6015,16 @@
         <v>45011176100</v>
       </c>
       <c r="B169" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C169" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D169" s="14">
         <v>32818</v>
       </c>
       <c r="E169" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -6033,16 +6032,16 @@
         <v>45011175900</v>
       </c>
       <c r="B170" t="s">
+        <v>423</v>
+      </c>
+      <c r="C170" t="s">
         <v>424</v>
-      </c>
-      <c r="C170" t="s">
-        <v>425</v>
       </c>
       <c r="D170" s="14">
         <v>33309</v>
       </c>
       <c r="E170" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -6050,16 +6049,16 @@
         <v>45011175300</v>
       </c>
       <c r="B171" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C171" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D171" s="14">
         <v>31248</v>
       </c>
       <c r="E171" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -6080,307 +6079,307 @@
   <sheetData>
     <row r="2" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="13" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="16" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="31" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="32" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H32" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H36" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H39" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H43" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H44" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H45" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H46" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="47" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H47" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="48" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H48" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H49" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H50" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H51" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H53" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H54" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H55" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H56" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H57" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H58" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H59" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="60" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H60" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="61" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H61" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="62" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H62" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -6403,7 +6402,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -6411,10 +6410,10 @@
         <v>45012492500</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
@@ -6422,13 +6421,13 @@
         <v>45012491700</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -6436,13 +6435,13 @@
         <v>45012491000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -6450,13 +6449,13 @@
         <v>45012397700</v>
       </c>
       <c r="H5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K5" t="s">
         <v>38</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -6464,13 +6463,13 @@
         <v>45012397600</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -6478,10 +6477,10 @@
         <v>45012397500</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M7" s="16"/>
     </row>
@@ -6490,10 +6489,10 @@
         <v>45012397400</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M8" s="16"/>
     </row>
@@ -7265,25 +7264,25 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="E1" s="50" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>42</v>
@@ -7292,42 +7291,42 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L1" s="27" t="s">
         <v>50</v>
       </c>
       <c r="M1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N1" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O1" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="R1" s="30" t="s">
         <v>67</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q1" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="R1" s="30" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>19</v>
@@ -7336,48 +7335,48 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K2" s="27" t="s">
         <v>43</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P2" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -7386,13 +7385,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>41</v>
@@ -7401,10 +7400,10 @@
         <v>42</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>43</v>
@@ -7413,27 +7412,27 @@
         <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N3" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="30" t="s">
+      <c r="P3" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q3" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="R3" s="30" t="s">
         <v>67</v>
-      </c>
-      <c r="P3" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q3" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="R3" s="30" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -7442,13 +7441,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="F4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>41</v>
@@ -7460,84 +7459,84 @@
         <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L4" s="27" t="s">
         <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N4" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="P4" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="R4" s="32" t="s">
         <v>67</v>
-      </c>
-      <c r="P4" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q4" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="R4" s="32" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="8"/>
       <c r="I5" s="6"/>
       <c r="J5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K5" s="27" t="s">
         <v>52</v>
       </c>
       <c r="L5" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="M5" t="s">
+        <v>164</v>
+      </c>
+      <c r="N5" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="M5" t="s">
-        <v>165</v>
-      </c>
-      <c r="N5" s="29" t="s">
-        <v>153</v>
-      </c>
       <c r="O5" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="R5" s="33" t="s">
         <v>102</v>
-      </c>
-      <c r="P5" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q5" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="R5" s="33" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G6"/>
       <c r="J6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K6" s="28" t="s">
         <v>52</v>
@@ -7546,64 +7545,64 @@
         <v>51</v>
       </c>
       <c r="M6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O6" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P6" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q6" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R6" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G7"/>
       <c r="M7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N7" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="O7" s="33" t="s">
+      <c r="P7" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="R7" s="33" t="s">
         <v>102</v>
-      </c>
-      <c r="P7" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q7" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="R7" s="33" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G8"/>
       <c r="M8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N8" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="O8" s="32" t="s">
+      <c r="P8" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q8" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="R8" s="32" t="s">
         <v>102</v>
-      </c>
-      <c r="P8" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q8" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="R8" s="32" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -7621,31 +7620,31 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
         <v>60</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>61</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>62</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>63</v>
       </c>
-      <c r="F13" t="s">
-        <v>64</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -7658,19 +7657,19 @@
         <v>50</v>
       </c>
       <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
         <v>66</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" t="s">
         <v>67</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -7681,19 +7680,19 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
         <v>69</v>
       </c>
-      <c r="E15" t="s">
-        <v>70</v>
-      </c>
       <c r="F15" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -7704,19 +7703,19 @@
         <v>50</v>
       </c>
       <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
         <v>71</v>
       </c>
-      <c r="E16" t="s">
-        <v>72</v>
-      </c>
       <c r="F16" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -7727,19 +7726,19 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s">
         <v>73</v>
       </c>
-      <c r="E17" t="s">
-        <v>74</v>
-      </c>
       <c r="F17" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -7750,19 +7749,19 @@
         <v>50</v>
       </c>
       <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" t="s">
         <v>75</v>
       </c>
-      <c r="E18" t="s">
-        <v>76</v>
-      </c>
       <c r="F18" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -7773,42 +7772,42 @@
         <v>50</v>
       </c>
       <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
         <v>77</v>
       </c>
-      <c r="E19" t="s">
-        <v>78</v>
-      </c>
       <c r="F19" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
         <v>79</v>
       </c>
-      <c r="E20" t="s">
-        <v>80</v>
-      </c>
       <c r="F20" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -7819,19 +7818,19 @@
         <v>50</v>
       </c>
       <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
         <v>81</v>
       </c>
-      <c r="E21" t="s">
-        <v>82</v>
-      </c>
       <c r="F21" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -7842,50 +7841,50 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" t="s">
         <v>119</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>120</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="G23" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>123</v>
-      </c>
       <c r="H23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
         <v>60</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>61</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>62</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>63</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>64</v>
-      </c>
-      <c r="H26" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -7896,19 +7895,19 @@
         <v>51</v>
       </c>
       <c r="D27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" t="s">
         <v>101</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" t="s">
         <v>102</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="H27" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -7919,19 +7918,19 @@
         <v>51</v>
       </c>
       <c r="D28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" t="s">
         <v>104</v>
       </c>
-      <c r="E28" t="s">
-        <v>105</v>
-      </c>
       <c r="F28" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -7942,19 +7941,19 @@
         <v>51</v>
       </c>
       <c r="D29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" t="s">
         <v>106</v>
       </c>
-      <c r="E29" t="s">
-        <v>107</v>
-      </c>
       <c r="F29" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -7965,19 +7964,19 @@
         <v>51</v>
       </c>
       <c r="D30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" t="s">
         <v>108</v>
       </c>
-      <c r="E30" t="s">
-        <v>109</v>
-      </c>
       <c r="F30" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -8006,649 +8005,649 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B1" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G1" t="s">
         <v>129</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>539</v>
-      </c>
-      <c r="E1" t="s">
-        <v>540</v>
-      </c>
-      <c r="F1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="H2" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="H3" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="D4" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H4" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="H5" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="F6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="F6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="H6" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="H7" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="H8" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="C9" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="E9" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>133</v>
-      </c>
       <c r="H9" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B10" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D10" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="H10" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D11" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="H11" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D12" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="H12" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="H13" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D14" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="H14" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D15" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="H15" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D16" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="H16" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="H17" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>554</v>
-      </c>
       <c r="H18" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>554</v>
-      </c>
       <c r="H19" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>555</v>
-      </c>
       <c r="D20" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="H20" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="E21" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>554</v>
-      </c>
       <c r="H21" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="F22" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>554</v>
-      </c>
       <c r="H22" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="G23" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>554</v>
-      </c>
       <c r="H23" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G24" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>555</v>
-      </c>
       <c r="H24" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>554</v>
-      </c>
       <c r="H25" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -8680,145 +8679,145 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B2" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="D2" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>143</v>
-      </c>
       <c r="E2" s="47" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C3" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>143</v>
-      </c>
       <c r="E3" s="47" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>141</v>
-      </c>
       <c r="C4" s="33" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="C5" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>142</v>
-      </c>
       <c r="D5" s="33" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="C6" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="D6" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>143</v>
-      </c>
       <c r="E6" s="47" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="33" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="E9" s="37"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="33" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="E11" s="37"/>
     </row>
@@ -8827,177 +8826,177 @@
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="E13" s="37"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="56" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="56" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="D24" s="56" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="56" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D25" s="56" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="56" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D26" s="56" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -9005,172 +9004,172 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E31" s="47" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E32" s="47" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -9182,114 +9181,114 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D46" s="47" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="43" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D49" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="43" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D50" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="43" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D51" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="43" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D52" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -9297,102 +9296,102 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="45" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D54" s="41" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E54" s="46" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F54" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="45" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C55" s="41" t="s">
+        <v>573</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>574</v>
+      </c>
+      <c r="E55" s="46" t="s">
+        <v>576</v>
+      </c>
+      <c r="F55" t="s">
         <v>579</v>
-      </c>
-      <c r="D55" s="41" t="s">
-        <v>580</v>
-      </c>
-      <c r="E55" s="46" t="s">
-        <v>582</v>
-      </c>
-      <c r="F55" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="45" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D56" s="45" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E56" s="46" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F56" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="45" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D57" s="41" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E57" s="46" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="F57" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="45" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D58" s="41" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E58" s="46" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F58" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -9405,8 +9404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316E4CD8-C7B3-4FDA-A48F-3A075489B33D}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9419,27 +9418,27 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="58" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="D1" s="59" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9798E05D-E7F1-40E8-AEF7-00BFD967987D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF214A8-94B9-418E-AA05-08226D4F867C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFIC" sheetId="1" r:id="rId1"/>
@@ -2073,9 +2073,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>HFA7214</t>
-  </si>
-  <si>
     <t>dr1</t>
   </si>
   <si>
@@ -2086,6 +2083,9 @@
   </si>
   <si>
     <t>CG5015</t>
+  </si>
+  <si>
+    <t>HFA7229</t>
   </si>
 </sst>
 </file>
@@ -3063,8 +3063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429E2D65-46FC-4E21-9DB5-EB567EC510F0}">
   <dimension ref="A1:N171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3104,7 +3104,7 @@
         <v>524</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D2" t="s">
         <v>197</v>
@@ -3125,7 +3125,7 @@
         <v>501</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K2" t="s">
         <v>527</v>
@@ -3166,7 +3166,7 @@
         <v>502</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K3" t="s">
         <v>527</v>
@@ -3207,7 +3207,7 @@
         <v>503</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K4" t="s">
         <v>527</v>
@@ -3227,13 +3227,13 @@
         <v>523</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F7" t="s">
         <v>529</v>
@@ -3259,13 +3259,13 @@
         <v>523</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F8" t="s">
         <v>529</v>
@@ -3291,13 +3291,13 @@
         <v>523</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F9" t="s">
         <v>529</v>
@@ -3329,7 +3329,7 @@
         <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F10" t="s">
         <v>529</v>
@@ -3361,7 +3361,7 @@
         <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F11" t="s">
         <v>529</v>
@@ -3390,7 +3390,7 @@
         <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F12" t="s">
         <v>529</v>
@@ -3419,7 +3419,7 @@
         <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F13" t="s">
         <v>529</v>
@@ -3448,7 +3448,7 @@
         <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F14" t="s">
         <v>529</v>
@@ -3477,7 +3477,7 @@
         <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F15" t="s">
         <v>529</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -9404,8 +9404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316E4CD8-C7B3-4FDA-A48F-3A075489B33D}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9424,7 +9424,7 @@
         <v>673</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="D1" s="59" t="s">
         <v>674</v>
@@ -9438,7 +9438,7 @@
         <v>673</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF214A8-94B9-418E-AA05-08226D4F867C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7026CC7E-A18F-47C9-BFE6-E3637270A46B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="689">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -2085,7 +2085,28 @@
     <t>CG5015</t>
   </si>
   <si>
-    <t>HFA7229</t>
+    <t>HFA7304</t>
+  </si>
+  <si>
+    <t>HFA7308</t>
+  </si>
+  <si>
+    <t>HFA7309</t>
+  </si>
+  <si>
+    <t>HFA7311</t>
+  </si>
+  <si>
+    <t>HFA7312</t>
+  </si>
+  <si>
+    <t>HFA7314</t>
+  </si>
+  <si>
+    <t>HFA7315</t>
+  </si>
+  <si>
+    <t>HFA7316</t>
   </si>
 </sst>
 </file>
@@ -2252,7 +2273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2360,7 +2381,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2650,7 +2670,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -2686,8 +2706,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2866,13 +2886,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="45.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -3069,14 +3089,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
@@ -6397,7 +6417,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -7245,21 +7265,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="36.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -7995,12 +8015,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="49.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -8658,7 +8678,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9D5C48-D696-4D79-973E-D2C676FE265C}">
-  <dimension ref="A2:F58"/>
+  <dimension ref="A2:L58"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
@@ -8666,15 +8686,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" customWidth="1"/>
-    <col min="4" max="4" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="57.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="67" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="51.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -9402,18 +9422,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316E4CD8-C7B3-4FDA-A48F-3A075489B33D}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A8" sqref="A8:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
@@ -9423,12 +9443,6 @@
       <c r="B1" s="58" t="s">
         <v>673</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>681</v>
-      </c>
-      <c r="D1" s="59" t="s">
-        <v>674</v>
-      </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
@@ -9437,8 +9451,46 @@
       <c r="B2" s="58" t="s">
         <v>673</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7026CC7E-A18F-47C9-BFE6-E3637270A46B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F3B55E-CFF3-45A8-838F-75E1A52CE93F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="692">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -2107,6 +2107,15 @@
   </si>
   <si>
     <t>HFA7316</t>
+  </si>
+  <si>
+    <t>HFA7322</t>
+  </si>
+  <si>
+    <t>HFA7323</t>
+  </si>
+  <si>
+    <t>HFA7324</t>
   </si>
 </sst>
 </file>
@@ -9425,13 +9434,14 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A10"/>
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="44.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -9443,6 +9453,12 @@
       <c r="B1" s="58" t="s">
         <v>673</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="E1" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
@@ -9452,44 +9468,46 @@
         <v>673</v>
       </c>
       <c r="C2" s="13"/>
+      <c r="E2" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>681</v>
+        <v>689</v>
+      </c>
+      <c r="E3" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>682</v>
+        <v>690</v>
+      </c>
+      <c r="E4" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>683</v>
+        <v>691</v>
+      </c>
+      <c r="E5" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>684</v>
+      <c r="E6" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>685</v>
+      <c r="E7" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E8" t="s">
         <v>688</v>
       </c>
     </row>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F3B55E-CFF3-45A8-838F-75E1A52CE93F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE9C29F-E412-4B1E-9510-5E83D6E18DFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFIC" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="684">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -1986,18 +1986,12 @@
     <t>10</t>
   </si>
   <si>
-    <t>1234567890</t>
-  </si>
-  <si>
     <t>Sagar</t>
   </si>
   <si>
     <t>10009</t>
   </si>
   <si>
-    <t>12-3456789</t>
-  </si>
-  <si>
     <t>317 drive</t>
   </si>
   <si>
@@ -2067,9 +2061,6 @@
     <t>HFIC_SuperUser</t>
   </si>
   <si>
-    <t>HFIC SMG</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -2085,37 +2076,22 @@
     <t>CG5015</t>
   </si>
   <si>
-    <t>HFA7304</t>
-  </si>
-  <si>
-    <t>HFA7308</t>
-  </si>
-  <si>
-    <t>HFA7309</t>
-  </si>
-  <si>
-    <t>HFA7311</t>
-  </si>
-  <si>
-    <t>HFA7312</t>
-  </si>
-  <si>
-    <t>HFA7314</t>
-  </si>
-  <si>
-    <t>HFA7315</t>
-  </si>
-  <si>
-    <t>HFA7316</t>
-  </si>
-  <si>
-    <t>HFA7322</t>
-  </si>
-  <si>
-    <t>HFA7323</t>
-  </si>
-  <si>
-    <t>HFA7324</t>
+    <t>2504368</t>
+  </si>
+  <si>
+    <t>10-2863071</t>
+  </si>
+  <si>
+    <t>10-2863072</t>
+  </si>
+  <si>
+    <t>HFIC SMG Application</t>
+  </si>
+  <si>
+    <t>HFA7351</t>
+  </si>
+  <si>
+    <t>srikanth1@get365.tk</t>
   </si>
 </sst>
 </file>
@@ -2282,7 +2258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2390,6 +2366,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2707,10 +2686,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA826F97-EC1C-45B8-B3B7-55F36E05E22E}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2719,9 +2698,9 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>647</v>
@@ -2730,114 +2709,117 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2847,32 +2829,32 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -3133,7 +3115,7 @@
         <v>524</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D2" t="s">
         <v>197</v>
@@ -3154,7 +3136,7 @@
         <v>501</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="K2" t="s">
         <v>527</v>
@@ -3195,7 +3177,7 @@
         <v>502</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="K3" t="s">
         <v>527</v>
@@ -3236,7 +3218,7 @@
         <v>503</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="K4" t="s">
         <v>527</v>
@@ -3256,13 +3238,13 @@
         <v>523</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F7" t="s">
         <v>529</v>
@@ -3288,13 +3270,13 @@
         <v>523</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F8" t="s">
         <v>529</v>
@@ -3320,13 +3302,13 @@
         <v>523</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F9" t="s">
         <v>529</v>
@@ -3358,7 +3340,7 @@
         <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F10" t="s">
         <v>529</v>
@@ -3390,7 +3372,7 @@
         <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F11" t="s">
         <v>529</v>
@@ -3419,7 +3401,7 @@
         <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F12" t="s">
         <v>529</v>
@@ -3448,7 +3430,7 @@
         <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F13" t="s">
         <v>529</v>
@@ -3477,7 +3459,7 @@
         <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F14" t="s">
         <v>529</v>
@@ -3506,7 +3488,7 @@
         <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F15" t="s">
         <v>529</v>
@@ -3529,7 +3511,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -8858,10 +8840,10 @@
         <v>555</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D13" s="47" t="s">
         <v>593</v>
@@ -8876,7 +8858,7 @@
         <v>555</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D14" s="47" t="s">
         <v>594</v>
@@ -8887,7 +8869,7 @@
         <v>554</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>555</v>
@@ -8901,10 +8883,10 @@
         <v>554</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D16" s="47" t="s">
         <v>599</v>
@@ -8948,13 +8930,13 @@
         <v>549</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E22" s="47" t="s">
         <v>600</v>
@@ -8962,16 +8944,16 @@
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="56" t="s">
+        <v>663</v>
+      </c>
+      <c r="B23" s="38" t="s">
         <v>665</v>
       </c>
-      <c r="B23" s="38" t="s">
-        <v>667</v>
-      </c>
       <c r="C23" s="38" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E23" s="47" t="s">
         <v>601</v>
@@ -8979,16 +8961,16 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D24" s="56" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E24" s="47" t="s">
         <v>602</v>
@@ -8996,13 +8978,13 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="56" t="s">
+        <v>663</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>666</v>
+      </c>
+      <c r="C25" s="38" t="s">
         <v>665</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>668</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>667</v>
       </c>
       <c r="D25" s="56" t="s">
         <v>549</v>
@@ -9013,16 +8995,16 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="56" t="s">
+        <v>663</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>666</v>
+      </c>
+      <c r="C26" s="38" t="s">
         <v>665</v>
       </c>
-      <c r="B26" s="38" t="s">
-        <v>668</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>667</v>
-      </c>
       <c r="D26" s="56" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E26" s="47" t="s">
         <v>604</v>
@@ -9227,7 +9209,7 @@
         <v>566</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C45" s="37" t="s">
         <v>567</v>
@@ -9244,7 +9226,7 @@
         <v>568</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D46" s="47" t="s">
         <v>618</v>
@@ -9303,7 +9285,7 @@
         <v>549</v>
       </c>
       <c r="D51" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -9400,7 +9382,7 @@
         <v>555</v>
       </c>
       <c r="F57" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -9431,10 +9413,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316E4CD8-C7B3-4FDA-A48F-3A075489B33D}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9446,73 +9428,30 @@
     <col min="6" max="6" width="44.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="58" t="s">
+        <v>670</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>673</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="E1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C2" s="13"/>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>689</v>
-      </c>
-      <c r="E3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>690</v>
-      </c>
-      <c r="E4" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>691</v>
-      </c>
-      <c r="E5" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="E11" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE9C29F-E412-4B1E-9510-5E83D6E18DFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C06AAD-6B2E-40CB-B817-CDE881B1DB50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="683">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -2089,9 +2089,6 @@
   </si>
   <si>
     <t>HFA7351</t>
-  </si>
-  <si>
-    <t>srikanth1@get365.tk</t>
   </si>
 </sst>
 </file>
@@ -2688,9 +2685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA826F97-EC1C-45B8-B3B7-55F36E05E22E}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2700,7 +2695,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>683</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>647</v>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C06AAD-6B2E-40CB-B817-CDE881B1DB50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6760CE08-20FA-47AF-A215-264DB9B8CB24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2085,10 +2085,10 @@
     <t>10-2863072</t>
   </si>
   <si>
-    <t>HFIC SMG Application</t>
-  </si>
-  <si>
     <t>HFA7351</t>
+  </si>
+  <si>
+    <t>BMC Job Check</t>
   </si>
 </sst>
 </file>
@@ -2685,7 +2685,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA826F97-EC1C-45B8-B3B7-55F36E05E22E}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2725,7 +2727,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -9445,7 +9447,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6760CE08-20FA-47AF-A215-264DB9B8CB24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBBE8C3-0DE3-40A1-873C-1081EA94BEB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="683">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -2088,7 +2088,7 @@
     <t>HFA7351</t>
   </si>
   <si>
-    <t>BMC Job Check</t>
+    <t>Internal screen Data Check Apr30</t>
   </si>
 </sst>
 </file>
@@ -2686,7 +2686,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2704,6 +2704,9 @@
       </c>
       <c r="C1" t="s">
         <v>123</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBBE8C3-0DE3-40A1-873C-1081EA94BEB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0356A7A5-95D7-4DBE-BD92-9A09178ED139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="3300" windowWidth="14400" windowHeight="6465" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFIC" sheetId="1" r:id="rId1"/>
@@ -2088,7 +2088,7 @@
     <t>HFA7351</t>
   </si>
   <si>
-    <t>Internal screen Data Check Apr30</t>
+    <t>HFIC SMG APP</t>
   </si>
 </sst>
 </file>
@@ -2686,7 +2686,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0356A7A5-95D7-4DBE-BD92-9A09178ED139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B614AB-617E-4932-A4A7-1FB439CCDA7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="3300" windowWidth="14400" windowHeight="6465" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFIC" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="709">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -2089,6 +2089,84 @@
   </si>
   <si>
     <t>HFIC SMG APP</t>
+  </si>
+  <si>
+    <t>Group information</t>
+  </si>
+  <si>
+    <t>HFIC DBA NAME</t>
+  </si>
+  <si>
+    <t>HFIC OWNER</t>
+  </si>
+  <si>
+    <t>HFIC NOB</t>
+  </si>
+  <si>
+    <t>123 DRIVE</t>
+  </si>
+  <si>
+    <t>231-231-2312</t>
+  </si>
+  <si>
+    <t>HFIC Industry  TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFIC NAICS </t>
+  </si>
+  <si>
+    <t>BA Street addr2</t>
+  </si>
+  <si>
+    <t>Additional contact</t>
+  </si>
+  <si>
+    <t>Billing addr2</t>
+  </si>
+  <si>
+    <t>Billing addr</t>
+  </si>
+  <si>
+    <t>NEW YORK</t>
+  </si>
+  <si>
+    <t>Broker GA Information</t>
+  </si>
+  <si>
+    <t>Vidhya Sagar</t>
+  </si>
+  <si>
+    <t>Representative</t>
+  </si>
+  <si>
+    <t>Group Administration</t>
+  </si>
+  <si>
+    <t>class1</t>
+  </si>
+  <si>
+    <t>class2</t>
+  </si>
+  <si>
+    <t>ins name</t>
+  </si>
+  <si>
+    <t>Health medical</t>
+  </si>
+  <si>
+    <t>New york</t>
+  </si>
+  <si>
+    <t>Mycoverage</t>
+  </si>
+  <si>
+    <t>123 Addr</t>
+  </si>
+  <si>
+    <t>234 addr</t>
+  </si>
+  <si>
+    <t>12/31/2021</t>
   </si>
 </sst>
 </file>
@@ -2683,16 +2761,19 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA826F97-EC1C-45B8-B3B7-55F36E05E22E}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2706,7 +2787,13 @@
         <v>123</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>647</v>
+        <v>699</v>
+      </c>
+      <c r="F1" t="s">
+        <v>696</v>
+      </c>
+      <c r="G1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2719,6 +2806,15 @@
       <c r="C2" s="59" t="s">
         <v>678</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="F2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2727,6 +2823,15 @@
       <c r="C3" t="s">
         <v>648</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2735,6 +2840,15 @@
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="F4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G4" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -2743,127 +2857,231 @@
       <c r="C5" t="s">
         <v>200</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>680</v>
+      <c r="E6" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>652</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>700</v>
+      </c>
+      <c r="F8" t="s">
+        <v>698</v>
+      </c>
+      <c r="G8" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>701</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>702</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>705</v>
+      </c>
+      <c r="G11" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="G12" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E13" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>654</v>
+      <c r="E14" t="s">
+        <v>704</v>
+      </c>
+      <c r="G14" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>650</v>
+      <c r="E15" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="G15" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="E16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="G17" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>703</v>
+      </c>
+      <c r="G18" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G21" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G25" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G26" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>649</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="2" t="s">
+        <v>652</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{DE45C77C-1B1D-49FC-8A06-66A0354CEE39}"/>
-    <hyperlink ref="A13" r:id="rId2" xr:uid="{8350959D-8B00-426F-95AC-F593E9AA6E5D}"/>
-    <hyperlink ref="A20" r:id="rId3" xr:uid="{81C91BD0-B456-46CE-AC45-2B544901A31A}"/>
+    <hyperlink ref="G9" r:id="rId2" xr:uid="{8350959D-8B00-426F-95AC-F593E9AA6E5D}"/>
+    <hyperlink ref="G16" r:id="rId3" xr:uid="{81C91BD0-B456-46CE-AC45-2B544901A31A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B614AB-617E-4932-A4A7-1FB439CCDA7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EA5D0C-5037-44A7-A73B-CB555D3C8FC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="708">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -2079,57 +2079,36 @@
     <t>2504368</t>
   </si>
   <si>
-    <t>10-2863071</t>
-  </si>
-  <si>
     <t>10-2863072</t>
   </si>
   <si>
     <t>HFA7351</t>
   </si>
   <si>
-    <t>HFIC SMG APP</t>
-  </si>
-  <si>
     <t>Group information</t>
   </si>
   <si>
-    <t>HFIC DBA NAME</t>
-  </si>
-  <si>
     <t>HFIC OWNER</t>
   </si>
   <si>
     <t>HFIC NOB</t>
   </si>
   <si>
-    <t>123 DRIVE</t>
-  </si>
-  <si>
     <t>231-231-2312</t>
   </si>
   <si>
     <t>HFIC Industry  TYPE</t>
   </si>
   <si>
-    <t xml:space="preserve">HFIC NAICS </t>
-  </si>
-  <si>
     <t>BA Street addr2</t>
   </si>
   <si>
     <t>Additional contact</t>
   </si>
   <si>
-    <t>Billing addr2</t>
-  </si>
-  <si>
     <t>Billing addr</t>
   </si>
   <si>
-    <t>NEW YORK</t>
-  </si>
-  <si>
     <t>Broker GA Information</t>
   </si>
   <si>
@@ -2167,6 +2146,24 @@
   </si>
   <si>
     <t>12/31/2021</t>
+  </si>
+  <si>
+    <t>HFIC SMG APP-</t>
+  </si>
+  <si>
+    <t>DBA Name</t>
+  </si>
+  <si>
+    <t>PB Address1</t>
+  </si>
+  <si>
+    <t>PB Address2</t>
+  </si>
+  <si>
+    <t>Avenel</t>
+  </si>
+  <si>
+    <t>HFIC NAI</t>
   </si>
 </sst>
 </file>
@@ -2764,7 +2761,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2774,6 +2771,7 @@
     <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2787,13 +2785,13 @@
         <v>123</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="F1" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="G1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2813,7 +2811,7 @@
         <v>123</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>680</v>
+        <v>703</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2830,12 +2828,12 @@
         <v>678</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>650</v>
+        <v>679</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>682</v>
+        <v>702</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -2846,8 +2844,8 @@
       <c r="F4" t="s">
         <v>648</v>
       </c>
-      <c r="G4" t="s">
-        <v>651</v>
+      <c r="G4" s="2" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2863,8 +2861,8 @@
       <c r="F5" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>649</v>
+      <c r="G5" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2872,14 +2870,12 @@
         <v>647</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>679</v>
-      </c>
+        <v>690</v>
+      </c>
+      <c r="G6" t="s">
+        <v>704</v>
+      </c>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E7" s="2" t="s">
@@ -2889,66 +2885,66 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>123</v>
+        <v>705</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="F8" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="G8" t="s">
-        <v>648</v>
+        <v>706</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>701</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>653</v>
+        <v>694</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>705</v>
-      </c>
-      <c r="G11" t="s">
-        <v>650</v>
+        <v>698</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E12" s="2" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="G12" t="s">
-        <v>651</v>
+        <v>685</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="G13" t="s">
         <v>707</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G14" t="s">
-        <v>655</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2956,31 +2952,31 @@
         <v>649</v>
       </c>
       <c r="G15" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>657</v>
+      <c r="G16" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E17" s="34" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="G17" t="s">
-        <v>684</v>
+        <v>654</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="G18" t="s">
-        <v>685</v>
+        <v>650</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2989,8 +2985,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="2" t="s">
-        <v>687</v>
+      <c r="G20" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2998,7 +2994,7 @@
         <v>145</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>688</v>
+        <v>649</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3006,15 +3002,15 @@
         <v>658</v>
       </c>
       <c r="G22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="G23" t="s">
-        <v>690</v>
+      <c r="G23" s="2" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3022,41 +3018,41 @@
         <v>659</v>
       </c>
       <c r="G24" t="s">
-        <v>691</v>
+        <v>655</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>660</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>692</v>
+      <c r="G25" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>651</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>652</v>
+      <c r="G26" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>694</v>
+      <c r="G27" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G28" s="2" t="s">
-        <v>693</v>
+      <c r="G28" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
-        <v>695</v>
+        <v>651</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3065,23 +3061,21 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G31" s="2" t="s">
-        <v>652</v>
+      <c r="G31" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G32" s="2" t="s">
-        <v>652</v>
+      <c r="G32" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{DE45C77C-1B1D-49FC-8A06-66A0354CEE39}"/>
-    <hyperlink ref="G9" r:id="rId2" xr:uid="{8350959D-8B00-426F-95AC-F593E9AA6E5D}"/>
-    <hyperlink ref="G16" r:id="rId3" xr:uid="{81C91BD0-B456-46CE-AC45-2B544901A31A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9668,7 +9662,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EA5D0C-5037-44A7-A73B-CB555D3C8FC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE584DF-EE73-4D52-B766-08C412EC02AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFIC" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="711">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -69,12 +69,6 @@
     <t>RESIDENTIAL EXPERIENCE</t>
   </si>
   <si>
-    <t>CG0496</t>
-  </si>
-  <si>
-    <t>ENGINEERING GROUP ASSOC P.C</t>
-  </si>
-  <si>
     <t>CG0495</t>
   </si>
   <si>
@@ -111,9 +105,6 @@
     <t>112480497</t>
   </si>
   <si>
-    <t>272346235</t>
-  </si>
-  <si>
     <t>352523812</t>
   </si>
   <si>
@@ -2164,6 +2155,24 @@
   </si>
   <si>
     <t>HFIC NAI</t>
+  </si>
+  <si>
+    <t>CG0504</t>
+  </si>
+  <si>
+    <t>CHELSEA-VILLAGE MEDICAL OFFICE</t>
+  </si>
+  <si>
+    <t>132768005</t>
+  </si>
+  <si>
+    <t>CG0489</t>
+  </si>
+  <si>
+    <t>REITER &amp; MOFFETT ASSOCIATES</t>
+  </si>
+  <si>
+    <t>823242089</t>
   </si>
 </sst>
 </file>
@@ -2330,7 +2339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2440,6 +2449,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2760,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA826F97-EC1C-45B8-B3B7-55F36E05E22E}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -2779,19 +2809,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="G1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2799,19 +2829,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2819,255 +2849,255 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F4" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G5" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E6" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G6" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E7" s="2" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F8" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="G8" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E12" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G12" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G13" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="G14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E15" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G15" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E17" s="34" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="G17" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G18" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G22" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G24" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G25" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G26" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G27" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G30" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
   </sheetData>
@@ -3083,8 +3113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9684E98A-EA7A-41F6-A6B8-842EDFAC86CC}">
   <dimension ref="A2:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3098,53 +3128,53 @@
     <col min="8" max="8" width="46" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
+    <row r="2" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>705</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>706</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>707</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="60" t="s">
+        <v>708</v>
+      </c>
+      <c r="J2" s="65" t="s">
+        <v>709</v>
+      </c>
+      <c r="K2" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="66" t="s">
+        <v>710</v>
+      </c>
+      <c r="M2" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="64" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -3153,42 +3183,42 @@
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -3197,83 +3227,83 @@
         <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
-        <v>28</v>
-      </c>
       <c r="N4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H5" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
         <v>26</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H6" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="L6" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3304,426 +3334,426 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>673</v>
+      </c>
+      <c r="D2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>486</v>
+      </c>
+      <c r="G2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="K2" t="s">
         <v>524</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>676</v>
-      </c>
-      <c r="D2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>489</v>
-      </c>
-      <c r="G2" t="s">
-        <v>427</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="K2" t="s">
-        <v>527</v>
-      </c>
       <c r="L2" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>528</v>
-      </c>
       <c r="N2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="K3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="N3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="G4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>491</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
       <c r="H4" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>503</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="K4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="N4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G7" s="34" t="s">
+        <v>501</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="J7" t="s">
+        <v>503</v>
+      </c>
+      <c r="K7" t="s">
         <v>504</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="J7" t="s">
-        <v>506</v>
-      </c>
-      <c r="K7" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F8" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K8" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F9" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="J9" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C10" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="J10" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C11" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="J11" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K11" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F12" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="J12" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K12" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F13" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="J13" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K13" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F14" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="J14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K14" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F15" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J15" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K15" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3741,16 +3771,16 @@
         <v>45012397700</v>
       </c>
       <c r="B23" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C23" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E23" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H23" s="16">
         <v>45012514500</v>
@@ -3761,16 +3791,16 @@
         <v>45012397600</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E24" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H24" s="16">
         <v>45012514400</v>
@@ -3781,16 +3811,16 @@
         <v>45012397500</v>
       </c>
       <c r="B25" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C25" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E25" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H25" s="16">
         <v>45012514300</v>
@@ -3798,16 +3828,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E26" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H26">
         <v>45012513900</v>
@@ -3818,16 +3848,16 @@
         <v>45012397300</v>
       </c>
       <c r="B27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E27" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H27">
         <v>45012513600</v>
@@ -3838,16 +3868,16 @@
         <v>45012260200</v>
       </c>
       <c r="B28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C28" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E28" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H28" s="16">
         <v>45012513800</v>
@@ -3858,16 +3888,16 @@
         <v>45012259900</v>
       </c>
       <c r="B29" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C29" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E29" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3875,16 +3905,16 @@
         <v>45012259800</v>
       </c>
       <c r="B30" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C30" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E30" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3892,16 +3922,16 @@
         <v>45012259600</v>
       </c>
       <c r="B31" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C31" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E31" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3909,16 +3939,16 @@
         <v>45012259300</v>
       </c>
       <c r="B32" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C32" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E32" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3926,16 +3956,16 @@
         <v>45012259200</v>
       </c>
       <c r="B33" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C33" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E33" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3943,16 +3973,16 @@
         <v>45012257900</v>
       </c>
       <c r="B34" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C34" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D34" s="14">
         <v>32929</v>
       </c>
       <c r="E34" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3960,16 +3990,16 @@
         <v>45012257800</v>
       </c>
       <c r="B35" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C35" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D35" s="14">
         <v>32929</v>
       </c>
       <c r="E35" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3977,16 +4007,16 @@
         <v>45012257600</v>
       </c>
       <c r="B36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C36" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D36" s="14">
         <v>32929</v>
       </c>
       <c r="E36" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3994,16 +4024,16 @@
         <v>45012257500</v>
       </c>
       <c r="B37" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C37" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D37" s="14">
         <v>32929</v>
       </c>
       <c r="E37" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4011,16 +4041,16 @@
         <v>45012244900</v>
       </c>
       <c r="B38" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C38" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D38" s="14">
         <v>32929</v>
       </c>
       <c r="E38" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4028,16 +4058,16 @@
         <v>45012244200</v>
       </c>
       <c r="B39" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C39" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D39" s="14">
         <v>32929</v>
       </c>
       <c r="E39" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4045,16 +4075,16 @@
         <v>45012242000</v>
       </c>
       <c r="B40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C40" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D40" s="14">
         <v>32929</v>
       </c>
       <c r="E40" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -4062,16 +4092,16 @@
         <v>45012240200</v>
       </c>
       <c r="B41" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C41" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D41" s="14">
         <v>32929</v>
       </c>
       <c r="E41" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4079,16 +4109,16 @@
         <v>45012239700</v>
       </c>
       <c r="B42" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C42" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D42" s="14">
         <v>32929</v>
       </c>
       <c r="E42" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -4096,16 +4126,16 @@
         <v>45012239000</v>
       </c>
       <c r="B43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C43" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D43" s="14">
         <v>32929</v>
       </c>
       <c r="E43" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4113,16 +4143,16 @@
         <v>45012238400</v>
       </c>
       <c r="B44" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C44" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D44" s="14">
         <v>32929</v>
       </c>
       <c r="E44" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -4130,16 +4160,16 @@
         <v>45012236500</v>
       </c>
       <c r="B45" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C45" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D45" s="14">
         <v>29221</v>
       </c>
       <c r="E45" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4147,16 +4177,16 @@
         <v>45012196500</v>
       </c>
       <c r="B46" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C46" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D46" s="14">
         <v>41883</v>
       </c>
       <c r="E46" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -4164,16 +4194,16 @@
         <v>45012196300</v>
       </c>
       <c r="B47" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C47" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D47" s="14">
         <v>41883</v>
       </c>
       <c r="E47" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4181,16 +4211,16 @@
         <v>45012195300</v>
       </c>
       <c r="B48" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C48" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D48" s="14">
         <v>41883</v>
       </c>
       <c r="E48" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -4198,16 +4228,16 @@
         <v>45012195100</v>
       </c>
       <c r="B49" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C49" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D49" s="14">
         <v>41883</v>
       </c>
       <c r="E49" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4215,16 +4245,16 @@
         <v>45012194900</v>
       </c>
       <c r="B50" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C50" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D50" s="14">
         <v>32752</v>
       </c>
       <c r="E50" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -4232,16 +4262,16 @@
         <v>45012194700</v>
       </c>
       <c r="B51" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C51" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D51" s="14">
         <v>32752</v>
       </c>
       <c r="E51" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -4249,16 +4279,16 @@
         <v>45012194500</v>
       </c>
       <c r="B52" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C52" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D52" s="14">
         <v>32752</v>
       </c>
       <c r="E52" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -4266,16 +4296,16 @@
         <v>45012194200</v>
       </c>
       <c r="B53" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C53" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D53" s="14">
         <v>32752</v>
       </c>
       <c r="E53" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -4283,16 +4313,16 @@
         <v>45012194000</v>
       </c>
       <c r="B54" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C54" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D54" s="14">
         <v>32752</v>
       </c>
       <c r="E54" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -4300,16 +4330,16 @@
         <v>45012195800</v>
       </c>
       <c r="B55" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C55" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D55" s="14">
         <v>41883</v>
       </c>
       <c r="E55" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -4317,16 +4347,16 @@
         <v>45012195600</v>
       </c>
       <c r="B56" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C56" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D56" s="14">
         <v>41883</v>
       </c>
       <c r="E56" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -4334,16 +4364,16 @@
         <v>45012195400</v>
       </c>
       <c r="B57" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C57" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D57" s="14">
         <v>41883</v>
       </c>
       <c r="E57" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -4351,16 +4381,16 @@
         <v>45012186000</v>
       </c>
       <c r="B58" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C58" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D58" s="14">
         <v>41883</v>
       </c>
       <c r="E58" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -4368,16 +4398,16 @@
         <v>45012185800</v>
       </c>
       <c r="B59" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C59" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D59" s="14">
         <v>32752</v>
       </c>
       <c r="E59" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -4385,16 +4415,16 @@
         <v>45012185700</v>
       </c>
       <c r="B60" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C60" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D60" s="14">
         <v>32752</v>
       </c>
       <c r="E60" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -4402,16 +4432,16 @@
         <v>45012185400</v>
       </c>
       <c r="B61" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C61" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D61" s="14">
         <v>32752</v>
       </c>
       <c r="E61" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -4419,16 +4449,16 @@
         <v>45012185200</v>
       </c>
       <c r="B62" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C62" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D62" s="14">
         <v>32752</v>
       </c>
       <c r="E62" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -4436,16 +4466,16 @@
         <v>45012185000</v>
       </c>
       <c r="B63" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C63" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D63" s="14">
         <v>41883</v>
       </c>
       <c r="E63" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -4453,16 +4483,16 @@
         <v>45012184800</v>
       </c>
       <c r="B64" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C64" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D64" s="14">
         <v>25569</v>
       </c>
       <c r="E64" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -4470,16 +4500,16 @@
         <v>45012184600</v>
       </c>
       <c r="B65" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C65" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D65" s="14">
         <v>32752</v>
       </c>
       <c r="E65" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -4487,16 +4517,16 @@
         <v>45011982200</v>
       </c>
       <c r="B66" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D66" s="14">
         <v>33058</v>
       </c>
       <c r="E66" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -4504,16 +4534,16 @@
         <v>45011982200</v>
       </c>
       <c r="B67" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C67" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D67" s="14">
         <v>33058</v>
       </c>
       <c r="E67" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -4521,16 +4551,16 @@
         <v>45011982100</v>
       </c>
       <c r="B68" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C68" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D68" s="14">
         <v>32994</v>
       </c>
       <c r="E68" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -4538,16 +4568,16 @@
         <v>45011974800</v>
       </c>
       <c r="B69" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D69" s="14">
         <v>33055</v>
       </c>
       <c r="E69" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -4555,16 +4585,16 @@
         <v>45012965900</v>
       </c>
       <c r="B70" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C70" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D70" s="14">
         <v>30903</v>
       </c>
       <c r="E70" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -4572,16 +4602,16 @@
         <v>45012939900</v>
       </c>
       <c r="B71" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D71" s="14">
         <v>33002</v>
       </c>
       <c r="E71" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -4589,16 +4619,16 @@
         <v>45012826300</v>
       </c>
       <c r="B72" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D72" s="14">
         <v>29266</v>
       </c>
       <c r="E72" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -4606,16 +4636,16 @@
         <v>45012826200</v>
       </c>
       <c r="B73" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D73" s="14">
         <v>31180</v>
       </c>
       <c r="E73" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -4623,16 +4653,16 @@
         <v>45012824200</v>
       </c>
       <c r="B74" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C74" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D74" s="14">
         <v>31180</v>
       </c>
       <c r="E74" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -4640,16 +4670,16 @@
         <v>45012822200</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D75" s="14">
         <v>29266</v>
       </c>
       <c r="E75" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -4657,16 +4687,16 @@
         <v>45012821900</v>
       </c>
       <c r="B76" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C76" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D76" s="14">
         <v>31180</v>
       </c>
       <c r="E76" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -4674,16 +4704,16 @@
         <v>45012811200</v>
       </c>
       <c r="B77" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C77" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D77" s="14">
         <v>32874</v>
       </c>
       <c r="E77" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -4691,16 +4721,16 @@
         <v>45012811300</v>
       </c>
       <c r="B78" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C78" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D78" s="14">
         <v>33239</v>
       </c>
       <c r="E78" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -4708,16 +4738,16 @@
         <v>45012811600</v>
       </c>
       <c r="B79" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C79" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D79" s="14">
         <v>29266</v>
       </c>
       <c r="E79" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -4725,16 +4755,16 @@
         <v>45012390300</v>
       </c>
       <c r="B80" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C80" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D80" s="14">
         <v>29266</v>
       </c>
       <c r="E80" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -4742,16 +4772,16 @@
         <v>45012808500</v>
       </c>
       <c r="B81" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C81" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D81" s="14">
         <v>31180</v>
       </c>
       <c r="E81" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -4759,16 +4789,16 @@
         <v>45012389400</v>
       </c>
       <c r="B82" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C82" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D82" s="14">
         <v>29266</v>
       </c>
       <c r="E82" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -4776,16 +4806,16 @@
         <v>45012807600</v>
       </c>
       <c r="B83" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C83" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D83" s="14">
         <v>31180</v>
       </c>
       <c r="E83" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -4793,16 +4823,16 @@
         <v>45012807600</v>
       </c>
       <c r="B84" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C84" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D84" s="14">
         <v>31180</v>
       </c>
       <c r="E84" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -4810,16 +4840,16 @@
         <v>45012802800</v>
       </c>
       <c r="B85" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C85" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D85" s="14">
         <v>42171</v>
       </c>
       <c r="E85" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -4827,16 +4857,16 @@
         <v>45012801100</v>
       </c>
       <c r="B86" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C86" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D86" s="14">
         <v>31545</v>
       </c>
       <c r="E86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -4844,16 +4874,16 @@
         <v>45012787000</v>
       </c>
       <c r="B87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C87" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D87" s="14">
         <v>33124</v>
       </c>
       <c r="E87" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -4861,16 +4891,16 @@
         <v>45012785800</v>
       </c>
       <c r="B88" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C88" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D88" s="14">
         <v>32991</v>
       </c>
       <c r="E88" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -4878,16 +4908,16 @@
         <v>45012786300</v>
       </c>
       <c r="B89" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C89" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D89" s="14">
         <v>33063</v>
       </c>
       <c r="E89" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -4895,16 +4925,16 @@
         <v>45012785900</v>
       </c>
       <c r="B90" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C90" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D90" s="14">
         <v>33142</v>
       </c>
       <c r="E90" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -4912,16 +4942,16 @@
         <v>45012760300</v>
       </c>
       <c r="B91" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C91" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D91" s="14">
         <v>32668</v>
       </c>
       <c r="E91" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -4929,16 +4959,16 @@
         <v>45012730600</v>
       </c>
       <c r="B92" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D92" s="14">
         <v>33094</v>
       </c>
       <c r="E92" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -4946,16 +4976,16 @@
         <v>45012691000</v>
       </c>
       <c r="B93" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C93" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D93" s="14">
         <v>33033</v>
       </c>
       <c r="E93" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -4963,16 +4993,16 @@
         <v>45012595400</v>
       </c>
       <c r="B94" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C94" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D94" s="14">
         <v>29664</v>
       </c>
       <c r="E94" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -4980,16 +5010,16 @@
         <v>45012595300</v>
       </c>
       <c r="B95" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C95" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D95" s="14">
         <v>31686</v>
       </c>
       <c r="E95" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -4997,16 +5027,16 @@
         <v>45012593000</v>
       </c>
       <c r="B96" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C96" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D96" s="14">
         <v>32412</v>
       </c>
       <c r="E96" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -5014,16 +5044,16 @@
         <v>45012405100</v>
       </c>
       <c r="B97" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C97" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D97" s="14">
         <v>31048</v>
       </c>
       <c r="E97" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -5031,16 +5061,16 @@
         <v>45012104900</v>
       </c>
       <c r="B98" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C98" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D98" s="14">
         <v>32607</v>
       </c>
       <c r="E98" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -5048,16 +5078,16 @@
         <v>45011901000</v>
       </c>
       <c r="B99" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C99" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D99" s="14">
         <v>32143</v>
       </c>
       <c r="E99" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -5065,16 +5095,16 @@
         <v>45011900900</v>
       </c>
       <c r="B100" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C100" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D100" s="14">
         <v>32143</v>
       </c>
       <c r="E100" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -5082,16 +5112,16 @@
         <v>45011900500</v>
       </c>
       <c r="B101" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C101" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D101" s="14">
         <v>29249</v>
       </c>
       <c r="E101" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -5099,16 +5129,16 @@
         <v>45011900400</v>
       </c>
       <c r="B102" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C102" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D102" s="14">
         <v>29246</v>
       </c>
       <c r="E102" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -5116,16 +5146,16 @@
         <v>45011900200</v>
       </c>
       <c r="B103" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C103" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D103" s="14">
         <v>29240</v>
       </c>
       <c r="E103" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -5133,16 +5163,16 @@
         <v>45011899900</v>
       </c>
       <c r="B104" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C104" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D104" s="14">
         <v>29231</v>
       </c>
       <c r="E104" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -5150,16 +5180,16 @@
         <v>45011899500</v>
       </c>
       <c r="B105" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C105" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D105" s="14">
         <v>29248</v>
       </c>
       <c r="E105" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -5167,16 +5197,16 @@
         <v>45011899400</v>
       </c>
       <c r="B106" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C106" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D106" s="14">
         <v>29239</v>
       </c>
       <c r="E106" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -5184,16 +5214,16 @@
         <v>45011899300</v>
       </c>
       <c r="B107" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C107" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D107" s="14">
         <v>29230</v>
       </c>
       <c r="E107" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -5201,16 +5231,16 @@
         <v>45011899200</v>
       </c>
       <c r="B108" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C108" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D108" s="14">
         <v>29221</v>
       </c>
       <c r="E108" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -5218,16 +5248,16 @@
         <v>45011854500</v>
       </c>
       <c r="B109" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C109" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D109" s="14">
         <v>27912</v>
       </c>
       <c r="E109" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -5235,16 +5265,16 @@
         <v>45012645800</v>
       </c>
       <c r="B110" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C110" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D110" s="14">
         <v>35097</v>
       </c>
       <c r="E110" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -5252,16 +5282,16 @@
         <v>45012295000</v>
       </c>
       <c r="B111" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C111" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D111" s="14">
         <v>34049</v>
       </c>
       <c r="E111" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -5269,16 +5299,16 @@
         <v>45012293400</v>
       </c>
       <c r="B112" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C112" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D112" s="14">
         <v>29952</v>
       </c>
       <c r="E112" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -5286,16 +5316,16 @@
         <v>45012293100</v>
       </c>
       <c r="B113" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C113" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D113" s="14">
         <v>29221</v>
       </c>
       <c r="E113" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -5303,16 +5333,16 @@
         <v>45012599400</v>
       </c>
       <c r="B114" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C114" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D114" s="14">
         <v>33318</v>
       </c>
       <c r="E114" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -5320,16 +5350,16 @@
         <v>45012597100</v>
       </c>
       <c r="B115" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C115" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D115" s="14">
         <v>32340</v>
       </c>
       <c r="E115" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -5337,16 +5367,16 @@
         <v>45012414900</v>
       </c>
       <c r="B116" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C116" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D116" s="14">
         <v>32340</v>
       </c>
       <c r="E116" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -5354,16 +5384,16 @@
         <v>45012365700</v>
       </c>
       <c r="B117" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C117" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D117" s="14">
         <v>28911</v>
       </c>
       <c r="E117" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -5371,16 +5401,16 @@
         <v>45012231200</v>
       </c>
       <c r="B118" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C118" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D118" s="14">
         <v>28911</v>
       </c>
       <c r="E118" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -5388,16 +5418,16 @@
         <v>45012155100</v>
       </c>
       <c r="B119" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C119" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D119" s="14">
         <v>30136</v>
       </c>
       <c r="E119" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -5405,16 +5435,16 @@
         <v>45012154600</v>
       </c>
       <c r="B120" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C120" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D120" s="14">
         <v>33027</v>
       </c>
       <c r="E120" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -5422,16 +5452,16 @@
         <v>45012088200</v>
       </c>
       <c r="B121" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C121" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D121" s="14">
         <v>33027</v>
       </c>
       <c r="E121" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -5439,16 +5469,16 @@
         <v>45012084700</v>
       </c>
       <c r="B122" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C122" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D122" s="14">
         <v>25204</v>
       </c>
       <c r="E122" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -5456,16 +5486,16 @@
         <v>45011955700</v>
       </c>
       <c r="B123" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C123" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D123" s="14">
         <v>33318</v>
       </c>
       <c r="E123" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -5473,16 +5503,16 @@
         <v>45011878300</v>
       </c>
       <c r="B124" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C124" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D124" s="14">
         <v>30410</v>
       </c>
       <c r="E124" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -5490,16 +5520,16 @@
         <v>45011862500</v>
       </c>
       <c r="B125" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C125" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D125" s="14">
         <v>31569</v>
       </c>
       <c r="E125" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -5507,16 +5537,16 @@
         <v>45011860000</v>
       </c>
       <c r="B126" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C126" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D126" s="14">
         <v>32094</v>
       </c>
       <c r="E126" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -5524,16 +5554,16 @@
         <v>45011858500</v>
       </c>
       <c r="B127" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C127" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D127" s="14">
         <v>29984</v>
       </c>
       <c r="E127" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -5541,16 +5571,16 @@
         <v>45011857400</v>
       </c>
       <c r="B128" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C128" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D128" s="14">
         <v>30776</v>
       </c>
       <c r="E128" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -5558,16 +5588,16 @@
         <v>45011858000</v>
       </c>
       <c r="B129" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C129" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D129" s="14">
         <v>30378</v>
       </c>
       <c r="E129" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -5575,16 +5605,16 @@
         <v>45011847900</v>
       </c>
       <c r="B130" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C130" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D130" s="14">
         <v>30146</v>
       </c>
       <c r="E130" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -5592,16 +5622,16 @@
         <v>45012156200</v>
       </c>
       <c r="B131" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C131" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D131" s="14">
         <v>32340</v>
       </c>
       <c r="E131" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -5609,16 +5639,16 @@
         <v>45012138000</v>
       </c>
       <c r="B132" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C132" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D132" s="14">
         <v>25818</v>
       </c>
       <c r="E132" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -5626,16 +5656,16 @@
         <v>45011974600</v>
       </c>
       <c r="B133" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C133" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D133" s="14">
         <v>32340</v>
       </c>
       <c r="E133" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -5643,16 +5673,16 @@
         <v>45011856500</v>
       </c>
       <c r="B134" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C134" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D134" s="14">
         <v>29221</v>
       </c>
       <c r="E134" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -5660,16 +5690,16 @@
         <v>45011518700</v>
       </c>
       <c r="B135" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C135" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D135" s="14">
         <v>25569</v>
       </c>
       <c r="E135" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -5677,16 +5707,16 @@
         <v>45011518400</v>
       </c>
       <c r="B136" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C136" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D136" s="14">
         <v>29473</v>
       </c>
       <c r="E136" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -5694,16 +5724,16 @@
         <v>45011494800</v>
       </c>
       <c r="B137" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C137" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D137" s="14">
         <v>32661</v>
       </c>
       <c r="E137" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -5711,16 +5741,16 @@
         <v>45011726400</v>
       </c>
       <c r="B138" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C138" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D138" s="14">
         <v>28911</v>
       </c>
       <c r="E138" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -5728,16 +5758,16 @@
         <v>45011725900</v>
       </c>
       <c r="B139" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C139" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D139" s="14">
         <v>31974</v>
       </c>
       <c r="E139" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -5745,16 +5775,16 @@
         <v>45011725800</v>
       </c>
       <c r="B140" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C140" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D140" s="14">
         <v>32340</v>
       </c>
       <c r="E140" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -5762,16 +5792,16 @@
         <v>45011723400</v>
       </c>
       <c r="B141" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C141" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D141" s="14">
         <v>20086</v>
       </c>
       <c r="E141" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -5779,16 +5809,16 @@
         <v>45011723400</v>
       </c>
       <c r="B142" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C142" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D142" s="14">
         <v>29867</v>
       </c>
       <c r="E142" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -5796,16 +5826,16 @@
         <v>45011723000</v>
       </c>
       <c r="B143" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C143" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D143" s="14">
         <v>29502</v>
       </c>
       <c r="E143" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -5813,16 +5843,16 @@
         <v>45011719500</v>
       </c>
       <c r="B144" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C144" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D144" s="14">
         <v>25204</v>
       </c>
       <c r="E144" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -5830,16 +5860,16 @@
         <v>45011713900</v>
       </c>
       <c r="B145" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C145" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D145" s="14">
         <v>31173</v>
       </c>
       <c r="E145" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -5847,16 +5877,16 @@
         <v>45011713600</v>
       </c>
       <c r="B146" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C146" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D146" s="14">
         <v>31172</v>
       </c>
       <c r="E146" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -5864,16 +5894,16 @@
         <v>45011742300</v>
       </c>
       <c r="B147" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C147" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D147" s="14">
         <v>34478</v>
       </c>
       <c r="E147" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -5881,16 +5911,16 @@
         <v>45011740000</v>
       </c>
       <c r="B148" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C148" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D148" s="14">
         <v>34395</v>
       </c>
       <c r="E148" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -5898,16 +5928,16 @@
         <v>45011615200</v>
       </c>
       <c r="B149" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C149" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D149" s="14">
         <v>34680</v>
       </c>
       <c r="E149" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -5915,16 +5945,16 @@
         <v>45011610600</v>
       </c>
       <c r="B150" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C150" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D150" s="14">
         <v>34010</v>
       </c>
       <c r="E150" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -5932,16 +5962,16 @@
         <v>45011398200</v>
       </c>
       <c r="B151" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C151" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D151" s="14">
         <v>32454</v>
       </c>
       <c r="E151" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -5949,16 +5979,16 @@
         <v>45011394600</v>
       </c>
       <c r="B152" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C152" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D152" s="14">
         <v>33850</v>
       </c>
       <c r="E152" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -5966,16 +5996,16 @@
         <v>45011387300</v>
       </c>
       <c r="B153" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C153" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D153" s="14">
         <v>23925</v>
       </c>
       <c r="E153" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -5983,16 +6013,16 @@
         <v>45011273000</v>
       </c>
       <c r="B154" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C154" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D154" s="14">
         <v>25146</v>
       </c>
       <c r="E154" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -6000,16 +6030,16 @@
         <v>45011176300</v>
       </c>
       <c r="B155" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C155" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D155" s="14">
         <v>30579</v>
       </c>
       <c r="E155" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -6017,16 +6047,16 @@
         <v>45011176100</v>
       </c>
       <c r="B156" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C156" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D156" s="14">
         <v>32818</v>
       </c>
       <c r="E156" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -6034,16 +6064,16 @@
         <v>45011175900</v>
       </c>
       <c r="B157" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C157" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D157" s="14">
         <v>33309</v>
       </c>
       <c r="E157" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -6051,16 +6081,16 @@
         <v>45011175300</v>
       </c>
       <c r="B158" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C158" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D158" s="14">
         <v>31248</v>
       </c>
       <c r="E158" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -6068,16 +6098,16 @@
         <v>45011175200</v>
       </c>
       <c r="B159" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C159" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D159" s="14">
         <v>32717</v>
       </c>
       <c r="E159" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -6085,16 +6115,16 @@
         <v>45011742300</v>
       </c>
       <c r="B160" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C160" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D160" s="14">
         <v>34478</v>
       </c>
       <c r="E160" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -6102,16 +6132,16 @@
         <v>45011740000</v>
       </c>
       <c r="B161" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C161" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D161" s="14">
         <v>34395</v>
       </c>
       <c r="E161" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -6119,16 +6149,16 @@
         <v>45011615200</v>
       </c>
       <c r="B162" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C162" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D162" s="14">
         <v>34680</v>
       </c>
       <c r="E162" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -6136,16 +6166,16 @@
         <v>45011610600</v>
       </c>
       <c r="B163" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C163" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D163" s="14">
         <v>34010</v>
       </c>
       <c r="E163" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -6153,16 +6183,16 @@
         <v>45011398200</v>
       </c>
       <c r="B164" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C164" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D164" s="14">
         <v>32454</v>
       </c>
       <c r="E164" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -6170,16 +6200,16 @@
         <v>45011394600</v>
       </c>
       <c r="B165" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C165" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D165" s="14">
         <v>33850</v>
       </c>
       <c r="E165" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -6187,16 +6217,16 @@
         <v>45011387300</v>
       </c>
       <c r="B166" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C166" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D166" s="14">
         <v>23925</v>
       </c>
       <c r="E166" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -6204,16 +6234,16 @@
         <v>45011273000</v>
       </c>
       <c r="B167" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C167" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D167" s="14">
         <v>25146</v>
       </c>
       <c r="E167" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -6221,16 +6251,16 @@
         <v>45011176300</v>
       </c>
       <c r="B168" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C168" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D168" s="14">
         <v>30579</v>
       </c>
       <c r="E168" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -6238,16 +6268,16 @@
         <v>45011176100</v>
       </c>
       <c r="B169" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C169" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D169" s="14">
         <v>32818</v>
       </c>
       <c r="E169" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -6255,16 +6285,16 @@
         <v>45011175900</v>
       </c>
       <c r="B170" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C170" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D170" s="14">
         <v>33309</v>
       </c>
       <c r="E170" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -6272,16 +6302,16 @@
         <v>45011175300</v>
       </c>
       <c r="B171" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C171" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D171" s="14">
         <v>31248</v>
       </c>
       <c r="E171" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -6302,307 +6332,307 @@
   <sheetData>
     <row r="2" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="16" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H30" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="32" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H32" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H35" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H36" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H37" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H38" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H39" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H43" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H44" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H45" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H46" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="47" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H47" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="48" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H48" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H49" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H50" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H51" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H53" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H54" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H55" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H56" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H57" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H58" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H59" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="60" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H60" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="61" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H61" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="62" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H62" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -6625,7 +6655,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -6633,10 +6663,10 @@
         <v>45012492500</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
@@ -6644,13 +6674,13 @@
         <v>45012491700</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="17" t="s">
         <v>136</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -6658,13 +6688,13 @@
         <v>45012491000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -6672,13 +6702,13 @@
         <v>45012397700</v>
       </c>
       <c r="H5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -6686,13 +6716,13 @@
         <v>45012397600</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -6700,10 +6730,10 @@
         <v>45012397500</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M7" s="16"/>
     </row>
@@ -6712,10 +6742,10 @@
         <v>45012397400</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M8" s="16"/>
     </row>
@@ -7487,119 +7517,119 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E1" s="50" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L1" s="27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N1" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O1" s="30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P1" s="31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R1" s="30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P2" s="31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -7608,54 +7638,54 @@
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N3" s="30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O3" s="30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P3" s="26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R3" s="30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -7664,168 +7694,168 @@
         <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N4" s="32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R4" s="32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="8"/>
       <c r="I5" s="6"/>
       <c r="J5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N5" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P5" s="27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G6"/>
       <c r="J6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L6" s="28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O6" s="29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P6" s="27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q6" s="27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R6" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G7"/>
       <c r="M7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O7" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P7" s="26" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G8"/>
       <c r="M8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N8" s="32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O8" s="32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P8" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q8" s="28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R8" s="32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -7843,217 +7873,217 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G12"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
         <v>59</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
         <v>60</v>
       </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" t="s">
-        <v>63</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F16" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>91</v>
-      </c>
       <c r="H16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -8064,142 +8094,142 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="F23" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D23" t="s">
+      <c r="G23" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E23" t="s">
-        <v>120</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>122</v>
-      </c>
       <c r="H23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
         <v>59</v>
       </c>
-      <c r="C26" t="s">
+      <c r="F26" t="s">
         <v>60</v>
       </c>
-      <c r="D26" t="s">
+      <c r="H26" t="s">
         <v>61</v>
-      </c>
-      <c r="E26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -8228,649 +8258,649 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="E1" t="s">
         <v>531</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>532</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="E1" t="s">
-        <v>534</v>
-      </c>
-      <c r="F1" t="s">
-        <v>535</v>
-      </c>
       <c r="G1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" t="s">
         <v>127</v>
       </c>
-      <c r="F2" t="s">
-        <v>130</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>549</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" t="s">
         <v>127</v>
       </c>
-      <c r="F3" t="s">
-        <v>130</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H3" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="D4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>549</v>
-      </c>
-      <c r="D4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" t="s">
         <v>127</v>
       </c>
-      <c r="F4" t="s">
-        <v>130</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>549</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" t="s">
         <v>127</v>
       </c>
-      <c r="F5" t="s">
-        <v>130</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H6" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F7" s="18" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" t="s">
         <v>127</v>
       </c>
-      <c r="F8" t="s">
-        <v>130</v>
-      </c>
       <c r="G8" s="18" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H8" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="35" t="s">
+      <c r="F9" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="F9" s="36" t="s">
-        <v>130</v>
-      </c>
       <c r="G9" s="35" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H9" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B10" t="s">
+        <v>533</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D10" t="s">
+        <v>534</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D10" t="s">
-        <v>537</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>539</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H10" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D11" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H11" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
+        <v>533</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="D12" t="s">
+        <v>534</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>549</v>
-      </c>
-      <c r="D12" t="s">
-        <v>537</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>539</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H12" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
+        <v>533</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>549</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>539</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H13" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D14" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H14" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
+        <v>533</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D15" t="s">
+        <v>534</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D15" t="s">
-        <v>537</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>539</v>
-      </c>
       <c r="F15" s="18" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H15" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s">
+        <v>533</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D16" t="s">
+        <v>534</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D16" t="s">
-        <v>537</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>539</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H16" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B17" s="36" t="s">
+        <v>533</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>537</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>534</v>
+      </c>
+      <c r="E17" s="35" t="s">
         <v>536</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>540</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>537</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>539</v>
-      </c>
       <c r="F17" s="35" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H17" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>548</v>
-      </c>
       <c r="H18" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>549</v>
-      </c>
       <c r="C19" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>548</v>
-      </c>
       <c r="H19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>549</v>
-      </c>
       <c r="D20" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>548</v>
-      </c>
       <c r="H20" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="E21" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>549</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>548</v>
-      </c>
       <c r="H21" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="F22" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>549</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>548</v>
-      </c>
       <c r="H22" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>549</v>
-      </c>
       <c r="G23" s="9" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H23" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="G24" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>549</v>
-      </c>
       <c r="H24" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>548</v>
-      </c>
       <c r="H25" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -8902,145 +8932,145 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>546</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>549</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>142</v>
-      </c>
       <c r="E3" s="47" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>546</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>549</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>142</v>
-      </c>
       <c r="E4" s="47" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>142</v>
-      </c>
       <c r="E6" s="47" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="33" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E9" s="37"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
+        <v>547</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>550</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>553</v>
-      </c>
       <c r="C10" s="37" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="33" t="s">
+        <v>547</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>550</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>553</v>
-      </c>
       <c r="C11" s="44" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E11" s="37"/>
     </row>
@@ -9049,177 +9079,177 @@
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E13" s="37"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="56" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="56" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56" t="s">
+        <v>660</v>
+      </c>
+      <c r="B24" s="38" t="s">
         <v>663</v>
       </c>
-      <c r="B24" s="38" t="s">
-        <v>666</v>
-      </c>
       <c r="C24" s="38" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D24" s="56" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="56" t="s">
+        <v>660</v>
+      </c>
+      <c r="B25" s="38" t="s">
         <v>663</v>
       </c>
-      <c r="B25" s="38" t="s">
-        <v>666</v>
-      </c>
       <c r="C25" s="38" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D25" s="56" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="56" t="s">
+        <v>660</v>
+      </c>
+      <c r="B26" s="38" t="s">
         <v>663</v>
       </c>
-      <c r="B26" s="38" t="s">
-        <v>666</v>
-      </c>
       <c r="C26" s="38" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D26" s="56" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -9227,172 +9257,172 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
+        <v>555</v>
+      </c>
+      <c r="B30" s="23" t="s">
         <v>558</v>
       </c>
-      <c r="B30" s="23" t="s">
-        <v>561</v>
-      </c>
       <c r="C30" s="5" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E31" s="47" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
+        <v>555</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>561</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E32" s="47" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
+        <v>555</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>561</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>546</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>561</v>
+      </c>
+      <c r="D37" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="B37" s="33" t="s">
-        <v>549</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>564</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>565</v>
-      </c>
       <c r="E37" s="47" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>560</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>546</v>
+      </c>
+      <c r="D38" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="B38" s="37" t="s">
-        <v>563</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>549</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>565</v>
-      </c>
       <c r="E38" s="47" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>560</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>561</v>
+      </c>
+      <c r="D40" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="B40" s="37" t="s">
-        <v>563</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>564</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>565</v>
-      </c>
       <c r="E40" s="47" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -9404,114 +9434,114 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D46" s="47" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="43" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D49" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="43" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D50" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="43" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D51" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="43" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D52" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -9519,102 +9549,102 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="45" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B54" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>570</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>571</v>
+      </c>
+      <c r="E54" s="46" t="s">
+        <v>573</v>
+      </c>
+      <c r="F54" t="s">
         <v>575</v>
-      </c>
-      <c r="C54" s="41" t="s">
-        <v>573</v>
-      </c>
-      <c r="D54" s="41" t="s">
-        <v>574</v>
-      </c>
-      <c r="E54" s="46" t="s">
-        <v>576</v>
-      </c>
-      <c r="F54" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="45" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C55" s="41" t="s">
+        <v>570</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>571</v>
+      </c>
+      <c r="E55" s="46" t="s">
         <v>573</v>
       </c>
-      <c r="D55" s="41" t="s">
-        <v>574</v>
-      </c>
-      <c r="E55" s="46" t="s">
+      <c r="F55" t="s">
         <v>576</v>
-      </c>
-      <c r="F55" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="45" t="s">
+        <v>569</v>
+      </c>
+      <c r="B56" s="38" t="s">
         <v>572</v>
       </c>
-      <c r="B56" s="38" t="s">
-        <v>575</v>
-      </c>
       <c r="C56" s="41" t="s">
+        <v>570</v>
+      </c>
+      <c r="D56" s="45" t="s">
+        <v>546</v>
+      </c>
+      <c r="E56" s="46" t="s">
         <v>573</v>
       </c>
-      <c r="D56" s="45" t="s">
-        <v>549</v>
-      </c>
-      <c r="E56" s="46" t="s">
-        <v>576</v>
-      </c>
       <c r="F56" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="45" t="s">
+        <v>569</v>
+      </c>
+      <c r="B57" s="38" t="s">
         <v>572</v>
       </c>
-      <c r="B57" s="38" t="s">
-        <v>575</v>
-      </c>
       <c r="C57" s="41" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D57" s="41" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E57" s="46" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F57" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="45" t="s">
+        <v>569</v>
+      </c>
+      <c r="B58" s="38" t="s">
         <v>572</v>
       </c>
-      <c r="B58" s="38" t="s">
-        <v>575</v>
-      </c>
       <c r="C58" s="41" t="s">
+        <v>570</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>571</v>
+      </c>
+      <c r="E58" s="46" t="s">
         <v>573</v>
       </c>
-      <c r="D58" s="41" t="s">
+      <c r="F58" t="s">
         <v>574</v>
-      </c>
-      <c r="E58" s="46" t="s">
-        <v>576</v>
-      </c>
-      <c r="F58" t="s">
-        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -9642,27 +9672,27 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="58" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE584DF-EE73-4D52-B766-08C412EC02AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E5FD5F-1E0E-4D40-AE62-5648BA4B4981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="712">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -2166,13 +2166,16 @@
     <t>132768005</t>
   </si>
   <si>
-    <t>CG0489</t>
-  </si>
-  <si>
-    <t>REITER &amp; MOFFETT ASSOCIATES</t>
-  </si>
-  <si>
-    <t>823242089</t>
+    <t>CG0890</t>
+  </si>
+  <si>
+    <t>POLTEAM, INC</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>464851771</t>
   </si>
 </sst>
 </file>
@@ -2339,7 +2342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2465,12 +2468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3114,7 +3112,7 @@
   <dimension ref="A2:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3153,17 +3151,17 @@
       <c r="H2" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="K2" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="66" t="s">
+      <c r="K2" s="65" t="s">
         <v>710</v>
+      </c>
+      <c r="L2" s="65" t="s">
+        <v>711</v>
       </c>
       <c r="M2" s="64" t="s">
         <v>25</v>
@@ -3307,8 +3305,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" display="https://pegaenbst.healthfirst.org/prweb/sso/app/Enrollment/mF5tFsSvGP6jJsjDtdUGJDsWTvp8ZK0W*/!STANDARD?pyActivity=%40baseclass.doUIAction&amp;isSDM=true&amp;action=openAssignment&amp;portalName=HFICHealthFirstManager&amp;portalThreadName=STANDARD&amp;tabIndex=1&amp;api=openAssignment&amp;SkipConflictCheck=true&amp;key=ASSIGN-WORKLIST%20HF-PRODUCT-ENROLL-WORK-MAINT%20HCR-24106!INITIATE_FLOW&amp;contentID=4f2d390d-df5d-0113-112a-1647e9ea683f&amp;dynamicContainerID=fdd41522-f5d1-41ca-9756-e5696f2d7ba0&amp;pzHarnessID=HIDB9D40BB1F16EED5DFC82BBEC7C7C8D24" xr:uid="{F31C0B18-C0B4-414A-A974-FA92306678FC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,24 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E5FD5F-1E0E-4D40-AE62-5648BA4B4981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E44A31-992B-4EA2-8EF2-27036295B825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFIC" sheetId="1" r:id="rId1"/>
     <sheet name="CR" sheetId="2" r:id="rId2"/>
-    <sheet name="HSA" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
-    <sheet name="Enroll360" sheetId="4" r:id="rId6"/>
-    <sheet name="Search" sheetId="5" r:id="rId7"/>
-    <sheet name="Task" sheetId="8" r:id="rId8"/>
-    <sheet name="Pega" sheetId="10" r:id="rId9"/>
-    <sheet name="Login" sheetId="9" r:id="rId10"/>
+    <sheet name="HSA2" sheetId="3" r:id="rId3"/>
+    <sheet name="HSA" sheetId="11" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Enroll360" sheetId="4" r:id="rId7"/>
+    <sheet name="Search" sheetId="5" r:id="rId8"/>
+    <sheet name="Task" sheetId="8" r:id="rId9"/>
+    <sheet name="Pega" sheetId="10" r:id="rId10"/>
+    <sheet name="Login" sheetId="9" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">HSA!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'HSA2'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="749">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -2176,6 +2177,117 @@
   </si>
   <si>
     <t>464851771</t>
+  </si>
+  <si>
+    <t>CG4803</t>
+  </si>
+  <si>
+    <t>CG4804</t>
+  </si>
+  <si>
+    <t>INITIAL ENROLLMENT29</t>
+  </si>
+  <si>
+    <t>TESTINGGTMC1JULY10244</t>
+  </si>
+  <si>
+    <t>934898324</t>
+  </si>
+  <si>
+    <t>666705335</t>
+  </si>
+  <si>
+    <t>contact person</t>
+  </si>
+  <si>
+    <t>My test</t>
+  </si>
+  <si>
+    <t>addr1</t>
+  </si>
+  <si>
+    <t>123 drive</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>addr2</t>
+  </si>
+  <si>
+    <t>10007</t>
+  </si>
+  <si>
+    <t>234 drive</t>
+  </si>
+  <si>
+    <t>p no</t>
+  </si>
+  <si>
+    <t>6785673456</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>johna@sal.com</t>
+  </si>
+  <si>
+    <t>ssn</t>
+  </si>
+  <si>
+    <t>01/01/1980</t>
+  </si>
+  <si>
+    <t>678678675</t>
+  </si>
+  <si>
+    <t>sand creek road</t>
+  </si>
+  <si>
+    <t>albany</t>
+  </si>
+  <si>
+    <t>sand creek road 1</t>
+  </si>
+  <si>
+    <t>Dob</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>FNSTDATA132</t>
+  </si>
+  <si>
+    <t>LNSTDATA132</t>
+  </si>
+  <si>
+    <t>FNSTDATA133</t>
+  </si>
+  <si>
+    <t>LNSTDATA133</t>
+  </si>
+  <si>
+    <t>FNSTDATA122</t>
+  </si>
+  <si>
+    <t>LNSTDATA122</t>
+  </si>
+  <si>
+    <t>45012272900</t>
+  </si>
+  <si>
+    <t>45012272901</t>
+  </si>
+  <si>
+    <t>45012273100</t>
   </si>
 </sst>
 </file>
@@ -2342,7 +2454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2469,6 +2581,14 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2785,6 +2905,54 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316E4CD8-C7B3-4FDA-A48F-3A075489B33D}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
+        <v>667</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>668</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
+        <v>669</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>668</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA826F97-EC1C-45B8-B3B7-55F36E05E22E}">
   <dimension ref="A1:J32"/>
   <sheetViews>
@@ -3111,7 +3279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9684E98A-EA7A-41F6-A6B8-842EDFAC86CC}">
   <dimension ref="A2:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -3317,8 +3485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429E2D65-46FC-4E21-9DB5-EB567EC510F0}">
   <dimension ref="A1:N171"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6322,6 +6490,248 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D5A1CF-BA19-4796-942B-917A8C03BCDE}">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="69" t="s">
+        <v>746</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>740</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>741</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>737</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>732</v>
+      </c>
+      <c r="K1" s="67"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69" t="s">
+        <v>747</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>742</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>743</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>731</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="K2" s="67"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="69" t="s">
+        <v>748</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>744</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>745</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>720</v>
+      </c>
+      <c r="E3" t="s">
+        <v>734</v>
+      </c>
+      <c r="K3" s="67"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="65"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="E4" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="65"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="37" t="s">
+        <v>723</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>724</v>
+      </c>
+      <c r="E6" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="65" t="s">
+        <v>712</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>718</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>719</v>
+      </c>
+      <c r="J7" s="69" t="s">
+        <v>746</v>
+      </c>
+      <c r="K7" s="67" t="s">
+        <v>740</v>
+      </c>
+      <c r="L7" s="67" t="s">
+        <v>741</v>
+      </c>
+      <c r="M7" s="68">
+        <v>33147</v>
+      </c>
+      <c r="N7" s="67" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="65" t="s">
+        <v>712</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>720</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>721</v>
+      </c>
+      <c r="J8" s="69" t="s">
+        <v>747</v>
+      </c>
+      <c r="K8" s="67" t="s">
+        <v>742</v>
+      </c>
+      <c r="L8" s="67" t="s">
+        <v>743</v>
+      </c>
+      <c r="M8" s="68">
+        <v>34284</v>
+      </c>
+      <c r="N8" s="67" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="65" t="s">
+        <v>713</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>648</v>
+      </c>
+      <c r="J9" s="69" t="s">
+        <v>748</v>
+      </c>
+      <c r="K9" s="67" t="s">
+        <v>744</v>
+      </c>
+      <c r="L9" s="67" t="s">
+        <v>745</v>
+      </c>
+      <c r="M9" s="68">
+        <v>33147</v>
+      </c>
+      <c r="N9" s="67" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D10" s="37" t="s">
+        <v>723</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D11" s="37" t="s">
+        <v>724</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="37" t="s">
+        <v>727</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D13" s="37" t="s">
+        <v>729</v>
+      </c>
+      <c r="E13" s="66" t="s">
+        <v>730</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E13" r:id="rId1" xr:uid="{6F611D6C-DF95-4039-9611-00C168148AF4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CAEB3A-3E56-44FA-8016-DEE580F527BC}">
   <dimension ref="H2:H62"/>
   <sheetViews>
@@ -6641,7 +7051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FE690F-DDFD-4144-88FC-DE8D1B169890}">
   <dimension ref="A1:M153"/>
   <sheetViews>
@@ -7489,7 +7899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06FC4A3-CF87-4C6E-8D77-7DC31AD6245D}">
   <dimension ref="A1:R30"/>
   <sheetViews>
@@ -8239,7 +8649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2973B0-CDDC-449E-8E3C-85328113B7FE}">
   <dimension ref="A1:H25"/>
   <sheetViews>
@@ -8910,7 +9320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9D5C48-D696-4D79-973E-D2C676FE265C}">
   <dimension ref="A2:L58"/>
   <sheetViews>
@@ -9652,52 +10062,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316E4CD8-C7B3-4FDA-A48F-3A075489B33D}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
-        <v>667</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>668</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
-        <v>669</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>668</v>
-      </c>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>677</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E44A31-992B-4EA2-8EF2-27036295B825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541C53D0-008F-4BC0-A2BD-1DC39E86E217}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFIC" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="751">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -2140,9 +2140,6 @@
     <t>12/31/2021</t>
   </si>
   <si>
-    <t>HFIC SMG APP-</t>
-  </si>
-  <si>
     <t>DBA Name</t>
   </si>
   <si>
@@ -2179,24 +2176,6 @@
     <t>464851771</t>
   </si>
   <si>
-    <t>CG4803</t>
-  </si>
-  <si>
-    <t>CG4804</t>
-  </si>
-  <si>
-    <t>INITIAL ENROLLMENT29</t>
-  </si>
-  <si>
-    <t>TESTINGGTMC1JULY10244</t>
-  </si>
-  <si>
-    <t>934898324</t>
-  </si>
-  <si>
-    <t>666705335</t>
-  </si>
-  <si>
     <t>contact person</t>
   </si>
   <si>
@@ -2257,12 +2236,6 @@
     <t>Dob</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>FNSTDATA132</t>
   </si>
   <si>
@@ -2288,6 +2261,39 @@
   </si>
   <si>
     <t>45012273100</t>
+  </si>
+  <si>
+    <t>CG5103</t>
+  </si>
+  <si>
+    <t>HFIC SMG APP-051725</t>
+  </si>
+  <si>
+    <t>CG5102</t>
+  </si>
+  <si>
+    <t>HFIC SMG APP-051706</t>
+  </si>
+  <si>
+    <t>CG5101</t>
+  </si>
+  <si>
+    <t>HFIC SMG APP-051622</t>
+  </si>
+  <si>
+    <t>CG5100</t>
+  </si>
+  <si>
+    <t>HFIC SMG APP-051554</t>
+  </si>
+  <si>
+    <t>102863072</t>
+  </si>
+  <si>
+    <t>Performance Test-</t>
+  </si>
+  <si>
+    <t>srikanth1@get365.tk</t>
   </si>
 </sst>
 </file>
@@ -2454,7 +2460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2589,6 +2595,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2957,7 +2967,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2972,7 +2982,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>644</v>
@@ -3007,7 +3017,7 @@
         <v>120</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3029,7 +3039,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>699</v>
+        <v>749</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -3069,7 +3079,7 @@
         <v>687</v>
       </c>
       <c r="G6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -3081,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3092,7 +3102,7 @@
         <v>688</v>
       </c>
       <c r="G8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3132,7 +3142,7 @@
         <v>697</v>
       </c>
       <c r="G13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3299,16 +3309,16 @@
         <v>176</v>
       </c>
       <c r="B2" s="60" t="s">
+        <v>704</v>
+      </c>
+      <c r="C2" s="61" t="s">
         <v>705</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>706</v>
       </c>
       <c r="D2" s="62" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F2" s="64" t="s">
         <v>25</v>
@@ -3320,16 +3330,16 @@
         <v>177</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="65" t="s">
         <v>709</v>
       </c>
-      <c r="K2" s="65" t="s">
+      <c r="L2" s="65" t="s">
         <v>710</v>
-      </c>
-      <c r="L2" s="65" t="s">
-        <v>711</v>
       </c>
       <c r="M2" s="64" t="s">
         <v>25</v>
@@ -6491,10 +6501,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D5A1CF-BA19-4796-942B-917A8C03BCDE}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6506,220 +6516,203 @@
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="69" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>732</v>
-      </c>
-      <c r="K1" s="67"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>725</v>
+      </c>
+      <c r="H1" s="67"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="K2" s="67"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>726</v>
+      </c>
+      <c r="H2" s="67"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="69" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="C3" s="67" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="E3" t="s">
-        <v>734</v>
-      </c>
-      <c r="K3" s="67"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>727</v>
+      </c>
+      <c r="H3" s="67"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="37" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="E4" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="37" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="E6" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="70" t="s">
+        <v>740</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>741</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>748</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>711</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>712</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="67"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="70" t="s">
+        <v>740</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>741</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>748</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>713</v>
+      </c>
+      <c r="E8" s="38" t="s">
         <v>714</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>718</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>719</v>
-      </c>
-      <c r="J7" s="69" t="s">
-        <v>746</v>
-      </c>
-      <c r="K7" s="67" t="s">
-        <v>740</v>
-      </c>
-      <c r="L7" s="67" t="s">
-        <v>741</v>
-      </c>
-      <c r="M7" s="68">
-        <v>33147</v>
-      </c>
-      <c r="N7" s="67" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="65" t="s">
-        <v>712</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>720</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>721</v>
-      </c>
-      <c r="J8" s="69" t="s">
-        <v>747</v>
-      </c>
-      <c r="K8" s="67" t="s">
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="67"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="70" t="s">
         <v>742</v>
       </c>
-      <c r="L8" s="67" t="s">
+      <c r="B9" s="67" t="s">
         <v>743</v>
       </c>
-      <c r="M8" s="68">
-        <v>34284</v>
-      </c>
-      <c r="N8" s="67" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="65" t="s">
-        <v>713</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="71" t="s">
+        <v>748</v>
+      </c>
+      <c r="D9" s="37" t="s">
         <v>715</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>722</v>
       </c>
       <c r="E9" s="37" t="s">
         <v>648</v>
       </c>
-      <c r="J9" s="69" t="s">
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="67"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="70" t="s">
+        <v>744</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>745</v>
+      </c>
+      <c r="C10" s="71" t="s">
         <v>748</v>
       </c>
-      <c r="K9" s="67" t="s">
-        <v>744</v>
-      </c>
-      <c r="L9" s="67" t="s">
-        <v>745</v>
-      </c>
-      <c r="M9" s="68">
-        <v>33147</v>
-      </c>
-      <c r="N9" s="67" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D10" s="37" t="s">
+        <v>716</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="70" t="s">
+        <v>746</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>747</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>748</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>717</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="37" t="s">
+        <v>720</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D13" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="E13" s="66" t="s">
         <v>723</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D11" s="37" t="s">
-        <v>724</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D12" s="37" t="s">
-        <v>727</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="37" t="s">
-        <v>729</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>730</v>
       </c>
     </row>
   </sheetData>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541C53D0-008F-4BC0-A2BD-1DC39E86E217}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62064EE0-B645-4C1C-9276-2A994B71EC12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFIC" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="748">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -52,12 +52,6 @@
     <t>Passw0rd#12</t>
   </si>
   <si>
-    <t>CG0499</t>
-  </si>
-  <si>
-    <t>IDEAL FOOT CARE PC</t>
-  </si>
-  <si>
     <t>CG0498</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
     <t>01/01/2018</t>
   </si>
   <si>
-    <t>464638837</t>
-  </si>
-  <si>
     <t>112676441</t>
   </si>
   <si>
@@ -1972,9 +1963,6 @@
     <t>314516481</t>
   </si>
   <si>
-    <t>01/01/1800</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -2294,6 +2282,9 @@
   </si>
   <si>
     <t>srikanth1@get365.tk</t>
+  </si>
+  <si>
+    <t>12/12/1788</t>
   </si>
 </sst>
 </file>
@@ -2349,7 +2340,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2389,12 +2380,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2460,7 +2445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2541,25 +2526,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2597,6 +2563,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2932,28 +2907,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
-        <v>667</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>668</v>
+      <c r="A1" s="51" t="s">
+        <v>663</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>664</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
-        <v>669</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>668</v>
+      <c r="A2" s="51" t="s">
+        <v>665</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>664</v>
       </c>
       <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -2982,22 +2957,22 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3005,19 +2980,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>675</v>
+        <v>666</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>671</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3025,255 +3000,255 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="F4" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="G5" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E6" s="2" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="G6" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E7" s="2" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="F8" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G8" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E12" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G12" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" s="2" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="G13" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E15" s="2" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G15" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E17" s="34" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G17" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="G18" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="G22" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G24" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="G25" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G26" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G27" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G30" s="2" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -3304,182 +3279,182 @@
     <col min="8" max="8" width="46" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="60" t="s">
+    <row r="2" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>700</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>701</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>702</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="K2" s="58" t="s">
         <v>705</v>
       </c>
-      <c r="D2" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="63" t="s">
+      <c r="L2" s="58" t="s">
         <v>706</v>
       </c>
-      <c r="F2" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="K2" s="65" t="s">
-        <v>709</v>
-      </c>
-      <c r="L2" s="65" t="s">
-        <v>710</v>
-      </c>
-      <c r="M2" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="64" t="s">
-        <v>26</v>
+      <c r="M2" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="57" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H5" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
         <v>23</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H6" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="L6" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3513,426 +3488,426 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>669</v>
+      </c>
+      <c r="D2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="G2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="K2" t="s">
         <v>521</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>673</v>
-      </c>
-      <c r="D2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>486</v>
-      </c>
-      <c r="G2" t="s">
-        <v>424</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="K2" t="s">
-        <v>524</v>
-      </c>
       <c r="L2" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>525</v>
-      </c>
       <c r="N2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="K3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="N3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
       <c r="H4" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>500</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="K4" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="N4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G7" s="34" t="s">
+        <v>498</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="J7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K7" t="s">
         <v>501</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="J7" t="s">
-        <v>503</v>
-      </c>
-      <c r="K7" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="J8" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K8" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F9" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="J9" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K9" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C10" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F10" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="J10" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K10" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C11" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F11" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="J11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K11" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F12" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J12" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F13" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="J13" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K13" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F14" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J14" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K14" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="J15" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K15" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3950,16 +3925,16 @@
         <v>45012397700</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C23" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E23" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H23" s="16">
         <v>45012514500</v>
@@ -3970,16 +3945,16 @@
         <v>45012397600</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E24" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H24" s="16">
         <v>45012514400</v>
@@ -3990,16 +3965,16 @@
         <v>45012397500</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C25" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E25" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H25" s="16">
         <v>45012514300</v>
@@ -4007,16 +3982,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C26" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E26" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H26">
         <v>45012513900</v>
@@ -4027,16 +4002,16 @@
         <v>45012397300</v>
       </c>
       <c r="B27" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C27" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E27" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H27">
         <v>45012513600</v>
@@ -4047,16 +4022,16 @@
         <v>45012260200</v>
       </c>
       <c r="B28" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C28" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H28" s="16">
         <v>45012513800</v>
@@ -4067,16 +4042,16 @@
         <v>45012259900</v>
       </c>
       <c r="B29" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C29" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E29" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -4084,16 +4059,16 @@
         <v>45012259800</v>
       </c>
       <c r="B30" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C30" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E30" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -4101,16 +4076,16 @@
         <v>45012259600</v>
       </c>
       <c r="B31" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C31" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E31" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -4118,16 +4093,16 @@
         <v>45012259300</v>
       </c>
       <c r="B32" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C32" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E32" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -4135,16 +4110,16 @@
         <v>45012259200</v>
       </c>
       <c r="B33" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C33" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E33" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -4152,16 +4127,16 @@
         <v>45012257900</v>
       </c>
       <c r="B34" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C34" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D34" s="14">
         <v>32929</v>
       </c>
       <c r="E34" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4169,16 +4144,16 @@
         <v>45012257800</v>
       </c>
       <c r="B35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C35" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D35" s="14">
         <v>32929</v>
       </c>
       <c r="E35" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -4186,16 +4161,16 @@
         <v>45012257600</v>
       </c>
       <c r="B36" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C36" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D36" s="14">
         <v>32929</v>
       </c>
       <c r="E36" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -4203,16 +4178,16 @@
         <v>45012257500</v>
       </c>
       <c r="B37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C37" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D37" s="14">
         <v>32929</v>
       </c>
       <c r="E37" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4220,16 +4195,16 @@
         <v>45012244900</v>
       </c>
       <c r="B38" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C38" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D38" s="14">
         <v>32929</v>
       </c>
       <c r="E38" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4237,16 +4212,16 @@
         <v>45012244200</v>
       </c>
       <c r="B39" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C39" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D39" s="14">
         <v>32929</v>
       </c>
       <c r="E39" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4254,16 +4229,16 @@
         <v>45012242000</v>
       </c>
       <c r="B40" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C40" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D40" s="14">
         <v>32929</v>
       </c>
       <c r="E40" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -4271,16 +4246,16 @@
         <v>45012240200</v>
       </c>
       <c r="B41" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C41" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D41" s="14">
         <v>32929</v>
       </c>
       <c r="E41" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4288,16 +4263,16 @@
         <v>45012239700</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C42" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D42" s="14">
         <v>32929</v>
       </c>
       <c r="E42" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -4305,16 +4280,16 @@
         <v>45012239000</v>
       </c>
       <c r="B43" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C43" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D43" s="14">
         <v>32929</v>
       </c>
       <c r="E43" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4322,16 +4297,16 @@
         <v>45012238400</v>
       </c>
       <c r="B44" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C44" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D44" s="14">
         <v>32929</v>
       </c>
       <c r="E44" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -4339,16 +4314,16 @@
         <v>45012236500</v>
       </c>
       <c r="B45" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C45" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D45" s="14">
         <v>29221</v>
       </c>
       <c r="E45" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4356,16 +4331,16 @@
         <v>45012196500</v>
       </c>
       <c r="B46" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C46" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D46" s="14">
         <v>41883</v>
       </c>
       <c r="E46" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -4373,16 +4348,16 @@
         <v>45012196300</v>
       </c>
       <c r="B47" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C47" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D47" s="14">
         <v>41883</v>
       </c>
       <c r="E47" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4390,16 +4365,16 @@
         <v>45012195300</v>
       </c>
       <c r="B48" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C48" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D48" s="14">
         <v>41883</v>
       </c>
       <c r="E48" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -4407,16 +4382,16 @@
         <v>45012195100</v>
       </c>
       <c r="B49" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C49" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D49" s="14">
         <v>41883</v>
       </c>
       <c r="E49" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4424,16 +4399,16 @@
         <v>45012194900</v>
       </c>
       <c r="B50" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C50" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D50" s="14">
         <v>32752</v>
       </c>
       <c r="E50" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -4441,16 +4416,16 @@
         <v>45012194700</v>
       </c>
       <c r="B51" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C51" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D51" s="14">
         <v>32752</v>
       </c>
       <c r="E51" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -4458,16 +4433,16 @@
         <v>45012194500</v>
       </c>
       <c r="B52" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C52" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D52" s="14">
         <v>32752</v>
       </c>
       <c r="E52" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -4475,16 +4450,16 @@
         <v>45012194200</v>
       </c>
       <c r="B53" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C53" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D53" s="14">
         <v>32752</v>
       </c>
       <c r="E53" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -4492,16 +4467,16 @@
         <v>45012194000</v>
       </c>
       <c r="B54" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C54" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D54" s="14">
         <v>32752</v>
       </c>
       <c r="E54" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -4509,16 +4484,16 @@
         <v>45012195800</v>
       </c>
       <c r="B55" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C55" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D55" s="14">
         <v>41883</v>
       </c>
       <c r="E55" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -4526,16 +4501,16 @@
         <v>45012195600</v>
       </c>
       <c r="B56" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C56" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D56" s="14">
         <v>41883</v>
       </c>
       <c r="E56" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -4543,16 +4518,16 @@
         <v>45012195400</v>
       </c>
       <c r="B57" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C57" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D57" s="14">
         <v>41883</v>
       </c>
       <c r="E57" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -4560,16 +4535,16 @@
         <v>45012186000</v>
       </c>
       <c r="B58" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C58" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D58" s="14">
         <v>41883</v>
       </c>
       <c r="E58" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -4577,16 +4552,16 @@
         <v>45012185800</v>
       </c>
       <c r="B59" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C59" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D59" s="14">
         <v>32752</v>
       </c>
       <c r="E59" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -4594,16 +4569,16 @@
         <v>45012185700</v>
       </c>
       <c r="B60" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C60" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D60" s="14">
         <v>32752</v>
       </c>
       <c r="E60" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -4611,16 +4586,16 @@
         <v>45012185400</v>
       </c>
       <c r="B61" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C61" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D61" s="14">
         <v>32752</v>
       </c>
       <c r="E61" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -4628,16 +4603,16 @@
         <v>45012185200</v>
       </c>
       <c r="B62" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C62" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D62" s="14">
         <v>32752</v>
       </c>
       <c r="E62" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -4645,16 +4620,16 @@
         <v>45012185000</v>
       </c>
       <c r="B63" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C63" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D63" s="14">
         <v>41883</v>
       </c>
       <c r="E63" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -4662,16 +4637,16 @@
         <v>45012184800</v>
       </c>
       <c r="B64" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C64" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D64" s="14">
         <v>25569</v>
       </c>
       <c r="E64" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -4679,16 +4654,16 @@
         <v>45012184600</v>
       </c>
       <c r="B65" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C65" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D65" s="14">
         <v>32752</v>
       </c>
       <c r="E65" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -4696,16 +4671,16 @@
         <v>45011982200</v>
       </c>
       <c r="B66" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D66" s="14">
         <v>33058</v>
       </c>
       <c r="E66" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -4713,16 +4688,16 @@
         <v>45011982200</v>
       </c>
       <c r="B67" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D67" s="14">
         <v>33058</v>
       </c>
       <c r="E67" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -4730,16 +4705,16 @@
         <v>45011982100</v>
       </c>
       <c r="B68" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D68" s="14">
         <v>32994</v>
       </c>
       <c r="E68" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -4747,16 +4722,16 @@
         <v>45011974800</v>
       </c>
       <c r="B69" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D69" s="14">
         <v>33055</v>
       </c>
       <c r="E69" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -4764,16 +4739,16 @@
         <v>45012965900</v>
       </c>
       <c r="B70" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C70" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D70" s="14">
         <v>30903</v>
       </c>
       <c r="E70" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -4781,16 +4756,16 @@
         <v>45012939900</v>
       </c>
       <c r="B71" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D71" s="14">
         <v>33002</v>
       </c>
       <c r="E71" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -4798,16 +4773,16 @@
         <v>45012826300</v>
       </c>
       <c r="B72" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D72" s="14">
         <v>29266</v>
       </c>
       <c r="E72" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -4815,16 +4790,16 @@
         <v>45012826200</v>
       </c>
       <c r="B73" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D73" s="14">
         <v>31180</v>
       </c>
       <c r="E73" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -4832,16 +4807,16 @@
         <v>45012824200</v>
       </c>
       <c r="B74" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C74" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D74" s="14">
         <v>31180</v>
       </c>
       <c r="E74" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -4849,16 +4824,16 @@
         <v>45012822200</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D75" s="14">
         <v>29266</v>
       </c>
       <c r="E75" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -4866,16 +4841,16 @@
         <v>45012821900</v>
       </c>
       <c r="B76" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C76" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D76" s="14">
         <v>31180</v>
       </c>
       <c r="E76" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -4883,16 +4858,16 @@
         <v>45012811200</v>
       </c>
       <c r="B77" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C77" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D77" s="14">
         <v>32874</v>
       </c>
       <c r="E77" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -4900,16 +4875,16 @@
         <v>45012811300</v>
       </c>
       <c r="B78" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C78" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D78" s="14">
         <v>33239</v>
       </c>
       <c r="E78" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -4917,16 +4892,16 @@
         <v>45012811600</v>
       </c>
       <c r="B79" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C79" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D79" s="14">
         <v>29266</v>
       </c>
       <c r="E79" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -4934,16 +4909,16 @@
         <v>45012390300</v>
       </c>
       <c r="B80" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C80" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D80" s="14">
         <v>29266</v>
       </c>
       <c r="E80" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -4951,16 +4926,16 @@
         <v>45012808500</v>
       </c>
       <c r="B81" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C81" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D81" s="14">
         <v>31180</v>
       </c>
       <c r="E81" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -4968,16 +4943,16 @@
         <v>45012389400</v>
       </c>
       <c r="B82" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C82" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D82" s="14">
         <v>29266</v>
       </c>
       <c r="E82" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -4985,16 +4960,16 @@
         <v>45012807600</v>
       </c>
       <c r="B83" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C83" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D83" s="14">
         <v>31180</v>
       </c>
       <c r="E83" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -5002,16 +4977,16 @@
         <v>45012807600</v>
       </c>
       <c r="B84" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C84" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D84" s="14">
         <v>31180</v>
       </c>
       <c r="E84" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -5019,16 +4994,16 @@
         <v>45012802800</v>
       </c>
       <c r="B85" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C85" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D85" s="14">
         <v>42171</v>
       </c>
       <c r="E85" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -5036,16 +5011,16 @@
         <v>45012801100</v>
       </c>
       <c r="B86" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C86" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D86" s="14">
         <v>31545</v>
       </c>
       <c r="E86" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -5053,16 +5028,16 @@
         <v>45012787000</v>
       </c>
       <c r="B87" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D87" s="14">
         <v>33124</v>
       </c>
       <c r="E87" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -5070,16 +5045,16 @@
         <v>45012785800</v>
       </c>
       <c r="B88" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C88" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D88" s="14">
         <v>32991</v>
       </c>
       <c r="E88" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -5087,16 +5062,16 @@
         <v>45012786300</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D89" s="14">
         <v>33063</v>
       </c>
       <c r="E89" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -5104,16 +5079,16 @@
         <v>45012785900</v>
       </c>
       <c r="B90" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C90" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D90" s="14">
         <v>33142</v>
       </c>
       <c r="E90" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -5121,16 +5096,16 @@
         <v>45012760300</v>
       </c>
       <c r="B91" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D91" s="14">
         <v>32668</v>
       </c>
       <c r="E91" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -5138,16 +5113,16 @@
         <v>45012730600</v>
       </c>
       <c r="B92" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D92" s="14">
         <v>33094</v>
       </c>
       <c r="E92" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -5155,16 +5130,16 @@
         <v>45012691000</v>
       </c>
       <c r="B93" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D93" s="14">
         <v>33033</v>
       </c>
       <c r="E93" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -5172,16 +5147,16 @@
         <v>45012595400</v>
       </c>
       <c r="B94" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C94" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D94" s="14">
         <v>29664</v>
       </c>
       <c r="E94" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -5189,16 +5164,16 @@
         <v>45012595300</v>
       </c>
       <c r="B95" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C95" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D95" s="14">
         <v>31686</v>
       </c>
       <c r="E95" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -5206,16 +5181,16 @@
         <v>45012593000</v>
       </c>
       <c r="B96" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C96" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D96" s="14">
         <v>32412</v>
       </c>
       <c r="E96" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -5223,16 +5198,16 @@
         <v>45012405100</v>
       </c>
       <c r="B97" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C97" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D97" s="14">
         <v>31048</v>
       </c>
       <c r="E97" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -5240,16 +5215,16 @@
         <v>45012104900</v>
       </c>
       <c r="B98" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D98" s="14">
         <v>32607</v>
       </c>
       <c r="E98" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -5257,16 +5232,16 @@
         <v>45011901000</v>
       </c>
       <c r="B99" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C99" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D99" s="14">
         <v>32143</v>
       </c>
       <c r="E99" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -5274,16 +5249,16 @@
         <v>45011900900</v>
       </c>
       <c r="B100" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C100" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D100" s="14">
         <v>32143</v>
       </c>
       <c r="E100" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -5291,16 +5266,16 @@
         <v>45011900500</v>
       </c>
       <c r="B101" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C101" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D101" s="14">
         <v>29249</v>
       </c>
       <c r="E101" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -5308,16 +5283,16 @@
         <v>45011900400</v>
       </c>
       <c r="B102" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C102" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D102" s="14">
         <v>29246</v>
       </c>
       <c r="E102" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -5325,16 +5300,16 @@
         <v>45011900200</v>
       </c>
       <c r="B103" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C103" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D103" s="14">
         <v>29240</v>
       </c>
       <c r="E103" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -5342,16 +5317,16 @@
         <v>45011899900</v>
       </c>
       <c r="B104" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C104" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D104" s="14">
         <v>29231</v>
       </c>
       <c r="E104" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -5359,16 +5334,16 @@
         <v>45011899500</v>
       </c>
       <c r="B105" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C105" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D105" s="14">
         <v>29248</v>
       </c>
       <c r="E105" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -5376,16 +5351,16 @@
         <v>45011899400</v>
       </c>
       <c r="B106" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C106" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D106" s="14">
         <v>29239</v>
       </c>
       <c r="E106" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -5393,16 +5368,16 @@
         <v>45011899300</v>
       </c>
       <c r="B107" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C107" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D107" s="14">
         <v>29230</v>
       </c>
       <c r="E107" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -5410,16 +5385,16 @@
         <v>45011899200</v>
       </c>
       <c r="B108" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C108" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D108" s="14">
         <v>29221</v>
       </c>
       <c r="E108" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -5427,16 +5402,16 @@
         <v>45011854500</v>
       </c>
       <c r="B109" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C109" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D109" s="14">
         <v>27912</v>
       </c>
       <c r="E109" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -5444,16 +5419,16 @@
         <v>45012645800</v>
       </c>
       <c r="B110" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C110" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D110" s="14">
         <v>35097</v>
       </c>
       <c r="E110" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -5461,16 +5436,16 @@
         <v>45012295000</v>
       </c>
       <c r="B111" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C111" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D111" s="14">
         <v>34049</v>
       </c>
       <c r="E111" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -5478,16 +5453,16 @@
         <v>45012293400</v>
       </c>
       <c r="B112" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C112" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D112" s="14">
         <v>29952</v>
       </c>
       <c r="E112" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -5495,16 +5470,16 @@
         <v>45012293100</v>
       </c>
       <c r="B113" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C113" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D113" s="14">
         <v>29221</v>
       </c>
       <c r="E113" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -5512,16 +5487,16 @@
         <v>45012599400</v>
       </c>
       <c r="B114" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C114" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D114" s="14">
         <v>33318</v>
       </c>
       <c r="E114" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -5529,16 +5504,16 @@
         <v>45012597100</v>
       </c>
       <c r="B115" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C115" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D115" s="14">
         <v>32340</v>
       </c>
       <c r="E115" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -5546,16 +5521,16 @@
         <v>45012414900</v>
       </c>
       <c r="B116" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C116" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D116" s="14">
         <v>32340</v>
       </c>
       <c r="E116" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -5563,16 +5538,16 @@
         <v>45012365700</v>
       </c>
       <c r="B117" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C117" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D117" s="14">
         <v>28911</v>
       </c>
       <c r="E117" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -5580,16 +5555,16 @@
         <v>45012231200</v>
       </c>
       <c r="B118" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C118" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D118" s="14">
         <v>28911</v>
       </c>
       <c r="E118" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -5597,16 +5572,16 @@
         <v>45012155100</v>
       </c>
       <c r="B119" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C119" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D119" s="14">
         <v>30136</v>
       </c>
       <c r="E119" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -5614,16 +5589,16 @@
         <v>45012154600</v>
       </c>
       <c r="B120" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D120" s="14">
         <v>33027</v>
       </c>
       <c r="E120" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -5631,16 +5606,16 @@
         <v>45012088200</v>
       </c>
       <c r="B121" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D121" s="14">
         <v>33027</v>
       </c>
       <c r="E121" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -5648,16 +5623,16 @@
         <v>45012084700</v>
       </c>
       <c r="B122" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D122" s="14">
         <v>25204</v>
       </c>
       <c r="E122" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -5665,16 +5640,16 @@
         <v>45011955700</v>
       </c>
       <c r="B123" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C123" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D123" s="14">
         <v>33318</v>
       </c>
       <c r="E123" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -5682,16 +5657,16 @@
         <v>45011878300</v>
       </c>
       <c r="B124" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C124" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D124" s="14">
         <v>30410</v>
       </c>
       <c r="E124" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -5699,16 +5674,16 @@
         <v>45011862500</v>
       </c>
       <c r="B125" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C125" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D125" s="14">
         <v>31569</v>
       </c>
       <c r="E125" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -5716,16 +5691,16 @@
         <v>45011860000</v>
       </c>
       <c r="B126" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C126" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D126" s="14">
         <v>32094</v>
       </c>
       <c r="E126" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -5733,16 +5708,16 @@
         <v>45011858500</v>
       </c>
       <c r="B127" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C127" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D127" s="14">
         <v>29984</v>
       </c>
       <c r="E127" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -5750,16 +5725,16 @@
         <v>45011857400</v>
       </c>
       <c r="B128" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C128" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D128" s="14">
         <v>30776</v>
       </c>
       <c r="E128" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -5767,16 +5742,16 @@
         <v>45011858000</v>
       </c>
       <c r="B129" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C129" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D129" s="14">
         <v>30378</v>
       </c>
       <c r="E129" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -5784,16 +5759,16 @@
         <v>45011847900</v>
       </c>
       <c r="B130" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C130" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D130" s="14">
         <v>30146</v>
       </c>
       <c r="E130" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -5801,16 +5776,16 @@
         <v>45012156200</v>
       </c>
       <c r="B131" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C131" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D131" s="14">
         <v>32340</v>
       </c>
       <c r="E131" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -5818,16 +5793,16 @@
         <v>45012138000</v>
       </c>
       <c r="B132" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C132" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D132" s="14">
         <v>25818</v>
       </c>
       <c r="E132" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -5835,16 +5810,16 @@
         <v>45011974600</v>
       </c>
       <c r="B133" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C133" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D133" s="14">
         <v>32340</v>
       </c>
       <c r="E133" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -5852,16 +5827,16 @@
         <v>45011856500</v>
       </c>
       <c r="B134" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C134" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D134" s="14">
         <v>29221</v>
       </c>
       <c r="E134" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -5869,16 +5844,16 @@
         <v>45011518700</v>
       </c>
       <c r="B135" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C135" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D135" s="14">
         <v>25569</v>
       </c>
       <c r="E135" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -5886,16 +5861,16 @@
         <v>45011518400</v>
       </c>
       <c r="B136" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C136" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D136" s="14">
         <v>29473</v>
       </c>
       <c r="E136" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -5903,16 +5878,16 @@
         <v>45011494800</v>
       </c>
       <c r="B137" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C137" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D137" s="14">
         <v>32661</v>
       </c>
       <c r="E137" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -5920,16 +5895,16 @@
         <v>45011726400</v>
       </c>
       <c r="B138" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C138" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D138" s="14">
         <v>28911</v>
       </c>
       <c r="E138" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -5937,16 +5912,16 @@
         <v>45011725900</v>
       </c>
       <c r="B139" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C139" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D139" s="14">
         <v>31974</v>
       </c>
       <c r="E139" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -5954,16 +5929,16 @@
         <v>45011725800</v>
       </c>
       <c r="B140" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C140" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D140" s="14">
         <v>32340</v>
       </c>
       <c r="E140" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -5971,16 +5946,16 @@
         <v>45011723400</v>
       </c>
       <c r="B141" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C141" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D141" s="14">
         <v>20086</v>
       </c>
       <c r="E141" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -5988,16 +5963,16 @@
         <v>45011723400</v>
       </c>
       <c r="B142" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C142" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D142" s="14">
         <v>29867</v>
       </c>
       <c r="E142" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -6005,16 +5980,16 @@
         <v>45011723000</v>
       </c>
       <c r="B143" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C143" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D143" s="14">
         <v>29502</v>
       </c>
       <c r="E143" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -6022,16 +5997,16 @@
         <v>45011719500</v>
       </c>
       <c r="B144" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C144" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D144" s="14">
         <v>25204</v>
       </c>
       <c r="E144" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -6039,16 +6014,16 @@
         <v>45011713900</v>
       </c>
       <c r="B145" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C145" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D145" s="14">
         <v>31173</v>
       </c>
       <c r="E145" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -6056,16 +6031,16 @@
         <v>45011713600</v>
       </c>
       <c r="B146" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C146" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D146" s="14">
         <v>31172</v>
       </c>
       <c r="E146" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -6073,16 +6048,16 @@
         <v>45011742300</v>
       </c>
       <c r="B147" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C147" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D147" s="14">
         <v>34478</v>
       </c>
       <c r="E147" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -6090,16 +6065,16 @@
         <v>45011740000</v>
       </c>
       <c r="B148" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C148" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D148" s="14">
         <v>34395</v>
       </c>
       <c r="E148" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -6107,16 +6082,16 @@
         <v>45011615200</v>
       </c>
       <c r="B149" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C149" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D149" s="14">
         <v>34680</v>
       </c>
       <c r="E149" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -6124,16 +6099,16 @@
         <v>45011610600</v>
       </c>
       <c r="B150" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C150" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D150" s="14">
         <v>34010</v>
       </c>
       <c r="E150" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -6141,16 +6116,16 @@
         <v>45011398200</v>
       </c>
       <c r="B151" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C151" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D151" s="14">
         <v>32454</v>
       </c>
       <c r="E151" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -6158,16 +6133,16 @@
         <v>45011394600</v>
       </c>
       <c r="B152" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C152" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D152" s="14">
         <v>33850</v>
       </c>
       <c r="E152" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -6175,16 +6150,16 @@
         <v>45011387300</v>
       </c>
       <c r="B153" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C153" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D153" s="14">
         <v>23925</v>
       </c>
       <c r="E153" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -6192,16 +6167,16 @@
         <v>45011273000</v>
       </c>
       <c r="B154" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C154" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D154" s="14">
         <v>25146</v>
       </c>
       <c r="E154" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -6209,16 +6184,16 @@
         <v>45011176300</v>
       </c>
       <c r="B155" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C155" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D155" s="14">
         <v>30579</v>
       </c>
       <c r="E155" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -6226,16 +6201,16 @@
         <v>45011176100</v>
       </c>
       <c r="B156" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C156" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D156" s="14">
         <v>32818</v>
       </c>
       <c r="E156" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -6243,16 +6218,16 @@
         <v>45011175900</v>
       </c>
       <c r="B157" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C157" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D157" s="14">
         <v>33309</v>
       </c>
       <c r="E157" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -6260,16 +6235,16 @@
         <v>45011175300</v>
       </c>
       <c r="B158" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C158" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D158" s="14">
         <v>31248</v>
       </c>
       <c r="E158" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -6277,16 +6252,16 @@
         <v>45011175200</v>
       </c>
       <c r="B159" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C159" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D159" s="14">
         <v>32717</v>
       </c>
       <c r="E159" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -6294,16 +6269,16 @@
         <v>45011742300</v>
       </c>
       <c r="B160" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C160" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D160" s="14">
         <v>34478</v>
       </c>
       <c r="E160" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -6311,16 +6286,16 @@
         <v>45011740000</v>
       </c>
       <c r="B161" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C161" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D161" s="14">
         <v>34395</v>
       </c>
       <c r="E161" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -6328,16 +6303,16 @@
         <v>45011615200</v>
       </c>
       <c r="B162" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C162" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D162" s="14">
         <v>34680</v>
       </c>
       <c r="E162" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -6345,16 +6320,16 @@
         <v>45011610600</v>
       </c>
       <c r="B163" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C163" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D163" s="14">
         <v>34010</v>
       </c>
       <c r="E163" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -6362,16 +6337,16 @@
         <v>45011398200</v>
       </c>
       <c r="B164" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C164" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D164" s="14">
         <v>32454</v>
       </c>
       <c r="E164" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -6379,16 +6354,16 @@
         <v>45011394600</v>
       </c>
       <c r="B165" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C165" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D165" s="14">
         <v>33850</v>
       </c>
       <c r="E165" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -6396,16 +6371,16 @@
         <v>45011387300</v>
       </c>
       <c r="B166" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C166" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D166" s="14">
         <v>23925</v>
       </c>
       <c r="E166" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -6413,16 +6388,16 @@
         <v>45011273000</v>
       </c>
       <c r="B167" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C167" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D167" s="14">
         <v>25146</v>
       </c>
       <c r="E167" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -6430,16 +6405,16 @@
         <v>45011176300</v>
       </c>
       <c r="B168" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C168" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D168" s="14">
         <v>30579</v>
       </c>
       <c r="E168" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -6447,16 +6422,16 @@
         <v>45011176100</v>
       </c>
       <c r="B169" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C169" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D169" s="14">
         <v>32818</v>
       </c>
       <c r="E169" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -6464,16 +6439,16 @@
         <v>45011175900</v>
       </c>
       <c r="B170" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C170" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D170" s="14">
         <v>33309</v>
       </c>
       <c r="E170" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -6481,16 +6456,16 @@
         <v>45011175300</v>
       </c>
       <c r="B171" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C171" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D171" s="14">
         <v>31248</v>
       </c>
       <c r="E171" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -6503,7 +6478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D5A1CF-BA19-4796-942B-917A8C03BCDE}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -6519,200 +6494,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
-        <v>737</v>
-      </c>
-      <c r="B1" s="67" t="s">
+      <c r="A1" s="62" t="s">
+        <v>733</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>727</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>728</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>726</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>721</v>
+      </c>
+      <c r="H1" s="60"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="62" t="s">
+        <v>734</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>729</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>730</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>720</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="H2" s="60"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
+        <v>735</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>731</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C3" s="60" t="s">
         <v>732</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>730</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>725</v>
-      </c>
-      <c r="H1" s="67"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
-        <v>738</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>733</v>
-      </c>
-      <c r="C2" s="67" t="s">
-        <v>734</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>724</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="H2" s="67"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
-        <v>739</v>
-      </c>
-      <c r="B3" s="67" t="s">
-        <v>735</v>
-      </c>
-      <c r="C3" s="67" t="s">
-        <v>736</v>
-      </c>
       <c r="D3" s="37" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="E3" t="s">
-        <v>727</v>
-      </c>
-      <c r="H3" s="67"/>
+        <v>723</v>
+      </c>
+      <c r="H3" s="60"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="37" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E4" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="37" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="E6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="63" t="s">
+        <v>736</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>737</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>744</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>707</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>708</v>
+      </c>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="60"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="63" t="s">
+        <v>736</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>737</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>744</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>709</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>710</v>
+      </c>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="60"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="63" t="s">
+        <v>738</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>739</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>744</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>711</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>644</v>
+      </c>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="60"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="63" t="s">
         <v>740</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B10" s="60" t="s">
         <v>741</v>
       </c>
-      <c r="C7" s="71" t="s">
-        <v>748</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>711</v>
-      </c>
-      <c r="E7" s="37" t="s">
+      <c r="C10" s="64" t="s">
+        <v>744</v>
+      </c>
+      <c r="D10" s="37" t="s">
         <v>712</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="67"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="70" t="s">
-        <v>740</v>
-      </c>
-      <c r="B8" s="67" t="s">
-        <v>741</v>
-      </c>
-      <c r="C8" s="71" t="s">
-        <v>748</v>
-      </c>
-      <c r="D8" s="37" t="s">
+      <c r="E10" s="38" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="63" t="s">
+        <v>742</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>743</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>744</v>
+      </c>
+      <c r="D11" s="37" t="s">
         <v>713</v>
       </c>
-      <c r="E8" s="38" t="s">
-        <v>714</v>
-      </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="67"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="70" t="s">
-        <v>742</v>
-      </c>
-      <c r="B9" s="67" t="s">
-        <v>743</v>
-      </c>
-      <c r="C9" s="71" t="s">
-        <v>748</v>
-      </c>
-      <c r="D9" s="37" t="s">
+      <c r="E11" s="37" t="s">
         <v>715</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>648</v>
-      </c>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="67"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="70" t="s">
-        <v>744</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>745</v>
-      </c>
-      <c r="C10" s="71" t="s">
-        <v>748</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>716</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
-        <v>746</v>
-      </c>
-      <c r="B11" s="67" t="s">
-        <v>747</v>
-      </c>
-      <c r="C11" s="71" t="s">
-        <v>748</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>717</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="37" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="37" t="s">
-        <v>722</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>723</v>
+        <v>718</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -6736,307 +6711,307 @@
   <sheetData>
     <row r="2" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H30" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="32" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H32" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H35" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H36" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H37" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H38" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H39" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H43" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H44" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H45" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H46" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="47" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H47" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="48" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H48" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H49" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H50" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H51" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H53" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H54" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H55" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H56" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H57" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H58" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H59" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="60" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H60" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="61" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H61" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="62" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H62" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -7059,7 +7034,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -7067,10 +7042,10 @@
         <v>45012492500</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
@@ -7078,13 +7053,13 @@
         <v>45012491700</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -7092,13 +7067,13 @@
         <v>45012491000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -7106,13 +7081,13 @@
         <v>45012397700</v>
       </c>
       <c r="H5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -7120,13 +7095,13 @@
         <v>45012397600</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -7134,10 +7109,10 @@
         <v>45012397500</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M7" s="16"/>
     </row>
@@ -7146,10 +7121,10 @@
         <v>45012397400</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M8" s="16"/>
     </row>
@@ -7896,8 +7871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06FC4A3-CF87-4C6E-8D77-7DC31AD6245D}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7921,345 +7896,345 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>640</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>641</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>642</v>
+        <v>166</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>637</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>638</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>639</v>
       </c>
       <c r="F1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L1" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N1" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O1" s="30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P1" s="31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R1" s="30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>167</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>549</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>638</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>639</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P2" s="31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>18</v>
+        <v>168</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>637</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>747</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>639</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N3" s="30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O3" s="30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P3" s="26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R3" s="30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>552</v>
+        <v>169</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>637</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>638</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>549</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N4" s="32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R4" s="32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>424</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>640</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>641</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>642</v>
+        <v>170</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>637</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>638</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>639</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="8"/>
       <c r="I5" s="6"/>
       <c r="J5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="N5" s="29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P5" s="27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G6"/>
       <c r="J6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L6" s="28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O6" s="29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P6" s="27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q6" s="27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R6" s="33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G7"/>
       <c r="M7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O7" s="33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P7" s="26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G8"/>
       <c r="M8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N8" s="32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O8" s="32" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P8" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R8" s="32" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -8277,217 +8252,217 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G12"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
         <v>56</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
         <v>57</v>
       </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" t="s">
-        <v>60</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>88</v>
-      </c>
       <c r="H16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -8498,142 +8473,142 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="F23" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D23" t="s">
+      <c r="G23" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E23" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>119</v>
-      </c>
       <c r="H23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
         <v>56</v>
       </c>
-      <c r="C26" t="s">
+      <c r="F26" t="s">
         <v>57</v>
       </c>
-      <c r="D26" t="s">
+      <c r="H26" t="s">
         <v>58</v>
-      </c>
-      <c r="E26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H30" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -8662,649 +8637,649 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="E1" t="s">
         <v>528</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="E1" t="s">
-        <v>531</v>
-      </c>
-      <c r="F1" t="s">
-        <v>532</v>
-      </c>
       <c r="G1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" t="s">
         <v>124</v>
       </c>
-      <c r="F2" t="s">
-        <v>127</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>546</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" t="s">
         <v>124</v>
       </c>
-      <c r="F3" t="s">
-        <v>127</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>546</v>
-      </c>
-      <c r="D4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" t="s">
         <v>124</v>
       </c>
-      <c r="F4" t="s">
-        <v>127</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H4" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>546</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" t="s">
         <v>124</v>
       </c>
-      <c r="F5" t="s">
-        <v>127</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H5" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F7" s="18" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" t="s">
         <v>124</v>
       </c>
-      <c r="F8" t="s">
-        <v>127</v>
-      </c>
       <c r="G8" s="18" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H8" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="35" t="s">
+      <c r="F9" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="F9" s="36" t="s">
-        <v>127</v>
-      </c>
       <c r="G9" s="35" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H9" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B10" t="s">
+        <v>530</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D10" t="s">
+        <v>531</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D10" t="s">
-        <v>534</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H10" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D11" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H11" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
+        <v>530</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="D12" t="s">
+        <v>531</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>546</v>
-      </c>
-      <c r="D12" t="s">
-        <v>534</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
+        <v>530</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>546</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H13" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D14" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H14" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
+        <v>530</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D15" t="s">
+        <v>531</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D15" t="s">
-        <v>534</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="F15" s="18" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H15" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
+        <v>530</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D16" t="s">
+        <v>531</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D16" t="s">
-        <v>534</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H16" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B17" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>534</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>531</v>
+      </c>
+      <c r="E17" s="35" t="s">
         <v>533</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>537</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>534</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>536</v>
-      </c>
       <c r="F17" s="35" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H17" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>545</v>
-      </c>
       <c r="H18" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>546</v>
-      </c>
       <c r="C19" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>545</v>
-      </c>
       <c r="H19" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>546</v>
-      </c>
       <c r="D20" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>545</v>
-      </c>
       <c r="H20" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="E21" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>546</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>545</v>
-      </c>
       <c r="H21" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="F22" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>546</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>545</v>
-      </c>
       <c r="H22" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>546</v>
-      </c>
       <c r="G23" s="9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H23" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="G24" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>546</v>
-      </c>
       <c r="H24" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>545</v>
-      </c>
       <c r="H25" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -9336,145 +9311,145 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>546</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>139</v>
-      </c>
       <c r="E3" s="47" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>546</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>139</v>
-      </c>
       <c r="E4" s="47" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>139</v>
-      </c>
       <c r="E6" s="47" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="33" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E9" s="37"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
+        <v>544</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>547</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>550</v>
-      </c>
       <c r="C10" s="37" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="33" t="s">
+        <v>544</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>547</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>550</v>
-      </c>
       <c r="C11" s="44" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E11" s="37"/>
     </row>
@@ -9483,350 +9458,350 @@
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>666</v>
-      </c>
-      <c r="C13" s="57" t="s">
-        <v>665</v>
+        <v>662</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>661</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E13" s="37"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>552</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>665</v>
+        <v>549</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>661</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>666</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>665</v>
+        <v>662</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>661</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C20" s="47" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="49" t="s">
+        <v>543</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>658</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>657</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="49" t="s">
+        <v>656</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>658</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>658</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>657</v>
+      </c>
+      <c r="E23" s="47" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="56" t="s">
-        <v>546</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>663</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>662</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>661</v>
-      </c>
-      <c r="E22" s="47" t="s">
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="49" t="s">
+        <v>656</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>657</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49" t="s">
+        <v>656</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>658</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>543</v>
+      </c>
+      <c r="E25" s="47" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="56" t="s">
-        <v>660</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>662</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>662</v>
-      </c>
-      <c r="D23" s="56" t="s">
-        <v>661</v>
-      </c>
-      <c r="E23" s="47" t="s">
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="49" t="s">
+        <v>656</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>658</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>657</v>
+      </c>
+      <c r="E26" s="47" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="56" t="s">
-        <v>660</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>663</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>663</v>
-      </c>
-      <c r="D24" s="56" t="s">
-        <v>661</v>
-      </c>
-      <c r="E24" s="47" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="56" t="s">
-        <v>660</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>663</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>662</v>
-      </c>
-      <c r="D25" s="56" t="s">
-        <v>546</v>
-      </c>
-      <c r="E25" s="47" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="56" t="s">
-        <v>660</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>663</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>662</v>
-      </c>
-      <c r="D26" s="56" t="s">
-        <v>661</v>
-      </c>
-      <c r="E26" s="47" t="s">
-        <v>601</v>
-      </c>
-    </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="48"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
+        <v>552</v>
+      </c>
+      <c r="B30" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="B30" s="23" t="s">
-        <v>558</v>
-      </c>
       <c r="C30" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E31" s="47" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
+        <v>552</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>558</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E32" s="47" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
+        <v>552</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>558</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>558</v>
+      </c>
+      <c r="D37" s="37" t="s">
         <v>559</v>
       </c>
-      <c r="B37" s="33" t="s">
-        <v>546</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>561</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>562</v>
-      </c>
       <c r="E37" s="47" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="D38" s="37" t="s">
         <v>559</v>
       </c>
-      <c r="B38" s="37" t="s">
-        <v>560</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>546</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>562</v>
-      </c>
       <c r="E38" s="47" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>558</v>
+      </c>
+      <c r="D40" s="37" t="s">
         <v>559</v>
       </c>
-      <c r="B40" s="37" t="s">
-        <v>560</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>561</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>562</v>
-      </c>
       <c r="E40" s="47" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -9838,114 +9813,114 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D46" s="47" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="43" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D49" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="43" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D50" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="43" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D51" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="43" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D52" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -9953,102 +9928,102 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="45" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B54" s="38" t="s">
+        <v>569</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>567</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>568</v>
+      </c>
+      <c r="E54" s="46" t="s">
+        <v>570</v>
+      </c>
+      <c r="F54" t="s">
         <v>572</v>
-      </c>
-      <c r="C54" s="41" t="s">
-        <v>570</v>
-      </c>
-      <c r="D54" s="41" t="s">
-        <v>571</v>
-      </c>
-      <c r="E54" s="46" t="s">
-        <v>573</v>
-      </c>
-      <c r="F54" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="45" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C55" s="41" t="s">
+        <v>567</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>568</v>
+      </c>
+      <c r="E55" s="46" t="s">
         <v>570</v>
       </c>
-      <c r="D55" s="41" t="s">
-        <v>571</v>
-      </c>
-      <c r="E55" s="46" t="s">
+      <c r="F55" t="s">
         <v>573</v>
-      </c>
-      <c r="F55" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="45" t="s">
+        <v>566</v>
+      </c>
+      <c r="B56" s="38" t="s">
         <v>569</v>
       </c>
-      <c r="B56" s="38" t="s">
-        <v>572</v>
-      </c>
       <c r="C56" s="41" t="s">
+        <v>567</v>
+      </c>
+      <c r="D56" s="45" t="s">
+        <v>543</v>
+      </c>
+      <c r="E56" s="46" t="s">
         <v>570</v>
       </c>
-      <c r="D56" s="45" t="s">
-        <v>546</v>
-      </c>
-      <c r="E56" s="46" t="s">
-        <v>573</v>
-      </c>
       <c r="F56" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="45" t="s">
+        <v>566</v>
+      </c>
+      <c r="B57" s="38" t="s">
         <v>569</v>
       </c>
-      <c r="B57" s="38" t="s">
-        <v>572</v>
-      </c>
       <c r="C57" s="41" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D57" s="41" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E57" s="46" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F57" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="45" t="s">
+        <v>566</v>
+      </c>
+      <c r="B58" s="38" t="s">
         <v>569</v>
       </c>
-      <c r="B58" s="38" t="s">
-        <v>572</v>
-      </c>
       <c r="C58" s="41" t="s">
+        <v>567</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>568</v>
+      </c>
+      <c r="E58" s="46" t="s">
         <v>570</v>
       </c>
-      <c r="D58" s="41" t="s">
+      <c r="F58" t="s">
         <v>571</v>
-      </c>
-      <c r="E58" s="46" t="s">
-        <v>573</v>
-      </c>
-      <c r="F58" t="s">
-        <v>574</v>
       </c>
     </row>
   </sheetData>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62064EE0-B645-4C1C-9276-2A994B71EC12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006242DC-9C97-4690-815D-9C3681EC863A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFIC" sheetId="1" r:id="rId1"/>
@@ -15,10 +15,11 @@
     <sheet name="Sheet2" sheetId="7" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
     <sheet name="Enroll360" sheetId="4" r:id="rId7"/>
-    <sheet name="Search" sheetId="5" r:id="rId8"/>
-    <sheet name="Task" sheetId="8" r:id="rId9"/>
-    <sheet name="Pega" sheetId="10" r:id="rId10"/>
-    <sheet name="Login" sheetId="9" r:id="rId11"/>
+    <sheet name="CR_AddMem" sheetId="12" r:id="rId8"/>
+    <sheet name="Search" sheetId="5" r:id="rId9"/>
+    <sheet name="Task" sheetId="8" r:id="rId10"/>
+    <sheet name="Pega" sheetId="10" r:id="rId11"/>
+    <sheet name="Login" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'HSA2'!#REF!</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="761">
   <si>
     <t>srikanth@get365.tk</t>
   </si>
@@ -2285,6 +2286,45 @@
   </si>
   <si>
     <t>12/12/1788</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>01/01/1987</t>
+  </si>
+  <si>
+    <t>123321123</t>
+  </si>
+  <si>
+    <t>TEST123@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>1231231234</t>
+  </si>
+  <si>
+    <t>ENG</t>
+  </si>
+  <si>
+    <t>colonie</t>
+  </si>
+  <si>
+    <t>albnay</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>09/01/2020</t>
+  </si>
+  <si>
+    <t>CG5118</t>
+  </si>
+  <si>
+    <t>01/09/2020</t>
+  </si>
+  <si>
+    <t>CG5117</t>
   </si>
 </sst>
 </file>
@@ -2890,6 +2930,750 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9D5C48-D696-4D79-973E-D2C676FE265C}">
+  <dimension ref="A2:L58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="57.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="67" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="51.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>545</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="33" t="s">
+        <v>546</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>545</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>583</v>
+      </c>
+      <c r="E9" s="37"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>544</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>584</v>
+      </c>
+      <c r="E10" s="37"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="33" t="s">
+        <v>544</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>545</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>585</v>
+      </c>
+      <c r="E11" s="37"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="37"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
+        <v>549</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>662</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>661</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>587</v>
+      </c>
+      <c r="E13" s="37"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>549</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>661</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>662</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>549</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>662</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>661</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>550</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>550</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="49" t="s">
+        <v>543</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>658</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>657</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="49" t="s">
+        <v>656</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>658</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>658</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>657</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="49" t="s">
+        <v>656</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>657</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49" t="s">
+        <v>656</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>658</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>543</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="49" t="s">
+        <v>656</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>658</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>657</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="48"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="42" t="s">
+        <v>543</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="42" t="s">
+        <v>552</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>555</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
+        <v>552</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E31" s="47" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="42" t="s">
+        <v>552</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
+        <v>552</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>558</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>559</v>
+      </c>
+      <c r="E36" s="47" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>558</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>559</v>
+      </c>
+      <c r="E37" s="47" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>559</v>
+      </c>
+      <c r="E38" s="47" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>558</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="E39" s="47" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>558</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>559</v>
+      </c>
+      <c r="E40" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="33"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="38"/>
+      <c r="F41" s="47"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>562</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>561</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="33" t="s">
+        <v>560</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>655</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>561</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="33" t="s">
+        <v>560</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>562</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>655</v>
+      </c>
+      <c r="D46" s="47" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
+        <v>560</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>562</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>561</v>
+      </c>
+      <c r="D47" s="47" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="43" t="s">
+        <v>543</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>564</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>565</v>
+      </c>
+      <c r="D49" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="43" t="s">
+        <v>563</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>565</v>
+      </c>
+      <c r="D50" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="43" t="s">
+        <v>563</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>564</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="D51" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="43" t="s">
+        <v>563</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>564</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>565</v>
+      </c>
+      <c r="D52" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="45" t="s">
+        <v>543</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>569</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>567</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>568</v>
+      </c>
+      <c r="E54" s="46" t="s">
+        <v>570</v>
+      </c>
+      <c r="F54" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="45" t="s">
+        <v>566</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>543</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>567</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>568</v>
+      </c>
+      <c r="E55" s="46" t="s">
+        <v>570</v>
+      </c>
+      <c r="F55" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="45" t="s">
+        <v>566</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>569</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>567</v>
+      </c>
+      <c r="D56" s="45" t="s">
+        <v>543</v>
+      </c>
+      <c r="E56" s="46" t="s">
+        <v>570</v>
+      </c>
+      <c r="F56" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="45" t="s">
+        <v>566</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>569</v>
+      </c>
+      <c r="C57" s="41" t="s">
+        <v>567</v>
+      </c>
+      <c r="D57" s="41" t="s">
+        <v>568</v>
+      </c>
+      <c r="E57" s="46" t="s">
+        <v>549</v>
+      </c>
+      <c r="F57" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="45" t="s">
+        <v>566</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>569</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>567</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>568</v>
+      </c>
+      <c r="E58" s="46" t="s">
+        <v>570</v>
+      </c>
+      <c r="F58" t="s">
+        <v>571</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316E4CD8-C7B3-4FDA-A48F-3A075489B33D}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -2937,7 +3721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA826F97-EC1C-45B8-B3B7-55F36E05E22E}">
   <dimension ref="A1:J32"/>
   <sheetViews>
@@ -7871,8 +8655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06FC4A3-CF87-4C6E-8D77-7DC31AD6245D}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8618,6 +9402,77 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7214EA-8B03-4FDC-BAB9-AA665F699463}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="E1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>751</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>752</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="I1" s="63" t="s">
+        <v>710</v>
+      </c>
+      <c r="J1" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="K1" s="63" t="s">
+        <v>755</v>
+      </c>
+      <c r="L1" s="62" t="s">
+        <v>642</v>
+      </c>
+      <c r="M1" s="63" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>760</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2973B0-CDDC-449E-8E3C-85328113B7FE}">
   <dimension ref="A1:H25"/>
   <sheetViews>
@@ -9286,748 +10141,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9D5C48-D696-4D79-973E-D2C676FE265C}">
-  <dimension ref="A2:L58"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="57.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="67" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="51.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>547</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>545</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="33" t="s">
-        <v>546</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>545</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>583</v>
-      </c>
-      <c r="E9" s="37"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
-        <v>544</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>547</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>584</v>
-      </c>
-      <c r="E10" s="37"/>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="33" t="s">
-        <v>544</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>547</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>545</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>585</v>
-      </c>
-      <c r="E11" s="37"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="37"/>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
-        <v>549</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>662</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>661</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>587</v>
-      </c>
-      <c r="E13" s="37"/>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
-        <v>548</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>549</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>661</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>548</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>662</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>549</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
-        <v>548</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>662</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>661</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>551</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
-        <v>550</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
-        <v>550</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>551</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="49" t="s">
-        <v>543</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>659</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>658</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>657</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="s">
-        <v>656</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>658</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>658</v>
-      </c>
-      <c r="D23" s="49" t="s">
-        <v>657</v>
-      </c>
-      <c r="E23" s="47" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="s">
-        <v>656</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>659</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>659</v>
-      </c>
-      <c r="D24" s="49" t="s">
-        <v>657</v>
-      </c>
-      <c r="E24" s="47" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
-        <v>656</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>659</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>658</v>
-      </c>
-      <c r="D25" s="49" t="s">
-        <v>543</v>
-      </c>
-      <c r="E25" s="47" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="49" t="s">
-        <v>656</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>659</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>658</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>657</v>
-      </c>
-      <c r="E26" s="47" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
-        <v>543</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="E29" s="47" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
-        <v>552</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>555</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="E30" s="47" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
-        <v>552</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="E31" s="47" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
-        <v>552</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="E32" s="47" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
-        <v>552</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="E33" s="47" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>557</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>558</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>559</v>
-      </c>
-      <c r="E36" s="47" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
-        <v>556</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>558</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>559</v>
-      </c>
-      <c r="E37" s="47" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
-        <v>556</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>557</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>559</v>
-      </c>
-      <c r="E38" s="47" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
-        <v>556</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>557</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>558</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="E39" s="47" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
-        <v>556</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>557</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>558</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>559</v>
-      </c>
-      <c r="E40" s="47" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="38"/>
-      <c r="F41" s="47"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>562</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>561</v>
-      </c>
-      <c r="D44" s="47" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="B45" s="39" t="s">
-        <v>655</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>561</v>
-      </c>
-      <c r="D45" s="47" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="B46" s="39" t="s">
-        <v>562</v>
-      </c>
-      <c r="C46" s="39" t="s">
-        <v>655</v>
-      </c>
-      <c r="D46" s="47" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>562</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>561</v>
-      </c>
-      <c r="D47" s="47" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="43" t="s">
-        <v>543</v>
-      </c>
-      <c r="B49" s="41" t="s">
-        <v>564</v>
-      </c>
-      <c r="C49" s="41" t="s">
-        <v>565</v>
-      </c>
-      <c r="D49" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="43" t="s">
-        <v>563</v>
-      </c>
-      <c r="B50" s="40" t="s">
-        <v>543</v>
-      </c>
-      <c r="C50" s="41" t="s">
-        <v>565</v>
-      </c>
-      <c r="D50" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="43" t="s">
-        <v>563</v>
-      </c>
-      <c r="B51" s="41" t="s">
-        <v>564</v>
-      </c>
-      <c r="C51" s="40" t="s">
-        <v>543</v>
-      </c>
-      <c r="D51" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="43" t="s">
-        <v>563</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>564</v>
-      </c>
-      <c r="C52" s="41" t="s">
-        <v>565</v>
-      </c>
-      <c r="D52" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="45" t="s">
-        <v>543</v>
-      </c>
-      <c r="B54" s="38" t="s">
-        <v>569</v>
-      </c>
-      <c r="C54" s="41" t="s">
-        <v>567</v>
-      </c>
-      <c r="D54" s="41" t="s">
-        <v>568</v>
-      </c>
-      <c r="E54" s="46" t="s">
-        <v>570</v>
-      </c>
-      <c r="F54" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="45" t="s">
-        <v>566</v>
-      </c>
-      <c r="B55" s="45" t="s">
-        <v>543</v>
-      </c>
-      <c r="C55" s="41" t="s">
-        <v>567</v>
-      </c>
-      <c r="D55" s="41" t="s">
-        <v>568</v>
-      </c>
-      <c r="E55" s="46" t="s">
-        <v>570</v>
-      </c>
-      <c r="F55" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="45" t="s">
-        <v>566</v>
-      </c>
-      <c r="B56" s="38" t="s">
-        <v>569</v>
-      </c>
-      <c r="C56" s="41" t="s">
-        <v>567</v>
-      </c>
-      <c r="D56" s="45" t="s">
-        <v>543</v>
-      </c>
-      <c r="E56" s="46" t="s">
-        <v>570</v>
-      </c>
-      <c r="F56" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="45" t="s">
-        <v>566</v>
-      </c>
-      <c r="B57" s="38" t="s">
-        <v>569</v>
-      </c>
-      <c r="C57" s="41" t="s">
-        <v>567</v>
-      </c>
-      <c r="D57" s="41" t="s">
-        <v>568</v>
-      </c>
-      <c r="E57" s="46" t="s">
-        <v>549</v>
-      </c>
-      <c r="F57" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="45" t="s">
-        <v>566</v>
-      </c>
-      <c r="B58" s="38" t="s">
-        <v>569</v>
-      </c>
-      <c r="C58" s="41" t="s">
-        <v>567</v>
-      </c>
-      <c r="D58" s="41" t="s">
-        <v>568</v>
-      </c>
-      <c r="E58" s="46" t="s">
-        <v>570</v>
-      </c>
-      <c r="F58" t="s">
-        <v>571</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AA6622-535A-428A-8CCA-79169F731F01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F62547F-3449-49CB-9850-E9B2CFB82321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4300,7 +4300,7 @@
     <t>CG0005</t>
   </si>
   <si>
-    <t>HF SMG GTM</t>
+    <t>HF B Types</t>
   </si>
 </sst>
 </file>
@@ -11410,7 +11410,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HFIC/TestData/TestData.xlsx
+++ b/HFIC/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F62547F-3449-49CB-9850-E9B2CFB82321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A51F5D6-77F6-4A65-AD35-D8BB2034CA0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4300,7 +4300,7 @@
     <t>CG0005</t>
   </si>
   <si>
-    <t>HF B Types</t>
+    <t>HF AB Types</t>
   </si>
 </sst>
 </file>
@@ -11410,7 +11410,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
